--- a/VA_result_AGV.xlsx
+++ b/VA_result_AGV.xlsx
@@ -12,12 +12,13 @@
     <sheet name="RESIDUS" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="CALAGE" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="PREVISION" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="VATRIM" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -485,6 +486,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ut_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VA_trim</t>
   </si>
 </sst>
 </file>
@@ -8108,4 +8112,826 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="n">
+        <v>132947.420754456</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="n">
+        <v>212179.739504027</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="n">
+        <v>212276.33848145</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="n">
+        <v>227150.506767315</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>141393.103621597</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="n">
+        <v>226795.429710672</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="n">
+        <v>226141.013334937</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="n">
+        <v>239206.415486733</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>151583.382586458</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="n">
+        <v>241196.029205423</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="n">
+        <v>240580.767817142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="n">
+        <v>257163.48842593</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="n">
+        <v>162331.055571178</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="n">
+        <v>255636.177730075</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="n">
+        <v>254761.346080887</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="n">
+        <v>268794.802071233</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="n">
+        <v>172152.944149418</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="n">
+        <v>262959.217922613</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="n">
+        <v>259489.313219138</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="n">
+        <v>272553.853557768</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="n">
+        <v>165954.121361025</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="n">
+        <v>254451.023334684</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="n">
+        <v>251850.110041742</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="n">
+        <v>265605.637329344</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="n">
+        <v>165394.611610315</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="n">
+        <v>260338.040947399</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" t="n">
+        <v>259586.928674046</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="n">
+        <v>276279.52476645</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="n">
+        <v>169633.912671073</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="n">
+        <v>266450.157233896</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" t="n">
+        <v>266503.51816605</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="n">
+        <v>283239.162626905</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" t="n">
+        <v>181107.650782012</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="n">
+        <v>276683.096726239</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" t="n">
+        <v>274530.816452221</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" t="n">
+        <v>288409.591236635</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" t="n">
+        <v>181453.27855698</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" t="n">
+        <v>270137.047097937</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" t="n">
+        <v>263887.320242544</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" t="n">
+        <v>272851.771650393</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B42" t="n">
+        <v>169545.058154116</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="n">
+        <v>270276.397914076</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="n">
+        <v>268450.180533682</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="n">
+        <v>288675.05677442</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" t="n">
+        <v>171154.950219043</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="n">
+        <v>288532.41522993</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="n">
+        <v>289609.170758743</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="n">
+        <v>308698.106163459</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" t="n">
+        <v>183405.31431924</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="n">
+        <v>296357.683513839</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="n">
+        <v>291988.326762593</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="n">
+        <v>307280.861394363</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54" t="n">
+        <v>168979.639599388</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="n">
+        <v>274326.632053725</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="n">
+        <v>270052.111531832</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="n">
+        <v>285782.401860167</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" t="n">
+        <v>153859.834863015</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" t="n">
+        <v>262279.881650588</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="B60" t="n">
+        <v>262568.888808087</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" t="n">
+        <v>283600.019780695</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" t="n">
+        <v>158488.861968795</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" t="n">
+        <v>264177.013235019</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>78</v>
+      </c>
+      <c r="B64" t="n">
+        <v>257066.434451383</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" t="n">
+        <v>263471.781077842</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>19</v>
+      </c>
+      <c r="B66" t="n">
+        <v>147564.46110679</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="n">
+        <v>270161.370594591</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="n">
+        <v>270234.255710547</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="n">
+        <v>302423.029869192</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B70" t="n">
+        <v>174444.054917061</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" t="n">
+        <v>338611.306219553</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" t="n">
+        <v>342392.336499563</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" t="n">
+        <v>365941.859530217</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>21</v>
+      </c>
+      <c r="B74" t="n">
+        <v>203613.060426295</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" t="n">
+        <v>348369.318706765</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" t="n">
+        <v>341264.200852872</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" t="n">
+        <v>362592.580291987</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>22</v>
+      </c>
+      <c r="B78" t="n">
+        <v>197030.448484361</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>89</v>
+      </c>
+      <c r="B79" t="n">
+        <v>347853.535772949</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" t="n">
+        <v>345871.87410849</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>91</v>
+      </c>
+      <c r="B81" t="n">
+        <v>371745.201973878</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" t="n">
+        <v>211599.878486715</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="n">
+        <v>374923.023234774</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>93</v>
+      </c>
+      <c r="B84" t="n">
+        <v>374356.279947385</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="n">
+        <v>402250.239172714</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" t="n">
+        <v>218161.644542643</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>95</v>
+      </c>
+      <c r="B87" t="n">
+        <v>374051.031218892</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>96</v>
+      </c>
+      <c r="B88" t="n">
+        <v>370119.002327364</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" t="n">
+        <v>392365.714838474</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" t="n">
+        <v>224956.232518354</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" t="n">
+        <v>383870.997190286</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="n">
+        <v>379616.057817982</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>100</v>
+      </c>
+      <c r="B93" t="n">
+        <v>405535.752239579</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" t="n">
+        <v>225694.858612034</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="n">
+        <v>391619.225768974</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="n">
+        <v>389280.648419773</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>103</v>
+      </c>
+      <c r="B97" t="n">
+        <v>415879.343420858</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" t="n">
+        <v>232721.751457131</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" t="n">
+        <v>403904.474216792</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>106</v>
+      </c>
+      <c r="B100" t="n">
+        <v>401534.97246494</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>107</v>
+      </c>
+      <c r="B101" t="n">
+        <v>429647.176254566</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/VA_result_AGV.xlsx
+++ b/VA_result_AGV.xlsx
@@ -8135,7 +8135,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>132947.420754456</v>
+        <v>137904.648850625</v>
       </c>
     </row>
     <row r="3">
@@ -8143,7 +8143,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>212179.739504027</v>
+        <v>210458.463730442</v>
       </c>
     </row>
     <row r="4">
@@ -8151,7 +8151,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>212276.33848145</v>
+        <v>210980.331756006</v>
       </c>
     </row>
     <row r="5">
@@ -8159,7 +8159,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>227150.506767315</v>
+        <v>225210.561170175</v>
       </c>
     </row>
     <row r="6">
@@ -8167,7 +8167,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>141393.103621597</v>
+        <v>146427.80203678</v>
       </c>
     </row>
     <row r="7">
@@ -8175,7 +8175,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>226795.429710672</v>
+        <v>225062.905344404</v>
       </c>
     </row>
     <row r="8">
@@ -8183,7 +8183,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>226141.013334937</v>
+        <v>224928.218442242</v>
       </c>
     </row>
     <row r="9">
@@ -8191,7 +8191,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>239206.415486733</v>
+        <v>237117.07187975</v>
       </c>
     </row>
     <row r="10">
@@ -8199,7 +8199,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>151583.382586458</v>
+        <v>157644.128386562</v>
       </c>
     </row>
     <row r="11">
@@ -8207,7 +8207,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>241196.029205423</v>
+        <v>239530.243511537</v>
       </c>
     </row>
     <row r="12">
@@ -8215,7 +8215,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>240580.767817142</v>
+        <v>239054.768312878</v>
       </c>
     </row>
     <row r="13">
@@ -8223,7 +8223,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>257163.48842593</v>
+        <v>254294.598531707</v>
       </c>
     </row>
     <row r="14">
@@ -8231,7 +8231,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>162331.055571178</v>
+        <v>168442.201770023</v>
       </c>
     </row>
     <row r="15">
@@ -8239,7 +8239,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>255636.177730075</v>
+        <v>253771.419097488</v>
       </c>
     </row>
     <row r="16">
@@ -8247,7 +8247,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>254761.346080887</v>
+        <v>253146.835079821</v>
       </c>
     </row>
     <row r="17">
@@ -8255,7 +8255,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>268794.802071233</v>
+        <v>266163.02640468</v>
       </c>
     </row>
     <row r="18">
@@ -8263,7 +8263,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>172152.944149418</v>
+        <v>178275.815981421</v>
       </c>
     </row>
     <row r="19">
@@ -8271,7 +8271,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>262959.217922613</v>
+        <v>261247.990768206</v>
       </c>
     </row>
     <row r="20">
@@ -8279,7 +8279,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>259489.313219138</v>
+        <v>257983.205635213</v>
       </c>
     </row>
     <row r="21">
@@ -8287,7 +8287,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>272553.853557768</v>
+        <v>269648.511466152</v>
       </c>
     </row>
     <row r="22">
@@ -8295,7 +8295,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>165954.121361025</v>
+        <v>172028.648307968</v>
       </c>
     </row>
     <row r="23">
@@ -8303,7 +8303,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>254451.023334684</v>
+        <v>252607.990146722</v>
       </c>
     </row>
     <row r="24">
@@ -8311,7 +8311,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>251850.110041742</v>
+        <v>250229.249114979</v>
       </c>
     </row>
     <row r="25">
@@ -8319,7 +8319,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>265605.637329344</v>
+        <v>262995.235315836</v>
       </c>
     </row>
     <row r="26">
@@ -8327,7 +8327,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>165394.611610315</v>
+        <v>171658.286377613</v>
       </c>
     </row>
     <row r="27">
@@ -8335,7 +8335,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>260338.040947399</v>
+        <v>258612.323467944</v>
       </c>
     </row>
     <row r="28">
@@ -8343,7 +8343,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>259586.928674046</v>
+        <v>258053.811110823</v>
       </c>
     </row>
     <row r="29">
@@ -8351,7 +8351,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>276279.52476645</v>
+        <v>273274.892889381</v>
       </c>
     </row>
     <row r="30">
@@ -8359,7 +8359,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>169633.912671073</v>
+        <v>176211.878336385</v>
       </c>
     </row>
     <row r="31">
@@ -8367,7 +8367,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>266450.157233896</v>
+        <v>264579.675571494</v>
       </c>
     </row>
     <row r="32">
@@ -8375,7 +8375,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>266503.51816605</v>
+        <v>264747.530374998</v>
       </c>
     </row>
     <row r="33">
@@ -8383,7 +8383,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>283239.162626905</v>
+        <v>280287.854512593</v>
       </c>
     </row>
     <row r="34">
@@ -8391,7 +8391,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>181107.650782012</v>
+        <v>187459.159705524</v>
       </c>
     </row>
     <row r="35">
@@ -8399,7 +8399,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>276683.096726239</v>
+        <v>274916.287713791</v>
       </c>
     </row>
     <row r="36">
@@ -8407,7 +8407,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>274530.816452221</v>
+        <v>272946.719365582</v>
       </c>
     </row>
     <row r="37">
@@ -8415,7 +8415,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>288409.591236635</v>
+        <v>285409.227463171</v>
       </c>
     </row>
     <row r="38">
@@ -8423,7 +8423,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>181453.27855698</v>
+        <v>187354.35846069</v>
       </c>
     </row>
     <row r="39">
@@ -8431,7 +8431,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>270137.047097937</v>
+        <v>268079.566508662</v>
       </c>
     </row>
     <row r="40">
@@ -8439,7 +8439,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>263887.320242544</v>
+        <v>262304.555021472</v>
       </c>
     </row>
     <row r="41">
@@ -8447,7 +8447,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>272851.771650393</v>
+        <v>270591.251679394</v>
       </c>
     </row>
     <row r="42">
@@ -8455,7 +8455,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>169545.058154116</v>
+        <v>176262.988592942</v>
       </c>
     </row>
     <row r="43">
@@ -8463,7 +8463,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>270276.397914076</v>
+        <v>268424.615578619</v>
       </c>
     </row>
     <row r="44">
@@ -8471,7 +8471,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>268450.180533682</v>
+        <v>266876.444841363</v>
       </c>
     </row>
     <row r="45">
@@ -8479,7 +8479,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>288675.05677442</v>
+        <v>285382.931766757</v>
       </c>
     </row>
     <row r="46">
@@ -8487,7 +8487,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>171154.950219043</v>
+        <v>179271.328487933</v>
       </c>
     </row>
     <row r="47">
@@ -8495,7 +8495,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>288532.41522993</v>
+        <v>286422.385679443</v>
       </c>
     </row>
     <row r="48">
@@ -8503,7 +8503,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>289609.170758743</v>
+        <v>287418.184746405</v>
       </c>
     </row>
     <row r="49">
@@ -8511,7 +8511,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>308698.106163459</v>
+        <v>304882.863235226</v>
       </c>
     </row>
     <row r="50">
@@ -8519,7 +8519,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>183405.31431924</v>
+        <v>191338.894130187</v>
       </c>
     </row>
     <row r="51">
@@ -8527,7 +8527,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>296357.683513839</v>
+        <v>294318.447957792</v>
       </c>
     </row>
     <row r="52">
@@ -8535,7 +8535,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>291988.326762593</v>
+        <v>289982.263771679</v>
       </c>
     </row>
     <row r="53">
@@ -8543,7 +8543,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>307280.861394363</v>
+        <v>303392.712708047</v>
       </c>
     </row>
     <row r="54">
@@ -8551,7 +8551,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>168979.639599388</v>
+        <v>176585.389154963</v>
       </c>
     </row>
     <row r="55">
@@ -8559,7 +8559,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>274326.632053725</v>
+        <v>272232.85182302</v>
       </c>
     </row>
     <row r="56">
@@ -8567,7 +8567,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>270052.111531832</v>
+        <v>268022.616864661</v>
       </c>
     </row>
     <row r="57">
@@ -8575,7 +8575,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>285782.401860167</v>
+        <v>282300.072906288</v>
       </c>
     </row>
     <row r="58">
@@ -8583,7 +8583,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>153859.834863015</v>
+        <v>161423.829949217</v>
       </c>
     </row>
     <row r="59">
@@ -8591,7 +8591,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>262279.881650588</v>
+        <v>260457.531171536</v>
       </c>
     </row>
     <row r="60">
@@ -8599,7 +8599,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>262568.888808087</v>
+        <v>260679.575216219</v>
       </c>
     </row>
     <row r="61">
@@ -8607,7 +8607,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>283600.019780695</v>
+        <v>279747.748574731</v>
       </c>
     </row>
     <row r="62">
@@ -8615,7 +8615,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>158488.861968795</v>
+        <v>165259.115938263</v>
       </c>
     </row>
     <row r="63">
@@ -8623,7 +8623,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>264177.013235019</v>
+        <v>261643.315226561</v>
       </c>
     </row>
     <row r="64">
@@ -8631,7 +8631,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>257066.434451383</v>
+        <v>255162.649327431</v>
       </c>
     </row>
     <row r="65">
@@ -8639,7 +8639,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>263471.781077842</v>
+        <v>261138.996297799</v>
       </c>
     </row>
     <row r="66">
@@ -8647,7 +8647,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>147564.46110679</v>
+        <v>155359.7141283</v>
       </c>
     </row>
     <row r="67">
@@ -8655,7 +8655,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>270161.370594591</v>
+        <v>267749.772786758</v>
       </c>
     </row>
     <row r="68">
@@ -8663,7 +8663,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>270234.255710547</v>
+        <v>268495.279737862</v>
       </c>
     </row>
     <row r="69">
@@ -8671,7 +8671,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>302423.029869192</v>
+        <v>298778.326487255</v>
       </c>
     </row>
     <row r="70">
@@ -8679,7 +8679,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>174444.054917061</v>
+        <v>185414.877275438</v>
       </c>
     </row>
     <row r="71">
@@ -8687,7 +8687,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>338611.306219553</v>
+        <v>335908.496258</v>
       </c>
     </row>
     <row r="72">
@@ -8695,7 +8695,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>342392.336499563</v>
+        <v>339475.03176023</v>
       </c>
     </row>
     <row r="73">
@@ -8703,7 +8703,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>365941.859530217</v>
+        <v>360590.868087797</v>
       </c>
     </row>
     <row r="74">
@@ -8711,7 +8711,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>203613.060426295</v>
+        <v>213525.162319122</v>
       </c>
     </row>
     <row r="75">
@@ -8719,7 +8719,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>348369.318706765</v>
+        <v>345206.84445403</v>
       </c>
     </row>
     <row r="76">
@@ -8727,7 +8727,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>341264.200852872</v>
+        <v>338649.549913408</v>
       </c>
     </row>
     <row r="77">
@@ -8735,7 +8735,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>362592.580291987</v>
+        <v>358457.513279751</v>
       </c>
     </row>
     <row r="78">
@@ -8743,7 +8743,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>197030.448484361</v>
+        <v>206371.271645858</v>
       </c>
     </row>
     <row r="79">
@@ -8751,7 +8751,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>347853.535772949</v>
+        <v>343883.213439199</v>
       </c>
     </row>
     <row r="80">
@@ -8759,7 +8759,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>345871.87410849</v>
+        <v>343528.820894054</v>
       </c>
     </row>
     <row r="81">
@@ -8767,7 +8767,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>371745.201973878</v>
+        <v>368717.739774364</v>
       </c>
     </row>
     <row r="82">
@@ -8775,7 +8775,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>211599.878486715</v>
+        <v>228022.528242696</v>
       </c>
     </row>
     <row r="83">
@@ -8783,7 +8783,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>374923.023234774</v>
+        <v>375058.188932663</v>
       </c>
     </row>
     <row r="84">
@@ -8791,7 +8791,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>374356.279947385</v>
+        <v>370765.914077571</v>
       </c>
     </row>
     <row r="85">
@@ -8799,7 +8799,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>402250.239172714</v>
+        <v>389282.772247919</v>
       </c>
     </row>
     <row r="86">
@@ -8807,7 +8807,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>218161.644542643</v>
+        <v>226300.111224402</v>
       </c>
     </row>
     <row r="87">
@@ -8815,7 +8815,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>374051.031218892</v>
+        <v>371019.114262162</v>
       </c>
     </row>
     <row r="88">
@@ -8823,7 +8823,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>370119.002327364</v>
+        <v>366277.50890152</v>
       </c>
     </row>
     <row r="89">
@@ -8831,7 +8831,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>392365.714838474</v>
+        <v>391100.715725791</v>
       </c>
     </row>
     <row r="90">
@@ -8839,7 +8839,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>224956.232518354</v>
+        <v>223888.619538789</v>
       </c>
     </row>
     <row r="91">
@@ -8847,7 +8847,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>383870.997190286</v>
+        <v>382235.763584194</v>
       </c>
     </row>
     <row r="92">
@@ -8855,7 +8855,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>379616.057817982</v>
+        <v>381144.834408552</v>
       </c>
     </row>
     <row r="93">
@@ -8863,7 +8863,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>405535.752239579</v>
+        <v>406710.03732149</v>
       </c>
     </row>
     <row r="94">
@@ -8871,7 +8871,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>225694.858612034</v>
+        <v>232115.205298561</v>
       </c>
     </row>
     <row r="95">
@@ -8879,7 +8879,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>391619.225768974</v>
+        <v>390490.496211642</v>
       </c>
     </row>
     <row r="96">
@@ -8887,7 +8887,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>389280.648419773</v>
+        <v>387354.843533586</v>
       </c>
     </row>
     <row r="97">
@@ -8895,7 +8895,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>415879.343420858</v>
+        <v>412513.741715984</v>
       </c>
     </row>
     <row r="98">
@@ -8903,7 +8903,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>232721.751457131</v>
+        <v>235310.28195268</v>
       </c>
     </row>
     <row r="99">
@@ -8911,7 +8911,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>403904.474216792</v>
+        <v>398831.485340709</v>
       </c>
     </row>
     <row r="100">
@@ -8919,7 +8919,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>401534.97246494</v>
+        <v>395726.072297189</v>
       </c>
     </row>
     <row r="101">
@@ -8927,7 +8927,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>429647.176254566</v>
+        <v>422246.520517208</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_AGV.xlsx
+++ b/VA_result_AGV.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -342,6 +342,54 @@
   </si>
   <si>
     <t xml:space="preserve">2021-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2025-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">VA_CST</t>
@@ -2209,6 +2257,182 @@
         <v>144.889144445401</v>
       </c>
     </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" t="n">
+        <v>652337.430519783</v>
+      </c>
+      <c r="C106" t="n">
+        <v>65.2337430519783</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1391602.35233014</v>
+      </c>
+      <c r="C107" t="n">
+        <v>139.160235233014</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1377764.88603498</v>
+      </c>
+      <c r="C108" t="n">
+        <v>137.776488603498</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1497787.69083112</v>
+      </c>
+      <c r="C109" t="n">
+        <v>149.778769083112</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" t="n">
+        <v>674382.277702118</v>
+      </c>
+      <c r="C110" t="n">
+        <v>67.4382277702118</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1438670.81950154</v>
+      </c>
+      <c r="C111" t="n">
+        <v>143.867081950154</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1424390.5208906</v>
+      </c>
+      <c r="C112" t="n">
+        <v>142.43905208906</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>115</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1548491.52084353</v>
+      </c>
+      <c r="C113" t="n">
+        <v>154.849152084353</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" t="n">
+        <v>697216.302293026</v>
+      </c>
+      <c r="C114" t="n">
+        <v>69.7216302293026</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1487388.90415494</v>
+      </c>
+      <c r="C115" t="n">
+        <v>148.738890415494</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1472628.57410196</v>
+      </c>
+      <c r="C116" t="n">
+        <v>147.262857410196</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1600934.6945855</v>
+      </c>
+      <c r="C117" t="n">
+        <v>160.09346945855</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" t="n">
+        <v>720829.756119316</v>
+      </c>
+      <c r="C118" t="n">
+        <v>72.0829756119316</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>121</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1537764.91054443</v>
+      </c>
+      <c r="C119" t="n">
+        <v>153.776491054443</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1522505.17145261</v>
+      </c>
+      <c r="C120" t="n">
+        <v>152.250517145261</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1655157.23856895</v>
+      </c>
+      <c r="C121" t="n">
+        <v>165.515723856895</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2228,19 +2452,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2">
@@ -2274,7 +2498,7 @@
         <v>-6.82762198783021</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="4">
@@ -2294,7 +2518,7 @@
         <v>6.24329724991903</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5">
@@ -2314,7 +2538,7 @@
         <v>7.6663847391887</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6">
@@ -2334,7 +2558,7 @@
         <v>1.54743982776746</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7">
@@ -2354,7 +2578,7 @@
         <v>1.5788753246931</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8">
@@ -2374,7 +2598,7 @@
         <v>-3.02889206895451</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9">
@@ -2394,7 +2618,7 @@
         <v>5.28968892387627</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -2414,7 +2638,7 @@
         <v>0.271335430596431</v>
       </c>
       <c r="F10" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11">
@@ -2434,7 +2658,7 @@
         <v>0.276483893436885</v>
       </c>
       <c r="F11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12">
@@ -2454,7 +2678,7 @@
         <v>-3.17435401271137</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
@@ -2474,7 +2698,7 @@
         <v>13.12875360473</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14">
@@ -2494,7 +2718,7 @@
         <v>7.78774190127929</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15">
@@ -2514,7 +2738,7 @@
         <v>1.98837980725486</v>
       </c>
       <c r="F15" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16">
@@ -2534,7 +2758,7 @@
         <v>-5.37090609171479</v>
       </c>
       <c r="F16" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17">
@@ -2554,7 +2778,7 @@
         <v>-0.58101303558894</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18">
@@ -2574,7 +2798,7 @@
         <v>-1.98534113567506</v>
       </c>
       <c r="F18" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -2594,7 +2818,7 @@
         <v>22.4243776501392</v>
       </c>
       <c r="F19" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20">
@@ -2614,7 +2838,7 @@
         <v>16.4994671431798</v>
       </c>
       <c r="F20" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21">
@@ -2634,7 +2858,7 @@
         <v>0.0777316922210947</v>
       </c>
       <c r="F21" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22">
@@ -2654,7 +2878,7 @@
         <v>-0.725733953069041</v>
       </c>
       <c r="F22" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23">
@@ -2674,7 +2898,7 @@
         <v>6.56474270928626</v>
       </c>
       <c r="F23" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24">
@@ -2694,7 +2918,7 @@
         <v>2.80718634633208</v>
       </c>
       <c r="F24" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25">
@@ -2714,7 +2938,7 @@
         <v>3.94848100525615</v>
       </c>
       <c r="F25" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26">
@@ -2734,7 +2958,7 @@
         <v>1.99430666623375</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27">
@@ -2754,7 +2978,87 @@
         <v>3.18971591250974</v>
       </c>
       <c r="F27" t="s">
-        <v>113</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1488686.75033894</v>
+      </c>
+      <c r="C28" t="n">
+        <v>122.987308992901</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.5185612948861</v>
+      </c>
+      <c r="E28" t="n">
+        <v>3.36085799827193</v>
+      </c>
+      <c r="F28" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1526741.06948686</v>
+      </c>
+      <c r="C29" t="n">
+        <v>127.148378473445</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.55623415330679</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3.38333240609754</v>
+      </c>
+      <c r="F29" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1566119.30129854</v>
+      </c>
+      <c r="C30" t="n">
+        <v>131.454211878386</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.57923446212907</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3.38646348198632</v>
+      </c>
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1606836.24024701</v>
+      </c>
+      <c r="C31" t="n">
+        <v>135.906426917133</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.59986189524031</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.38689417031837</v>
+      </c>
+      <c r="F31" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2776,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
@@ -3290,34 +3594,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
@@ -3352,7 +3656,7 @@
         <v>784554.005507248</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
@@ -3387,7 +3691,7 @@
         <v>784554.005507248</v>
       </c>
       <c r="K3" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
@@ -3422,7 +3726,7 @@
         <v>784554.005507248</v>
       </c>
       <c r="K4" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
@@ -3457,7 +3761,7 @@
         <v>784554.005507248</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6">
@@ -3492,7 +3796,7 @@
         <v>833535.997703176</v>
       </c>
       <c r="K6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
@@ -3527,7 +3831,7 @@
         <v>833535.997703176</v>
       </c>
       <c r="K7" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -3562,7 +3866,7 @@
         <v>833535.997703176</v>
       </c>
       <c r="K8" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
@@ -3597,7 +3901,7 @@
         <v>833535.997703176</v>
       </c>
       <c r="K9" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10">
@@ -3632,7 +3936,7 @@
         <v>890523.738742684</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11">
@@ -3667,7 +3971,7 @@
         <v>890523.738742684</v>
       </c>
       <c r="K11" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12">
@@ -3702,7 +4006,7 @@
         <v>890523.738742684</v>
       </c>
       <c r="K12" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13">
@@ -3737,7 +4041,7 @@
         <v>890523.738742684</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
@@ -3772,7 +4076,7 @@
         <v>941523.482352012</v>
       </c>
       <c r="K14" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
@@ -3807,7 +4111,7 @@
         <v>941523.482352012</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
@@ -3842,7 +4146,7 @@
         <v>941523.482352012</v>
       </c>
       <c r="K16" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
@@ -3877,7 +4181,7 @@
         <v>941523.482352012</v>
       </c>
       <c r="K17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
@@ -3912,7 +4216,7 @@
         <v>967155.523850992</v>
       </c>
       <c r="K18" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19">
@@ -3947,7 +4251,7 @@
         <v>967155.523850992</v>
       </c>
       <c r="K19" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
@@ -3982,7 +4286,7 @@
         <v>967155.523850992</v>
       </c>
       <c r="K20" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -4017,7 +4321,7 @@
         <v>967155.523850992</v>
       </c>
       <c r="K21" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -4052,7 +4356,7 @@
         <v>937861.122885505</v>
       </c>
       <c r="K22" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
@@ -4087,7 +4391,7 @@
         <v>937861.122885505</v>
       </c>
       <c r="K23" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
@@ -4122,7 +4426,7 @@
         <v>937861.122885505</v>
       </c>
       <c r="K24" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25">
@@ -4157,7 +4461,7 @@
         <v>937861.122885505</v>
       </c>
       <c r="K25" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26">
@@ -4192,7 +4496,7 @@
         <v>961599.313845761</v>
       </c>
       <c r="K26" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27">
@@ -4227,7 +4531,7 @@
         <v>961599.313845761</v>
       </c>
       <c r="K27" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28">
@@ -4262,7 +4566,7 @@
         <v>961599.313845761</v>
       </c>
       <c r="K28" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29">
@@ -4297,7 +4601,7 @@
         <v>961599.313845761</v>
       </c>
       <c r="K29" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30">
@@ -4332,7 +4636,7 @@
         <v>985826.93879547</v>
       </c>
       <c r="K30" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31">
@@ -4367,7 +4671,7 @@
         <v>985826.93879547</v>
       </c>
       <c r="K31" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32">
@@ -4402,7 +4706,7 @@
         <v>985826.93879547</v>
       </c>
       <c r="K32" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
@@ -4437,7 +4741,7 @@
         <v>985826.93879547</v>
       </c>
       <c r="K33" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34">
@@ -4472,7 +4776,7 @@
         <v>1020731.39424807</v>
       </c>
       <c r="K34" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
@@ -4507,7 +4811,7 @@
         <v>1020731.39424807</v>
       </c>
       <c r="K35" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36">
@@ -4542,7 +4846,7 @@
         <v>1020731.39424807</v>
       </c>
       <c r="K36" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37">
@@ -4577,7 +4881,7 @@
         <v>1020731.39424807</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38">
@@ -4612,7 +4916,7 @@
         <v>988329.731670218</v>
       </c>
       <c r="K38" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39">
@@ -4647,7 +4951,7 @@
         <v>988329.731670218</v>
       </c>
       <c r="K39" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40">
@@ -4682,7 +4986,7 @@
         <v>988329.731670218</v>
       </c>
       <c r="K40" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41">
@@ -4717,7 +5021,7 @@
         <v>988329.731670218</v>
       </c>
       <c r="K41" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42">
@@ -4752,7 +5056,7 @@
         <v>996946.98077968</v>
       </c>
       <c r="K42" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43">
@@ -4787,7 +5091,7 @@
         <v>996946.98077968</v>
       </c>
       <c r="K43" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44">
@@ -4822,7 +5126,7 @@
         <v>996946.98077968</v>
       </c>
       <c r="K44" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45">
@@ -4857,7 +5161,7 @@
         <v>996946.98077968</v>
       </c>
       <c r="K45" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46">
@@ -4892,7 +5196,7 @@
         <v>1057994.76214901</v>
       </c>
       <c r="K46" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47">
@@ -4927,7 +5231,7 @@
         <v>1057994.76214901</v>
       </c>
       <c r="K47" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48">
@@ -4962,7 +5266,7 @@
         <v>1057994.76214901</v>
       </c>
       <c r="K48" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49">
@@ -4997,7 +5301,7 @@
         <v>1057994.76214901</v>
       </c>
       <c r="K49" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50">
@@ -5032,7 +5336,7 @@
         <v>1079032.3185677</v>
       </c>
       <c r="K50" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51">
@@ -5067,7 +5371,7 @@
         <v>1079032.3185677</v>
       </c>
       <c r="K51" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52">
@@ -5102,7 +5406,7 @@
         <v>1079032.3185677</v>
       </c>
       <c r="K52" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53">
@@ -5137,7 +5441,7 @@
         <v>1079032.3185677</v>
       </c>
       <c r="K53" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54">
@@ -5172,7 +5476,7 @@
         <v>999140.930748932</v>
       </c>
       <c r="K54" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55">
@@ -5207,7 +5511,7 @@
         <v>999140.930748932</v>
       </c>
       <c r="K55" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56">
@@ -5242,7 +5546,7 @@
         <v>999140.930748932</v>
       </c>
       <c r="K56" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57">
@@ -5277,7 +5581,7 @@
         <v>999140.930748932</v>
       </c>
       <c r="K57" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58">
@@ -5312,7 +5616,7 @@
         <v>962308.684911704</v>
       </c>
       <c r="K58" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59">
@@ -5347,7 +5651,7 @@
         <v>962308.684911704</v>
       </c>
       <c r="K59" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60">
@@ -5382,7 +5686,7 @@
         <v>962308.684911704</v>
       </c>
       <c r="K60" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61">
@@ -5417,7 +5721,7 @@
         <v>962308.684911704</v>
       </c>
       <c r="K61" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62">
@@ -5452,7 +5756,7 @@
         <v>943204.076790054</v>
       </c>
       <c r="K62" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="63">
@@ -5487,7 +5791,7 @@
         <v>943204.076790054</v>
       </c>
       <c r="K63" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="64">
@@ -5522,7 +5826,7 @@
         <v>943204.076790054</v>
       </c>
       <c r="K64" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65">
@@ -5557,7 +5861,7 @@
         <v>943204.076790054</v>
       </c>
       <c r="K65" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66">
@@ -5592,7 +5896,7 @@
         <v>990383.093140176</v>
       </c>
       <c r="K66" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67">
@@ -5627,7 +5931,7 @@
         <v>990383.093140176</v>
       </c>
       <c r="K67" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="68">
@@ -5662,7 +5966,7 @@
         <v>990383.093140176</v>
       </c>
       <c r="K68" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69">
@@ -5697,7 +6001,7 @@
         <v>990383.093140176</v>
       </c>
       <c r="K69" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70">
@@ -5732,7 +6036,7 @@
         <v>1221389.27338147</v>
       </c>
       <c r="K70" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71">
@@ -5767,7 +6071,7 @@
         <v>1221389.27338147</v>
       </c>
       <c r="K71" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="72">
@@ -5802,7 +6106,7 @@
         <v>1221389.27338147</v>
       </c>
       <c r="K72" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="73">
@@ -5837,7 +6141,7 @@
         <v>1221389.27338147</v>
       </c>
       <c r="K73" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74">
@@ -5872,7 +6176,7 @@
         <v>1255839.06996631</v>
       </c>
       <c r="K74" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75">
@@ -5907,7 +6211,7 @@
         <v>1255839.06996631</v>
       </c>
       <c r="K75" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row r="76">
@@ -5942,7 +6246,7 @@
         <v>1255839.06996631</v>
       </c>
       <c r="K76" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="77">
@@ -5977,7 +6281,7 @@
         <v>1255839.06996631</v>
       </c>
       <c r="K77" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
     </row>
     <row r="78">
@@ -6012,7 +6316,7 @@
         <v>1262501.04575347</v>
       </c>
       <c r="K78" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79">
@@ -6047,7 +6351,7 @@
         <v>1262501.04575347</v>
       </c>
       <c r="K79" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80">
@@ -6082,7 +6386,7 @@
         <v>1262501.04575347</v>
       </c>
       <c r="K80" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81">
@@ -6117,7 +6421,7 @@
         <v>1262501.04575347</v>
       </c>
       <c r="K81" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
     </row>
     <row r="82">
@@ -6152,7 +6456,7 @@
         <v>1363129.40350085</v>
       </c>
       <c r="K82" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83">
@@ -6187,7 +6491,7 @@
         <v>1363129.40350085</v>
       </c>
       <c r="K83" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84">
@@ -6222,7 +6526,7 @@
         <v>1363129.40350085</v>
       </c>
       <c r="K84" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85">
@@ -6257,7 +6561,7 @@
         <v>1363129.40350085</v>
       </c>
       <c r="K85" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86">
@@ -6292,7 +6596,7 @@
         <v>1354697.45011388</v>
       </c>
       <c r="K86" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="87">
@@ -6327,7 +6631,7 @@
         <v>1354697.45011388</v>
       </c>
       <c r="K87" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="88">
@@ -6362,7 +6666,7 @@
         <v>1354697.45011388</v>
       </c>
       <c r="K88" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89">
@@ -6397,7 +6701,7 @@
         <v>1354697.45011388</v>
       </c>
       <c r="K89" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="90">
@@ -6432,7 +6736,7 @@
         <v>1393979.25485302</v>
       </c>
       <c r="K90" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91">
@@ -6467,7 +6771,7 @@
         <v>1393979.25485302</v>
       </c>
       <c r="K91" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="92">
@@ -6502,7 +6806,7 @@
         <v>1393979.25485302</v>
       </c>
       <c r="K92" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="93">
@@ -6537,7 +6841,7 @@
         <v>1393979.25485302</v>
       </c>
       <c r="K93" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="94">
@@ -6572,7 +6876,7 @@
         <v>1422474.28675977</v>
       </c>
       <c r="K94" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95">
@@ -6607,7 +6911,7 @@
         <v>1422474.28675977</v>
       </c>
       <c r="K95" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="96">
@@ -6642,7 +6946,7 @@
         <v>1422474.28675977</v>
       </c>
       <c r="K96" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="97">
@@ -6677,7 +6981,7 @@
         <v>1422474.28675977</v>
       </c>
       <c r="K97" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -6699,13 +7003,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2">
@@ -8105,6 +8409,230 @@
         <v>36.2222861113503</v>
       </c>
       <c r="D101" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="n">
+        <v>240127.952162735</v>
+      </c>
+      <c r="C102" t="n">
+        <v>16.3084357629946</v>
+      </c>
+      <c r="D102" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="n">
+        <v>409148.341037331</v>
+      </c>
+      <c r="C103" t="n">
+        <v>34.7900588082535</v>
+      </c>
+      <c r="D103" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="n">
+        <v>405984.639006779</v>
+      </c>
+      <c r="C104" t="n">
+        <v>34.4441221508745</v>
+      </c>
+      <c r="D104" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="n">
+        <v>433425.818132099</v>
+      </c>
+      <c r="C105" t="n">
+        <v>37.444692270778</v>
+      </c>
+      <c r="D105" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="n">
+        <v>245168.132663001</v>
+      </c>
+      <c r="C106" t="n">
+        <v>16.8595569425529</v>
+      </c>
+      <c r="D106" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="n">
+        <v>419909.74792995</v>
+      </c>
+      <c r="C107" t="n">
+        <v>35.9667704875385</v>
+      </c>
+      <c r="D107" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="n">
+        <v>416644.799799372</v>
+      </c>
+      <c r="C108" t="n">
+        <v>35.609763022265</v>
+      </c>
+      <c r="D108" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="n">
+        <v>445018.389094539</v>
+      </c>
+      <c r="C109" t="n">
+        <v>38.7122880210883</v>
+      </c>
+      <c r="D109" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="n">
+        <v>250388.745195888</v>
+      </c>
+      <c r="C110" t="n">
+        <v>17.4304075573257</v>
+      </c>
+      <c r="D110" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="n">
+        <v>431048.311887751</v>
+      </c>
+      <c r="C111" t="n">
+        <v>37.1847226038735</v>
+      </c>
+      <c r="D111" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="n">
+        <v>427673.612707702</v>
+      </c>
+      <c r="C112" t="n">
+        <v>36.815714352549</v>
+      </c>
+      <c r="D112" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="n">
+        <v>457008.631507203</v>
+      </c>
+      <c r="C113" t="n">
+        <v>40.0233673646375</v>
+      </c>
+      <c r="D113" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="n">
+        <v>255787.561006894</v>
+      </c>
+      <c r="C114" t="n">
+        <v>18.0207439029829</v>
+      </c>
+      <c r="D114" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="n">
+        <v>442565.931537618</v>
+      </c>
+      <c r="C115" t="n">
+        <v>38.4441227636107</v>
+      </c>
+      <c r="D115" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="n">
+        <v>439077.050949171</v>
+      </c>
+      <c r="C116" t="n">
+        <v>38.0626292863152</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12181.1365322233</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="n">
+        <v>469405.696753326</v>
+      </c>
+      <c r="C117" t="n">
+        <v>41.3789309642237</v>
+      </c>
+      <c r="D117" t="n">
         <v>12181.1365322233</v>
       </c>
     </row>
@@ -8127,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
@@ -8928,6 +9456,134 @@
       </c>
       <c r="B101" t="n">
         <v>422246.520517208</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" t="n">
+        <v>240127.952162735</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>109</v>
+      </c>
+      <c r="B103" t="n">
+        <v>409148.341037331</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>110</v>
+      </c>
+      <c r="B104" t="n">
+        <v>405984.639006779</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>111</v>
+      </c>
+      <c r="B105" t="n">
+        <v>433425.818132099</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>112</v>
+      </c>
+      <c r="B106" t="n">
+        <v>245168.132663001</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>113</v>
+      </c>
+      <c r="B107" t="n">
+        <v>419909.74792995</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>114</v>
+      </c>
+      <c r="B108" t="n">
+        <v>416644.799799372</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>115</v>
+      </c>
+      <c r="B109" t="n">
+        <v>445018.389094539</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>116</v>
+      </c>
+      <c r="B110" t="n">
+        <v>250388.745195888</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>117</v>
+      </c>
+      <c r="B111" t="n">
+        <v>431048.311887751</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>118</v>
+      </c>
+      <c r="B112" t="n">
+        <v>427673.612707702</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>119</v>
+      </c>
+      <c r="B113" t="n">
+        <v>457008.631507203</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>120</v>
+      </c>
+      <c r="B114" t="n">
+        <v>255787.561006894</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>121</v>
+      </c>
+      <c r="B115" t="n">
+        <v>442565.931537618</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B116" t="n">
+        <v>439077.050949171</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" t="n">
+        <v>469405.696753326</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_AGV.xlsx
+++ b/VA_result_AGV.xlsx
@@ -461,73 +461,73 @@
     <t xml:space="preserve">2.3283064365387e-10</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.051784266368486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0108213681960478</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0278989382786676</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.118523571407422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.15449335926678</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.128371826373041</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.117528038681485</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.165792505489662</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23671546834521</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.206730062840506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0689113677944988</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0940837876405567</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.11003153747879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0193971341941506</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0508840134134516</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0639269702369347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.269369115820155</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0531004529912025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0187296052463353</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0470427654217929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.134388347389176</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0586158819496632</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.058632904663682</t>
+    <t xml:space="preserve">-0.0490366477752104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00910236779600382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0286456343019381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116994594340213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.152061145403422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.126595549751073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.116024060640484</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.163076559314504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.232218576944433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.202986133983359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.068628202425316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0931685189716518</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.108715805457905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0203573202015832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0481589988339692</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0608744343044236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.261157724540681</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0503197778016329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0197065572720021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0473087462596595</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132460996042937</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.058591251494363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.058607847429812</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -2218,10 +2218,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>631265.803511599</v>
+        <v>627268.94321721</v>
       </c>
       <c r="C102" t="n">
-        <v>63.1265803511599</v>
+        <v>62.726894321721</v>
       </c>
     </row>
     <row r="103">
@@ -2229,10 +2229,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>1346478.27250359</v>
+        <v>1315989.07289202</v>
       </c>
       <c r="C103" t="n">
-        <v>134.647827250359</v>
+        <v>131.598907289202</v>
       </c>
     </row>
     <row r="104">
@@ -2240,10 +2240,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>1332895.75180243</v>
+        <v>1307340.81508258</v>
       </c>
       <c r="C104" t="n">
-        <v>133.289575180243</v>
+        <v>130.734081508258</v>
       </c>
     </row>
     <row r="105">
@@ -2251,10 +2251,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>1448891.44445401</v>
+        <v>1422220.89387217</v>
       </c>
       <c r="C105" t="n">
-        <v>144.889144445401</v>
+        <v>142.222089387217</v>
       </c>
     </row>
     <row r="106">
@@ -2262,10 +2262,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>652337.430519783</v>
+        <v>649168.848173915</v>
       </c>
       <c r="C106" t="n">
-        <v>65.2337430519783</v>
+        <v>64.9168848173915</v>
       </c>
     </row>
     <row r="107">
@@ -2273,10 +2273,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>1391602.35233014</v>
+        <v>1335507.88342838</v>
       </c>
       <c r="C107" t="n">
-        <v>139.160235233014</v>
+        <v>133.550788342838</v>
       </c>
     </row>
     <row r="108">
@@ -2284,10 +2284,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>1377764.88603498</v>
+        <v>1328672.5794282</v>
       </c>
       <c r="C108" t="n">
-        <v>137.776488603498</v>
+        <v>132.86725794282</v>
       </c>
     </row>
     <row r="109">
@@ -2295,10 +2295,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>1497787.69083112</v>
+        <v>1445249.48223089</v>
       </c>
       <c r="C109" t="n">
-        <v>149.778769083112</v>
+        <v>144.524948223089</v>
       </c>
     </row>
     <row r="110">
@@ -2306,10 +2306,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>674382.277702118</v>
+        <v>672197.43653263</v>
       </c>
       <c r="C110" t="n">
-        <v>67.4382277702118</v>
+        <v>67.219743653263</v>
       </c>
     </row>
     <row r="111">
@@ -2317,10 +2317,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>1438670.81950154</v>
+        <v>1358536.4717871</v>
       </c>
       <c r="C111" t="n">
-        <v>143.867081950154</v>
+        <v>135.85364717871</v>
       </c>
     </row>
     <row r="112">
@@ -2328,10 +2328,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>1424390.5208906</v>
+        <v>1351701.16778691</v>
       </c>
       <c r="C112" t="n">
-        <v>142.43905208906</v>
+        <v>135.170116778691</v>
       </c>
     </row>
     <row r="113">
@@ -2339,10 +2339,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>1548491.52084353</v>
+        <v>1468278.0705896</v>
       </c>
       <c r="C113" t="n">
-        <v>154.849152084353</v>
+        <v>146.82780705896</v>
       </c>
     </row>
     <row r="114">
@@ -2350,10 +2350,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>697216.302293026</v>
+        <v>695226.024891344</v>
       </c>
       <c r="C114" t="n">
-        <v>69.7216302293026</v>
+        <v>69.5226024891344</v>
       </c>
     </row>
     <row r="115">
@@ -2361,10 +2361,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>1487388.90415494</v>
+        <v>1381565.06014581</v>
       </c>
       <c r="C115" t="n">
-        <v>148.738890415494</v>
+        <v>138.156506014581</v>
       </c>
     </row>
     <row r="116">
@@ -2372,10 +2372,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>1472628.57410196</v>
+        <v>1374729.75614563</v>
       </c>
       <c r="C116" t="n">
-        <v>147.262857410196</v>
+        <v>137.472975614563</v>
       </c>
     </row>
     <row r="117">
@@ -2383,10 +2383,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>1600934.6945855</v>
+        <v>1491306.65894831</v>
       </c>
       <c r="C117" t="n">
-        <v>160.09346945855</v>
+        <v>149.130665894831</v>
       </c>
     </row>
     <row r="118">
@@ -2394,10 +2394,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>720829.756119316</v>
+        <v>718254.613250059</v>
       </c>
       <c r="C118" t="n">
-        <v>72.0829756119316</v>
+        <v>71.8254613250059</v>
       </c>
     </row>
     <row r="119">
@@ -2405,10 +2405,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>1537764.91054443</v>
+        <v>1404593.64850453</v>
       </c>
       <c r="C119" t="n">
-        <v>153.776491054443</v>
+        <v>140.459364850453</v>
       </c>
     </row>
     <row r="120">
@@ -2416,10 +2416,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>1522505.17145261</v>
+        <v>1397758.34450434</v>
       </c>
       <c r="C120" t="n">
-        <v>152.250517145261</v>
+        <v>139.775834450434</v>
       </c>
     </row>
     <row r="121">
@@ -2427,10 +2427,10 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>1655157.23856895</v>
+        <v>1514335.24730703</v>
       </c>
       <c r="C121" t="n">
-        <v>165.515723856895</v>
+        <v>151.433524730703</v>
       </c>
     </row>
   </sheetData>
@@ -2506,13 +2506,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>833535.876396266</v>
+        <v>833535.879143884</v>
       </c>
       <c r="C4" t="n">
         <v>55.3408184063482</v>
       </c>
       <c r="D4" t="n">
-        <v>6.24327586694919</v>
+        <v>6.24327621716327</v>
       </c>
       <c r="E4" t="n">
         <v>6.24329724991903</v>
@@ -2526,13 +2526,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>890523.672206651</v>
+        <v>890523.673925651</v>
       </c>
       <c r="C5" t="n">
         <v>59.5834584631946</v>
       </c>
       <c r="D5" t="n">
-        <v>6.83687378361779</v>
+        <v>6.83687363767693</v>
       </c>
       <c r="E5" t="n">
         <v>7.6663847391887</v>
@@ -2546,13 +2546,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>941523.467588321</v>
+        <v>941523.468335017</v>
       </c>
       <c r="C6" t="n">
         <v>60.5054766302154</v>
       </c>
       <c r="D6" t="n">
-        <v>5.7269443781653</v>
+        <v>5.72694425792699</v>
       </c>
       <c r="E6" t="n">
         <v>1.54743982776746</v>
@@ -2566,13 +2566,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>967155.630260139</v>
+        <v>967155.628731162</v>
       </c>
       <c r="C7" t="n">
         <v>61.4607826708178</v>
       </c>
       <c r="D7" t="n">
-        <v>2.72241357270402</v>
+        <v>2.7224133288438</v>
       </c>
       <c r="E7" t="n">
         <v>1.5788753246931</v>
@@ -2586,13 +2586,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>937861.277389317</v>
+        <v>937861.274957103</v>
       </c>
       <c r="C8" t="n">
         <v>59.599201898984</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.02891819623102</v>
+        <v>-3.02891829441049</v>
       </c>
       <c r="E8" t="n">
         <v>-3.02889206895451</v>
@@ -2606,13 +2606,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>961599.433422862</v>
+        <v>961599.431646585</v>
       </c>
       <c r="C9" t="n">
         <v>62.7518142805532</v>
       </c>
       <c r="D9" t="n">
-        <v>2.53109458785037</v>
+        <v>2.53109466435411</v>
       </c>
       <c r="E9" t="n">
         <v>5.28968892387627</v>
@@ -2626,13 +2626,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>985827.043873505</v>
+        <v>985827.042369527</v>
       </c>
       <c r="C10" t="n">
         <v>62.9220821860385</v>
       </c>
       <c r="D10" t="n">
-        <v>2.51951172271425</v>
+        <v>2.51951175568559</v>
       </c>
       <c r="E10" t="n">
         <v>0.271335430596431</v>
@@ -2646,13 +2646,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1020731.5638598</v>
+        <v>1020731.56114385</v>
       </c>
       <c r="C11" t="n">
         <v>63.096051608698</v>
       </c>
       <c r="D11" t="n">
-        <v>3.54063323817411</v>
+        <v>3.54063312063648</v>
       </c>
       <c r="E11" t="n">
         <v>0.276483893436885</v>
@@ -2666,13 +2666,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>988329.996111979</v>
+        <v>988329.991615088</v>
       </c>
       <c r="C12" t="n">
         <v>61.0931595625948</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.17434758510817</v>
+        <v>-3.17434776803176</v>
       </c>
       <c r="E12" t="n">
         <v>-3.17435401271137</v>
@@ -2686,13 +2686,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>996947.205128405</v>
+        <v>996947.201384476</v>
       </c>
       <c r="C13" t="n">
         <v>69.1139299509124</v>
       </c>
       <c r="D13" t="n">
-        <v>0.871895930541999</v>
+        <v>0.871896010694462</v>
       </c>
       <c r="E13" t="n">
         <v>13.12875360473</v>
@@ -2706,13 +2706,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1057994.80222242</v>
+        <v>1057994.80193926</v>
       </c>
       <c r="C14" t="n">
         <v>74.4963444333204</v>
       </c>
       <c r="D14" t="n">
-        <v>6.12345335640447</v>
+        <v>6.12345372653653</v>
       </c>
       <c r="E14" t="n">
         <v>7.78774190127929</v>
@@ -2726,13 +2726,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1079032.39229878</v>
+        <v>1079032.39138351</v>
       </c>
       <c r="C15" t="n">
         <v>75.9776147031756</v>
       </c>
       <c r="D15" t="n">
-        <v>1.98843983280159</v>
+        <v>1.98843977358838</v>
       </c>
       <c r="E15" t="n">
         <v>1.98837980725486</v>
@@ -2746,13 +2746,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>999141.025803508</v>
+        <v>999141.024487776</v>
       </c>
       <c r="C16" t="n">
         <v>71.8969283667432</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.40398222198618</v>
+        <v>-7.40398226537966</v>
       </c>
       <c r="E16" t="n">
         <v>-5.37090609171479</v>
@@ -2766,13 +2766,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>962308.658780378</v>
+        <v>962308.659740564</v>
       </c>
       <c r="C17" t="n">
         <v>71.4791978407443</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.68640322756334</v>
+        <v>-3.68640300463036</v>
       </c>
       <c r="E17" t="n">
         <v>-0.58101303558894</v>
@@ -2786,13 +2786,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>943203.956686858</v>
+        <v>943203.959411873</v>
       </c>
       <c r="C18" t="n">
         <v>70.0600919225615</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.98529878321296</v>
+        <v>-1.98529859783677</v>
       </c>
       <c r="E18" t="n">
         <v>-1.98534113567506</v>
@@ -2806,13 +2806,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>990382.955597438</v>
+        <v>990382.958649974</v>
       </c>
       <c r="C19" t="n">
         <v>85.7706315173114</v>
       </c>
       <c r="D19" t="n">
-        <v>5.00199332033151</v>
+        <v>5.00199334060456</v>
       </c>
       <c r="E19" t="n">
         <v>22.4243776501392</v>
@@ -2826,13 +2826,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1221388.86114511</v>
+        <v>1221388.8693565</v>
       </c>
       <c r="C20" t="n">
         <v>99.922328683008</v>
       </c>
       <c r="D20" t="n">
-        <v>23.3249072232189</v>
+        <v>23.3249076722224</v>
       </c>
       <c r="E20" t="n">
         <v>16.4994671431798</v>
@@ -2846,13 +2846,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1255838.94689955</v>
+        <v>1255838.94968022</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>2.82056655749545</v>
+        <v>2.82056609389831</v>
       </c>
       <c r="E21" t="n">
         <v>0.0777316922210947</v>
@@ -2866,13 +2866,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1262501.01872961</v>
+        <v>1262501.01970656</v>
       </c>
       <c r="C22" t="n">
         <v>99.274266046931</v>
       </c>
       <c r="D22" t="n">
-        <v>0.530487754540965</v>
+        <v>0.530487609739416</v>
       </c>
       <c r="E22" t="n">
         <v>-0.725733953069041</v>
@@ -2886,13 +2886,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1363129.41433408</v>
+        <v>1363129.41460006</v>
       </c>
       <c r="C23" t="n">
         <v>105.791366189444</v>
       </c>
       <c r="D23" t="n">
-        <v>7.97055955691288</v>
+        <v>7.9705594944306</v>
       </c>
       <c r="E23" t="n">
         <v>6.56474270928626</v>
@@ -2906,13 +2906,13 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1354697.57773558</v>
+        <v>1354697.57580823</v>
       </c>
       <c r="C24" t="n">
         <v>108.761126976713</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.618564643227404</v>
+        <v>-0.618564804010879</v>
       </c>
       <c r="E24" t="n">
         <v>2.80718634633208</v>
@@ -2926,13 +2926,13 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1393979.2811605</v>
+        <v>1393979.28113587</v>
       </c>
       <c r="C25" t="n">
         <v>113.055539416491</v>
       </c>
       <c r="D25" t="n">
-        <v>2.89966587897661</v>
+        <v>2.89966602355556</v>
       </c>
       <c r="E25" t="n">
         <v>3.94848100525615</v>
@@ -2946,13 +2946,13 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>1422474.31309001</v>
+        <v>1422474.31306495</v>
       </c>
       <c r="C26" t="n">
         <v>115.31021357562</v>
       </c>
       <c r="D26" t="n">
-        <v>2.04415031949305</v>
+        <v>2.04415031949856</v>
       </c>
       <c r="E26" t="n">
         <v>1.99430666623375</v>
@@ -2966,16 +2966,16 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>1452114.36010779</v>
+        <v>1432289.23388044</v>
       </c>
       <c r="C27" t="n">
-        <v>118.988281806791</v>
+        <v>116.8204931266</v>
       </c>
       <c r="D27" t="n">
-        <v>2.08369646783939</v>
+        <v>0.689989318284612</v>
       </c>
       <c r="E27" t="n">
-        <v>3.18971591250974</v>
+        <v>1.30975349376914</v>
       </c>
       <c r="F27" t="s">
         <v>129</v>
@@ -2986,16 +2986,16 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>1488686.75033894</v>
+        <v>1451901.16316174</v>
       </c>
       <c r="C28" t="n">
-        <v>122.987308992901</v>
+        <v>118.964969831534</v>
       </c>
       <c r="D28" t="n">
-        <v>2.5185612948861</v>
+        <v>1.36927157011224</v>
       </c>
       <c r="E28" t="n">
-        <v>3.36085799827193</v>
+        <v>1.83570249323546</v>
       </c>
       <c r="F28" t="s">
         <v>129</v>
@@ -3006,16 +3006,16 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>1526741.06948686</v>
+        <v>1472961.5479773</v>
       </c>
       <c r="C29" t="n">
-        <v>127.148378473445</v>
+        <v>121.267828667406</v>
       </c>
       <c r="D29" t="n">
-        <v>2.55623415330679</v>
+        <v>1.45053846294179</v>
       </c>
       <c r="E29" t="n">
-        <v>3.38333240609754</v>
+        <v>1.93574531993117</v>
       </c>
       <c r="F29" t="s">
         <v>129</v>
@@ -3026,16 +3026,16 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>1566119.30129854</v>
+        <v>1494021.93279287</v>
       </c>
       <c r="C30" t="n">
-        <v>131.454211878386</v>
+        <v>123.570687503277</v>
       </c>
       <c r="D30" t="n">
-        <v>2.57923446212907</v>
+        <v>1.4297986831008</v>
       </c>
       <c r="E30" t="n">
-        <v>3.38646348198632</v>
+        <v>1.89898579134897</v>
       </c>
       <c r="F30" t="s">
         <v>129</v>
@@ -3046,16 +3046,16 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>1606836.24024701</v>
+        <v>1515082.31760843</v>
       </c>
       <c r="C31" t="n">
-        <v>135.906426917133</v>
+        <v>125.873546339149</v>
       </c>
       <c r="D31" t="n">
-        <v>2.59986189524031</v>
+        <v>1.40964361722529</v>
       </c>
       <c r="E31" t="n">
-        <v>3.38689417031837</v>
+        <v>1.86359636124089</v>
       </c>
       <c r="F31" t="s">
         <v>129</v>
@@ -3103,16 +3103,16 @@
         <v>784554.005507248</v>
       </c>
       <c r="C2" t="n">
-        <v>819779.224201007</v>
+        <v>819779.225506614</v>
       </c>
       <c r="D2" t="n">
-        <v>-35225.2186937591</v>
+        <v>-35225.2199993662</v>
       </c>
       <c r="E2" t="n">
         <v>52.088762151431</v>
       </c>
       <c r="F2" t="n">
-        <v>-47558.5987925539</v>
+        <v>-47558.6010567821</v>
       </c>
     </row>
     <row r="3">
@@ -3123,16 +3123,16 @@
         <v>833535.928180532</v>
       </c>
       <c r="C3" t="n">
-        <v>829900.620963824</v>
+        <v>829900.621402964</v>
       </c>
       <c r="D3" t="n">
-        <v>3635.30721670783</v>
+        <v>3635.30677756821</v>
       </c>
       <c r="E3" t="n">
         <v>55.3408184063482</v>
       </c>
       <c r="F3" t="n">
-        <v>-28317.7768603745</v>
+        <v>-28317.7789249427</v>
       </c>
     </row>
     <row r="4">
@@ -3143,16 +3143,16 @@
         <v>890523.683028019</v>
       </c>
       <c r="C4" t="n">
-        <v>881628.195106951</v>
+        <v>881628.195378913</v>
       </c>
       <c r="D4" t="n">
-        <v>8895.4879210679</v>
+        <v>8895.48764910631</v>
       </c>
       <c r="E4" t="n">
         <v>59.5834584631946</v>
       </c>
       <c r="F4" t="n">
-        <v>-10130.3303249369</v>
+        <v>-10130.3321290282</v>
       </c>
     </row>
     <row r="5">
@@ -3163,16 +3163,16 @@
         <v>941523.439689382</v>
       </c>
       <c r="C5" t="n">
-        <v>902279.885959707</v>
+        <v>902279.886311457</v>
       </c>
       <c r="D5" t="n">
-        <v>39243.5537296756</v>
+        <v>39243.5533779251</v>
       </c>
       <c r="E5" t="n">
         <v>60.5054766302154</v>
       </c>
       <c r="F5" t="n">
-        <v>32437.2735564646</v>
+        <v>32437.2718089805</v>
       </c>
     </row>
     <row r="6">
@@ -3183,16 +3183,16 @@
         <v>967155.511736567</v>
       </c>
       <c r="C6" t="n">
-        <v>939616.21882624</v>
+        <v>939616.219067006</v>
       </c>
       <c r="D6" t="n">
-        <v>27539.2929103276</v>
+        <v>27539.2926695617</v>
       </c>
       <c r="E6" t="n">
         <v>61.4607826708178</v>
       </c>
       <c r="F6" t="n">
-        <v>49332.7645100157</v>
+        <v>49332.7628211828</v>
       </c>
     </row>
     <row r="7">
@@ -3203,16 +3203,16 @@
         <v>937861.122895957</v>
       </c>
       <c r="C7" t="n">
-        <v>933942.979992085</v>
+        <v>933942.980350681</v>
       </c>
       <c r="D7" t="n">
-        <v>3918.14290387274</v>
+        <v>3918.14254527627</v>
       </c>
       <c r="E7" t="n">
         <v>59.599201898984</v>
       </c>
       <c r="F7" t="n">
-        <v>37063.1307575436</v>
+        <v>37063.1289544188</v>
       </c>
     </row>
     <row r="8">
@@ -3223,16 +3223,16 @@
         <v>961599.305051036</v>
       </c>
       <c r="C8" t="n">
-        <v>954531.077265441</v>
+        <v>954531.077379741</v>
       </c>
       <c r="D8" t="n">
-        <v>7068.22778559424</v>
+        <v>7068.22767129441</v>
       </c>
       <c r="E8" t="n">
         <v>62.7518142805532</v>
       </c>
       <c r="F8" t="n">
-        <v>31969.65838754</v>
+        <v>31969.6567779699</v>
       </c>
     </row>
     <row r="9">
@@ -3243,16 +3243,16 @@
         <v>985826.926345466</v>
       </c>
       <c r="C9" t="n">
-        <v>952666.098020485</v>
+        <v>952666.098265187</v>
       </c>
       <c r="D9" t="n">
-        <v>33160.8283249809</v>
+        <v>33160.8280802789</v>
       </c>
       <c r="E9" t="n">
         <v>62.9220821860385</v>
       </c>
       <c r="F9" t="n">
-        <v>54640.1249057099</v>
+        <v>54640.1233065934</v>
       </c>
     </row>
     <row r="10">
@@ -3263,16 +3263,16 @@
         <v>1020731.39806729</v>
       </c>
       <c r="C10" t="n">
-        <v>969488.633879387</v>
+        <v>969488.634072305</v>
       </c>
       <c r="D10" t="n">
-        <v>51242.7641879065</v>
+        <v>51242.7639949887</v>
       </c>
       <c r="E10" t="n">
         <v>63.096051608698</v>
       </c>
       <c r="F10" t="n">
-        <v>87953.5902858223</v>
+        <v>87953.5886973867</v>
       </c>
     </row>
     <row r="11">
@@ -3283,16 +3283,16 @@
         <v>988329.759396511</v>
       </c>
       <c r="C11" t="n">
-        <v>973553.746820842</v>
+        <v>973553.747073183</v>
       </c>
       <c r="D11" t="n">
-        <v>14776.0125756688</v>
+        <v>14776.0123233276</v>
       </c>
       <c r="E11" t="n">
         <v>61.0931595625948</v>
       </c>
       <c r="F11" t="n">
-        <v>73869.0437706998</v>
+        <v>73869.0420592965</v>
       </c>
     </row>
     <row r="12">
@@ -3303,16 +3303,16 @@
         <v>996946.998398342</v>
       </c>
       <c r="C12" t="n">
-        <v>1037443.33601938</v>
+        <v>1037443.33572657</v>
       </c>
       <c r="D12" t="n">
-        <v>-40496.3376210403</v>
+        <v>-40496.3373282282</v>
       </c>
       <c r="E12" t="n">
         <v>69.1139299509124</v>
       </c>
       <c r="F12" t="n">
-        <v>9133.75703453575</v>
+        <v>9133.75581556768</v>
       </c>
     </row>
     <row r="13">
@@ -3323,16 +3323,16 @@
         <v>1057994.73331105</v>
       </c>
       <c r="C13" t="n">
-        <v>1043173.77042095</v>
+        <v>1043173.77026596</v>
       </c>
       <c r="D13" t="n">
-        <v>14820.9628901043</v>
+        <v>14820.9630450938</v>
       </c>
       <c r="E13" t="n">
         <v>74.4963444333204</v>
       </c>
       <c r="F13" t="n">
-        <v>20957.5798117679</v>
+        <v>20957.5789232531</v>
       </c>
     </row>
     <row r="14">
@@ -3343,16 +3343,16 @@
         <v>1079032.29821499</v>
       </c>
       <c r="C14" t="n">
-        <v>1064664.495353</v>
+        <v>1064664.49530399</v>
       </c>
       <c r="D14" t="n">
-        <v>14367.8028619915</v>
+        <v>14367.8029110037</v>
       </c>
       <c r="E14" t="n">
         <v>75.9776147031756</v>
       </c>
       <c r="F14" t="n">
-        <v>28448.451526145</v>
+        <v>28448.4507285729</v>
       </c>
     </row>
     <row r="15">
@@ -3363,16 +3363,16 @@
         <v>999140.915771971</v>
       </c>
       <c r="C15" t="n">
-        <v>1032378.17251456</v>
+        <v>1032378.17276128</v>
       </c>
       <c r="D15" t="n">
-        <v>-33237.2567425927</v>
+        <v>-33237.2569893133</v>
       </c>
       <c r="E15" t="n">
         <v>71.8969283667432</v>
       </c>
       <c r="F15" t="n">
-        <v>-14123.741483676</v>
+        <v>-14123.7425317818</v>
       </c>
     </row>
     <row r="16">
@@ -3383,16 +3383,16 @@
         <v>962308.639383244</v>
       </c>
       <c r="C16" t="n">
-        <v>999955.057402054</v>
+        <v>999955.057596472</v>
       </c>
       <c r="D16" t="n">
-        <v>-37646.4180188099</v>
+        <v>-37646.4182132277</v>
       </c>
       <c r="E16" t="n">
         <v>71.4791978407443</v>
       </c>
       <c r="F16" t="n">
-        <v>-47135.7378149526</v>
+        <v>-47135.7388887051</v>
       </c>
     </row>
     <row r="17">
@@ -3403,16 +3403,16 @@
         <v>943204.007570872</v>
       </c>
       <c r="C17" t="n">
-        <v>964797.219099933</v>
+        <v>964797.219434326</v>
       </c>
       <c r="D17" t="n">
-        <v>-21593.2115290614</v>
+        <v>-21593.2118634544</v>
       </c>
       <c r="E17" t="n">
         <v>70.0600919225615</v>
       </c>
       <c r="F17" t="n">
-        <v>-53262.1894340524</v>
+        <v>-53262.1905949309</v>
       </c>
     </row>
     <row r="18">
@@ -3423,16 +3423,16 @@
         <v>990383.019524408</v>
       </c>
       <c r="C18" t="n">
-        <v>1104358.99998508</v>
+        <v>1104358.9993094</v>
       </c>
       <c r="D18" t="n">
-        <v>-113975.980460675</v>
+        <v>-113975.979784988</v>
       </c>
       <c r="E18" t="n">
         <v>85.7706315173114</v>
       </c>
       <c r="F18" t="n">
-        <v>-149761.116654563</v>
+        <v>-149761.116850893</v>
       </c>
     </row>
     <row r="19">
@@ -3443,16 +3443,16 @@
         <v>1221389.13051423</v>
       </c>
       <c r="C19" t="n">
-        <v>1168946.41638614</v>
+        <v>1168946.41569451</v>
       </c>
       <c r="D19" t="n">
-        <v>52442.714128091</v>
+        <v>52442.7148197177</v>
       </c>
       <c r="E19" t="n">
         <v>99.922328683008</v>
       </c>
       <c r="F19" t="n">
-        <v>-48176.8292959279</v>
+        <v>-48176.8286234145</v>
       </c>
     </row>
     <row r="20">
@@ -3463,16 +3463,16 @@
         <v>1255839</v>
       </c>
       <c r="C20" t="n">
-        <v>1237907.83648297</v>
+        <v>1237907.83615467</v>
       </c>
       <c r="D20" t="n">
-        <v>17931.1635170335</v>
+        <v>17931.1638453331</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-14437.2889933812</v>
+        <v>-14437.2883160992</v>
       </c>
     </row>
     <row r="21">
@@ -3483,16 +3483,16 @@
         <v>1262501</v>
       </c>
       <c r="C21" t="n">
-        <v>1253939.2366019</v>
+        <v>1253939.23624973</v>
       </c>
       <c r="D21" t="n">
-        <v>8561.76339810465</v>
+        <v>8561.76375026897</v>
       </c>
       <c r="E21" t="n">
         <v>99.274266046931</v>
       </c>
       <c r="F21" t="n">
-        <v>-1138.21850087959</v>
+        <v>-1138.21786815394</v>
       </c>
     </row>
     <row r="22">
@@ -3503,16 +3503,16 @@
         <v>1363129.36729131</v>
       </c>
       <c r="C22" t="n">
-        <v>1322475.41558933</v>
+        <v>1322475.41477888</v>
       </c>
       <c r="D22" t="n">
-        <v>40653.9517019835</v>
+        <v>40653.9525124334</v>
       </c>
       <c r="E22" t="n">
         <v>105.791366189444</v>
       </c>
       <c r="F22" t="n">
-        <v>39889.1712288426</v>
+        <v>39889.1722616856</v>
       </c>
     </row>
     <row r="23">
@@ -3523,16 +3523,16 @@
         <v>1354697.44334723</v>
       </c>
       <c r="C23" t="n">
-        <v>1377199.76676542</v>
+        <v>1377199.76595437</v>
       </c>
       <c r="D23" t="n">
-        <v>-22502.3234181944</v>
+        <v>-22502.3226071453</v>
       </c>
       <c r="E23" t="n">
         <v>108.761126976713</v>
       </c>
       <c r="F23" t="n">
-        <v>4297.82941872859</v>
+        <v>4297.83063390013</v>
       </c>
     </row>
     <row r="24">
@@ -3543,16 +3543,16 @@
         <v>1393979.22254462</v>
       </c>
       <c r="C24" t="n">
-        <v>1392560.915961</v>
+        <v>1392560.91508435</v>
       </c>
       <c r="D24" t="n">
-        <v>1418.30658361611</v>
+        <v>1418.30746026399</v>
       </c>
       <c r="E24" t="n">
         <v>113.055539416491</v>
       </c>
       <c r="F24" t="n">
-        <v>4305.8252053347</v>
+        <v>4305.82668416156</v>
       </c>
     </row>
     <row r="25">
@@ -3563,16 +3563,16 @@
         <v>1422474.2544571</v>
       </c>
       <c r="C25" t="n">
-        <v>1413186.00864865</v>
+        <v>1413186.0078107</v>
       </c>
       <c r="D25" t="n">
-        <v>9288.24580845265</v>
+        <v>9288.2466464018</v>
       </c>
       <c r="E25" t="n">
         <v>115.31021357562</v>
       </c>
       <c r="F25" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
   </sheetData>
@@ -3632,25 +3632,25 @@
         <v>6.91374284145568</v>
       </c>
       <c r="C2" t="n">
-        <v>-18356.8297778297</v>
+        <v>-18356.832723272</v>
       </c>
       <c r="D2" t="n">
-        <v>149081.08658483</v>
+        <v>149081.08728626</v>
       </c>
       <c r="E2" t="n">
-        <v>819779.224201007</v>
+        <v>819779.225506614</v>
       </c>
       <c r="F2" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="G2" t="n">
-        <v>-35225.2186937591</v>
+        <v>-35225.2199993662</v>
       </c>
       <c r="H2" t="n">
-        <v>-11176.4352133103</v>
+        <v>-11176.4355889659</v>
       </c>
       <c r="I2" t="n">
-        <v>137904.65137152</v>
+        <v>137904.651697294</v>
       </c>
       <c r="J2" t="n">
         <v>784554.005507248</v>
@@ -3667,25 +3667,25 @@
         <v>14.7435123952797</v>
       </c>
       <c r="C3" t="n">
-        <v>-18356.8297778297</v>
+        <v>-18356.832723272</v>
       </c>
       <c r="D3" t="n">
-        <v>220686.848240341</v>
+        <v>220686.848461062</v>
       </c>
       <c r="E3" t="n">
-        <v>819779.224201007</v>
+        <v>819779.225506614</v>
       </c>
       <c r="F3" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="G3" t="n">
-        <v>-35225.2186937591</v>
+        <v>-35225.2199993662</v>
       </c>
       <c r="H3" t="n">
-        <v>-10228.382997362</v>
+        <v>-10228.3833533161</v>
       </c>
       <c r="I3" t="n">
-        <v>210458.465242979</v>
+        <v>210458.465107746</v>
       </c>
       <c r="J3" t="n">
         <v>784554.005507248</v>
@@ -3702,25 +3702,25 @@
         <v>14.5932455743463</v>
       </c>
       <c r="C4" t="n">
-        <v>-18356.8297778297</v>
+        <v>-18356.832723272</v>
       </c>
       <c r="D4" t="n">
-        <v>219312.609817292</v>
+        <v>219312.610047239</v>
       </c>
       <c r="E4" t="n">
-        <v>819779.224201007</v>
+        <v>819779.225506614</v>
       </c>
       <c r="F4" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="G4" t="n">
-        <v>-35225.2186937591</v>
+        <v>-35225.2199993662</v>
       </c>
       <c r="H4" t="n">
-        <v>-8332.27856546559</v>
+        <v>-8332.27888201663</v>
       </c>
       <c r="I4" t="n">
-        <v>210980.331251827</v>
+        <v>210980.331165222</v>
       </c>
       <c r="J4" t="n">
         <v>784554.005507248</v>
@@ -3737,25 +3737,25 @@
         <v>15.8382613403494</v>
       </c>
       <c r="C5" t="n">
-        <v>-18356.8297778297</v>
+        <v>-18356.832723272</v>
       </c>
       <c r="D5" t="n">
-        <v>230698.679558544</v>
+        <v>230698.679712053</v>
       </c>
       <c r="E5" t="n">
-        <v>819779.224201007</v>
+        <v>819779.225506614</v>
       </c>
       <c r="F5" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="G5" t="n">
-        <v>-35225.2186937591</v>
+        <v>-35225.2199993662</v>
       </c>
       <c r="H5" t="n">
-        <v>-5488.12191762092</v>
+        <v>-5488.12217506737</v>
       </c>
       <c r="I5" t="n">
-        <v>225210.557640923</v>
+        <v>225210.557536985</v>
       </c>
       <c r="J5" t="n">
         <v>784554.005507248</v>
@@ -3772,28 +3772,28 @@
         <v>7.34538835814276</v>
       </c>
       <c r="C6" t="n">
-        <v>-47558.5987925539</v>
+        <v>-47558.6010567821</v>
       </c>
       <c r="D6" t="n">
-        <v>148123.684768381</v>
+        <v>148123.685963513</v>
       </c>
       <c r="E6" t="n">
-        <v>829900.569179557</v>
+        <v>829900.572366316</v>
       </c>
       <c r="F6" t="n">
         <v>833535.928180532</v>
       </c>
       <c r="G6" t="n">
-        <v>3635.35900097457</v>
+        <v>3635.35581421619</v>
       </c>
       <c r="H6" t="n">
-        <v>-1695.91305382803</v>
+        <v>-1695.91323246834</v>
       </c>
       <c r="I6" t="n">
-        <v>146427.771714553</v>
+        <v>146427.772731044</v>
       </c>
       <c r="J6" t="n">
-        <v>833535.876396266</v>
+        <v>833535.879143884</v>
       </c>
       <c r="K6" t="s">
         <v>150</v>
@@ -3807,28 +3807,28 @@
         <v>15.6639936991956</v>
       </c>
       <c r="C7" t="n">
-        <v>-47558.5987925539</v>
+        <v>-47558.6010567821</v>
       </c>
       <c r="D7" t="n">
-        <v>224200.006972114</v>
+        <v>224200.007656525</v>
       </c>
       <c r="E7" t="n">
-        <v>829900.569179557</v>
+        <v>829900.572366316</v>
       </c>
       <c r="F7" t="n">
         <v>833535.928180532</v>
       </c>
       <c r="G7" t="n">
-        <v>3635.35900097457</v>
+        <v>3635.35581421619</v>
       </c>
       <c r="H7" t="n">
-        <v>862.866434891155</v>
+        <v>862.866315315446</v>
       </c>
       <c r="I7" t="n">
-        <v>225062.873407005</v>
+        <v>225062.87397184</v>
       </c>
       <c r="J7" t="n">
-        <v>833535.876396266</v>
+        <v>833535.879143884</v>
       </c>
       <c r="K7" t="s">
         <v>151</v>
@@ -3842,28 +3842,28 @@
         <v>15.5043452739634</v>
       </c>
       <c r="C8" t="n">
-        <v>-47558.5987925539</v>
+        <v>-47558.6010567821</v>
       </c>
       <c r="D8" t="n">
-        <v>222739.970759391</v>
+        <v>222739.971453604</v>
       </c>
       <c r="E8" t="n">
-        <v>829900.569179557</v>
+        <v>829900.572366316</v>
       </c>
       <c r="F8" t="n">
         <v>833535.928180532</v>
       </c>
       <c r="G8" t="n">
-        <v>3635.35900097457</v>
+        <v>3635.35581421619</v>
       </c>
       <c r="H8" t="n">
-        <v>2188.21654853664</v>
+        <v>2188.21646828399</v>
       </c>
       <c r="I8" t="n">
-        <v>224928.187307928</v>
+        <v>224928.187921888</v>
       </c>
       <c r="J8" t="n">
-        <v>833535.876396266</v>
+        <v>833535.879143884</v>
       </c>
       <c r="K8" t="s">
         <v>152</v>
@@ -3877,28 +3877,28 @@
         <v>16.8270910750464</v>
       </c>
       <c r="C9" t="n">
-        <v>-47558.5987925539</v>
+        <v>-47558.6010567821</v>
       </c>
       <c r="D9" t="n">
-        <v>234836.906679672</v>
+        <v>234836.907292675</v>
       </c>
       <c r="E9" t="n">
-        <v>829900.569179557</v>
+        <v>829900.572366316</v>
       </c>
       <c r="F9" t="n">
         <v>833535.928180532</v>
       </c>
       <c r="G9" t="n">
-        <v>3635.35900097457</v>
+        <v>3635.35581421619</v>
       </c>
       <c r="H9" t="n">
-        <v>2280.13728710843</v>
+        <v>2280.1372264373</v>
       </c>
       <c r="I9" t="n">
-        <v>237117.04396678</v>
+        <v>237117.044519112</v>
       </c>
       <c r="J9" t="n">
-        <v>833535.876396266</v>
+        <v>833535.879143884</v>
       </c>
       <c r="K9" t="s">
         <v>153</v>
@@ -3912,28 +3912,28 @@
         <v>7.90851409026556</v>
       </c>
       <c r="C10" t="n">
-        <v>-28317.7768603745</v>
+        <v>-28317.7789249427</v>
       </c>
       <c r="D10" t="n">
-        <v>156505.477462589</v>
+        <v>156505.478389318</v>
       </c>
       <c r="E10" t="n">
-        <v>881628.184285583</v>
+        <v>881628.186276545</v>
       </c>
       <c r="F10" t="n">
         <v>890523.683028019</v>
       </c>
       <c r="G10" t="n">
-        <v>8895.49874243652</v>
+        <v>8895.49675147422</v>
       </c>
       <c r="H10" t="n">
-        <v>1138.62865060652</v>
+        <v>1138.62858977538</v>
       </c>
       <c r="I10" t="n">
-        <v>157644.106113195</v>
+        <v>157644.106979093</v>
       </c>
       <c r="J10" t="n">
-        <v>890523.672206651</v>
+        <v>890523.673925651</v>
       </c>
       <c r="K10" t="s">
         <v>154</v>
@@ -3947,28 +3947,28 @@
         <v>16.8648557216982</v>
       </c>
       <c r="C11" t="n">
-        <v>-28317.7768603745</v>
+        <v>-28317.7789249427</v>
       </c>
       <c r="D11" t="n">
-        <v>238414.103221884</v>
+        <v>238414.103598739</v>
       </c>
       <c r="E11" t="n">
-        <v>881628.184285583</v>
+        <v>881628.186276545</v>
       </c>
       <c r="F11" t="n">
         <v>890523.683028019</v>
       </c>
       <c r="G11" t="n">
-        <v>8895.49874243652</v>
+        <v>8895.49675147422</v>
       </c>
       <c r="H11" t="n">
-        <v>1116.12252786997</v>
+        <v>1116.12246411108</v>
       </c>
       <c r="I11" t="n">
-        <v>239530.225749754</v>
+        <v>239530.22606285</v>
       </c>
       <c r="J11" t="n">
-        <v>890523.672206651</v>
+        <v>890523.673925651</v>
       </c>
       <c r="K11" t="s">
         <v>155</v>
@@ -3982,28 +3982,28 @@
         <v>16.6929680339577</v>
       </c>
       <c r="C12" t="n">
-        <v>-28317.7768603745</v>
+        <v>-28317.7789249427</v>
       </c>
       <c r="D12" t="n">
-        <v>236842.135015763</v>
+        <v>236842.135403171</v>
       </c>
       <c r="E12" t="n">
-        <v>881628.184285583</v>
+        <v>881628.186276545</v>
       </c>
       <c r="F12" t="n">
         <v>890523.683028019</v>
       </c>
       <c r="G12" t="n">
-        <v>8895.49874243652</v>
+        <v>8895.49675147422</v>
       </c>
       <c r="H12" t="n">
-        <v>2212.61891889879</v>
+        <v>2212.61884944443</v>
       </c>
       <c r="I12" t="n">
-        <v>239054.753934662</v>
+        <v>239054.754252615</v>
       </c>
       <c r="J12" t="n">
-        <v>890523.672206651</v>
+        <v>890523.673925651</v>
       </c>
       <c r="K12" t="s">
         <v>156</v>
@@ -4017,28 +4017,28 @@
         <v>18.1171206172731</v>
       </c>
       <c r="C13" t="n">
-        <v>-28317.7768603745</v>
+        <v>-28317.7789249427</v>
       </c>
       <c r="D13" t="n">
-        <v>249866.468585346</v>
+        <v>249866.468885318</v>
       </c>
       <c r="E13" t="n">
-        <v>881628.184285583</v>
+        <v>881628.186276545</v>
       </c>
       <c r="F13" t="n">
         <v>890523.683028019</v>
       </c>
       <c r="G13" t="n">
-        <v>8895.49874243652</v>
+        <v>8895.49675147422</v>
       </c>
       <c r="H13" t="n">
-        <v>4428.11782369298</v>
+        <v>4428.11774577541</v>
       </c>
       <c r="I13" t="n">
-        <v>254294.586409039</v>
+        <v>254294.586631093</v>
       </c>
       <c r="J13" t="n">
-        <v>890523.672206651</v>
+        <v>890523.673925651</v>
       </c>
       <c r="K13" t="s">
         <v>157</v>
@@ -4052,28 +4052,28 @@
         <v>8.03089358708293</v>
       </c>
       <c r="C14" t="n">
-        <v>-10130.3303249369</v>
+        <v>-10130.3321290282</v>
       </c>
       <c r="D14" t="n">
-        <v>160679.571532633</v>
+        <v>160679.572242872</v>
       </c>
       <c r="E14" t="n">
-        <v>902279.913858645</v>
+        <v>902279.914957092</v>
       </c>
       <c r="F14" t="n">
         <v>941523.439689382</v>
       </c>
       <c r="G14" t="n">
-        <v>39243.5258307375</v>
+        <v>39243.5247322909</v>
       </c>
       <c r="H14" t="n">
-        <v>7762.61924225253</v>
+        <v>7762.61915310402</v>
       </c>
       <c r="I14" t="n">
-        <v>168442.190774886</v>
+        <v>168442.191395976</v>
       </c>
       <c r="J14" t="n">
-        <v>941523.467588321</v>
+        <v>941523.468335017</v>
       </c>
       <c r="K14" t="s">
         <v>158</v>
@@ -4087,28 +4087,28 @@
         <v>17.1258292160313</v>
       </c>
       <c r="C15" t="n">
-        <v>-10130.3303249369</v>
+        <v>-10130.3321290282</v>
       </c>
       <c r="D15" t="n">
-        <v>243855.683989306</v>
+        <v>243855.68414116</v>
       </c>
       <c r="E15" t="n">
-        <v>902279.913858645</v>
+        <v>902279.914957092</v>
       </c>
       <c r="F15" t="n">
         <v>941523.439689382</v>
       </c>
       <c r="G15" t="n">
-        <v>39243.5258307375</v>
+        <v>39243.5247322909</v>
       </c>
       <c r="H15" t="n">
-        <v>9915.72748574293</v>
+        <v>9915.72739258637</v>
       </c>
       <c r="I15" t="n">
-        <v>253771.411475049</v>
+        <v>253771.411533747</v>
       </c>
       <c r="J15" t="n">
-        <v>941523.467588321</v>
+        <v>941523.468335017</v>
       </c>
       <c r="K15" t="s">
         <v>159</v>
@@ -4122,28 +4122,28 @@
         <v>16.9512816697516</v>
       </c>
       <c r="C16" t="n">
-        <v>-10130.3303249369</v>
+        <v>-10130.3321290282</v>
       </c>
       <c r="D16" t="n">
-        <v>242259.390521083</v>
+        <v>242259.390683654</v>
       </c>
       <c r="E16" t="n">
-        <v>902279.913858645</v>
+        <v>902279.914957092</v>
       </c>
       <c r="F16" t="n">
         <v>941523.439689382</v>
       </c>
       <c r="G16" t="n">
-        <v>39243.5258307375</v>
+        <v>39243.5247322909</v>
       </c>
       <c r="H16" t="n">
-        <v>10887.4425541642</v>
+        <v>10887.4424642225</v>
       </c>
       <c r="I16" t="n">
-        <v>253146.833075247</v>
+        <v>253146.833147877</v>
       </c>
       <c r="J16" t="n">
-        <v>941523.467588321</v>
+        <v>941523.468335017</v>
       </c>
       <c r="K16" t="s">
         <v>160</v>
@@ -4157,28 +4157,28 @@
         <v>18.3974721573495</v>
       </c>
       <c r="C17" t="n">
-        <v>-10130.3303249369</v>
+        <v>-10130.3321290282</v>
       </c>
       <c r="D17" t="n">
-        <v>255485.267815623</v>
+        <v>255485.267889405</v>
       </c>
       <c r="E17" t="n">
-        <v>902279.913858645</v>
+        <v>902279.914957092</v>
       </c>
       <c r="F17" t="n">
         <v>941523.439689382</v>
       </c>
       <c r="G17" t="n">
-        <v>39243.5258307375</v>
+        <v>39243.5247322909</v>
       </c>
       <c r="H17" t="n">
-        <v>10677.7644475163</v>
+        <v>10677.7643680123</v>
       </c>
       <c r="I17" t="n">
-        <v>266163.032263139</v>
+        <v>266163.032257417</v>
       </c>
       <c r="J17" t="n">
-        <v>941523.467588321</v>
+        <v>941523.468335017</v>
       </c>
       <c r="K17" t="s">
         <v>161</v>
@@ -4192,28 +4192,28 @@
         <v>8.15769138428175</v>
       </c>
       <c r="C18" t="n">
-        <v>32437.2735564646</v>
+        <v>32437.2718089805</v>
       </c>
       <c r="D18" t="n">
-        <v>168989.138782282</v>
+        <v>168989.138902734</v>
       </c>
       <c r="E18" t="n">
-        <v>939616.337349811</v>
+        <v>939616.3360616</v>
       </c>
       <c r="F18" t="n">
         <v>967155.511736567</v>
       </c>
       <c r="G18" t="n">
-        <v>27539.1743867564</v>
+        <v>27539.1756749674</v>
       </c>
       <c r="H18" t="n">
-        <v>9286.69316579919</v>
+        <v>9286.69310395589</v>
       </c>
       <c r="I18" t="n">
-        <v>178275.831948081</v>
+        <v>178275.83200669</v>
       </c>
       <c r="J18" t="n">
-        <v>967155.630260139</v>
+        <v>967155.628731162</v>
       </c>
       <c r="K18" t="s">
         <v>162</v>
@@ -4227,28 +4227,28 @@
         <v>17.3962247076723</v>
       </c>
       <c r="C19" t="n">
-        <v>32437.2735564646</v>
+        <v>32437.2718089805</v>
       </c>
       <c r="D19" t="n">
-        <v>253478.498354572</v>
+        <v>253478.497907824</v>
       </c>
       <c r="E19" t="n">
-        <v>939616.337349811</v>
+        <v>939616.3360616</v>
       </c>
       <c r="F19" t="n">
         <v>967155.511736567</v>
       </c>
       <c r="G19" t="n">
-        <v>27539.1743867564</v>
+        <v>27539.1756749674</v>
       </c>
       <c r="H19" t="n">
-        <v>7769.51667782547</v>
+        <v>7769.51662370714</v>
       </c>
       <c r="I19" t="n">
-        <v>261248.015032397</v>
+        <v>261248.014531531</v>
       </c>
       <c r="J19" t="n">
-        <v>967155.630260139</v>
+        <v>967155.628731162</v>
       </c>
       <c r="K19" t="s">
         <v>163</v>
@@ -4262,28 +4262,28 @@
         <v>17.2189212732546</v>
       </c>
       <c r="C20" t="n">
-        <v>32437.2735564646</v>
+        <v>32437.2718089805</v>
       </c>
       <c r="D20" t="n">
-        <v>251857.00140267</v>
+        <v>251857.000966808</v>
       </c>
       <c r="E20" t="n">
-        <v>939616.337349811</v>
+        <v>939616.3360616</v>
       </c>
       <c r="F20" t="n">
         <v>967155.511736567</v>
       </c>
       <c r="G20" t="n">
-        <v>27539.1743867564</v>
+        <v>27539.1756749674</v>
       </c>
       <c r="H20" t="n">
-        <v>6126.2349835951</v>
+        <v>6126.23492726605</v>
       </c>
       <c r="I20" t="n">
-        <v>257983.236386265</v>
+        <v>257983.235894074</v>
       </c>
       <c r="J20" t="n">
-        <v>967155.630260139</v>
+        <v>967155.628731162</v>
       </c>
       <c r="K20" t="s">
         <v>164</v>
@@ -4297,28 +4297,28 @@
         <v>18.6879453056092</v>
       </c>
       <c r="C21" t="n">
-        <v>32437.2735564646</v>
+        <v>32437.2718089805</v>
       </c>
       <c r="D21" t="n">
-        <v>265291.698810287</v>
+        <v>265291.698284234</v>
       </c>
       <c r="E21" t="n">
-        <v>939616.337349811</v>
+        <v>939616.3360616</v>
       </c>
       <c r="F21" t="n">
         <v>967155.511736567</v>
       </c>
       <c r="G21" t="n">
-        <v>27539.1743867564</v>
+        <v>27539.1756749674</v>
       </c>
       <c r="H21" t="n">
-        <v>4356.84808310807</v>
+        <v>4356.84801463262</v>
       </c>
       <c r="I21" t="n">
-        <v>269648.546893395</v>
+        <v>269648.546298867</v>
       </c>
       <c r="J21" t="n">
-        <v>967155.630260139</v>
+        <v>967155.628731162</v>
       </c>
       <c r="K21" t="s">
         <v>165</v>
@@ -4332,28 +4332,28 @@
         <v>7.91060371693345</v>
       </c>
       <c r="C22" t="n">
-        <v>49332.7645100157</v>
+        <v>49332.7628211828</v>
       </c>
       <c r="D22" t="n">
-        <v>169567.330624367</v>
+        <v>169567.330535064</v>
       </c>
       <c r="E22" t="n">
-        <v>933943.134485444</v>
+        <v>933943.132411827</v>
       </c>
       <c r="F22" t="n">
         <v>937861.122895957</v>
       </c>
       <c r="G22" t="n">
-        <v>3917.98841051373</v>
+        <v>3917.9904841308</v>
       </c>
       <c r="H22" t="n">
-        <v>2461.35597636439</v>
+        <v>2461.35588580686</v>
       </c>
       <c r="I22" t="n">
-        <v>172028.686600731</v>
+        <v>172028.686420871</v>
       </c>
       <c r="J22" t="n">
-        <v>937861.277389317</v>
+        <v>937861.274957103</v>
       </c>
       <c r="K22" t="s">
         <v>166</v>
@@ -4367,28 +4367,28 @@
         <v>16.8693118372041</v>
       </c>
       <c r="C23" t="n">
-        <v>49332.7645100157</v>
+        <v>49332.7628211828</v>
       </c>
       <c r="D23" t="n">
-        <v>251497.598685461</v>
+        <v>251497.598046138</v>
       </c>
       <c r="E23" t="n">
-        <v>933943.134485444</v>
+        <v>933943.132411827</v>
       </c>
       <c r="F23" t="n">
         <v>937861.122895957</v>
       </c>
       <c r="G23" t="n">
-        <v>3917.98841051373</v>
+        <v>3917.9904841308</v>
       </c>
       <c r="H23" t="n">
-        <v>1110.43103350846</v>
+        <v>1110.43093448143</v>
       </c>
       <c r="I23" t="n">
-        <v>252608.029718969</v>
+        <v>252608.02898062</v>
       </c>
       <c r="J23" t="n">
-        <v>937861.277389317</v>
+        <v>937861.274957103</v>
       </c>
       <c r="K23" t="s">
         <v>167</v>
@@ -4402,28 +4402,28 @@
         <v>16.6973787324494</v>
       </c>
       <c r="C24" t="n">
-        <v>49332.7645100157</v>
+        <v>49332.7628211828</v>
       </c>
       <c r="D24" t="n">
-        <v>249925.215126133</v>
+        <v>249925.214497367</v>
       </c>
       <c r="E24" t="n">
-        <v>933943.134485444</v>
+        <v>933943.132411827</v>
       </c>
       <c r="F24" t="n">
         <v>937861.122895957</v>
       </c>
       <c r="G24" t="n">
-        <v>3917.98841051373</v>
+        <v>3917.9904841308</v>
       </c>
       <c r="H24" t="n">
-        <v>304.073254540281</v>
+        <v>304.07316065633</v>
       </c>
       <c r="I24" t="n">
-        <v>250229.288380673</v>
+        <v>250229.287658023</v>
       </c>
       <c r="J24" t="n">
-        <v>937861.277389317</v>
+        <v>937861.274957103</v>
       </c>
       <c r="K24" t="s">
         <v>168</v>
@@ -4437,28 +4437,28 @@
         <v>18.121907612397</v>
       </c>
       <c r="C25" t="n">
-        <v>49332.7645100157</v>
+        <v>49332.7628211828</v>
       </c>
       <c r="D25" t="n">
-        <v>262952.990049483</v>
+        <v>262952.989333258</v>
       </c>
       <c r="E25" t="n">
-        <v>933943.134485444</v>
+        <v>933943.132411827</v>
       </c>
       <c r="F25" t="n">
         <v>937861.122895957</v>
       </c>
       <c r="G25" t="n">
-        <v>3917.98841051373</v>
+        <v>3917.9904841308</v>
       </c>
       <c r="H25" t="n">
-        <v>42.2826394598443</v>
+        <v>42.2825643315536</v>
       </c>
       <c r="I25" t="n">
-        <v>262995.272688943</v>
+        <v>262995.271897589</v>
       </c>
       <c r="J25" t="n">
-        <v>937861.277389317</v>
+        <v>937861.274957103</v>
       </c>
       <c r="K25" t="s">
         <v>169</v>
@@ -4472,28 +4472,28 @@
         <v>8.32905004555982</v>
       </c>
       <c r="C26" t="n">
-        <v>37063.1307575436</v>
+        <v>37063.1289544188</v>
       </c>
       <c r="D26" t="n">
-        <v>171333.261083828</v>
+        <v>171333.261120133</v>
       </c>
       <c r="E26" t="n">
-        <v>954531.205637268</v>
+        <v>954531.203975291</v>
       </c>
       <c r="F26" t="n">
         <v>961599.305051036</v>
       </c>
       <c r="G26" t="n">
-        <v>7068.09941376804</v>
+        <v>7068.10107574461</v>
       </c>
       <c r="H26" t="n">
-        <v>325.059188267157</v>
+        <v>325.059145507104</v>
       </c>
       <c r="I26" t="n">
-        <v>171658.320272095</v>
+        <v>171658.32026564</v>
       </c>
       <c r="J26" t="n">
-        <v>961599.433422862</v>
+        <v>961599.431646585</v>
       </c>
       <c r="K26" t="s">
         <v>146</v>
@@ -4507,28 +4507,28 @@
         <v>17.7616459569909</v>
       </c>
       <c r="C27" t="n">
-        <v>37063.1307575436</v>
+        <v>37063.1289544188</v>
       </c>
       <c r="D27" t="n">
-        <v>257597.385459851</v>
+        <v>257597.384917043</v>
       </c>
       <c r="E27" t="n">
-        <v>954531.205637268</v>
+        <v>954531.203975291</v>
       </c>
       <c r="F27" t="n">
         <v>961599.305051036</v>
       </c>
       <c r="G27" t="n">
-        <v>7068.09941376804</v>
+        <v>7068.10107574461</v>
       </c>
       <c r="H27" t="n">
-        <v>1014.96891104267</v>
+        <v>1014.96888690392</v>
       </c>
       <c r="I27" t="n">
-        <v>258612.354370894</v>
+        <v>258612.353803947</v>
       </c>
       <c r="J27" t="n">
-        <v>961599.433422862</v>
+        <v>961599.431646585</v>
       </c>
       <c r="K27" t="s">
         <v>147</v>
@@ -4542,28 +4542,28 @@
         <v>17.5806181258375</v>
       </c>
       <c r="C28" t="n">
-        <v>37063.1307575436</v>
+        <v>37063.1289544188</v>
       </c>
       <c r="D28" t="n">
-        <v>255941.827701545</v>
+        <v>255941.827169851</v>
       </c>
       <c r="E28" t="n">
-        <v>954531.205637268</v>
+        <v>954531.203975291</v>
       </c>
       <c r="F28" t="n">
         <v>961599.305051036</v>
       </c>
       <c r="G28" t="n">
-        <v>7068.09941376804</v>
+        <v>7068.10107574461</v>
       </c>
       <c r="H28" t="n">
-        <v>2112.01180778639</v>
+        <v>2112.01178852198</v>
       </c>
       <c r="I28" t="n">
-        <v>258053.839509332</v>
+        <v>258053.838958373</v>
       </c>
       <c r="J28" t="n">
-        <v>961599.433422862</v>
+        <v>961599.431646585</v>
       </c>
       <c r="K28" t="s">
         <v>148</v>
@@ -4577,28 +4577,28 @@
         <v>19.0805001521651</v>
       </c>
       <c r="C29" t="n">
-        <v>37063.1307575436</v>
+        <v>37063.1289544188</v>
       </c>
       <c r="D29" t="n">
-        <v>269658.731392043</v>
+        <v>269658.730768264</v>
       </c>
       <c r="E29" t="n">
-        <v>954531.205637268</v>
+        <v>954531.203975291</v>
       </c>
       <c r="F29" t="n">
         <v>961599.305051036</v>
       </c>
       <c r="G29" t="n">
-        <v>7068.09941376804</v>
+        <v>7068.10107574461</v>
       </c>
       <c r="H29" t="n">
-        <v>3616.18787849831</v>
+        <v>3616.18785036131</v>
       </c>
       <c r="I29" t="n">
-        <v>273274.919270542</v>
+        <v>273274.918618625</v>
       </c>
       <c r="J29" t="n">
-        <v>961599.433422862</v>
+        <v>961599.431646585</v>
       </c>
       <c r="K29" t="s">
         <v>149</v>
@@ -4612,28 +4612,28 @@
         <v>8.35164970936554</v>
       </c>
       <c r="C30" t="n">
-        <v>31969.65838754</v>
+        <v>31969.6567779699</v>
       </c>
       <c r="D30" t="n">
-        <v>170684.40606411</v>
+        <v>170684.406202317</v>
       </c>
       <c r="E30" t="n">
-        <v>952666.215548524</v>
+        <v>952666.214289248</v>
       </c>
       <c r="F30" t="n">
         <v>985826.926345466</v>
       </c>
       <c r="G30" t="n">
-        <v>33160.7107969425</v>
+        <v>33160.7120562183</v>
       </c>
       <c r="H30" t="n">
-        <v>5527.49712317845</v>
+        <v>5527.4970724219</v>
       </c>
       <c r="I30" t="n">
-        <v>176211.903187288</v>
+        <v>176211.903274739</v>
       </c>
       <c r="J30" t="n">
-        <v>985827.043873505</v>
+        <v>985827.042369527</v>
       </c>
       <c r="K30" t="s">
         <v>150</v>
@@ -4647,28 +4647,28 @@
         <v>17.8098395955293</v>
       </c>
       <c r="C31" t="n">
-        <v>31969.65838754</v>
+        <v>31969.6567779699</v>
       </c>
       <c r="D31" t="n">
-        <v>257182.59557346</v>
+        <v>257182.595130981</v>
       </c>
       <c r="E31" t="n">
-        <v>952666.215548524</v>
+        <v>952666.214289248</v>
       </c>
       <c r="F31" t="n">
         <v>985826.926345466</v>
       </c>
       <c r="G31" t="n">
-        <v>33160.7107969425</v>
+        <v>33160.7120562183</v>
       </c>
       <c r="H31" t="n">
-        <v>7397.10480427724</v>
+        <v>7397.10474030525</v>
       </c>
       <c r="I31" t="n">
-        <v>264579.700377737</v>
+        <v>264579.699871286</v>
       </c>
       <c r="J31" t="n">
-        <v>985827.043873505</v>
+        <v>985827.042369527</v>
       </c>
       <c r="K31" t="s">
         <v>151</v>
@@ -4682,28 +4682,28 @@
         <v>17.6283205717307</v>
       </c>
       <c r="C32" t="n">
-        <v>31969.65838754</v>
+        <v>31969.6567779699</v>
       </c>
       <c r="D32" t="n">
-        <v>255522.545700381</v>
+        <v>255522.545269047</v>
       </c>
       <c r="E32" t="n">
-        <v>952666.215548524</v>
+        <v>952666.214289248</v>
       </c>
       <c r="F32" t="n">
         <v>985826.926345466</v>
       </c>
       <c r="G32" t="n">
-        <v>33160.7107969425</v>
+        <v>33160.7120562183</v>
       </c>
       <c r="H32" t="n">
-        <v>9225.01092179469</v>
+        <v>9225.01085401139</v>
       </c>
       <c r="I32" t="n">
-        <v>264747.556622176</v>
+        <v>264747.556123058</v>
       </c>
       <c r="J32" t="n">
-        <v>985827.043873505</v>
+        <v>985827.042369527</v>
       </c>
       <c r="K32" t="s">
         <v>152</v>
@@ -4717,28 +4717,28 @@
         <v>19.1322723094129</v>
       </c>
       <c r="C33" t="n">
-        <v>31969.65838754</v>
+        <v>31969.6567779699</v>
       </c>
       <c r="D33" t="n">
-        <v>269276.668210573</v>
+        <v>269276.667686903</v>
       </c>
       <c r="E33" t="n">
-        <v>952666.215548524</v>
+        <v>952666.214289248</v>
       </c>
       <c r="F33" t="n">
         <v>985826.926345466</v>
       </c>
       <c r="G33" t="n">
-        <v>33160.7107969425</v>
+        <v>33160.7120562183</v>
       </c>
       <c r="H33" t="n">
-        <v>11011.2154757308</v>
+        <v>11011.2154135403</v>
       </c>
       <c r="I33" t="n">
-        <v>280287.883686303</v>
+        <v>280287.883100443</v>
       </c>
       <c r="J33" t="n">
-        <v>985827.043873505</v>
+        <v>985827.042369527</v>
       </c>
       <c r="K33" t="s">
         <v>153</v>
@@ -4752,28 +4752,28 @@
         <v>8.3747406756482</v>
       </c>
       <c r="C34" t="n">
-        <v>54640.1249057099</v>
+        <v>54640.1233065934</v>
       </c>
       <c r="D34" t="n">
-        <v>174703.474825276</v>
+        <v>174703.474648798</v>
       </c>
       <c r="E34" t="n">
-        <v>969488.799671893</v>
+        <v>969488.797148865</v>
       </c>
       <c r="F34" t="n">
         <v>1020731.39806729</v>
       </c>
       <c r="G34" t="n">
-        <v>51242.5983954013</v>
+        <v>51242.6009184292</v>
       </c>
       <c r="H34" t="n">
-        <v>12755.7184660856</v>
+        <v>12755.718418892</v>
       </c>
       <c r="I34" t="n">
-        <v>187459.193291362</v>
+        <v>187459.19306769</v>
       </c>
       <c r="J34" t="n">
-        <v>1020731.5638598</v>
+        <v>1020731.56114385</v>
       </c>
       <c r="K34" t="s">
         <v>154</v>
@@ -4787,28 +4787,28 @@
         <v>17.8590809334579</v>
       </c>
       <c r="C35" t="n">
-        <v>54640.1249057099</v>
+        <v>54640.1233065934</v>
       </c>
       <c r="D35" t="n">
-        <v>261440.817896734</v>
+        <v>261440.817137964</v>
       </c>
       <c r="E35" t="n">
-        <v>969488.799671893</v>
+        <v>969488.797148865</v>
       </c>
       <c r="F35" t="n">
         <v>1020731.39806729</v>
       </c>
       <c r="G35" t="n">
-        <v>51242.5983954013</v>
+        <v>51242.6009184292</v>
       </c>
       <c r="H35" t="n">
-        <v>13475.5086945839</v>
+        <v>13475.5086529747</v>
       </c>
       <c r="I35" t="n">
-        <v>274916.326591318</v>
+        <v>274916.325790939</v>
       </c>
       <c r="J35" t="n">
-        <v>1020731.5638598</v>
+        <v>1020731.56114385</v>
       </c>
       <c r="K35" t="s">
         <v>155</v>
@@ -4822,28 +4822,28 @@
         <v>17.677060038795</v>
       </c>
       <c r="C36" t="n">
-        <v>54640.1249057099</v>
+        <v>54640.1233065934</v>
       </c>
       <c r="D36" t="n">
-        <v>259776.178253134</v>
+        <v>259776.177505539</v>
       </c>
       <c r="E36" t="n">
-        <v>969488.799671893</v>
+        <v>969488.797148865</v>
       </c>
       <c r="F36" t="n">
         <v>1020731.39806729</v>
       </c>
       <c r="G36" t="n">
-        <v>51242.5983954013</v>
+        <v>51242.6009184292</v>
       </c>
       <c r="H36" t="n">
-        <v>13170.5861612259</v>
+        <v>13170.5861157885</v>
       </c>
       <c r="I36" t="n">
-        <v>272946.764414359</v>
+        <v>272946.763621327</v>
       </c>
       <c r="J36" t="n">
-        <v>1020731.5638598</v>
+        <v>1020731.56114385</v>
       </c>
       <c r="K36" t="s">
         <v>156</v>
@@ -4857,28 +4857,28 @@
         <v>19.1851699607969</v>
       </c>
       <c r="C37" t="n">
-        <v>54640.1249057099</v>
+        <v>54640.1233065934</v>
       </c>
       <c r="D37" t="n">
-        <v>273568.328696749</v>
+        <v>273568.327856564</v>
       </c>
       <c r="E37" t="n">
-        <v>969488.799671893</v>
+        <v>969488.797148865</v>
       </c>
       <c r="F37" t="n">
         <v>1020731.39806729</v>
       </c>
       <c r="G37" t="n">
-        <v>51242.5983954013</v>
+        <v>51242.6009184292</v>
       </c>
       <c r="H37" t="n">
-        <v>11840.9508660114</v>
+        <v>11840.9508073333</v>
       </c>
       <c r="I37" t="n">
-        <v>285409.27956276</v>
+        <v>285409.278663897</v>
       </c>
       <c r="J37" t="n">
-        <v>1020731.5638598</v>
+        <v>1020731.56114385</v>
       </c>
       <c r="K37" t="s">
         <v>157</v>
@@ -4892,28 +4892,28 @@
         <v>8.10889675895659</v>
       </c>
       <c r="C38" t="n">
-        <v>87953.5902858223</v>
+        <v>87953.5886973867</v>
       </c>
       <c r="D38" t="n">
-        <v>177867.815681711</v>
+        <v>177867.815060432</v>
       </c>
       <c r="E38" t="n">
-        <v>973553.98353631</v>
+        <v>973553.97929176</v>
       </c>
       <c r="F38" t="n">
         <v>988329.759396511</v>
       </c>
       <c r="G38" t="n">
-        <v>14775.7758602008</v>
+        <v>14775.7801047505</v>
       </c>
       <c r="H38" t="n">
-        <v>9486.60280894052</v>
+        <v>9486.60272760919</v>
       </c>
       <c r="I38" t="n">
-        <v>187354.418490652</v>
+        <v>187354.417788041</v>
       </c>
       <c r="J38" t="n">
-        <v>988329.996111979</v>
+        <v>988329.991615088</v>
       </c>
       <c r="K38" t="s">
         <v>158</v>
@@ -4927,28 +4927,28 @@
         <v>17.2921704812133</v>
       </c>
       <c r="C39" t="n">
-        <v>87953.5902858223</v>
+        <v>87953.5886973867</v>
       </c>
       <c r="D39" t="n">
-        <v>261851.808422861</v>
+        <v>261851.807237774</v>
       </c>
       <c r="E39" t="n">
-        <v>973553.98353631</v>
+        <v>973553.97929176</v>
       </c>
       <c r="F39" t="n">
         <v>988329.759396511</v>
       </c>
       <c r="G39" t="n">
-        <v>14775.7758602008</v>
+        <v>14775.7801047505</v>
       </c>
       <c r="H39" t="n">
-        <v>6227.82372010287</v>
+        <v>6227.82363700861</v>
       </c>
       <c r="I39" t="n">
-        <v>268079.632142964</v>
+        <v>268079.630874783</v>
       </c>
       <c r="J39" t="n">
-        <v>988329.996111979</v>
+        <v>988329.991615088</v>
       </c>
       <c r="K39" t="s">
         <v>159</v>
@@ -4962,28 +4962,28 @@
         <v>17.1159275741241</v>
       </c>
       <c r="C40" t="n">
-        <v>87953.5902858223</v>
+        <v>87953.5886973867</v>
       </c>
       <c r="D40" t="n">
-        <v>260240.010334584</v>
+        <v>260240.009160318</v>
       </c>
       <c r="E40" t="n">
-        <v>973553.98353631</v>
+        <v>973553.97929176</v>
       </c>
       <c r="F40" t="n">
         <v>988329.759396511</v>
       </c>
       <c r="G40" t="n">
-        <v>14775.7758602008</v>
+        <v>14775.7801047505</v>
       </c>
       <c r="H40" t="n">
-        <v>2064.61359949845</v>
+        <v>2064.61353553159</v>
       </c>
       <c r="I40" t="n">
-        <v>262304.623934083</v>
+        <v>262304.62269585</v>
       </c>
       <c r="J40" t="n">
-        <v>988329.996111979</v>
+        <v>988329.991615088</v>
       </c>
       <c r="K40" t="s">
         <v>160</v>
@@ -4997,28 +4997,28 @@
         <v>18.5761647483008</v>
       </c>
       <c r="C41" t="n">
-        <v>87953.5902858223</v>
+        <v>87953.5886973867</v>
       </c>
       <c r="D41" t="n">
-        <v>273594.349097153</v>
+        <v>273594.347833236</v>
       </c>
       <c r="E41" t="n">
-        <v>973553.98353631</v>
+        <v>973553.97929176</v>
       </c>
       <c r="F41" t="n">
         <v>988329.759396511</v>
       </c>
       <c r="G41" t="n">
-        <v>14775.7758602008</v>
+        <v>14775.7801047505</v>
       </c>
       <c r="H41" t="n">
-        <v>-3003.02755287275</v>
+        <v>-3003.02757682188</v>
       </c>
       <c r="I41" t="n">
-        <v>270591.321544281</v>
+        <v>270591.320256414</v>
       </c>
       <c r="J41" t="n">
-        <v>988329.996111979</v>
+        <v>988329.991615088</v>
       </c>
       <c r="K41" t="s">
         <v>161</v>
@@ -5032,28 +5032,28 @@
         <v>9.17349383450193</v>
       </c>
       <c r="C42" t="n">
-        <v>73869.0437706998</v>
+        <v>73869.0420592965</v>
       </c>
       <c r="D42" t="n">
-        <v>185238.156821083</v>
+        <v>185238.156309504</v>
       </c>
       <c r="E42" t="n">
-        <v>1037443.54274945</v>
+        <v>1037443.5387127</v>
       </c>
       <c r="F42" t="n">
         <v>996946.998398342</v>
       </c>
       <c r="G42" t="n">
-        <v>-40496.5443511029</v>
+        <v>-40496.5403143625</v>
       </c>
       <c r="H42" t="n">
-        <v>-8975.09973701072</v>
+        <v>-8975.09970005179</v>
       </c>
       <c r="I42" t="n">
-        <v>176263.057084073</v>
+        <v>176263.056609452</v>
       </c>
       <c r="J42" t="n">
-        <v>996947.205128405</v>
+        <v>996947.201384476</v>
       </c>
       <c r="K42" t="s">
         <v>162</v>
@@ -5067,28 +5067,28 @@
         <v>19.5624169366016</v>
       </c>
       <c r="C43" t="n">
-        <v>73869.0437706998</v>
+        <v>73869.0420592965</v>
       </c>
       <c r="D43" t="n">
-        <v>280248.201036633</v>
+        <v>280248.199887226</v>
       </c>
       <c r="E43" t="n">
-        <v>1037443.54274945</v>
+        <v>1037443.5387127</v>
       </c>
       <c r="F43" t="n">
         <v>996946.998398342</v>
       </c>
       <c r="G43" t="n">
-        <v>-40496.5443511029</v>
+        <v>-40496.5403143625</v>
       </c>
       <c r="H43" t="n">
-        <v>-11823.5224779656</v>
+        <v>-11823.5224021459</v>
       </c>
       <c r="I43" t="n">
-        <v>268424.678558667</v>
+        <v>268424.67748508</v>
       </c>
       <c r="J43" t="n">
-        <v>996947.205128405</v>
+        <v>996947.201384476</v>
       </c>
       <c r="K43" t="s">
         <v>163</v>
@@ -5102,28 +5102,28 @@
         <v>19.3630355324949</v>
       </c>
       <c r="C44" t="n">
-        <v>73869.0437706998</v>
+        <v>73869.0420592965</v>
       </c>
       <c r="D44" t="n">
-        <v>278424.793948741</v>
+        <v>278424.792811574</v>
       </c>
       <c r="E44" t="n">
-        <v>1037443.54274945</v>
+        <v>1037443.5387127</v>
       </c>
       <c r="F44" t="n">
         <v>996946.998398342</v>
       </c>
       <c r="G44" t="n">
-        <v>-40496.5443511029</v>
+        <v>-40496.5403143625</v>
       </c>
       <c r="H44" t="n">
-        <v>-11548.2957757375</v>
+        <v>-11548.2956831042</v>
       </c>
       <c r="I44" t="n">
-        <v>266876.498173003</v>
+        <v>266876.49712847</v>
       </c>
       <c r="J44" t="n">
-        <v>996947.205128405</v>
+        <v>996947.201384476</v>
       </c>
       <c r="K44" t="s">
         <v>164</v>
@@ -5137,28 +5137,28 @@
         <v>21.014983647314</v>
       </c>
       <c r="C45" t="n">
-        <v>73869.0437706998</v>
+        <v>73869.0420592965</v>
       </c>
       <c r="D45" t="n">
-        <v>293532.390942988</v>
+        <v>293532.389704401</v>
       </c>
       <c r="E45" t="n">
-        <v>1037443.54274945</v>
+        <v>1037443.5387127</v>
       </c>
       <c r="F45" t="n">
         <v>996946.998398342</v>
       </c>
       <c r="G45" t="n">
-        <v>-40496.5443511029</v>
+        <v>-40496.5403143625</v>
       </c>
       <c r="H45" t="n">
-        <v>-8149.41963032625</v>
+        <v>-8149.41954292662</v>
       </c>
       <c r="I45" t="n">
-        <v>285382.971312662</v>
+        <v>285382.970161474</v>
       </c>
       <c r="J45" t="n">
-        <v>996947.205128405</v>
+        <v>996947.201384476</v>
       </c>
       <c r="K45" t="s">
         <v>165</v>
@@ -5172,28 +5172,28 @@
         <v>9.88790185766271</v>
       </c>
       <c r="C46" t="n">
-        <v>9133.75703453575</v>
+        <v>9133.75581556768</v>
       </c>
       <c r="D46" t="n">
-        <v>180898.24415251</v>
+        <v>180898.24457933</v>
       </c>
       <c r="E46" t="n">
-        <v>1043173.83933232</v>
+        <v>1043173.83889416</v>
       </c>
       <c r="F46" t="n">
         <v>1057994.73331105</v>
       </c>
       <c r="G46" t="n">
-        <v>14820.8939787368</v>
+        <v>14820.894416891</v>
       </c>
       <c r="H46" t="n">
-        <v>-1626.89404173197</v>
+        <v>-1626.89398161326</v>
       </c>
       <c r="I46" t="n">
-        <v>179271.350110779</v>
+        <v>179271.350597717</v>
       </c>
       <c r="J46" t="n">
-        <v>1057994.80222242</v>
+        <v>1057994.80193926</v>
       </c>
       <c r="K46" t="s">
         <v>166</v>
@@ -5207,28 +5207,28 @@
         <v>21.0858874772763</v>
       </c>
       <c r="C47" t="n">
-        <v>9133.75703453575</v>
+        <v>9133.75581556768</v>
       </c>
       <c r="D47" t="n">
-        <v>283307.425391858</v>
+        <v>283307.425131177</v>
       </c>
       <c r="E47" t="n">
-        <v>1043173.83933232</v>
+        <v>1043173.83889416</v>
       </c>
       <c r="F47" t="n">
         <v>1057994.73331105</v>
       </c>
       <c r="G47" t="n">
-        <v>14820.8939787368</v>
+        <v>14820.894416891</v>
       </c>
       <c r="H47" t="n">
-        <v>3114.97009940899</v>
+        <v>3114.97014006674</v>
       </c>
       <c r="I47" t="n">
-        <v>286422.395491267</v>
+        <v>286422.395271244</v>
       </c>
       <c r="J47" t="n">
-        <v>1057994.80222242</v>
+        <v>1057994.80193926</v>
       </c>
       <c r="K47" t="s">
         <v>167</v>
@@ -5242,28 +5242,28 @@
         <v>20.8709787640186</v>
       </c>
       <c r="C48" t="n">
-        <v>9133.75703453575</v>
+        <v>9133.75581556768</v>
       </c>
       <c r="D48" t="n">
-        <v>281342.016066151</v>
+        <v>281342.015818665</v>
       </c>
       <c r="E48" t="n">
-        <v>1043173.83933232</v>
+        <v>1043173.83889416</v>
       </c>
       <c r="F48" t="n">
         <v>1057994.73331105</v>
       </c>
       <c r="G48" t="n">
-        <v>14820.8939787368</v>
+        <v>14820.894416891</v>
       </c>
       <c r="H48" t="n">
-        <v>6076.17279309663</v>
+        <v>6076.17282211338</v>
       </c>
       <c r="I48" t="n">
-        <v>287418.188859248</v>
+        <v>287418.188640778</v>
       </c>
       <c r="J48" t="n">
-        <v>1057994.80222242</v>
+        <v>1057994.80193926</v>
       </c>
       <c r="K48" t="s">
         <v>168</v>
@@ -5277,28 +5277,28 @@
         <v>22.6515763343628</v>
       </c>
       <c r="C49" t="n">
-        <v>9133.75703453575</v>
+        <v>9133.75581556768</v>
       </c>
       <c r="D49" t="n">
-        <v>297626.153721797</v>
+        <v>297626.15336499</v>
       </c>
       <c r="E49" t="n">
-        <v>1043173.83933232</v>
+        <v>1043173.83889416</v>
       </c>
       <c r="F49" t="n">
         <v>1057994.73331105</v>
       </c>
       <c r="G49" t="n">
-        <v>14820.8939787368</v>
+        <v>14820.894416891</v>
       </c>
       <c r="H49" t="n">
-        <v>7256.71403933094</v>
+        <v>7256.71406452665</v>
       </c>
       <c r="I49" t="n">
-        <v>304882.867761128</v>
+        <v>304882.867429517</v>
       </c>
       <c r="J49" t="n">
-        <v>1057994.80222242</v>
+        <v>1057994.80193926</v>
       </c>
       <c r="K49" t="s">
         <v>169</v>
@@ -5312,28 +5312,28 @@
         <v>10.0845109015617</v>
       </c>
       <c r="C50" t="n">
-        <v>20957.5798117679</v>
+        <v>20957.5789232531</v>
       </c>
       <c r="D50" t="n">
-        <v>184682.311343074</v>
+        <v>184682.311649027</v>
       </c>
       <c r="E50" t="n">
-        <v>1064664.58943679</v>
+        <v>1064664.58847251</v>
       </c>
       <c r="F50" t="n">
         <v>1079032.29821499</v>
       </c>
       <c r="G50" t="n">
-        <v>14367.7087782039</v>
+        <v>14367.7097424844</v>
       </c>
       <c r="H50" t="n">
-        <v>6656.59383811193</v>
+        <v>6656.59386730655</v>
       </c>
       <c r="I50" t="n">
-        <v>191338.905181186</v>
+        <v>191338.905516333</v>
       </c>
       <c r="J50" t="n">
-        <v>1079032.39229878</v>
+        <v>1079032.39138351</v>
       </c>
       <c r="K50" t="s">
         <v>146</v>
@@ -5347,28 +5347,28 @@
         <v>21.5051550060549</v>
       </c>
       <c r="C51" t="n">
-        <v>20957.5798117679</v>
+        <v>20957.5789232531</v>
       </c>
       <c r="D51" t="n">
-        <v>289127.77606296</v>
+        <v>289127.775667742</v>
       </c>
       <c r="E51" t="n">
-        <v>1064664.58943679</v>
+        <v>1064664.58847251</v>
       </c>
       <c r="F51" t="n">
         <v>1079032.29821499</v>
       </c>
       <c r="G51" t="n">
-        <v>14367.7087782039</v>
+        <v>14367.7097424844</v>
       </c>
       <c r="H51" t="n">
-        <v>5190.68850857872</v>
+        <v>5190.68853259622</v>
       </c>
       <c r="I51" t="n">
-        <v>294318.464571538</v>
+        <v>294318.464200338</v>
       </c>
       <c r="J51" t="n">
-        <v>1079032.39229878</v>
+        <v>1079032.39138351</v>
       </c>
       <c r="K51" t="s">
         <v>147</v>
@@ -5382,28 +5382,28 @@
         <v>21.2859730913388</v>
       </c>
       <c r="C52" t="n">
-        <v>20957.5798117679</v>
+        <v>20957.5789232531</v>
       </c>
       <c r="D52" t="n">
-        <v>287123.286935091</v>
+        <v>287123.28655333</v>
       </c>
       <c r="E52" t="n">
-        <v>1064664.58943679</v>
+        <v>1064664.58847251</v>
       </c>
       <c r="F52" t="n">
         <v>1079032.29821499</v>
       </c>
       <c r="G52" t="n">
-        <v>14367.7087782039</v>
+        <v>14367.7097424844</v>
       </c>
       <c r="H52" t="n">
-        <v>2858.99805073131</v>
+        <v>2858.99806039567</v>
       </c>
       <c r="I52" t="n">
-        <v>289982.284985822</v>
+        <v>289982.284613725</v>
       </c>
       <c r="J52" t="n">
-        <v>1079032.39229878</v>
+        <v>1079032.39138351</v>
       </c>
       <c r="K52" t="s">
         <v>148</v>
@@ -5417,28 +5417,28 @@
         <v>23.1019757042202</v>
       </c>
       <c r="C53" t="n">
-        <v>20957.5798117679</v>
+        <v>20957.5789232531</v>
       </c>
       <c r="D53" t="n">
-        <v>303731.215095666</v>
+        <v>303731.214602412</v>
       </c>
       <c r="E53" t="n">
-        <v>1064664.58943679</v>
+        <v>1064664.58847251</v>
       </c>
       <c r="F53" t="n">
         <v>1079032.29821499</v>
       </c>
       <c r="G53" t="n">
-        <v>14367.7087782039</v>
+        <v>14367.7097424844</v>
       </c>
       <c r="H53" t="n">
-        <v>-338.477535430308</v>
+        <v>-338.477549295124</v>
       </c>
       <c r="I53" t="n">
-        <v>303392.737560236</v>
+        <v>303392.737053117</v>
       </c>
       <c r="J53" t="n">
-        <v>1079032.39229878</v>
+        <v>1079032.39138351</v>
       </c>
       <c r="K53" t="s">
         <v>149</v>
@@ -5452,28 +5452,28 @@
         <v>9.54288129123004</v>
       </c>
       <c r="C54" t="n">
-        <v>28448.451526145</v>
+        <v>28448.4507285729</v>
       </c>
       <c r="D54" t="n">
-        <v>180987.154932754</v>
+        <v>180987.155183144</v>
       </c>
       <c r="E54" t="n">
-        <v>1032378.2825461</v>
+        <v>1032378.28147709</v>
       </c>
       <c r="F54" t="n">
         <v>999140.915771971</v>
       </c>
       <c r="G54" t="n">
-        <v>-33237.36677413</v>
+        <v>-33237.3657051192</v>
       </c>
       <c r="H54" t="n">
-        <v>-4401.73824990612</v>
+        <v>-4401.73829647615</v>
       </c>
       <c r="I54" t="n">
-        <v>176585.416682848</v>
+        <v>176585.416886668</v>
       </c>
       <c r="J54" t="n">
-        <v>999141.025803508</v>
+        <v>999141.024487776</v>
       </c>
       <c r="K54" t="s">
         <v>150</v>
@@ -5487,28 +5487,28 @@
         <v>20.350133325802</v>
       </c>
       <c r="C55" t="n">
-        <v>28448.451526145</v>
+        <v>28448.4507285729</v>
       </c>
       <c r="D55" t="n">
-        <v>279822.95182548</v>
+        <v>279822.951412359</v>
       </c>
       <c r="E55" t="n">
-        <v>1032378.2825461</v>
+        <v>1032378.28147709</v>
       </c>
       <c r="F55" t="n">
         <v>999140.915771971</v>
       </c>
       <c r="G55" t="n">
-        <v>-33237.36677413</v>
+        <v>-33237.3657051192</v>
       </c>
       <c r="H55" t="n">
-        <v>-7590.07290999325</v>
+        <v>-7590.07297568947</v>
       </c>
       <c r="I55" t="n">
-        <v>272232.878915487</v>
+        <v>272232.878436669</v>
       </c>
       <c r="J55" t="n">
-        <v>999141.025803508</v>
+        <v>999141.024487776</v>
       </c>
       <c r="K55" t="s">
         <v>151</v>
@@ -5522,28 +5522,28 @@
         <v>20.1427234658953</v>
       </c>
       <c r="C56" t="n">
-        <v>28448.451526145</v>
+        <v>28448.4507285729</v>
       </c>
       <c r="D56" t="n">
-        <v>277926.121926287</v>
+        <v>277926.1215259</v>
       </c>
       <c r="E56" t="n">
-        <v>1032378.2825461</v>
+        <v>1032378.28147709</v>
       </c>
       <c r="F56" t="n">
         <v>999140.915771971</v>
       </c>
       <c r="G56" t="n">
-        <v>-33237.36677413</v>
+        <v>-33237.3657051192</v>
       </c>
       <c r="H56" t="n">
-        <v>-9903.48151569169</v>
+        <v>-9903.48158693509</v>
       </c>
       <c r="I56" t="n">
-        <v>268022.640410596</v>
+        <v>268022.639938965</v>
       </c>
       <c r="J56" t="n">
-        <v>999141.025803508</v>
+        <v>999141.024487776</v>
       </c>
       <c r="K56" t="s">
         <v>152</v>
@@ -5557,28 +5557,28 @@
         <v>21.8611902838158</v>
       </c>
       <c r="C57" t="n">
-        <v>28448.451526145</v>
+        <v>28448.4507285729</v>
       </c>
       <c r="D57" t="n">
-        <v>293642.053861579</v>
+        <v>293642.053355687</v>
       </c>
       <c r="E57" t="n">
-        <v>1032378.2825461</v>
+        <v>1032378.28147709</v>
       </c>
       <c r="F57" t="n">
         <v>999140.915771971</v>
       </c>
       <c r="G57" t="n">
-        <v>-33237.36677413</v>
+        <v>-33237.3657051192</v>
       </c>
       <c r="H57" t="n">
-        <v>-11341.9640670014</v>
+        <v>-11341.964130213</v>
       </c>
       <c r="I57" t="n">
-        <v>282300.089794578</v>
+        <v>282300.089225474</v>
       </c>
       <c r="J57" t="n">
-        <v>999141.025803508</v>
+        <v>999141.024487776</v>
       </c>
       <c r="K57" t="s">
         <v>153</v>
@@ -5592,28 +5592,28 @@
         <v>9.48743590695721</v>
       </c>
       <c r="C58" t="n">
-        <v>-14123.741483676</v>
+        <v>-14123.7425317818</v>
       </c>
       <c r="D58" t="n">
-        <v>173329.357632671</v>
+        <v>173329.358435957</v>
       </c>
       <c r="E58" t="n">
-        <v>999955.076799188</v>
+        <v>999955.077953792</v>
       </c>
       <c r="F58" t="n">
         <v>962308.639383244</v>
       </c>
       <c r="G58" t="n">
-        <v>-37646.4374159439</v>
+        <v>-37646.4385705482</v>
       </c>
       <c r="H58" t="n">
-        <v>-11905.5205639225</v>
+        <v>-11905.5206055232</v>
       </c>
       <c r="I58" t="n">
-        <v>161423.837068748</v>
+        <v>161423.837830434</v>
       </c>
       <c r="J58" t="n">
-        <v>962308.658780378</v>
+        <v>962308.659740564</v>
       </c>
       <c r="K58" t="s">
         <v>154</v>
@@ -5627,28 +5627,28 @@
         <v>20.2318963984194</v>
       </c>
       <c r="C59" t="n">
-        <v>-14123.741483676</v>
+        <v>-14123.7425317818</v>
       </c>
       <c r="D59" t="n">
-        <v>271590.905661622</v>
+        <v>271590.905805252</v>
       </c>
       <c r="E59" t="n">
-        <v>999955.076799188</v>
+        <v>999955.077953792</v>
       </c>
       <c r="F59" t="n">
         <v>962308.639383244</v>
       </c>
       <c r="G59" t="n">
-        <v>-37646.4374159439</v>
+        <v>-37646.4385705482</v>
       </c>
       <c r="H59" t="n">
-        <v>-11133.3767390029</v>
+        <v>-11133.3767747608</v>
       </c>
       <c r="I59" t="n">
-        <v>260457.528922619</v>
+        <v>260457.529030491</v>
       </c>
       <c r="J59" t="n">
-        <v>962308.658780378</v>
+        <v>962308.659740564</v>
       </c>
       <c r="K59" t="s">
         <v>155</v>
@@ -5662,28 +5662,28 @@
         <v>20.0256916168358</v>
       </c>
       <c r="C60" t="n">
-        <v>-14123.741483676</v>
+        <v>-14123.7425317818</v>
       </c>
       <c r="D60" t="n">
-        <v>269705.096591406</v>
+        <v>269705.096747696</v>
       </c>
       <c r="E60" t="n">
-        <v>999955.076799188</v>
+        <v>999955.077953792</v>
       </c>
       <c r="F60" t="n">
         <v>962308.639383244</v>
       </c>
       <c r="G60" t="n">
-        <v>-37646.4374159439</v>
+        <v>-37646.4385705482</v>
       </c>
       <c r="H60" t="n">
-        <v>-9025.53259224265</v>
+        <v>-9025.5326379258</v>
       </c>
       <c r="I60" t="n">
-        <v>260679.563999164</v>
+        <v>260679.56410977</v>
       </c>
       <c r="J60" t="n">
-        <v>962308.658780378</v>
+        <v>962308.659740564</v>
       </c>
       <c r="K60" t="s">
         <v>156</v>
@@ -5697,28 +5697,28 @@
         <v>21.7341739185319</v>
       </c>
       <c r="C61" t="n">
-        <v>-14123.741483676</v>
+        <v>-14123.7425317818</v>
       </c>
       <c r="D61" t="n">
-        <v>285329.71691349</v>
+        <v>285329.716964887</v>
       </c>
       <c r="E61" t="n">
-        <v>999955.076799188</v>
+        <v>999955.077953792</v>
       </c>
       <c r="F61" t="n">
         <v>962308.639383244</v>
       </c>
       <c r="G61" t="n">
-        <v>-37646.4374159439</v>
+        <v>-37646.4385705482</v>
       </c>
       <c r="H61" t="n">
-        <v>-5581.98812364171</v>
+        <v>-5581.98819501818</v>
       </c>
       <c r="I61" t="n">
-        <v>279747.728789848</v>
+        <v>279747.728769869</v>
       </c>
       <c r="J61" t="n">
-        <v>962308.658780378</v>
+        <v>962308.659740564</v>
       </c>
       <c r="K61" t="s">
         <v>157</v>
@@ -5732,28 +5732,28 @@
         <v>9.29907793917559</v>
       </c>
       <c r="C62" t="n">
-        <v>-47135.7378149526</v>
+        <v>-47135.7388887051</v>
       </c>
       <c r="D62" t="n">
-        <v>166061.831319062</v>
+        <v>166061.832588332</v>
       </c>
       <c r="E62" t="n">
-        <v>964797.16821592</v>
+        <v>964797.171275328</v>
       </c>
       <c r="F62" t="n">
         <v>943204.007570872</v>
       </c>
       <c r="G62" t="n">
-        <v>-21593.1606450478</v>
+        <v>-21593.1637044558</v>
       </c>
       <c r="H62" t="n">
-        <v>-802.743333200115</v>
+        <v>-802.743446037942</v>
       </c>
       <c r="I62" t="n">
-        <v>165259.087985862</v>
+        <v>165259.089142294</v>
       </c>
       <c r="J62" t="n">
-        <v>943203.956686858</v>
+        <v>943203.959411873</v>
       </c>
       <c r="K62" t="s">
         <v>158</v>
@@ -5767,28 +5767,28 @@
         <v>19.8302242366944</v>
       </c>
       <c r="C63" t="n">
-        <v>-47135.7378149526</v>
+        <v>-47135.7388887051</v>
       </c>
       <c r="D63" t="n">
-        <v>262372.552414443</v>
+        <v>262372.553037153</v>
       </c>
       <c r="E63" t="n">
-        <v>964797.16821592</v>
+        <v>964797.171275328</v>
       </c>
       <c r="F63" t="n">
         <v>943204.007570872</v>
       </c>
       <c r="G63" t="n">
-        <v>-21593.1606450478</v>
+        <v>-21593.1637044558</v>
       </c>
       <c r="H63" t="n">
-        <v>-729.269236649556</v>
+        <v>-729.269354376141</v>
       </c>
       <c r="I63" t="n">
-        <v>261643.283177794</v>
+        <v>261643.283682777</v>
       </c>
       <c r="J63" t="n">
-        <v>943203.956686858</v>
+        <v>943203.959411873</v>
       </c>
       <c r="K63" t="s">
         <v>159</v>
@@ -5802,28 +5802,28 @@
         <v>19.6281133234634</v>
       </c>
       <c r="C64" t="n">
-        <v>-47135.7378149526</v>
+        <v>-47135.7388887051</v>
       </c>
       <c r="D64" t="n">
-        <v>260524.183087439</v>
+        <v>260524.183722558</v>
       </c>
       <c r="E64" t="n">
-        <v>964797.16821592</v>
+        <v>964797.171275328</v>
       </c>
       <c r="F64" t="n">
         <v>943204.007570872</v>
       </c>
       <c r="G64" t="n">
-        <v>-21593.1606450478</v>
+        <v>-21593.1637044558</v>
       </c>
       <c r="H64" t="n">
-        <v>-5361.56583399003</v>
+        <v>-5361.56592003276</v>
       </c>
       <c r="I64" t="n">
-        <v>255162.617253449</v>
+        <v>255162.617802525</v>
       </c>
       <c r="J64" t="n">
-        <v>943203.956686858</v>
+        <v>943203.959411873</v>
       </c>
       <c r="K64" t="s">
         <v>160</v>
@@ -5837,28 +5837,28 @@
         <v>21.3026764232282</v>
       </c>
       <c r="C65" t="n">
-        <v>-47135.7378149526</v>
+        <v>-47135.7388887051</v>
       </c>
       <c r="D65" t="n">
-        <v>275838.601394975</v>
+        <v>275838.601927284</v>
       </c>
       <c r="E65" t="n">
-        <v>964797.16821592</v>
+        <v>964797.171275328</v>
       </c>
       <c r="F65" t="n">
         <v>943204.007570872</v>
       </c>
       <c r="G65" t="n">
-        <v>-21593.1606450478</v>
+        <v>-21593.1637044558</v>
       </c>
       <c r="H65" t="n">
-        <v>-14699.6331252215</v>
+        <v>-14699.6331430078</v>
       </c>
       <c r="I65" t="n">
-        <v>261138.968269754</v>
+        <v>261138.968784276</v>
       </c>
       <c r="J65" t="n">
-        <v>943203.956686858</v>
+        <v>943203.959411873</v>
       </c>
       <c r="K65" t="s">
         <v>161</v>
@@ -5872,28 +5872,28 @@
         <v>11.3843382942371</v>
       </c>
       <c r="C66" t="n">
-        <v>-53262.1894340524</v>
+        <v>-53262.1905949309</v>
       </c>
       <c r="D66" t="n">
-        <v>184103.165327687</v>
+        <v>184103.16653943</v>
       </c>
       <c r="E66" t="n">
-        <v>1104358.93605811</v>
+        <v>1104358.93843496</v>
       </c>
       <c r="F66" t="n">
         <v>990383.019524408</v>
       </c>
       <c r="G66" t="n">
-        <v>-113975.916533704</v>
+        <v>-113975.918910553</v>
       </c>
       <c r="H66" t="n">
-        <v>-28743.4711103441</v>
+        <v>-28743.4710233013</v>
       </c>
       <c r="I66" t="n">
-        <v>155359.694217343</v>
+        <v>155359.695516129</v>
       </c>
       <c r="J66" t="n">
-        <v>990382.955597438</v>
+        <v>990382.958649974</v>
       </c>
       <c r="K66" t="s">
         <v>162</v>
@@ -5907,28 +5907,28 @@
         <v>24.2770286084002</v>
       </c>
       <c r="C67" t="n">
-        <v>-53262.1894340524</v>
+        <v>-53262.1905949309</v>
       </c>
       <c r="D67" t="n">
-        <v>302010.966239069</v>
+        <v>302010.966659265</v>
       </c>
       <c r="E67" t="n">
-        <v>1104358.93605811</v>
+        <v>1104358.93843496</v>
       </c>
       <c r="F67" t="n">
         <v>990383.019524408</v>
       </c>
       <c r="G67" t="n">
-        <v>-113975.916533704</v>
+        <v>-113975.918910553</v>
       </c>
       <c r="H67" t="n">
-        <v>-34261.2159063229</v>
+        <v>-34261.2157445969</v>
       </c>
       <c r="I67" t="n">
-        <v>267749.750332746</v>
+        <v>267749.750914668</v>
       </c>
       <c r="J67" t="n">
-        <v>990382.955597438</v>
+        <v>990382.958649974</v>
       </c>
       <c r="K67" t="s">
         <v>163</v>
@@ -5942,28 +5942,28 @@
         <v>24.0295955807141</v>
       </c>
       <c r="C68" t="n">
-        <v>-53262.1894340524</v>
+        <v>-53262.1905949309</v>
       </c>
       <c r="D68" t="n">
-        <v>299748.111593808</v>
+        <v>299748.112029195</v>
       </c>
       <c r="E68" t="n">
-        <v>1104358.93605811</v>
+        <v>1104358.93843496</v>
       </c>
       <c r="F68" t="n">
         <v>990383.019524408</v>
       </c>
       <c r="G68" t="n">
-        <v>-113975.916533704</v>
+        <v>-113975.918910553</v>
       </c>
       <c r="H68" t="n">
-        <v>-31252.8675131579</v>
+        <v>-31252.8673068948</v>
       </c>
       <c r="I68" t="n">
-        <v>268495.24408065</v>
+        <v>268495.244722301</v>
       </c>
       <c r="J68" t="n">
-        <v>990382.955597438</v>
+        <v>990382.958649974</v>
       </c>
       <c r="K68" t="s">
         <v>164</v>
@@ -5977,28 +5977,28 @@
         <v>26.07966903396</v>
       </c>
       <c r="C69" t="n">
-        <v>-53262.1894340524</v>
+        <v>-53262.1905949309</v>
       </c>
       <c r="D69" t="n">
-        <v>318496.692897548</v>
+        <v>318496.693207071</v>
       </c>
       <c r="E69" t="n">
-        <v>1104358.93605811</v>
+        <v>1104358.93843496</v>
       </c>
       <c r="F69" t="n">
         <v>990383.019524408</v>
       </c>
       <c r="G69" t="n">
-        <v>-113975.916533704</v>
+        <v>-113975.918910553</v>
       </c>
       <c r="H69" t="n">
-        <v>-19718.4259308492</v>
+        <v>-19718.4257101947</v>
       </c>
       <c r="I69" t="n">
-        <v>298778.266966699</v>
+        <v>298778.267496876</v>
       </c>
       <c r="J69" t="n">
-        <v>990382.955597438</v>
+        <v>990382.958649974</v>
       </c>
       <c r="K69" t="s">
         <v>165</v>
@@ -6012,28 +6012,28 @@
         <v>13.2626934505632</v>
       </c>
       <c r="C70" t="n">
-        <v>-149761.116654563</v>
+        <v>-149761.116850893</v>
       </c>
       <c r="D70" t="n">
-        <v>185072.674390791</v>
+        <v>185072.676990152</v>
       </c>
       <c r="E70" t="n">
-        <v>1168946.14701702</v>
+        <v>1168946.15453679</v>
       </c>
       <c r="F70" t="n">
         <v>1221389.13051423</v>
       </c>
       <c r="G70" t="n">
-        <v>52442.9834972075</v>
+        <v>52442.9759774422</v>
       </c>
       <c r="H70" t="n">
-        <v>342.108840603243</v>
+        <v>342.109045503108</v>
       </c>
       <c r="I70" t="n">
-        <v>185414.783231394</v>
+        <v>185414.786035655</v>
       </c>
       <c r="J70" t="n">
-        <v>1221388.86114511</v>
+        <v>1221388.8693565</v>
       </c>
       <c r="K70" t="s">
         <v>166</v>
@@ -6047,28 +6047,28 @@
         <v>28.2826089669835</v>
       </c>
       <c r="C71" t="n">
-        <v>-149761.116654563</v>
+        <v>-149761.116850893</v>
       </c>
       <c r="D71" t="n">
-        <v>322434.634172792</v>
+        <v>322434.635850005</v>
       </c>
       <c r="E71" t="n">
-        <v>1168946.14701702</v>
+        <v>1168946.15453679</v>
       </c>
       <c r="F71" t="n">
         <v>1221389.13051423</v>
       </c>
       <c r="G71" t="n">
-        <v>52442.9834972075</v>
+        <v>52442.9759774422</v>
       </c>
       <c r="H71" t="n">
-        <v>13473.7506257521</v>
+        <v>13473.7508115528</v>
       </c>
       <c r="I71" t="n">
-        <v>335908.384798544</v>
+        <v>335908.386661558</v>
       </c>
       <c r="J71" t="n">
-        <v>1221388.86114511</v>
+        <v>1221388.8693565</v>
       </c>
       <c r="K71" t="s">
         <v>167</v>
@@ -6082,28 +6082,28 @@
         <v>27.994350808193</v>
       </c>
       <c r="C72" t="n">
-        <v>-149761.116654563</v>
+        <v>-149761.116850893</v>
       </c>
       <c r="D72" t="n">
-        <v>319798.420568838</v>
+        <v>319798.422263749</v>
       </c>
       <c r="E72" t="n">
-        <v>1168946.14701702</v>
+        <v>1168946.15453679</v>
       </c>
       <c r="F72" t="n">
         <v>1221389.13051423</v>
       </c>
       <c r="G72" t="n">
-        <v>52442.9834972075</v>
+        <v>52442.9759774422</v>
       </c>
       <c r="H72" t="n">
-        <v>19676.4994245973</v>
+        <v>19676.4995879543</v>
       </c>
       <c r="I72" t="n">
-        <v>339474.919993435</v>
+        <v>339474.921851703</v>
       </c>
       <c r="J72" t="n">
-        <v>1221388.86114511</v>
+        <v>1221388.8693565</v>
       </c>
       <c r="K72" t="s">
         <v>168</v>
@@ -6117,28 +6117,28 @@
         <v>30.3826754572683</v>
       </c>
       <c r="C73" t="n">
-        <v>-149761.116654563</v>
+        <v>-149761.116850893</v>
       </c>
       <c r="D73" t="n">
-        <v>341640.417884601</v>
+        <v>341640.419432881</v>
       </c>
       <c r="E73" t="n">
-        <v>1168946.14701702</v>
+        <v>1168946.15453679</v>
       </c>
       <c r="F73" t="n">
         <v>1221389.13051423</v>
       </c>
       <c r="G73" t="n">
-        <v>52442.9834972075</v>
+        <v>52442.9759774422</v>
       </c>
       <c r="H73" t="n">
-        <v>18950.3552371389</v>
+        <v>18950.3553747076</v>
       </c>
       <c r="I73" t="n">
-        <v>360590.77312174</v>
+        <v>360590.774807588</v>
       </c>
       <c r="J73" t="n">
-        <v>1221388.86114511</v>
+        <v>1221388.8693565</v>
       </c>
       <c r="K73" t="s">
         <v>169</v>
@@ -6152,28 +6152,28 @@
         <v>13.2730027666164</v>
       </c>
       <c r="C74" t="n">
-        <v>-48176.8292959279</v>
+        <v>-48176.8286234145</v>
       </c>
       <c r="D74" t="n">
-        <v>202229.783198499</v>
+        <v>202229.784531572</v>
       </c>
       <c r="E74" t="n">
-        <v>1237907.78338251</v>
+        <v>1237907.78583489</v>
       </c>
       <c r="F74" t="n">
         <v>1255839</v>
       </c>
       <c r="G74" t="n">
-        <v>17931.2166174869</v>
+        <v>17931.2141651111</v>
       </c>
       <c r="H74" t="n">
-        <v>11295.3180633769</v>
+        <v>11295.3181718127</v>
       </c>
       <c r="I74" t="n">
-        <v>213525.101261876</v>
+        <v>213525.102703385</v>
       </c>
       <c r="J74" t="n">
-        <v>1255838.94689955</v>
+        <v>1255838.94968022</v>
       </c>
       <c r="K74" t="s">
         <v>146</v>
@@ -6187,28 +6187,28 @@
         <v>28.3045935175379</v>
       </c>
       <c r="C75" t="n">
-        <v>-48176.8292959279</v>
+        <v>-48176.8286234145</v>
       </c>
       <c r="D75" t="n">
-        <v>339698.516756307</v>
+        <v>339698.517166515</v>
       </c>
       <c r="E75" t="n">
-        <v>1237907.78338251</v>
+        <v>1237907.78583489</v>
       </c>
       <c r="F75" t="n">
         <v>1255839</v>
       </c>
       <c r="G75" t="n">
-        <v>17931.2166174869</v>
+        <v>17931.2141651111</v>
       </c>
       <c r="H75" t="n">
-        <v>5508.29232022469</v>
+        <v>5508.29240646301</v>
       </c>
       <c r="I75" t="n">
-        <v>345206.809076531</v>
+        <v>345206.809572978</v>
       </c>
       <c r="J75" t="n">
-        <v>1255838.94689955</v>
+        <v>1255838.94968022</v>
       </c>
       <c r="K75" t="s">
         <v>147</v>
@@ -6222,28 +6222,28 @@
         <v>28.0161112908025</v>
       </c>
       <c r="C76" t="n">
-        <v>-48176.8292959279</v>
+        <v>-48176.8286234145</v>
       </c>
       <c r="D76" t="n">
-        <v>337060.253978908</v>
+        <v>337060.254406828</v>
       </c>
       <c r="E76" t="n">
-        <v>1237907.78338251</v>
+        <v>1237907.78583489</v>
       </c>
       <c r="F76" t="n">
         <v>1255839</v>
       </c>
       <c r="G76" t="n">
-        <v>17931.2166174869</v>
+        <v>17931.2141651111</v>
       </c>
       <c r="H76" t="n">
-        <v>1589.2780076824</v>
+        <v>1589.27807865841</v>
       </c>
       <c r="I76" t="n">
-        <v>338649.53198659</v>
+        <v>338649.532485486</v>
       </c>
       <c r="J76" t="n">
-        <v>1255838.94689955</v>
+        <v>1255838.94968022</v>
       </c>
       <c r="K76" t="s">
         <v>148</v>
@@ -6257,28 +6257,28 @@
         <v>30.4062924250432</v>
       </c>
       <c r="C77" t="n">
-        <v>-48176.8292959279</v>
+        <v>-48176.8286234145</v>
       </c>
       <c r="D77" t="n">
-        <v>358919.229448799</v>
+        <v>358919.229729974</v>
       </c>
       <c r="E77" t="n">
-        <v>1237907.78338251</v>
+        <v>1237907.78583489</v>
       </c>
       <c r="F77" t="n">
         <v>1255839</v>
       </c>
       <c r="G77" t="n">
-        <v>17931.2166174869</v>
+        <v>17931.2141651111</v>
       </c>
       <c r="H77" t="n">
-        <v>-461.724874250025</v>
+        <v>-461.72481160107</v>
       </c>
       <c r="I77" t="n">
-        <v>358457.504574549</v>
+        <v>358457.504918373</v>
       </c>
       <c r="J77" t="n">
-        <v>1255838.94689955</v>
+        <v>1255838.94968022</v>
       </c>
       <c r="K77" t="s">
         <v>149</v>
@@ -6292,28 +6292,28 @@
         <v>13.1766760789473</v>
       </c>
       <c r="C78" t="n">
-        <v>-14437.2889933812</v>
+        <v>-14437.2883160992</v>
       </c>
       <c r="D78" t="n">
-        <v>207015.980258779</v>
+        <v>207015.98112973</v>
       </c>
       <c r="E78" t="n">
-        <v>1253939.2553315</v>
+        <v>1253939.25595629</v>
       </c>
       <c r="F78" t="n">
         <v>1262501</v>
       </c>
       <c r="G78" t="n">
-        <v>8561.7446684998</v>
+        <v>8561.74404371181</v>
       </c>
       <c r="H78" t="n">
-        <v>-644.716325572578</v>
+        <v>-644.716264315416</v>
       </c>
       <c r="I78" t="n">
-        <v>206371.263933207</v>
+        <v>206371.264865415</v>
       </c>
       <c r="J78" t="n">
-        <v>1262501.01872961</v>
+        <v>1262501.01970656</v>
       </c>
       <c r="K78" t="s">
         <v>150</v>
@@ -6327,28 +6327,28 @@
         <v>28.0991774721029</v>
       </c>
       <c r="C79" t="n">
-        <v>-14437.2889933812</v>
+        <v>-14437.2883160992</v>
       </c>
       <c r="D79" t="n">
-        <v>343487.056542304</v>
+        <v>343487.056497088</v>
       </c>
       <c r="E79" t="n">
-        <v>1253939.2553315</v>
+        <v>1253939.25595629</v>
       </c>
       <c r="F79" t="n">
         <v>1262501</v>
       </c>
       <c r="G79" t="n">
-        <v>8561.7446684998</v>
+        <v>8561.74404371181</v>
       </c>
       <c r="H79" t="n">
-        <v>396.149963937941</v>
+        <v>396.150035351914</v>
       </c>
       <c r="I79" t="n">
-        <v>343883.206506242</v>
+        <v>343883.20653244</v>
       </c>
       <c r="J79" t="n">
-        <v>1262501.01872961</v>
+        <v>1262501.01970656</v>
       </c>
       <c r="K79" t="s">
         <v>151</v>
@@ -6362,28 +6362,28 @@
         <v>27.8127888588355</v>
       </c>
       <c r="C80" t="n">
-        <v>-14437.2889933812</v>
+        <v>-14437.2883160992</v>
       </c>
       <c r="D80" t="n">
-        <v>340867.940533652</v>
+        <v>340867.940506019</v>
       </c>
       <c r="E80" t="n">
-        <v>1253939.2553315</v>
+        <v>1253939.25595629</v>
       </c>
       <c r="F80" t="n">
         <v>1262501</v>
       </c>
       <c r="G80" t="n">
-        <v>8561.7446684998</v>
+        <v>8561.74404371181</v>
       </c>
       <c r="H80" t="n">
-        <v>2660.87399428153</v>
+        <v>2660.87408740092</v>
       </c>
       <c r="I80" t="n">
-        <v>343528.814527933</v>
+        <v>343528.81459342</v>
       </c>
       <c r="J80" t="n">
-        <v>1262501.01872961</v>
+        <v>1262501.01970656</v>
       </c>
       <c r="K80" t="s">
         <v>152</v>
@@ -6397,28 +6397,28 @@
         <v>30.1856236370452</v>
       </c>
       <c r="C81" t="n">
-        <v>-14437.2889933812</v>
+        <v>-14437.2883160992</v>
       </c>
       <c r="D81" t="n">
-        <v>362568.277996765</v>
+        <v>362568.277823452</v>
       </c>
       <c r="E81" t="n">
-        <v>1253939.2553315</v>
+        <v>1253939.25595629</v>
       </c>
       <c r="F81" t="n">
         <v>1262501</v>
       </c>
       <c r="G81" t="n">
-        <v>8561.7446684998</v>
+        <v>8561.74404371181</v>
       </c>
       <c r="H81" t="n">
-        <v>6149.4557654582</v>
+        <v>6149.4558918316</v>
       </c>
       <c r="I81" t="n">
-        <v>368717.733762223</v>
+        <v>368717.733715283</v>
       </c>
       <c r="J81" t="n">
-        <v>1262501.01872961</v>
+        <v>1262501.01970656</v>
       </c>
       <c r="K81" t="s">
         <v>153</v>
@@ -6432,28 +6432,28 @@
         <v>14.0416909611662</v>
       </c>
       <c r="C82" t="n">
-        <v>-1138.21850087959</v>
+        <v>-1138.21786815394</v>
       </c>
       <c r="D82" t="n">
-        <v>217160.627094211</v>
+        <v>217160.627719769</v>
       </c>
       <c r="E82" t="n">
-        <v>1322475.4626321</v>
+        <v>1322475.46208763</v>
       </c>
       <c r="F82" t="n">
         <v>1363129.36729131</v>
       </c>
       <c r="G82" t="n">
-        <v>40653.9046592186</v>
+        <v>40653.905203687</v>
       </c>
       <c r="H82" t="n">
-        <v>10861.8952774679</v>
+        <v>10861.8954486439</v>
       </c>
       <c r="I82" t="n">
-        <v>228022.522371679</v>
+        <v>228022.523168413</v>
       </c>
       <c r="J82" t="n">
-        <v>1363129.41433408</v>
+        <v>1363129.41460006</v>
       </c>
       <c r="K82" t="s">
         <v>154</v>
@@ -6467,28 +6467,28 @@
         <v>29.9438161765722</v>
       </c>
       <c r="C83" t="n">
-        <v>-1138.21850087959</v>
+        <v>-1138.21786815394</v>
       </c>
       <c r="D83" t="n">
-        <v>362590.678408342</v>
+        <v>362590.67805759</v>
       </c>
       <c r="E83" t="n">
-        <v>1322475.4626321</v>
+        <v>1322475.46208763</v>
       </c>
       <c r="F83" t="n">
         <v>1363129.36729131</v>
       </c>
       <c r="G83" t="n">
-        <v>40653.9046592186</v>
+        <v>40653.905203687</v>
       </c>
       <c r="H83" t="n">
-        <v>12467.508141483</v>
+        <v>12467.5083431546</v>
       </c>
       <c r="I83" t="n">
-        <v>375058.186549825</v>
+        <v>375058.186400744</v>
       </c>
       <c r="J83" t="n">
-        <v>1363129.41433408</v>
+        <v>1363129.41460006</v>
       </c>
       <c r="K83" t="s">
         <v>155</v>
@@ -6502,28 +6502,28 @@
         <v>29.6386268876951</v>
       </c>
       <c r="C84" t="n">
-        <v>-1138.21850087959</v>
+        <v>-1138.21786815394</v>
       </c>
       <c r="D84" t="n">
-        <v>359799.624172465</v>
+        <v>359799.623840449</v>
       </c>
       <c r="E84" t="n">
-        <v>1322475.4626321</v>
+        <v>1322475.46208763</v>
       </c>
       <c r="F84" t="n">
         <v>1363129.36729131</v>
       </c>
       <c r="G84" t="n">
-        <v>40653.9046592186</v>
+        <v>40653.905203687</v>
       </c>
       <c r="H84" t="n">
-        <v>10966.2943575035</v>
+        <v>10966.2945753637</v>
       </c>
       <c r="I84" t="n">
-        <v>370765.918529968</v>
+        <v>370765.918415813</v>
       </c>
       <c r="J84" t="n">
-        <v>1363129.41433408</v>
+        <v>1363129.41460006</v>
       </c>
       <c r="K84" t="s">
         <v>156</v>
@@ -6537,28 +6537,28 @@
         <v>32.1672321640108</v>
       </c>
       <c r="C85" t="n">
-        <v>-1138.21850087959</v>
+        <v>-1138.21786815394</v>
       </c>
       <c r="D85" t="n">
-        <v>382924.532957078</v>
+        <v>382924.532469819</v>
       </c>
       <c r="E85" t="n">
-        <v>1322475.4626321</v>
+        <v>1322475.46208763</v>
       </c>
       <c r="F85" t="n">
         <v>1363129.36729131</v>
       </c>
       <c r="G85" t="n">
-        <v>40653.9046592186</v>
+        <v>40653.905203687</v>
       </c>
       <c r="H85" t="n">
-        <v>6358.25392552936</v>
+        <v>6358.25414527105</v>
       </c>
       <c r="I85" t="n">
-        <v>389282.786882608</v>
+        <v>389282.78661509</v>
       </c>
       <c r="J85" t="n">
-        <v>1363129.41433408</v>
+        <v>1363129.41460006</v>
       </c>
       <c r="K85" t="s">
         <v>157</v>
@@ -6572,28 +6572,28 @@
         <v>14.4358673926222</v>
       </c>
       <c r="C86" t="n">
-        <v>39889.1712288426</v>
+        <v>39889.1722616856</v>
       </c>
       <c r="D86" t="n">
-        <v>227656.752542877</v>
+        <v>227656.752641334</v>
       </c>
       <c r="E86" t="n">
-        <v>1377199.90115377</v>
+        <v>1377199.89841537</v>
       </c>
       <c r="F86" t="n">
         <v>1354697.44334723</v>
       </c>
       <c r="G86" t="n">
-        <v>-22502.4578065411</v>
+        <v>-22502.4550681412</v>
       </c>
       <c r="H86" t="n">
-        <v>-1356.61315443943</v>
+        <v>-1356.61294712323</v>
       </c>
       <c r="I86" t="n">
-        <v>226300.139388438</v>
+        <v>226300.139694211</v>
       </c>
       <c r="J86" t="n">
-        <v>1354697.57773558</v>
+        <v>1354697.57580823</v>
       </c>
       <c r="K86" t="s">
         <v>158</v>
@@ -6607,28 +6607,28 @@
         <v>30.7843948958517</v>
       </c>
       <c r="C87" t="n">
-        <v>39889.1712288426</v>
+        <v>39889.1722616856</v>
       </c>
       <c r="D87" t="n">
-        <v>377169.296400963</v>
+        <v>377169.295495702</v>
       </c>
       <c r="E87" t="n">
-        <v>1377199.90115377</v>
+        <v>1377199.89841537</v>
       </c>
       <c r="F87" t="n">
         <v>1354697.44334723</v>
       </c>
       <c r="G87" t="n">
-        <v>-22502.4578065411</v>
+        <v>-22502.4550681412</v>
       </c>
       <c r="H87" t="n">
-        <v>-6150.14706647056</v>
+        <v>-6150.14686594618</v>
       </c>
       <c r="I87" t="n">
-        <v>371019.149334492</v>
+        <v>371019.148629756</v>
       </c>
       <c r="J87" t="n">
-        <v>1354697.57773558</v>
+        <v>1354697.57580823</v>
       </c>
       <c r="K87" t="s">
         <v>159</v>
@@ -6642,28 +6642,28 @@
         <v>30.4706383749268</v>
       </c>
       <c r="C88" t="n">
-        <v>39889.1712288426</v>
+        <v>39889.1722616856</v>
       </c>
       <c r="D88" t="n">
-        <v>374299.892071657</v>
+        <v>374299.89118566</v>
       </c>
       <c r="E88" t="n">
-        <v>1377199.90115377</v>
+        <v>1377199.89841537</v>
       </c>
       <c r="F88" t="n">
         <v>1354697.44334723</v>
       </c>
       <c r="G88" t="n">
-        <v>-22502.4578065411</v>
+        <v>-22502.4550681412</v>
       </c>
       <c r="H88" t="n">
-        <v>-8022.34781056404</v>
+        <v>-8022.3476111978</v>
       </c>
       <c r="I88" t="n">
-        <v>366277.544261093</v>
+        <v>366277.543574462</v>
       </c>
       <c r="J88" t="n">
-        <v>1354697.57773558</v>
+        <v>1354697.57580823</v>
       </c>
       <c r="K88" t="s">
         <v>160</v>
@@ -6677,28 +6677,28 @@
         <v>33.0702263133118</v>
       </c>
       <c r="C89" t="n">
-        <v>39889.1712288426</v>
+        <v>39889.1722616856</v>
       </c>
       <c r="D89" t="n">
-        <v>398073.960138274</v>
+        <v>398073.959092675</v>
       </c>
       <c r="E89" t="n">
-        <v>1377199.90115377</v>
+        <v>1377199.89841537</v>
       </c>
       <c r="F89" t="n">
         <v>1354697.44334723</v>
       </c>
       <c r="G89" t="n">
-        <v>-22502.4578065411</v>
+        <v>-22502.4550681412</v>
       </c>
       <c r="H89" t="n">
-        <v>-6973.21538671987</v>
+        <v>-6973.21518287807</v>
       </c>
       <c r="I89" t="n">
-        <v>391100.744751554</v>
+        <v>391100.743909797</v>
       </c>
       <c r="J89" t="n">
-        <v>1354697.57773558</v>
+        <v>1354697.57580823</v>
       </c>
       <c r="K89" t="s">
         <v>161</v>
@@ -6712,28 +6712,28 @@
         <v>15.0058648745639</v>
       </c>
       <c r="C90" t="n">
-        <v>4297.82941872859</v>
+        <v>4297.83063390013</v>
       </c>
       <c r="D90" t="n">
-        <v>226891.385404628</v>
+        <v>226891.385993284</v>
       </c>
       <c r="E90" t="n">
-        <v>1392560.97457688</v>
+        <v>1392560.9736756</v>
       </c>
       <c r="F90" t="n">
         <v>1393979.22254462</v>
       </c>
       <c r="G90" t="n">
-        <v>1418.24796773447</v>
+        <v>1418.24886901234</v>
       </c>
       <c r="H90" t="n">
-        <v>-3002.74979493804</v>
+        <v>-3002.74958098701</v>
       </c>
       <c r="I90" t="n">
-        <v>223888.63560969</v>
+        <v>223888.636412297</v>
       </c>
       <c r="J90" t="n">
-        <v>1393979.2811605</v>
+        <v>1393979.28113587</v>
       </c>
       <c r="K90" t="s">
         <v>162</v>
@@ -6747,28 +6747,28 @@
         <v>31.9999108808974</v>
       </c>
       <c r="C91" t="n">
-        <v>4297.82941872859</v>
+        <v>4297.83063390013</v>
       </c>
       <c r="D91" t="n">
-        <v>382307.403657425</v>
+        <v>382307.403202732</v>
       </c>
       <c r="E91" t="n">
-        <v>1392560.97457688</v>
+        <v>1392560.9736756</v>
       </c>
       <c r="F91" t="n">
         <v>1393979.22254462</v>
       </c>
       <c r="G91" t="n">
-        <v>1418.24796773447</v>
+        <v>1418.24886901234</v>
       </c>
       <c r="H91" t="n">
-        <v>-71.6329818884496</v>
+        <v>-71.6327618093965</v>
       </c>
       <c r="I91" t="n">
-        <v>382235.770675536</v>
+        <v>382235.770440923</v>
       </c>
       <c r="J91" t="n">
-        <v>1393979.2811605</v>
+        <v>1393979.28113587</v>
       </c>
       <c r="K91" t="s">
         <v>163</v>
@@ -6782,28 +6782,28 @@
         <v>31.6737657433411</v>
       </c>
       <c r="C92" t="n">
-        <v>4297.82941872859</v>
+        <v>4297.83063390013</v>
       </c>
       <c r="D92" t="n">
-        <v>379324.701443213</v>
+        <v>379324.701008543</v>
       </c>
       <c r="E92" t="n">
-        <v>1392560.97457688</v>
+        <v>1392560.9736756</v>
       </c>
       <c r="F92" t="n">
         <v>1393979.22254462</v>
       </c>
       <c r="G92" t="n">
-        <v>1418.24796773447</v>
+        <v>1418.24886901234</v>
       </c>
       <c r="H92" t="n">
-        <v>1820.13505242892</v>
+        <v>1820.13527465478</v>
       </c>
       <c r="I92" t="n">
-        <v>381144.836495641</v>
+        <v>381144.836283198</v>
       </c>
       <c r="J92" t="n">
-        <v>1393979.2811605</v>
+        <v>1393979.28113587</v>
       </c>
       <c r="K92" t="s">
         <v>164</v>
@@ -6817,28 +6817,28 @@
         <v>34.3759979176882</v>
       </c>
       <c r="C93" t="n">
-        <v>4297.82941872859</v>
+        <v>4297.83063390013</v>
       </c>
       <c r="D93" t="n">
-        <v>404037.484071616</v>
+        <v>404037.483471044</v>
       </c>
       <c r="E93" t="n">
-        <v>1392560.97457688</v>
+        <v>1392560.9736756</v>
       </c>
       <c r="F93" t="n">
         <v>1393979.22254462</v>
       </c>
       <c r="G93" t="n">
-        <v>1418.24796773447</v>
+        <v>1418.24886901234</v>
       </c>
       <c r="H93" t="n">
-        <v>2672.55430801405</v>
+        <v>2672.55452840551</v>
       </c>
       <c r="I93" t="n">
-        <v>406710.038379631</v>
+        <v>406710.037999449</v>
       </c>
       <c r="J93" t="n">
-        <v>1393979.2811605</v>
+        <v>1393979.28113587</v>
       </c>
       <c r="K93" t="s">
         <v>165</v>
@@ -6852,28 +6852,28 @@
         <v>15.3051278380834</v>
       </c>
       <c r="C94" t="n">
-        <v>4305.8252053347</v>
+        <v>4305.82668416156</v>
       </c>
       <c r="D94" t="n">
-        <v>229629.584518191</v>
+        <v>229629.585132649</v>
       </c>
       <c r="E94" t="n">
-        <v>1413186.06728155</v>
+        <v>1413186.06641855</v>
       </c>
       <c r="F94" t="n">
         <v>1422474.2544571</v>
       </c>
       <c r="G94" t="n">
-        <v>9288.1871755484</v>
+        <v>9288.18803855428</v>
       </c>
       <c r="H94" t="n">
-        <v>2485.62478486696</v>
+        <v>2485.62499944279</v>
       </c>
       <c r="I94" t="n">
-        <v>232115.209303058</v>
+        <v>232115.210132092</v>
       </c>
       <c r="J94" t="n">
-        <v>1422474.31309001</v>
+        <v>1422474.31306495</v>
       </c>
       <c r="K94" t="s">
         <v>166</v>
@@ -6887,28 +6887,28 @@
         <v>32.638087236784</v>
       </c>
       <c r="C95" t="n">
-        <v>4305.8252053347</v>
+        <v>4305.82668416156</v>
       </c>
       <c r="D95" t="n">
-        <v>388145.074783399</v>
+        <v>388145.0743337</v>
       </c>
       <c r="E95" t="n">
-        <v>1413186.06728155</v>
+        <v>1413186.06641855</v>
       </c>
       <c r="F95" t="n">
         <v>1422474.2544571</v>
       </c>
       <c r="G95" t="n">
-        <v>9288.1871755484</v>
+        <v>9288.18803855428</v>
       </c>
       <c r="H95" t="n">
-        <v>2345.42764250664</v>
+        <v>2345.42785272076</v>
       </c>
       <c r="I95" t="n">
-        <v>390490.502425906</v>
+        <v>390490.502186421</v>
       </c>
       <c r="J95" t="n">
-        <v>1422474.31309001</v>
+        <v>1422474.31306495</v>
       </c>
       <c r="K95" t="s">
         <v>167</v>
@@ -6922,28 +6922,28 @@
         <v>32.3054377650078</v>
       </c>
       <c r="C96" t="n">
-        <v>4305.8252053347</v>
+        <v>4305.82668416156</v>
       </c>
       <c r="D96" t="n">
-        <v>385102.888340095</v>
+        <v>385102.887910819</v>
       </c>
       <c r="E96" t="n">
-        <v>1413186.06728155</v>
+        <v>1413186.06641855</v>
       </c>
       <c r="F96" t="n">
         <v>1422474.2544571</v>
       </c>
       <c r="G96" t="n">
-        <v>9288.1871755484</v>
+        <v>9288.18803855428</v>
       </c>
       <c r="H96" t="n">
-        <v>2251.9628809331</v>
+        <v>2251.9630882394</v>
       </c>
       <c r="I96" t="n">
-        <v>387354.851221028</v>
+        <v>387354.850999058</v>
       </c>
       <c r="J96" t="n">
-        <v>1422474.31309001</v>
+        <v>1422474.31306495</v>
       </c>
       <c r="K96" t="s">
         <v>168</v>
@@ -6957,28 +6957,28 @@
         <v>35.061560735745</v>
       </c>
       <c r="C97" t="n">
-        <v>4305.8252053347</v>
+        <v>4305.82668416156</v>
       </c>
       <c r="D97" t="n">
-        <v>410308.519639869</v>
+        <v>410308.519041381</v>
       </c>
       <c r="E97" t="n">
-        <v>1413186.06728155</v>
+        <v>1413186.06641855</v>
       </c>
       <c r="F97" t="n">
         <v>1422474.2544571</v>
       </c>
       <c r="G97" t="n">
-        <v>9288.1871755484</v>
+        <v>9288.18803855428</v>
       </c>
       <c r="H97" t="n">
-        <v>2205.23050014632</v>
+        <v>2205.23070599872</v>
       </c>
       <c r="I97" t="n">
-        <v>412513.750140015</v>
+        <v>412513.749747379</v>
       </c>
       <c r="J97" t="n">
-        <v>1422474.31309001</v>
+        <v>1422474.31306495</v>
       </c>
       <c r="K97" t="s">
         <v>169</v>
@@ -7017,13 +7017,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>137904.65137152</v>
+        <v>137904.651697294</v>
       </c>
       <c r="C2" t="n">
         <v>6.91374284145568</v>
       </c>
       <c r="D2" t="n">
-        <v>-18356.8297778297</v>
+        <v>-18356.832723272</v>
       </c>
     </row>
     <row r="3">
@@ -7031,13 +7031,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>210458.465242979</v>
+        <v>210458.465107746</v>
       </c>
       <c r="C3" t="n">
         <v>14.7435123952797</v>
       </c>
       <c r="D3" t="n">
-        <v>-18356.8297778297</v>
+        <v>-18356.832723272</v>
       </c>
     </row>
     <row r="4">
@@ -7045,13 +7045,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>210980.331251827</v>
+        <v>210980.331165222</v>
       </c>
       <c r="C4" t="n">
         <v>14.5932455743463</v>
       </c>
       <c r="D4" t="n">
-        <v>-18356.8297778297</v>
+        <v>-18356.832723272</v>
       </c>
     </row>
     <row r="5">
@@ -7059,13 +7059,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>225210.557640923</v>
+        <v>225210.557536985</v>
       </c>
       <c r="C5" t="n">
         <v>15.8382613403494</v>
       </c>
       <c r="D5" t="n">
-        <v>-18356.8297778297</v>
+        <v>-18356.832723272</v>
       </c>
     </row>
     <row r="6">
@@ -7073,13 +7073,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>146427.771714553</v>
+        <v>146427.772731044</v>
       </c>
       <c r="C6" t="n">
         <v>7.34538835814276</v>
       </c>
       <c r="D6" t="n">
-        <v>-47558.5987925539</v>
+        <v>-47558.6010567821</v>
       </c>
     </row>
     <row r="7">
@@ -7087,13 +7087,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>225062.873407005</v>
+        <v>225062.87397184</v>
       </c>
       <c r="C7" t="n">
         <v>15.6639936991956</v>
       </c>
       <c r="D7" t="n">
-        <v>-47558.5987925539</v>
+        <v>-47558.6010567821</v>
       </c>
     </row>
     <row r="8">
@@ -7101,13 +7101,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>224928.187307928</v>
+        <v>224928.187921888</v>
       </c>
       <c r="C8" t="n">
         <v>15.5043452739634</v>
       </c>
       <c r="D8" t="n">
-        <v>-47558.5987925539</v>
+        <v>-47558.6010567821</v>
       </c>
     </row>
     <row r="9">
@@ -7115,13 +7115,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>237117.04396678</v>
+        <v>237117.044519112</v>
       </c>
       <c r="C9" t="n">
         <v>16.8270910750464</v>
       </c>
       <c r="D9" t="n">
-        <v>-47558.5987925539</v>
+        <v>-47558.6010567821</v>
       </c>
     </row>
     <row r="10">
@@ -7129,13 +7129,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>157644.106113195</v>
+        <v>157644.106979093</v>
       </c>
       <c r="C10" t="n">
         <v>7.90851409026556</v>
       </c>
       <c r="D10" t="n">
-        <v>-28317.7768603745</v>
+        <v>-28317.7789249427</v>
       </c>
     </row>
     <row r="11">
@@ -7143,13 +7143,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>239530.225749754</v>
+        <v>239530.22606285</v>
       </c>
       <c r="C11" t="n">
         <v>16.8648557216982</v>
       </c>
       <c r="D11" t="n">
-        <v>-28317.7768603745</v>
+        <v>-28317.7789249427</v>
       </c>
     </row>
     <row r="12">
@@ -7157,13 +7157,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>239054.753934662</v>
+        <v>239054.754252615</v>
       </c>
       <c r="C12" t="n">
         <v>16.6929680339577</v>
       </c>
       <c r="D12" t="n">
-        <v>-28317.7768603745</v>
+        <v>-28317.7789249427</v>
       </c>
     </row>
     <row r="13">
@@ -7171,13 +7171,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>254294.586409039</v>
+        <v>254294.586631093</v>
       </c>
       <c r="C13" t="n">
         <v>18.1171206172731</v>
       </c>
       <c r="D13" t="n">
-        <v>-28317.7768603745</v>
+        <v>-28317.7789249427</v>
       </c>
     </row>
     <row r="14">
@@ -7185,13 +7185,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>168442.190774886</v>
+        <v>168442.191395976</v>
       </c>
       <c r="C14" t="n">
         <v>8.03089358708293</v>
       </c>
       <c r="D14" t="n">
-        <v>-10130.3303249369</v>
+        <v>-10130.3321290282</v>
       </c>
     </row>
     <row r="15">
@@ -7199,13 +7199,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>253771.411475049</v>
+        <v>253771.411533747</v>
       </c>
       <c r="C15" t="n">
         <v>17.1258292160313</v>
       </c>
       <c r="D15" t="n">
-        <v>-10130.3303249369</v>
+        <v>-10130.3321290282</v>
       </c>
     </row>
     <row r="16">
@@ -7213,13 +7213,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>253146.833075247</v>
+        <v>253146.833147877</v>
       </c>
       <c r="C16" t="n">
         <v>16.9512816697516</v>
       </c>
       <c r="D16" t="n">
-        <v>-10130.3303249369</v>
+        <v>-10130.3321290282</v>
       </c>
     </row>
     <row r="17">
@@ -7227,13 +7227,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>266163.032263139</v>
+        <v>266163.032257417</v>
       </c>
       <c r="C17" t="n">
         <v>18.3974721573495</v>
       </c>
       <c r="D17" t="n">
-        <v>-10130.3303249369</v>
+        <v>-10130.3321290282</v>
       </c>
     </row>
     <row r="18">
@@ -7241,13 +7241,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>178275.831948081</v>
+        <v>178275.83200669</v>
       </c>
       <c r="C18" t="n">
         <v>8.15769138428175</v>
       </c>
       <c r="D18" t="n">
-        <v>32437.2735564646</v>
+        <v>32437.2718089805</v>
       </c>
     </row>
     <row r="19">
@@ -7255,13 +7255,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>261248.015032397</v>
+        <v>261248.014531531</v>
       </c>
       <c r="C19" t="n">
         <v>17.3962247076723</v>
       </c>
       <c r="D19" t="n">
-        <v>32437.2735564646</v>
+        <v>32437.2718089805</v>
       </c>
     </row>
     <row r="20">
@@ -7269,13 +7269,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>257983.236386265</v>
+        <v>257983.235894074</v>
       </c>
       <c r="C20" t="n">
         <v>17.2189212732546</v>
       </c>
       <c r="D20" t="n">
-        <v>32437.2735564646</v>
+        <v>32437.2718089805</v>
       </c>
     </row>
     <row r="21">
@@ -7283,13 +7283,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>269648.546893395</v>
+        <v>269648.546298867</v>
       </c>
       <c r="C21" t="n">
         <v>18.6879453056092</v>
       </c>
       <c r="D21" t="n">
-        <v>32437.2735564646</v>
+        <v>32437.2718089805</v>
       </c>
     </row>
     <row r="22">
@@ -7297,13 +7297,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>172028.686600731</v>
+        <v>172028.686420871</v>
       </c>
       <c r="C22" t="n">
         <v>7.91060371693345</v>
       </c>
       <c r="D22" t="n">
-        <v>49332.7645100157</v>
+        <v>49332.7628211828</v>
       </c>
     </row>
     <row r="23">
@@ -7311,13 +7311,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>252608.029718969</v>
+        <v>252608.02898062</v>
       </c>
       <c r="C23" t="n">
         <v>16.8693118372041</v>
       </c>
       <c r="D23" t="n">
-        <v>49332.7645100157</v>
+        <v>49332.7628211828</v>
       </c>
     </row>
     <row r="24">
@@ -7325,13 +7325,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>250229.288380673</v>
+        <v>250229.287658023</v>
       </c>
       <c r="C24" t="n">
         <v>16.6973787324494</v>
       </c>
       <c r="D24" t="n">
-        <v>49332.7645100157</v>
+        <v>49332.7628211828</v>
       </c>
     </row>
     <row r="25">
@@ -7339,13 +7339,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>262995.272688943</v>
+        <v>262995.271897589</v>
       </c>
       <c r="C25" t="n">
         <v>18.121907612397</v>
       </c>
       <c r="D25" t="n">
-        <v>49332.7645100157</v>
+        <v>49332.7628211828</v>
       </c>
     </row>
     <row r="26">
@@ -7353,13 +7353,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>171658.320272095</v>
+        <v>171658.32026564</v>
       </c>
       <c r="C26" t="n">
         <v>8.32905004555982</v>
       </c>
       <c r="D26" t="n">
-        <v>37063.1307575436</v>
+        <v>37063.1289544188</v>
       </c>
     </row>
     <row r="27">
@@ -7367,13 +7367,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>258612.354370894</v>
+        <v>258612.353803947</v>
       </c>
       <c r="C27" t="n">
         <v>17.7616459569909</v>
       </c>
       <c r="D27" t="n">
-        <v>37063.1307575436</v>
+        <v>37063.1289544188</v>
       </c>
     </row>
     <row r="28">
@@ -7381,13 +7381,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>258053.839509332</v>
+        <v>258053.838958373</v>
       </c>
       <c r="C28" t="n">
         <v>17.5806181258375</v>
       </c>
       <c r="D28" t="n">
-        <v>37063.1307575436</v>
+        <v>37063.1289544188</v>
       </c>
     </row>
     <row r="29">
@@ -7395,13 +7395,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>273274.919270542</v>
+        <v>273274.918618625</v>
       </c>
       <c r="C29" t="n">
         <v>19.0805001521651</v>
       </c>
       <c r="D29" t="n">
-        <v>37063.1307575436</v>
+        <v>37063.1289544188</v>
       </c>
     </row>
     <row r="30">
@@ -7409,13 +7409,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>176211.903187288</v>
+        <v>176211.903274739</v>
       </c>
       <c r="C30" t="n">
         <v>8.35164970936554</v>
       </c>
       <c r="D30" t="n">
-        <v>31969.65838754</v>
+        <v>31969.6567779699</v>
       </c>
     </row>
     <row r="31">
@@ -7423,13 +7423,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>264579.700377737</v>
+        <v>264579.699871286</v>
       </c>
       <c r="C31" t="n">
         <v>17.8098395955293</v>
       </c>
       <c r="D31" t="n">
-        <v>31969.65838754</v>
+        <v>31969.6567779699</v>
       </c>
     </row>
     <row r="32">
@@ -7437,13 +7437,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>264747.556622176</v>
+        <v>264747.556123058</v>
       </c>
       <c r="C32" t="n">
         <v>17.6283205717307</v>
       </c>
       <c r="D32" t="n">
-        <v>31969.65838754</v>
+        <v>31969.6567779699</v>
       </c>
     </row>
     <row r="33">
@@ -7451,13 +7451,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>280287.883686303</v>
+        <v>280287.883100443</v>
       </c>
       <c r="C33" t="n">
         <v>19.1322723094129</v>
       </c>
       <c r="D33" t="n">
-        <v>31969.65838754</v>
+        <v>31969.6567779699</v>
       </c>
     </row>
     <row r="34">
@@ -7465,13 +7465,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>187459.193291362</v>
+        <v>187459.19306769</v>
       </c>
       <c r="C34" t="n">
         <v>8.3747406756482</v>
       </c>
       <c r="D34" t="n">
-        <v>54640.1249057099</v>
+        <v>54640.1233065934</v>
       </c>
     </row>
     <row r="35">
@@ -7479,13 +7479,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>274916.326591318</v>
+        <v>274916.325790939</v>
       </c>
       <c r="C35" t="n">
         <v>17.8590809334579</v>
       </c>
       <c r="D35" t="n">
-        <v>54640.1249057099</v>
+        <v>54640.1233065934</v>
       </c>
     </row>
     <row r="36">
@@ -7493,13 +7493,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>272946.764414359</v>
+        <v>272946.763621327</v>
       </c>
       <c r="C36" t="n">
         <v>17.677060038795</v>
       </c>
       <c r="D36" t="n">
-        <v>54640.1249057099</v>
+        <v>54640.1233065934</v>
       </c>
     </row>
     <row r="37">
@@ -7507,13 +7507,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>285409.27956276</v>
+        <v>285409.278663897</v>
       </c>
       <c r="C37" t="n">
         <v>19.1851699607969</v>
       </c>
       <c r="D37" t="n">
-        <v>54640.1249057099</v>
+        <v>54640.1233065934</v>
       </c>
     </row>
     <row r="38">
@@ -7521,13 +7521,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>187354.418490652</v>
+        <v>187354.417788041</v>
       </c>
       <c r="C38" t="n">
         <v>8.10889675895659</v>
       </c>
       <c r="D38" t="n">
-        <v>87953.5902858223</v>
+        <v>87953.5886973867</v>
       </c>
     </row>
     <row r="39">
@@ -7535,13 +7535,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>268079.632142964</v>
+        <v>268079.630874783</v>
       </c>
       <c r="C39" t="n">
         <v>17.2921704812133</v>
       </c>
       <c r="D39" t="n">
-        <v>87953.5902858223</v>
+        <v>87953.5886973867</v>
       </c>
     </row>
     <row r="40">
@@ -7549,13 +7549,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>262304.623934083</v>
+        <v>262304.62269585</v>
       </c>
       <c r="C40" t="n">
         <v>17.1159275741241</v>
       </c>
       <c r="D40" t="n">
-        <v>87953.5902858223</v>
+        <v>87953.5886973867</v>
       </c>
     </row>
     <row r="41">
@@ -7563,13 +7563,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>270591.321544281</v>
+        <v>270591.320256414</v>
       </c>
       <c r="C41" t="n">
         <v>18.5761647483008</v>
       </c>
       <c r="D41" t="n">
-        <v>87953.5902858223</v>
+        <v>87953.5886973867</v>
       </c>
     </row>
     <row r="42">
@@ -7577,13 +7577,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>176263.057084073</v>
+        <v>176263.056609452</v>
       </c>
       <c r="C42" t="n">
         <v>9.17349383450193</v>
       </c>
       <c r="D42" t="n">
-        <v>73869.0437706998</v>
+        <v>73869.0420592965</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7591,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>268424.678558667</v>
+        <v>268424.67748508</v>
       </c>
       <c r="C43" t="n">
         <v>19.5624169366016</v>
       </c>
       <c r="D43" t="n">
-        <v>73869.0437706998</v>
+        <v>73869.0420592965</v>
       </c>
     </row>
     <row r="44">
@@ -7605,13 +7605,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>266876.498173003</v>
+        <v>266876.49712847</v>
       </c>
       <c r="C44" t="n">
         <v>19.3630355324949</v>
       </c>
       <c r="D44" t="n">
-        <v>73869.0437706998</v>
+        <v>73869.0420592965</v>
       </c>
     </row>
     <row r="45">
@@ -7619,13 +7619,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>285382.971312662</v>
+        <v>285382.970161474</v>
       </c>
       <c r="C45" t="n">
         <v>21.014983647314</v>
       </c>
       <c r="D45" t="n">
-        <v>73869.0437706998</v>
+        <v>73869.0420592965</v>
       </c>
     </row>
     <row r="46">
@@ -7633,13 +7633,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>179271.350110779</v>
+        <v>179271.350597717</v>
       </c>
       <c r="C46" t="n">
         <v>9.88790185766271</v>
       </c>
       <c r="D46" t="n">
-        <v>9133.75703453575</v>
+        <v>9133.75581556768</v>
       </c>
     </row>
     <row r="47">
@@ -7647,13 +7647,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>286422.395491267</v>
+        <v>286422.395271244</v>
       </c>
       <c r="C47" t="n">
         <v>21.0858874772763</v>
       </c>
       <c r="D47" t="n">
-        <v>9133.75703453575</v>
+        <v>9133.75581556768</v>
       </c>
     </row>
     <row r="48">
@@ -7661,13 +7661,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>287418.188859248</v>
+        <v>287418.188640778</v>
       </c>
       <c r="C48" t="n">
         <v>20.8709787640186</v>
       </c>
       <c r="D48" t="n">
-        <v>9133.75703453575</v>
+        <v>9133.75581556768</v>
       </c>
     </row>
     <row r="49">
@@ -7675,13 +7675,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>304882.867761128</v>
+        <v>304882.867429517</v>
       </c>
       <c r="C49" t="n">
         <v>22.6515763343628</v>
       </c>
       <c r="D49" t="n">
-        <v>9133.75703453575</v>
+        <v>9133.75581556768</v>
       </c>
     </row>
     <row r="50">
@@ -7689,13 +7689,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>191338.905181186</v>
+        <v>191338.905516333</v>
       </c>
       <c r="C50" t="n">
         <v>10.0845109015617</v>
       </c>
       <c r="D50" t="n">
-        <v>20957.5798117679</v>
+        <v>20957.5789232531</v>
       </c>
     </row>
     <row r="51">
@@ -7703,13 +7703,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>294318.464571538</v>
+        <v>294318.464200338</v>
       </c>
       <c r="C51" t="n">
         <v>21.5051550060549</v>
       </c>
       <c r="D51" t="n">
-        <v>20957.5798117679</v>
+        <v>20957.5789232531</v>
       </c>
     </row>
     <row r="52">
@@ -7717,13 +7717,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>289982.284985822</v>
+        <v>289982.284613725</v>
       </c>
       <c r="C52" t="n">
         <v>21.2859730913388</v>
       </c>
       <c r="D52" t="n">
-        <v>20957.5798117679</v>
+        <v>20957.5789232531</v>
       </c>
     </row>
     <row r="53">
@@ -7731,13 +7731,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>303392.737560236</v>
+        <v>303392.737053117</v>
       </c>
       <c r="C53" t="n">
         <v>23.1019757042202</v>
       </c>
       <c r="D53" t="n">
-        <v>20957.5798117679</v>
+        <v>20957.5789232531</v>
       </c>
     </row>
     <row r="54">
@@ -7745,13 +7745,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>176585.416682848</v>
+        <v>176585.416886668</v>
       </c>
       <c r="C54" t="n">
         <v>9.54288129123004</v>
       </c>
       <c r="D54" t="n">
-        <v>28448.451526145</v>
+        <v>28448.4507285729</v>
       </c>
     </row>
     <row r="55">
@@ -7759,13 +7759,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>272232.878915487</v>
+        <v>272232.878436669</v>
       </c>
       <c r="C55" t="n">
         <v>20.350133325802</v>
       </c>
       <c r="D55" t="n">
-        <v>28448.451526145</v>
+        <v>28448.4507285729</v>
       </c>
     </row>
     <row r="56">
@@ -7773,13 +7773,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>268022.640410596</v>
+        <v>268022.639938965</v>
       </c>
       <c r="C56" t="n">
         <v>20.1427234658953</v>
       </c>
       <c r="D56" t="n">
-        <v>28448.451526145</v>
+        <v>28448.4507285729</v>
       </c>
     </row>
     <row r="57">
@@ -7787,13 +7787,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>282300.089794578</v>
+        <v>282300.089225474</v>
       </c>
       <c r="C57" t="n">
         <v>21.8611902838158</v>
       </c>
       <c r="D57" t="n">
-        <v>28448.451526145</v>
+        <v>28448.4507285729</v>
       </c>
     </row>
     <row r="58">
@@ -7801,13 +7801,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>161423.837068748</v>
+        <v>161423.837830434</v>
       </c>
       <c r="C58" t="n">
         <v>9.48743590695721</v>
       </c>
       <c r="D58" t="n">
-        <v>-14123.741483676</v>
+        <v>-14123.7425317818</v>
       </c>
     </row>
     <row r="59">
@@ -7815,13 +7815,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>260457.528922619</v>
+        <v>260457.529030491</v>
       </c>
       <c r="C59" t="n">
         <v>20.2318963984194</v>
       </c>
       <c r="D59" t="n">
-        <v>-14123.741483676</v>
+        <v>-14123.7425317818</v>
       </c>
     </row>
     <row r="60">
@@ -7829,13 +7829,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>260679.563999164</v>
+        <v>260679.56410977</v>
       </c>
       <c r="C60" t="n">
         <v>20.0256916168358</v>
       </c>
       <c r="D60" t="n">
-        <v>-14123.741483676</v>
+        <v>-14123.7425317818</v>
       </c>
     </row>
     <row r="61">
@@ -7843,13 +7843,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>279747.728789848</v>
+        <v>279747.728769869</v>
       </c>
       <c r="C61" t="n">
         <v>21.7341739185319</v>
       </c>
       <c r="D61" t="n">
-        <v>-14123.741483676</v>
+        <v>-14123.7425317818</v>
       </c>
     </row>
     <row r="62">
@@ -7857,13 +7857,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>165259.087985862</v>
+        <v>165259.089142294</v>
       </c>
       <c r="C62" t="n">
         <v>9.29907793917559</v>
       </c>
       <c r="D62" t="n">
-        <v>-47135.7378149526</v>
+        <v>-47135.7388887051</v>
       </c>
     </row>
     <row r="63">
@@ -7871,13 +7871,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>261643.283177794</v>
+        <v>261643.283682777</v>
       </c>
       <c r="C63" t="n">
         <v>19.8302242366944</v>
       </c>
       <c r="D63" t="n">
-        <v>-47135.7378149526</v>
+        <v>-47135.7388887051</v>
       </c>
     </row>
     <row r="64">
@@ -7885,13 +7885,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>255162.617253449</v>
+        <v>255162.617802525</v>
       </c>
       <c r="C64" t="n">
         <v>19.6281133234634</v>
       </c>
       <c r="D64" t="n">
-        <v>-47135.7378149526</v>
+        <v>-47135.7388887051</v>
       </c>
     </row>
     <row r="65">
@@ -7899,13 +7899,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>261138.968269754</v>
+        <v>261138.968784276</v>
       </c>
       <c r="C65" t="n">
         <v>21.3026764232282</v>
       </c>
       <c r="D65" t="n">
-        <v>-47135.7378149526</v>
+        <v>-47135.7388887051</v>
       </c>
     </row>
     <row r="66">
@@ -7913,13 +7913,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>155359.694217343</v>
+        <v>155359.695516129</v>
       </c>
       <c r="C66" t="n">
         <v>11.3843382942371</v>
       </c>
       <c r="D66" t="n">
-        <v>-53262.1894340524</v>
+        <v>-53262.1905949309</v>
       </c>
     </row>
     <row r="67">
@@ -7927,13 +7927,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>267749.750332746</v>
+        <v>267749.750914668</v>
       </c>
       <c r="C67" t="n">
         <v>24.2770286084002</v>
       </c>
       <c r="D67" t="n">
-        <v>-53262.1894340524</v>
+        <v>-53262.1905949309</v>
       </c>
     </row>
     <row r="68">
@@ -7941,13 +7941,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>268495.24408065</v>
+        <v>268495.244722301</v>
       </c>
       <c r="C68" t="n">
         <v>24.0295955807141</v>
       </c>
       <c r="D68" t="n">
-        <v>-53262.1894340524</v>
+        <v>-53262.1905949309</v>
       </c>
     </row>
     <row r="69">
@@ -7955,13 +7955,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>298778.266966699</v>
+        <v>298778.267496876</v>
       </c>
       <c r="C69" t="n">
         <v>26.07966903396</v>
       </c>
       <c r="D69" t="n">
-        <v>-53262.1894340524</v>
+        <v>-53262.1905949309</v>
       </c>
     </row>
     <row r="70">
@@ -7969,13 +7969,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>185414.783231394</v>
+        <v>185414.786035655</v>
       </c>
       <c r="C70" t="n">
         <v>13.2626934505632</v>
       </c>
       <c r="D70" t="n">
-        <v>-149761.116654563</v>
+        <v>-149761.116850893</v>
       </c>
     </row>
     <row r="71">
@@ -7983,13 +7983,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>335908.384798544</v>
+        <v>335908.386661558</v>
       </c>
       <c r="C71" t="n">
         <v>28.2826089669835</v>
       </c>
       <c r="D71" t="n">
-        <v>-149761.116654563</v>
+        <v>-149761.116850893</v>
       </c>
     </row>
     <row r="72">
@@ -7997,13 +7997,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>339474.919993435</v>
+        <v>339474.921851703</v>
       </c>
       <c r="C72" t="n">
         <v>27.994350808193</v>
       </c>
       <c r="D72" t="n">
-        <v>-149761.116654563</v>
+        <v>-149761.116850893</v>
       </c>
     </row>
     <row r="73">
@@ -8011,13 +8011,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>360590.77312174</v>
+        <v>360590.774807588</v>
       </c>
       <c r="C73" t="n">
         <v>30.3826754572683</v>
       </c>
       <c r="D73" t="n">
-        <v>-149761.116654563</v>
+        <v>-149761.116850893</v>
       </c>
     </row>
     <row r="74">
@@ -8025,13 +8025,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>213525.101261876</v>
+        <v>213525.102703385</v>
       </c>
       <c r="C74" t="n">
         <v>13.2730027666164</v>
       </c>
       <c r="D74" t="n">
-        <v>-48176.8292959279</v>
+        <v>-48176.8286234145</v>
       </c>
     </row>
     <row r="75">
@@ -8039,13 +8039,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>345206.809076531</v>
+        <v>345206.809572978</v>
       </c>
       <c r="C75" t="n">
         <v>28.3045935175379</v>
       </c>
       <c r="D75" t="n">
-        <v>-48176.8292959279</v>
+        <v>-48176.8286234145</v>
       </c>
     </row>
     <row r="76">
@@ -8053,13 +8053,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>338649.53198659</v>
+        <v>338649.532485486</v>
       </c>
       <c r="C76" t="n">
         <v>28.0161112908025</v>
       </c>
       <c r="D76" t="n">
-        <v>-48176.8292959279</v>
+        <v>-48176.8286234145</v>
       </c>
     </row>
     <row r="77">
@@ -8067,13 +8067,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>358457.504574549</v>
+        <v>358457.504918373</v>
       </c>
       <c r="C77" t="n">
         <v>30.4062924250432</v>
       </c>
       <c r="D77" t="n">
-        <v>-48176.8292959279</v>
+        <v>-48176.8286234145</v>
       </c>
     </row>
     <row r="78">
@@ -8081,13 +8081,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>206371.263933207</v>
+        <v>206371.264865415</v>
       </c>
       <c r="C78" t="n">
         <v>13.1766760789473</v>
       </c>
       <c r="D78" t="n">
-        <v>-14437.2889933812</v>
+        <v>-14437.2883160992</v>
       </c>
     </row>
     <row r="79">
@@ -8095,13 +8095,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>343883.206506242</v>
+        <v>343883.20653244</v>
       </c>
       <c r="C79" t="n">
         <v>28.0991774721029</v>
       </c>
       <c r="D79" t="n">
-        <v>-14437.2889933812</v>
+        <v>-14437.2883160992</v>
       </c>
     </row>
     <row r="80">
@@ -8109,13 +8109,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>343528.814527933</v>
+        <v>343528.81459342</v>
       </c>
       <c r="C80" t="n">
         <v>27.8127888588355</v>
       </c>
       <c r="D80" t="n">
-        <v>-14437.2889933812</v>
+        <v>-14437.2883160992</v>
       </c>
     </row>
     <row r="81">
@@ -8123,13 +8123,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>368717.733762223</v>
+        <v>368717.733715283</v>
       </c>
       <c r="C81" t="n">
         <v>30.1856236370452</v>
       </c>
       <c r="D81" t="n">
-        <v>-14437.2889933812</v>
+        <v>-14437.2883160992</v>
       </c>
     </row>
     <row r="82">
@@ -8137,13 +8137,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>228022.522371679</v>
+        <v>228022.523168413</v>
       </c>
       <c r="C82" t="n">
         <v>14.0416909611662</v>
       </c>
       <c r="D82" t="n">
-        <v>-1138.21850087959</v>
+        <v>-1138.21786815394</v>
       </c>
     </row>
     <row r="83">
@@ -8151,13 +8151,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>375058.186549825</v>
+        <v>375058.186400744</v>
       </c>
       <c r="C83" t="n">
         <v>29.9438161765722</v>
       </c>
       <c r="D83" t="n">
-        <v>-1138.21850087959</v>
+        <v>-1138.21786815394</v>
       </c>
     </row>
     <row r="84">
@@ -8165,13 +8165,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>370765.918529968</v>
+        <v>370765.918415813</v>
       </c>
       <c r="C84" t="n">
         <v>29.6386268876951</v>
       </c>
       <c r="D84" t="n">
-        <v>-1138.21850087959</v>
+        <v>-1138.21786815394</v>
       </c>
     </row>
     <row r="85">
@@ -8179,13 +8179,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>389282.786882608</v>
+        <v>389282.78661509</v>
       </c>
       <c r="C85" t="n">
         <v>32.1672321640108</v>
       </c>
       <c r="D85" t="n">
-        <v>-1138.21850087959</v>
+        <v>-1138.21786815394</v>
       </c>
     </row>
     <row r="86">
@@ -8193,13 +8193,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>226300.139388438</v>
+        <v>226300.139694211</v>
       </c>
       <c r="C86" t="n">
         <v>14.4358673926222</v>
       </c>
       <c r="D86" t="n">
-        <v>39889.1712288426</v>
+        <v>39889.1722616856</v>
       </c>
     </row>
     <row r="87">
@@ -8207,13 +8207,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>371019.149334492</v>
+        <v>371019.148629756</v>
       </c>
       <c r="C87" t="n">
         <v>30.7843948958517</v>
       </c>
       <c r="D87" t="n">
-        <v>39889.1712288426</v>
+        <v>39889.1722616856</v>
       </c>
     </row>
     <row r="88">
@@ -8221,13 +8221,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>366277.544261093</v>
+        <v>366277.543574462</v>
       </c>
       <c r="C88" t="n">
         <v>30.4706383749268</v>
       </c>
       <c r="D88" t="n">
-        <v>39889.1712288426</v>
+        <v>39889.1722616856</v>
       </c>
     </row>
     <row r="89">
@@ -8235,13 +8235,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>391100.744751554</v>
+        <v>391100.743909797</v>
       </c>
       <c r="C89" t="n">
         <v>33.0702263133118</v>
       </c>
       <c r="D89" t="n">
-        <v>39889.1712288426</v>
+        <v>39889.1722616856</v>
       </c>
     </row>
     <row r="90">
@@ -8249,13 +8249,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>223888.63560969</v>
+        <v>223888.636412297</v>
       </c>
       <c r="C90" t="n">
         <v>15.0058648745639</v>
       </c>
       <c r="D90" t="n">
-        <v>4297.82941872859</v>
+        <v>4297.83063390013</v>
       </c>
     </row>
     <row r="91">
@@ -8263,13 +8263,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>382235.770675536</v>
+        <v>382235.770440923</v>
       </c>
       <c r="C91" t="n">
         <v>31.9999108808974</v>
       </c>
       <c r="D91" t="n">
-        <v>4297.82941872859</v>
+        <v>4297.83063390013</v>
       </c>
     </row>
     <row r="92">
@@ -8277,13 +8277,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>381144.836495641</v>
+        <v>381144.836283198</v>
       </c>
       <c r="C92" t="n">
         <v>31.6737657433411</v>
       </c>
       <c r="D92" t="n">
-        <v>4297.82941872859</v>
+        <v>4297.83063390013</v>
       </c>
     </row>
     <row r="93">
@@ -8291,13 +8291,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>406710.038379631</v>
+        <v>406710.037999449</v>
       </c>
       <c r="C93" t="n">
         <v>34.3759979176882</v>
       </c>
       <c r="D93" t="n">
-        <v>4297.82941872859</v>
+        <v>4297.83063390013</v>
       </c>
     </row>
     <row r="94">
@@ -8305,13 +8305,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>232115.209303058</v>
+        <v>232115.210132092</v>
       </c>
       <c r="C94" t="n">
         <v>15.3051278380834</v>
       </c>
       <c r="D94" t="n">
-        <v>4305.8252053347</v>
+        <v>4305.82668416156</v>
       </c>
     </row>
     <row r="95">
@@ -8319,13 +8319,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>390490.502425906</v>
+        <v>390490.502186421</v>
       </c>
       <c r="C95" t="n">
         <v>32.638087236784</v>
       </c>
       <c r="D95" t="n">
-        <v>4305.8252053347</v>
+        <v>4305.82668416156</v>
       </c>
     </row>
     <row r="96">
@@ -8333,13 +8333,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>387354.851221028</v>
+        <v>387354.850999058</v>
       </c>
       <c r="C96" t="n">
         <v>32.3054377650078</v>
       </c>
       <c r="D96" t="n">
-        <v>4305.8252053347</v>
+        <v>4305.82668416156</v>
       </c>
     </row>
     <row r="97">
@@ -8347,13 +8347,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>412513.750140015</v>
+        <v>412513.749747379</v>
       </c>
       <c r="C97" t="n">
         <v>35.061560735745</v>
       </c>
       <c r="D97" t="n">
-        <v>4305.8252053347</v>
+        <v>4305.82668416156</v>
       </c>
     </row>
     <row r="98">
@@ -8361,13 +8361,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>235310.28195268</v>
+        <v>234396.468125104</v>
       </c>
       <c r="C98" t="n">
-        <v>15.78164508779</v>
+        <v>15.6817235804303</v>
       </c>
       <c r="D98" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8375,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>398831.485340709</v>
+        <v>391860.646293949</v>
       </c>
       <c r="C99" t="n">
-        <v>33.6619568125898</v>
+        <v>32.8997268223006</v>
       </c>
       <c r="D99" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8389,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>395726.072297189</v>
+        <v>389883.368805051</v>
       </c>
       <c r="C100" t="n">
-        <v>33.3223937950607</v>
+        <v>32.6835203770644</v>
       </c>
       <c r="D100" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8403,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>422246.520517208</v>
+        <v>416148.750656336</v>
       </c>
       <c r="C101" t="n">
-        <v>36.2222861113503</v>
+        <v>35.5555223468043</v>
       </c>
       <c r="D101" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8417,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>240127.952162735</v>
+        <v>239403.510009609</v>
       </c>
       <c r="C102" t="n">
-        <v>16.3084357629946</v>
+        <v>16.2292212043479</v>
       </c>
       <c r="D102" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8431,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>409148.341037331</v>
+        <v>396323.291318412</v>
       </c>
       <c r="C103" t="n">
-        <v>34.7900588082535</v>
+        <v>33.3876970857095</v>
       </c>
       <c r="D103" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8445,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>405984.639006779</v>
+        <v>394760.514973496</v>
       </c>
       <c r="C104" t="n">
-        <v>34.4441221508745</v>
+        <v>33.2168144857049</v>
       </c>
       <c r="D104" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8459,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>433425.818132099</v>
+        <v>421413.846860226</v>
       </c>
       <c r="C105" t="n">
-        <v>37.444692270778</v>
+        <v>36.1312370557721</v>
       </c>
       <c r="D105" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8473,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>245168.132663001</v>
+        <v>244668.606213499</v>
       </c>
       <c r="C106" t="n">
-        <v>16.8595569425529</v>
+        <v>16.8049359133157</v>
       </c>
       <c r="D106" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8487,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>419909.74792995</v>
+        <v>401588.387522303</v>
       </c>
       <c r="C107" t="n">
-        <v>35.9667704875385</v>
+        <v>33.9634117946774</v>
       </c>
       <c r="D107" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8501,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>416644.799799372</v>
+        <v>400025.611177386</v>
       </c>
       <c r="C108" t="n">
-        <v>35.609763022265</v>
+        <v>33.7925291946728</v>
       </c>
       <c r="D108" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8515,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>445018.389094539</v>
+        <v>426678.943064117</v>
       </c>
       <c r="C109" t="n">
-        <v>38.7122880210883</v>
+        <v>36.70695176474</v>
       </c>
       <c r="D109" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8529,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>250388.745195888</v>
+        <v>249933.702417389</v>
       </c>
       <c r="C110" t="n">
-        <v>17.4304075573257</v>
+        <v>17.3806506222836</v>
       </c>
       <c r="D110" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8543,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>431048.311887751</v>
+        <v>406853.483726193</v>
       </c>
       <c r="C111" t="n">
-        <v>37.1847226038735</v>
+        <v>34.5391265036453</v>
       </c>
       <c r="D111" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8557,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>427673.612707702</v>
+        <v>405290.707381276</v>
       </c>
       <c r="C112" t="n">
-        <v>36.815714352549</v>
+        <v>34.3682439036406</v>
       </c>
       <c r="D112" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8571,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>457008.631507203</v>
+        <v>431944.039268007</v>
       </c>
       <c r="C113" t="n">
-        <v>40.0233673646375</v>
+        <v>37.2826664737079</v>
       </c>
       <c r="D113" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8585,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>255787.561006894</v>
+        <v>255198.79862128</v>
       </c>
       <c r="C114" t="n">
-        <v>18.0207439029829</v>
+        <v>17.9563653312515</v>
       </c>
       <c r="D114" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8599,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>442565.931537618</v>
+        <v>412118.579930083</v>
       </c>
       <c r="C115" t="n">
-        <v>38.4441227636107</v>
+        <v>35.1148412126131</v>
       </c>
       <c r="D115" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8613,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>439077.050949171</v>
+        <v>410555.803585167</v>
       </c>
       <c r="C116" t="n">
-        <v>38.0626292863152</v>
+        <v>34.9439586126085</v>
       </c>
       <c r="D116" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8627,13 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>469405.696753326</v>
+        <v>437209.135471897</v>
       </c>
       <c r="C117" t="n">
-        <v>41.3789309642237</v>
+        <v>37.8583811826757</v>
       </c>
       <c r="D117" t="n">
-        <v>12181.1365322233</v>
+        <v>12181.1381494757</v>
       </c>
     </row>
   </sheetData>
@@ -8663,7 +8663,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>137904.65137152</v>
+        <v>137904.651697294</v>
       </c>
     </row>
     <row r="3">
@@ -8671,7 +8671,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>210458.465242979</v>
+        <v>210458.465107746</v>
       </c>
     </row>
     <row r="4">
@@ -8679,7 +8679,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>210980.331251827</v>
+        <v>210980.331165222</v>
       </c>
     </row>
     <row r="5">
@@ -8687,7 +8687,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>225210.557640923</v>
+        <v>225210.557536985</v>
       </c>
     </row>
     <row r="6">
@@ -8695,7 +8695,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>146427.771714553</v>
+        <v>146427.772731044</v>
       </c>
     </row>
     <row r="7">
@@ -8703,7 +8703,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>225062.873407005</v>
+        <v>225062.87397184</v>
       </c>
     </row>
     <row r="8">
@@ -8711,7 +8711,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>224928.187307928</v>
+        <v>224928.187921888</v>
       </c>
     </row>
     <row r="9">
@@ -8719,7 +8719,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>237117.04396678</v>
+        <v>237117.044519112</v>
       </c>
     </row>
     <row r="10">
@@ -8727,7 +8727,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>157644.106113195</v>
+        <v>157644.106979093</v>
       </c>
     </row>
     <row r="11">
@@ -8735,7 +8735,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>239530.225749754</v>
+        <v>239530.22606285</v>
       </c>
     </row>
     <row r="12">
@@ -8743,7 +8743,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>239054.753934662</v>
+        <v>239054.754252615</v>
       </c>
     </row>
     <row r="13">
@@ -8751,7 +8751,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>254294.586409039</v>
+        <v>254294.586631093</v>
       </c>
     </row>
     <row r="14">
@@ -8759,7 +8759,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>168442.190774886</v>
+        <v>168442.191395976</v>
       </c>
     </row>
     <row r="15">
@@ -8767,7 +8767,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>253771.411475049</v>
+        <v>253771.411533747</v>
       </c>
     </row>
     <row r="16">
@@ -8775,7 +8775,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>253146.833075247</v>
+        <v>253146.833147877</v>
       </c>
     </row>
     <row r="17">
@@ -8783,7 +8783,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>266163.032263139</v>
+        <v>266163.032257417</v>
       </c>
     </row>
     <row r="18">
@@ -8791,7 +8791,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>178275.831948081</v>
+        <v>178275.83200669</v>
       </c>
     </row>
     <row r="19">
@@ -8799,7 +8799,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>261248.015032397</v>
+        <v>261248.014531531</v>
       </c>
     </row>
     <row r="20">
@@ -8807,7 +8807,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>257983.236386265</v>
+        <v>257983.235894074</v>
       </c>
     </row>
     <row r="21">
@@ -8815,7 +8815,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>269648.546893395</v>
+        <v>269648.546298867</v>
       </c>
     </row>
     <row r="22">
@@ -8823,7 +8823,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>172028.686600731</v>
+        <v>172028.686420871</v>
       </c>
     </row>
     <row r="23">
@@ -8831,7 +8831,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>252608.029718969</v>
+        <v>252608.02898062</v>
       </c>
     </row>
     <row r="24">
@@ -8839,7 +8839,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>250229.288380673</v>
+        <v>250229.287658023</v>
       </c>
     </row>
     <row r="25">
@@ -8847,7 +8847,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>262995.272688943</v>
+        <v>262995.271897589</v>
       </c>
     </row>
     <row r="26">
@@ -8855,7 +8855,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>171658.320272095</v>
+        <v>171658.32026564</v>
       </c>
     </row>
     <row r="27">
@@ -8863,7 +8863,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>258612.354370894</v>
+        <v>258612.353803947</v>
       </c>
     </row>
     <row r="28">
@@ -8871,7 +8871,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>258053.839509332</v>
+        <v>258053.838958373</v>
       </c>
     </row>
     <row r="29">
@@ -8879,7 +8879,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>273274.919270542</v>
+        <v>273274.918618625</v>
       </c>
     </row>
     <row r="30">
@@ -8887,7 +8887,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>176211.903187288</v>
+        <v>176211.903274739</v>
       </c>
     </row>
     <row r="31">
@@ -8895,7 +8895,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>264579.700377737</v>
+        <v>264579.699871286</v>
       </c>
     </row>
     <row r="32">
@@ -8903,7 +8903,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>264747.556622176</v>
+        <v>264747.556123058</v>
       </c>
     </row>
     <row r="33">
@@ -8911,7 +8911,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>280287.883686303</v>
+        <v>280287.883100443</v>
       </c>
     </row>
     <row r="34">
@@ -8919,7 +8919,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>187459.193291362</v>
+        <v>187459.19306769</v>
       </c>
     </row>
     <row r="35">
@@ -8927,7 +8927,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>274916.326591318</v>
+        <v>274916.325790939</v>
       </c>
     </row>
     <row r="36">
@@ -8935,7 +8935,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>272946.764414359</v>
+        <v>272946.763621327</v>
       </c>
     </row>
     <row r="37">
@@ -8943,7 +8943,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>285409.27956276</v>
+        <v>285409.278663897</v>
       </c>
     </row>
     <row r="38">
@@ -8951,7 +8951,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>187354.418490652</v>
+        <v>187354.417788041</v>
       </c>
     </row>
     <row r="39">
@@ -8959,7 +8959,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>268079.632142964</v>
+        <v>268079.630874783</v>
       </c>
     </row>
     <row r="40">
@@ -8967,7 +8967,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>262304.623934083</v>
+        <v>262304.62269585</v>
       </c>
     </row>
     <row r="41">
@@ -8975,7 +8975,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>270591.321544281</v>
+        <v>270591.320256414</v>
       </c>
     </row>
     <row r="42">
@@ -8983,7 +8983,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>176263.057084073</v>
+        <v>176263.056609452</v>
       </c>
     </row>
     <row r="43">
@@ -8991,7 +8991,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>268424.678558667</v>
+        <v>268424.67748508</v>
       </c>
     </row>
     <row r="44">
@@ -8999,7 +8999,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>266876.498173003</v>
+        <v>266876.49712847</v>
       </c>
     </row>
     <row r="45">
@@ -9007,7 +9007,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>285382.971312662</v>
+        <v>285382.970161474</v>
       </c>
     </row>
     <row r="46">
@@ -9015,7 +9015,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>179271.350110779</v>
+        <v>179271.350597717</v>
       </c>
     </row>
     <row r="47">
@@ -9023,7 +9023,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>286422.395491267</v>
+        <v>286422.395271244</v>
       </c>
     </row>
     <row r="48">
@@ -9031,7 +9031,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>287418.188859248</v>
+        <v>287418.188640778</v>
       </c>
     </row>
     <row r="49">
@@ -9039,7 +9039,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>304882.867761128</v>
+        <v>304882.867429517</v>
       </c>
     </row>
     <row r="50">
@@ -9047,7 +9047,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>191338.905181186</v>
+        <v>191338.905516333</v>
       </c>
     </row>
     <row r="51">
@@ -9055,7 +9055,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>294318.464571538</v>
+        <v>294318.464200338</v>
       </c>
     </row>
     <row r="52">
@@ -9063,7 +9063,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>289982.284985822</v>
+        <v>289982.284613725</v>
       </c>
     </row>
     <row r="53">
@@ -9071,7 +9071,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>303392.737560236</v>
+        <v>303392.737053117</v>
       </c>
     </row>
     <row r="54">
@@ -9079,7 +9079,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>176585.416682848</v>
+        <v>176585.416886668</v>
       </c>
     </row>
     <row r="55">
@@ -9087,7 +9087,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>272232.878915487</v>
+        <v>272232.878436669</v>
       </c>
     </row>
     <row r="56">
@@ -9095,7 +9095,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>268022.640410596</v>
+        <v>268022.639938965</v>
       </c>
     </row>
     <row r="57">
@@ -9103,7 +9103,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>282300.089794578</v>
+        <v>282300.089225474</v>
       </c>
     </row>
     <row r="58">
@@ -9111,7 +9111,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>161423.837068748</v>
+        <v>161423.837830434</v>
       </c>
     </row>
     <row r="59">
@@ -9119,7 +9119,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>260457.528922619</v>
+        <v>260457.529030491</v>
       </c>
     </row>
     <row r="60">
@@ -9127,7 +9127,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>260679.563999164</v>
+        <v>260679.56410977</v>
       </c>
     </row>
     <row r="61">
@@ -9135,7 +9135,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>279747.728789848</v>
+        <v>279747.728769869</v>
       </c>
     </row>
     <row r="62">
@@ -9143,7 +9143,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>165259.087985862</v>
+        <v>165259.089142294</v>
       </c>
     </row>
     <row r="63">
@@ -9151,7 +9151,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>261643.283177794</v>
+        <v>261643.283682777</v>
       </c>
     </row>
     <row r="64">
@@ -9159,7 +9159,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>255162.617253449</v>
+        <v>255162.617802525</v>
       </c>
     </row>
     <row r="65">
@@ -9167,7 +9167,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>261138.968269754</v>
+        <v>261138.968784276</v>
       </c>
     </row>
     <row r="66">
@@ -9175,7 +9175,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>155359.694217343</v>
+        <v>155359.695516129</v>
       </c>
     </row>
     <row r="67">
@@ -9183,7 +9183,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>267749.750332746</v>
+        <v>267749.750914668</v>
       </c>
     </row>
     <row r="68">
@@ -9191,7 +9191,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>268495.24408065</v>
+        <v>268495.244722301</v>
       </c>
     </row>
     <row r="69">
@@ -9199,7 +9199,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>298778.266966699</v>
+        <v>298778.267496876</v>
       </c>
     </row>
     <row r="70">
@@ -9207,7 +9207,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>185414.783231394</v>
+        <v>185414.786035655</v>
       </c>
     </row>
     <row r="71">
@@ -9215,7 +9215,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>335908.384798544</v>
+        <v>335908.386661558</v>
       </c>
     </row>
     <row r="72">
@@ -9223,7 +9223,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>339474.919993435</v>
+        <v>339474.921851703</v>
       </c>
     </row>
     <row r="73">
@@ -9231,7 +9231,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>360590.77312174</v>
+        <v>360590.774807588</v>
       </c>
     </row>
     <row r="74">
@@ -9239,7 +9239,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>213525.101261876</v>
+        <v>213525.102703385</v>
       </c>
     </row>
     <row r="75">
@@ -9247,7 +9247,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>345206.809076531</v>
+        <v>345206.809572978</v>
       </c>
     </row>
     <row r="76">
@@ -9255,7 +9255,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>338649.53198659</v>
+        <v>338649.532485486</v>
       </c>
     </row>
     <row r="77">
@@ -9263,7 +9263,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>358457.504574549</v>
+        <v>358457.504918373</v>
       </c>
     </row>
     <row r="78">
@@ -9271,7 +9271,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>206371.263933207</v>
+        <v>206371.264865415</v>
       </c>
     </row>
     <row r="79">
@@ -9279,7 +9279,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>343883.206506242</v>
+        <v>343883.20653244</v>
       </c>
     </row>
     <row r="80">
@@ -9287,7 +9287,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>343528.814527933</v>
+        <v>343528.81459342</v>
       </c>
     </row>
     <row r="81">
@@ -9295,7 +9295,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>368717.733762223</v>
+        <v>368717.733715283</v>
       </c>
     </row>
     <row r="82">
@@ -9303,7 +9303,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>228022.522371679</v>
+        <v>228022.523168413</v>
       </c>
     </row>
     <row r="83">
@@ -9311,7 +9311,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>375058.186549825</v>
+        <v>375058.186400744</v>
       </c>
     </row>
     <row r="84">
@@ -9319,7 +9319,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>370765.918529968</v>
+        <v>370765.918415813</v>
       </c>
     </row>
     <row r="85">
@@ -9327,7 +9327,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>389282.786882608</v>
+        <v>389282.78661509</v>
       </c>
     </row>
     <row r="86">
@@ -9335,7 +9335,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>226300.139388438</v>
+        <v>226300.139694211</v>
       </c>
     </row>
     <row r="87">
@@ -9343,7 +9343,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>371019.149334492</v>
+        <v>371019.148629756</v>
       </c>
     </row>
     <row r="88">
@@ -9351,7 +9351,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>366277.544261093</v>
+        <v>366277.543574462</v>
       </c>
     </row>
     <row r="89">
@@ -9359,7 +9359,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>391100.744751554</v>
+        <v>391100.743909797</v>
       </c>
     </row>
     <row r="90">
@@ -9367,7 +9367,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>223888.63560969</v>
+        <v>223888.636412297</v>
       </c>
     </row>
     <row r="91">
@@ -9375,7 +9375,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>382235.770675536</v>
+        <v>382235.770440923</v>
       </c>
     </row>
     <row r="92">
@@ -9383,7 +9383,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>381144.836495641</v>
+        <v>381144.836283198</v>
       </c>
     </row>
     <row r="93">
@@ -9391,7 +9391,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>406710.038379631</v>
+        <v>406710.037999449</v>
       </c>
     </row>
     <row r="94">
@@ -9399,7 +9399,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>232115.209303058</v>
+        <v>232115.210132092</v>
       </c>
     </row>
     <row r="95">
@@ -9407,7 +9407,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>390490.502425906</v>
+        <v>390490.502186421</v>
       </c>
     </row>
     <row r="96">
@@ -9415,7 +9415,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>387354.851221028</v>
+        <v>387354.850999058</v>
       </c>
     </row>
     <row r="97">
@@ -9423,7 +9423,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>412513.750140015</v>
+        <v>412513.749747379</v>
       </c>
     </row>
     <row r="98">
@@ -9431,7 +9431,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>235310.28195268</v>
+        <v>234396.468125104</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9439,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>398831.485340709</v>
+        <v>391860.646293949</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9447,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>395726.072297189</v>
+        <v>389883.368805051</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9455,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>422246.520517208</v>
+        <v>416148.750656336</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9463,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>240127.952162735</v>
+        <v>239403.510009609</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9471,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>409148.341037331</v>
+        <v>396323.291318412</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +9479,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>405984.639006779</v>
+        <v>394760.514973496</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +9487,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>433425.818132099</v>
+        <v>421413.846860226</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +9495,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>245168.132663001</v>
+        <v>244668.606213499</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +9503,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>419909.74792995</v>
+        <v>401588.387522303</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +9511,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>416644.799799372</v>
+        <v>400025.611177386</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +9519,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>445018.389094539</v>
+        <v>426678.943064117</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +9527,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>250388.745195888</v>
+        <v>249933.702417389</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +9535,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>431048.311887751</v>
+        <v>406853.483726193</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +9543,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>427673.612707702</v>
+        <v>405290.707381276</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +9551,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>457008.631507203</v>
+        <v>431944.039268007</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +9559,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>255787.561006894</v>
+        <v>255198.79862128</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +9567,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>442565.931537618</v>
+        <v>412118.579930083</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +9575,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>439077.050949171</v>
+        <v>410555.803585167</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +9583,7 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>469405.696753326</v>
+        <v>437209.135471897</v>
       </c>
     </row>
   </sheetData>

--- a/VA_result_AGV.xlsx
+++ b/VA_result_AGV.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -392,6 +392,54 @@
     <t xml:space="preserve">2025-10-01</t>
   </si>
   <si>
+    <t xml:space="preserve">2026-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2026-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2027-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2028-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-07-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2029-10-01</t>
+  </si>
+  <si>
     <t xml:space="preserve">VA_CST</t>
   </si>
   <si>
@@ -461,73 +509,73 @@
     <t xml:space="preserve">2.3283064365387e-10</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.0490366477752104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.00910236779600382</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0286456343019381</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116994594340213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.152061145403422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.126595549751073</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.116024060640484</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.163076559314504</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.232218576944433</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.202986133983359</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.068628202425316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0931685189716518</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.108715805457905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0203573202015832</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0481589988339692</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0608744343044236</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.261157724540681</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0503197778016329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0197065572720021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.0473087462596595</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.132460996042937</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.058591251494363</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.058607847429812</t>
+    <t xml:space="preserve">0.345617354148999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.30342934653163</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.261364988982677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.179763603606261</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.146272802376188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.172778605017811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.176439096801914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.133580231573433</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0707432152703404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.100918975425884</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.207388999639079</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.175133719108999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.158306505880319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.245825067278929</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.308552364003845</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.322703005513176</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.474392041796818</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0614958149380982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1938441763632</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.235439357347786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.14505911571905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.22162126051262</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.220892192795873</t>
   </si>
   <si>
     <t xml:space="preserve">valaj_brut</t>
@@ -568,7 +616,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFA500"/>
+        <fgColor rgb="FFB8F0F6"/>
       </patternFill>
     </fill>
   </fills>
@@ -1921,10 +1969,10 @@
         <v>83</v>
       </c>
       <c r="B75" t="n">
-        <v>1131304.35867934</v>
+        <v>963037.985056051</v>
       </c>
       <c r="C75" t="n">
-        <v>113.130435867934</v>
+        <v>96.3037985056051</v>
       </c>
     </row>
     <row r="76">
@@ -1932,10 +1980,10 @@
         <v>84</v>
       </c>
       <c r="B76" t="n">
-        <v>1119774.03232772</v>
+        <v>952738.6843229</v>
       </c>
       <c r="C76" t="n">
-        <v>111.977403232772</v>
+        <v>95.27386843229</v>
       </c>
     </row>
     <row r="77">
@@ -1943,10 +1991,10 @@
         <v>85</v>
       </c>
       <c r="B77" t="n">
-        <v>1215307.01829073</v>
+        <v>1038376.11120087</v>
       </c>
       <c r="C77" t="n">
-        <v>121.530701829073</v>
+        <v>103.837611120087</v>
       </c>
     </row>
     <row r="78">
@@ -1998,10 +2046,10 @@
         <v>22</v>
       </c>
       <c r="B82" t="n">
-        <v>527067.043157891</v>
+        <v>697614.095914864</v>
       </c>
       <c r="C82" t="n">
-        <v>52.7067043157891</v>
+        <v>69.7614095914864</v>
       </c>
     </row>
     <row r="83">
@@ -2042,10 +2090,10 @@
         <v>23</v>
       </c>
       <c r="B86" t="n">
-        <v>561667.63844665</v>
+        <v>729067.790275266</v>
       </c>
       <c r="C86" t="n">
-        <v>56.166763844665</v>
+        <v>72.9067790275266</v>
       </c>
     </row>
     <row r="87">
@@ -2086,10 +2134,10 @@
         <v>24</v>
       </c>
       <c r="B90" t="n">
-        <v>577434.69570489</v>
+        <v>784942.348742295</v>
       </c>
       <c r="C90" t="n">
-        <v>57.743469570489</v>
+        <v>78.4942348742295</v>
       </c>
     </row>
     <row r="91">
@@ -2130,10 +2178,10 @@
         <v>25</v>
       </c>
       <c r="B94" t="n">
-        <v>600234.594982556</v>
+        <v>826889.054144708</v>
       </c>
       <c r="C94" t="n">
-        <v>60.0234594982556</v>
+        <v>82.6889054144708</v>
       </c>
     </row>
     <row r="95">
@@ -2174,10 +2222,10 @@
         <v>26</v>
       </c>
       <c r="B98" t="n">
-        <v>612205.113523334</v>
+        <v>865543.03736279</v>
       </c>
       <c r="C98" t="n">
-        <v>61.2205113523335</v>
+        <v>86.554303736279</v>
       </c>
     </row>
     <row r="99">
@@ -2218,10 +2266,10 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>627268.94321721</v>
+        <v>900568.157898338</v>
       </c>
       <c r="C102" t="n">
-        <v>62.726894321721</v>
+        <v>90.0568157898337</v>
       </c>
     </row>
     <row r="103">
@@ -2229,10 +2277,10 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>1315989.07289202</v>
+        <v>1347899.25947963</v>
       </c>
       <c r="C103" t="n">
-        <v>131.598907289202</v>
+        <v>134.789925947963</v>
       </c>
     </row>
     <row r="104">
@@ -2240,10 +2288,10 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>1307340.81508258</v>
+        <v>1334738.96915757</v>
       </c>
       <c r="C104" t="n">
-        <v>130.734081508258</v>
+        <v>133.473896915757</v>
       </c>
     </row>
     <row r="105">
@@ -2251,10 +2299,10 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>1422220.89387217</v>
+        <v>1443776.80488454</v>
       </c>
       <c r="C105" t="n">
-        <v>142.222089387217</v>
+        <v>144.377680488454</v>
       </c>
     </row>
     <row r="106">
@@ -2262,10 +2310,10 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>649168.848173915</v>
+        <v>937625.322455702</v>
       </c>
       <c r="C106" t="n">
-        <v>64.9168848173915</v>
+        <v>93.7625322455702</v>
       </c>
     </row>
     <row r="107">
@@ -2273,10 +2321,10 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>1335507.88342838</v>
+        <v>1380840.30154236</v>
       </c>
       <c r="C107" t="n">
-        <v>133.550788342838</v>
+        <v>138.084030154236</v>
       </c>
     </row>
     <row r="108">
@@ -2284,10 +2332,10 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>1328672.5794282</v>
+        <v>1367598.43041361</v>
       </c>
       <c r="C108" t="n">
-        <v>132.86725794282</v>
+        <v>136.759843041361</v>
       </c>
     </row>
     <row r="109">
@@ -2295,10 +2343,10 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>1445249.48223089</v>
+        <v>1477312.1930678</v>
       </c>
       <c r="C109" t="n">
-        <v>144.524948223089</v>
+        <v>147.73121930678</v>
       </c>
     </row>
     <row r="110">
@@ -2306,10 +2354,10 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>672197.43653263</v>
+        <v>973544.609041967</v>
       </c>
       <c r="C110" t="n">
-        <v>67.219743653263</v>
+        <v>97.3544609041967</v>
       </c>
     </row>
     <row r="111">
@@ -2317,10 +2365,10 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>1358536.4717871</v>
+        <v>1419064.48165589</v>
       </c>
       <c r="C111" t="n">
-        <v>135.85364717871</v>
+        <v>141.906448165589</v>
       </c>
     </row>
     <row r="112">
@@ -2328,10 +2376,10 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>1351701.16778691</v>
+        <v>1405868.29310182</v>
       </c>
       <c r="C112" t="n">
-        <v>135.170116778691</v>
+        <v>140.586829310182</v>
       </c>
     </row>
     <row r="113">
@@ -2339,10 +2387,10 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>1468278.0705896</v>
+        <v>1515203.55885718</v>
       </c>
       <c r="C113" t="n">
-        <v>146.82780705896</v>
+        <v>151.520355885718</v>
       </c>
     </row>
     <row r="114">
@@ -2350,10 +2398,10 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>695226.024891344</v>
+        <v>1010101.06995281</v>
       </c>
       <c r="C114" t="n">
-        <v>69.5226024891344</v>
+        <v>101.010106995281</v>
       </c>
     </row>
     <row r="115">
@@ -2361,10 +2409,10 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>1381565.06014581</v>
+        <v>1454330.27782608</v>
       </c>
       <c r="C115" t="n">
-        <v>138.156506014581</v>
+        <v>145.433027782608</v>
       </c>
     </row>
     <row r="116">
@@ -2372,10 +2420,10 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>1374729.75614563</v>
+        <v>1441108.50852926</v>
       </c>
       <c r="C116" t="n">
-        <v>137.472975614563</v>
+        <v>144.110850852926</v>
       </c>
     </row>
     <row r="117">
@@ -2383,10 +2431,10 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>1491306.65894831</v>
+        <v>1550655.72012766</v>
       </c>
       <c r="C117" t="n">
-        <v>149.130665894831</v>
+        <v>155.065572012766</v>
       </c>
     </row>
     <row r="118">
@@ -2394,10 +2442,10 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>718254.613250059</v>
+        <v>1046300.73415064</v>
       </c>
       <c r="C118" t="n">
-        <v>71.8254613250059</v>
+        <v>104.630073415064</v>
       </c>
     </row>
     <row r="119">
@@ -2405,10 +2453,10 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>1404593.64850453</v>
+        <v>1491252.67192577</v>
       </c>
       <c r="C119" t="n">
-        <v>140.459364850453</v>
+        <v>149.125267192577</v>
       </c>
     </row>
     <row r="120">
@@ -2416,10 +2464,10 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>1397758.34450434</v>
+        <v>1478045.22700546</v>
       </c>
       <c r="C120" t="n">
-        <v>139.775834450434</v>
+        <v>147.804522700546</v>
       </c>
     </row>
     <row r="121">
@@ -2427,10 +2475,186 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>1514335.24730703</v>
+        <v>1587473.75588672</v>
       </c>
       <c r="C121" t="n">
-        <v>151.433524730703</v>
+        <v>158.747375588672</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1082700.19279954</v>
+      </c>
+      <c r="C122" t="n">
+        <v>108.270019279954</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1527247.42554587</v>
+      </c>
+      <c r="C123" t="n">
+        <v>152.724742554587</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>126</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1514031.95944476</v>
+      </c>
+      <c r="C124" t="n">
+        <v>151.403195944476</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>127</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1623526.94675307</v>
+      </c>
+      <c r="C125" t="n">
+        <v>162.352694675307</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>128</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1118987.77311206</v>
+      </c>
+      <c r="C126" t="n">
+        <v>111.898777311206</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>129</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1563761.6273942</v>
+      </c>
+      <c r="C127" t="n">
+        <v>156.37616273942</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>130</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1550550.65289113</v>
+      </c>
+      <c r="C128" t="n">
+        <v>155.055065289113</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>131</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1660008.42566111</v>
+      </c>
+      <c r="C129" t="n">
+        <v>166.000842566111</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>132</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1155338.00162168</v>
+      </c>
+      <c r="C130" t="n">
+        <v>115.533800162169</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>133</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1599984.95528031</v>
+      </c>
+      <c r="C131" t="n">
+        <v>159.998495528031</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>134</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1586771.46562973</v>
+      </c>
+      <c r="C132" t="n">
+        <v>158.677146562973</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>135</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1696250.07731999</v>
+      </c>
+      <c r="C133" t="n">
+        <v>169.625007731999</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>136</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1191653.14919672</v>
+      </c>
+      <c r="C134" t="n">
+        <v>119.165314919672</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>137</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1636371.16304029</v>
+      </c>
+      <c r="C135" t="n">
+        <v>163.637116304029</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>138</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1623159.08178979</v>
+      </c>
+      <c r="C136" t="n">
+        <v>162.315908178979</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>139</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1732626.02436851</v>
+      </c>
+      <c r="C137" t="n">
+        <v>173.262602436851</v>
       </c>
     </row>
   </sheetData>
@@ -2452,19 +2676,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
@@ -2498,7 +2722,7 @@
         <v>-6.82762198783021</v>
       </c>
       <c r="F3" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4">
@@ -2506,19 +2730,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>833535.879143884</v>
+        <v>833536.273797886</v>
       </c>
       <c r="C4" t="n">
         <v>55.3408184063482</v>
       </c>
       <c r="D4" t="n">
-        <v>6.24327621716327</v>
+        <v>6.24332652013784</v>
       </c>
       <c r="E4" t="n">
         <v>6.24329724991903</v>
       </c>
       <c r="F4" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
@@ -2526,19 +2750,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="n">
-        <v>890523.673925651</v>
+        <v>890523.986457366</v>
       </c>
       <c r="C5" t="n">
         <v>59.5834584631946</v>
       </c>
       <c r="D5" t="n">
-        <v>6.83687363767693</v>
+        <v>6.8368605483506</v>
       </c>
       <c r="E5" t="n">
         <v>7.6663847391887</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6">
@@ -2546,19 +2770,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="n">
-        <v>941523.468335017</v>
+        <v>941523.701054371</v>
       </c>
       <c r="C6" t="n">
         <v>60.5054766302154</v>
       </c>
       <c r="D6" t="n">
-        <v>5.72694425792699</v>
+        <v>5.72693328563671</v>
       </c>
       <c r="E6" t="n">
         <v>1.54743982776746</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7">
@@ -2566,19 +2790,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>967155.628731162</v>
+        <v>967155.691500171</v>
       </c>
       <c r="C7" t="n">
         <v>61.4607826708178</v>
       </c>
       <c r="D7" t="n">
-        <v>2.7224133288438</v>
+        <v>2.72239460537163</v>
       </c>
       <c r="E7" t="n">
         <v>1.5788753246931</v>
       </c>
       <c r="F7" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
@@ -2586,19 +2810,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>937861.274957103</v>
+        <v>937861.26916876</v>
       </c>
       <c r="C8" t="n">
         <v>59.599201898984</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.02891829441049</v>
+        <v>-3.02892518638568</v>
       </c>
       <c r="E8" t="n">
         <v>-3.02889206895451</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
@@ -2606,19 +2830,19 @@
         <v>9</v>
       </c>
       <c r="B9" t="n">
-        <v>961599.431646585</v>
+        <v>961599.477829641</v>
       </c>
       <c r="C9" t="n">
         <v>62.7518142805532</v>
       </c>
       <c r="D9" t="n">
-        <v>2.53109466435411</v>
+        <v>2.53110022145604</v>
       </c>
       <c r="E9" t="n">
         <v>5.28968892387627</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
@@ -2626,19 +2850,19 @@
         <v>10</v>
       </c>
       <c r="B10" t="n">
-        <v>985827.042369527</v>
+        <v>985827.102784563</v>
       </c>
       <c r="C10" t="n">
         <v>62.9220821860385</v>
       </c>
       <c r="D10" t="n">
-        <v>2.51951175568559</v>
+        <v>2.51951311471226</v>
       </c>
       <c r="E10" t="n">
         <v>0.271335430596431</v>
       </c>
       <c r="F10" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
@@ -2646,19 +2870,19 @@
         <v>11</v>
       </c>
       <c r="B11" t="n">
-        <v>1020731.56114385</v>
+        <v>1020731.53164753</v>
       </c>
       <c r="C11" t="n">
         <v>63.096051608698</v>
       </c>
       <c r="D11" t="n">
-        <v>3.54063312063648</v>
+        <v>3.54062378325486</v>
       </c>
       <c r="E11" t="n">
         <v>0.276483893436885</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12">
@@ -2666,19 +2890,19 @@
         <v>12</v>
       </c>
       <c r="B12" t="n">
-        <v>988329.991615088</v>
+        <v>988329.830139726</v>
       </c>
       <c r="C12" t="n">
         <v>61.0931595625948</v>
       </c>
       <c r="D12" t="n">
-        <v>-3.17434776803176</v>
+        <v>-3.1743607896095</v>
       </c>
       <c r="E12" t="n">
         <v>-3.17435401271137</v>
       </c>
       <c r="F12" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
@@ -2686,19 +2910,19 @@
         <v>13</v>
       </c>
       <c r="B13" t="n">
-        <v>996947.201384476</v>
+        <v>996947.099317318</v>
       </c>
       <c r="C13" t="n">
         <v>69.1139299509124</v>
       </c>
       <c r="D13" t="n">
-        <v>0.871896010694462</v>
+        <v>0.871902164115967</v>
       </c>
       <c r="E13" t="n">
         <v>13.12875360473</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14">
@@ -2706,19 +2930,19 @@
         <v>14</v>
       </c>
       <c r="B14" t="n">
-        <v>1057994.80193926</v>
+        <v>1057994.94070005</v>
       </c>
       <c r="C14" t="n">
         <v>74.4963444333204</v>
       </c>
       <c r="D14" t="n">
-        <v>6.12345372653653</v>
+        <v>6.12347850999708</v>
       </c>
       <c r="E14" t="n">
         <v>7.78774190127929</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15">
@@ -2726,19 +2950,19 @@
         <v>15</v>
       </c>
       <c r="B15" t="n">
-        <v>1079032.39138351</v>
+        <v>1079032.47334871</v>
       </c>
       <c r="C15" t="n">
         <v>75.9776147031756</v>
       </c>
       <c r="D15" t="n">
-        <v>1.98843977358838</v>
+        <v>1.988434144566</v>
       </c>
       <c r="E15" t="n">
         <v>1.98837980725486</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -2746,19 +2970,19 @@
         <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>999141.024487776</v>
+        <v>999141.074078477</v>
       </c>
       <c r="C16" t="n">
         <v>71.8969283667432</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.40398226537966</v>
+        <v>-7.4039847032869</v>
       </c>
       <c r="E16" t="n">
         <v>-5.37090609171479</v>
       </c>
       <c r="F16" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2766,19 +2990,19 @@
         <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>962308.659740564</v>
+        <v>962308.885208311</v>
       </c>
       <c r="C17" t="n">
         <v>71.4791978407443</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.68640300463036</v>
+        <v>-3.68638521883771</v>
       </c>
       <c r="E17" t="n">
         <v>-0.58101303558894</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18">
@@ -2786,19 +3010,19 @@
         <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>943203.959411873</v>
+        <v>943204.316123236</v>
       </c>
       <c r="C18" t="n">
         <v>70.0600919225615</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.98529859783677</v>
+        <v>-1.98528449427545</v>
       </c>
       <c r="E18" t="n">
         <v>-1.98534113567506</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="19">
@@ -2806,19 +3030,19 @@
         <v>19</v>
       </c>
       <c r="B19" t="n">
-        <v>990382.958649974</v>
+        <v>990383.342227413</v>
       </c>
       <c r="C19" t="n">
         <v>85.7706315173114</v>
       </c>
       <c r="D19" t="n">
-        <v>5.00199334060456</v>
+        <v>5.00199429727941</v>
       </c>
       <c r="E19" t="n">
         <v>22.4243776501392</v>
       </c>
       <c r="F19" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20">
@@ -2826,19 +3050,19 @@
         <v>20</v>
       </c>
       <c r="B20" t="n">
-        <v>1221388.8693565</v>
+        <v>1221389.60490627</v>
       </c>
       <c r="C20" t="n">
-        <v>99.922328683008</v>
+        <v>87.1165129650588</v>
       </c>
       <c r="D20" t="n">
-        <v>23.3249076722224</v>
+        <v>23.3249341774383</v>
       </c>
       <c r="E20" t="n">
-        <v>16.4994671431798</v>
+        <v>1.5691635049647</v>
       </c>
       <c r="F20" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21">
@@ -2846,19 +3070,19 @@
         <v>21</v>
       </c>
       <c r="B21" t="n">
-        <v>1255838.94968022</v>
+        <v>1255839.06149581</v>
       </c>
       <c r="C21" t="n">
         <v>100</v>
       </c>
       <c r="D21" t="n">
-        <v>2.82056609389831</v>
+        <v>2.82051332770166</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0777316922210947</v>
+        <v>14.7888001900496</v>
       </c>
       <c r="F21" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22">
@@ -2866,19 +3090,19 @@
         <v>22</v>
       </c>
       <c r="B22" t="n">
-        <v>1262501.01970656</v>
+        <v>1262501.19384418</v>
       </c>
       <c r="C22" t="n">
-        <v>99.274266046931</v>
+        <v>103.537942365855</v>
       </c>
       <c r="D22" t="n">
-        <v>0.530487609739416</v>
+        <v>0.530492525087278</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.725733953069041</v>
+        <v>3.5379423658553</v>
       </c>
       <c r="F22" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23">
@@ -2886,19 +3110,19 @@
         <v>23</v>
       </c>
       <c r="B23" t="n">
-        <v>1363129.41460006</v>
+        <v>1363129.60273067</v>
       </c>
       <c r="C23" t="n">
-        <v>105.791366189444</v>
+        <v>109.97636998516</v>
       </c>
       <c r="D23" t="n">
-        <v>7.9705594944306</v>
+        <v>7.97055950340084</v>
       </c>
       <c r="E23" t="n">
-        <v>6.56474270928626</v>
+        <v>6.2184233839166</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24">
@@ -2906,19 +3130,19 @@
         <v>24</v>
       </c>
       <c r="B24" t="n">
-        <v>1354697.57580823</v>
+        <v>1354697.58840635</v>
       </c>
       <c r="C24" t="n">
-        <v>108.761126976713</v>
+        <v>113.948818302648</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.618564804010879</v>
+        <v>-0.618577595808623</v>
       </c>
       <c r="E24" t="n">
-        <v>2.80718634633208</v>
+        <v>3.61209259591313</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25">
@@ -2926,19 +3150,19 @@
         <v>25</v>
       </c>
       <c r="B25" t="n">
-        <v>1393979.28113587</v>
+        <v>1393979.44416588</v>
       </c>
       <c r="C25" t="n">
-        <v>113.055539416491</v>
+        <v>118.721900895544</v>
       </c>
       <c r="D25" t="n">
-        <v>2.89966602355556</v>
+        <v>2.89967710105266</v>
       </c>
       <c r="E25" t="n">
-        <v>3.94848100525615</v>
+        <v>4.18879516610642</v>
       </c>
       <c r="F25" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26">
@@ -2946,19 +3170,19 @@
         <v>26</v>
       </c>
       <c r="B26" t="n">
-        <v>1422474.31306495</v>
+        <v>1422474.4753493</v>
       </c>
       <c r="C26" t="n">
-        <v>115.31021357562</v>
+        <v>121.643661671607</v>
       </c>
       <c r="D26" t="n">
-        <v>2.04415031949856</v>
+        <v>2.04415002693741</v>
       </c>
       <c r="E26" t="n">
-        <v>1.99430666623375</v>
+        <v>2.46101246191539</v>
       </c>
       <c r="F26" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27">
@@ -2966,19 +3190,19 @@
         <v>104</v>
       </c>
       <c r="B27" t="n">
-        <v>1432289.23388044</v>
+        <v>1454734.80668427</v>
       </c>
       <c r="C27" t="n">
-        <v>116.8204931266</v>
+        <v>125.674579785502</v>
       </c>
       <c r="D27" t="n">
-        <v>0.689989318284612</v>
+        <v>2.2679022994103</v>
       </c>
       <c r="E27" t="n">
-        <v>1.30975349376914</v>
+        <v>3.31370994468865</v>
       </c>
       <c r="F27" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28">
@@ -2986,19 +3210,19 @@
         <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>1451901.16316174</v>
+        <v>1482348.45718036</v>
       </c>
       <c r="C28" t="n">
-        <v>118.964969831534</v>
+        <v>129.084406186987</v>
       </c>
       <c r="D28" t="n">
-        <v>1.36927157011224</v>
+        <v>1.89819136582268</v>
       </c>
       <c r="E28" t="n">
-        <v>1.83570249323546</v>
+        <v>2.71321886041282</v>
       </c>
       <c r="F28" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29">
@@ -3006,19 +3230,19 @@
         <v>112</v>
       </c>
       <c r="B29" t="n">
-        <v>1472961.5479773</v>
+        <v>1512917.16784637</v>
       </c>
       <c r="C29" t="n">
-        <v>121.267828667406</v>
+        <v>132.842023566421</v>
       </c>
       <c r="D29" t="n">
-        <v>1.45053846294179</v>
+        <v>2.06218116381041</v>
       </c>
       <c r="E29" t="n">
-        <v>1.93574531993117</v>
+        <v>2.91097700367575</v>
       </c>
       <c r="F29" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -3026,19 +3250,19 @@
         <v>116</v>
       </c>
       <c r="B30" t="n">
-        <v>1494021.93279287</v>
+        <v>1541934.37529226</v>
       </c>
       <c r="C30" t="n">
-        <v>123.570687503277</v>
+        <v>136.404889410895</v>
       </c>
       <c r="D30" t="n">
-        <v>1.4297986831008</v>
+        <v>1.91796405398645</v>
       </c>
       <c r="E30" t="n">
-        <v>1.89898579134897</v>
+        <v>2.68203219796073</v>
       </c>
       <c r="F30" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31">
@@ -3046,19 +3270,99 @@
         <v>120</v>
       </c>
       <c r="B31" t="n">
-        <v>1515082.31760843</v>
+        <v>1571850.56834919</v>
       </c>
       <c r="C31" t="n">
-        <v>125.873546339149</v>
+        <v>140.076809724215</v>
       </c>
       <c r="D31" t="n">
-        <v>1.40964361722529</v>
+        <v>1.94017291113715</v>
       </c>
       <c r="E31" t="n">
-        <v>1.86359636124089</v>
+        <v>2.69192719496905</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1601272.19060361</v>
+      </c>
+      <c r="C32" t="n">
+        <v>143.687663113581</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.87178239756765</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2.57776672418197</v>
+      </c>
+      <c r="F32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1630973.33944038</v>
+      </c>
+      <c r="C33" t="n">
+        <v>147.332711976462</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.8548469779877</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2.53678623752118</v>
+      </c>
+      <c r="F33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1660518.71811156</v>
+      </c>
+      <c r="C34" t="n">
+        <v>150.958612496293</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.81151818712812</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2.46102883140427</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1690151.54395375</v>
+      </c>
+      <c r="C35" t="n">
+        <v>154.595235459883</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.78455235216484</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2.4090198654146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -3080,19 +3384,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -3103,16 +3407,16 @@
         <v>784554.005507248</v>
       </c>
       <c r="C2" t="n">
-        <v>819779.225506614</v>
+        <v>851806.314793739</v>
       </c>
       <c r="D2" t="n">
-        <v>-35225.2199993662</v>
+        <v>-67252.3092864906</v>
       </c>
       <c r="E2" t="n">
         <v>52.088762151431</v>
       </c>
       <c r="F2" t="n">
-        <v>-47558.6010567821</v>
+        <v>-70328.1794847418</v>
       </c>
     </row>
     <row r="3">
@@ -3123,16 +3427,16 @@
         <v>833535.928180532</v>
       </c>
       <c r="C3" t="n">
-        <v>829900.621402964</v>
+        <v>860810.815619915</v>
       </c>
       <c r="D3" t="n">
-        <v>3635.30677756821</v>
+        <v>-27274.8874393833</v>
       </c>
       <c r="E3" t="n">
         <v>55.3408184063482</v>
       </c>
       <c r="F3" t="n">
-        <v>-28317.7789249427</v>
+        <v>-47845.4896261089</v>
       </c>
     </row>
     <row r="4">
@@ -3143,16 +3447,16 @@
         <v>890523.683028019</v>
       </c>
       <c r="C4" t="n">
-        <v>881628.195378913</v>
+        <v>901957.76929955</v>
       </c>
       <c r="D4" t="n">
-        <v>8895.48764910631</v>
+        <v>-11434.0862715305</v>
       </c>
       <c r="E4" t="n">
         <v>59.5834584631946</v>
       </c>
       <c r="F4" t="n">
-        <v>-10130.3321290282</v>
+        <v>-25428.6947505306</v>
       </c>
     </row>
     <row r="5">
@@ -3163,16 +3467,16 @@
         <v>941523.439689382</v>
       </c>
       <c r="C5" t="n">
-        <v>902279.886311457</v>
+        <v>916027.512483341</v>
       </c>
       <c r="D5" t="n">
-        <v>39243.5533779251</v>
+        <v>25495.9272060415</v>
       </c>
       <c r="E5" t="n">
         <v>60.5054766302154</v>
       </c>
       <c r="F5" t="n">
-        <v>32437.2718089805</v>
+        <v>18058.0387181134</v>
       </c>
     </row>
     <row r="6">
@@ -3183,16 +3487,16 @@
         <v>967155.511736567</v>
       </c>
       <c r="C6" t="n">
-        <v>939616.219067006</v>
+        <v>936531.276489321</v>
       </c>
       <c r="D6" t="n">
-        <v>27539.2926695617</v>
+        <v>30624.2352472462</v>
       </c>
       <c r="E6" t="n">
         <v>61.4607826708178</v>
       </c>
       <c r="F6" t="n">
-        <v>49332.7628211828</v>
+        <v>35905.8428453049</v>
       </c>
     </row>
     <row r="7">
@@ -3203,16 +3507,16 @@
         <v>937861.122895957</v>
       </c>
       <c r="C7" t="n">
-        <v>933942.980350681</v>
+        <v>926582.599483261</v>
       </c>
       <c r="D7" t="n">
-        <v>3918.14254527627</v>
+        <v>11278.5234126963</v>
       </c>
       <c r="E7" t="n">
         <v>59.599201898984</v>
       </c>
       <c r="F7" t="n">
-        <v>37063.1289544188</v>
+        <v>21780.4604453159</v>
       </c>
     </row>
     <row r="8">
@@ -3223,16 +3527,16 @@
         <v>961599.305051036</v>
       </c>
       <c r="C8" t="n">
-        <v>954531.077379741</v>
+        <v>948139.965362091</v>
       </c>
       <c r="D8" t="n">
-        <v>7068.22767129441</v>
+        <v>13459.3396889448</v>
       </c>
       <c r="E8" t="n">
         <v>62.7518142805532</v>
       </c>
       <c r="F8" t="n">
-        <v>31969.6567779699</v>
+        <v>19829.7236749491</v>
       </c>
     </row>
     <row r="9">
@@ -3243,16 +3547,16 @@
         <v>985826.926345466</v>
       </c>
       <c r="C9" t="n">
-        <v>952666.098265187</v>
+        <v>948956.811910293</v>
       </c>
       <c r="D9" t="n">
-        <v>33160.8280802789</v>
+        <v>36870.1144351735</v>
       </c>
       <c r="E9" t="n">
         <v>62.9220821860385</v>
       </c>
       <c r="F9" t="n">
-        <v>54640.1233065934</v>
+        <v>42669.924668303</v>
       </c>
     </row>
     <row r="10">
@@ -3263,16 +3567,16 @@
         <v>1020731.39806729</v>
       </c>
       <c r="C10" t="n">
-        <v>969488.634072305</v>
+        <v>957054.956500501</v>
       </c>
       <c r="D10" t="n">
-        <v>51242.7639949887</v>
+        <v>63676.441566793</v>
       </c>
       <c r="E10" t="n">
         <v>63.096051608698</v>
       </c>
       <c r="F10" t="n">
-        <v>87953.5886973867</v>
+        <v>76156.8144443342</v>
       </c>
     </row>
     <row r="11">
@@ -3283,16 +3587,16 @@
         <v>988329.759396511</v>
       </c>
       <c r="C11" t="n">
-        <v>973553.747073183</v>
+        <v>950529.109236358</v>
       </c>
       <c r="D11" t="n">
-        <v>14776.0123233276</v>
+        <v>37800.650160153</v>
       </c>
       <c r="E11" t="n">
         <v>61.0931595625948</v>
       </c>
       <c r="F11" t="n">
-        <v>73869.0420592965</v>
+        <v>60075.6507198405</v>
       </c>
     </row>
     <row r="12">
@@ -3303,16 +3607,16 @@
         <v>996946.998398342</v>
       </c>
       <c r="C12" t="n">
-        <v>1037443.33572657</v>
+        <v>1011182.39047419</v>
       </c>
       <c r="D12" t="n">
-        <v>-40496.3373282282</v>
+        <v>-14235.3920758427</v>
       </c>
       <c r="E12" t="n">
         <v>69.1139299509124</v>
       </c>
       <c r="F12" t="n">
-        <v>9133.75581556768</v>
+        <v>3336.00619559083</v>
       </c>
     </row>
     <row r="13">
@@ -3323,16 +3627,16 @@
         <v>1057994.73331105</v>
       </c>
       <c r="C13" t="n">
-        <v>1043173.77026596</v>
+        <v>1038444.8918728</v>
       </c>
       <c r="D13" t="n">
-        <v>14820.9630450938</v>
+        <v>19549.841438258</v>
       </c>
       <c r="E13" t="n">
         <v>74.4963444333204</v>
       </c>
       <c r="F13" t="n">
-        <v>20957.5789232531</v>
+        <v>20525.3809527478</v>
       </c>
     </row>
     <row r="14">
@@ -3343,16 +3647,16 @@
         <v>1079032.29821499</v>
       </c>
       <c r="C14" t="n">
-        <v>1064664.49530399</v>
+        <v>1055542.69994482</v>
       </c>
       <c r="D14" t="n">
-        <v>14367.8029110037</v>
+        <v>23489.5982701747</v>
       </c>
       <c r="E14" t="n">
         <v>75.9776147031756</v>
       </c>
       <c r="F14" t="n">
-        <v>28448.4507285729</v>
+        <v>29492.8822829232</v>
       </c>
     </row>
     <row r="15">
@@ -3363,16 +3667,16 @@
         <v>999140.915771971</v>
       </c>
       <c r="C15" t="n">
-        <v>1032378.17276128</v>
+        <v>1024914.32964257</v>
       </c>
       <c r="D15" t="n">
-        <v>-33237.2569893133</v>
+        <v>-25773.4138705974</v>
       </c>
       <c r="E15" t="n">
         <v>71.8969283667432</v>
       </c>
       <c r="F15" t="n">
-        <v>-14123.7425317818</v>
+        <v>-17147.2127295139</v>
       </c>
     </row>
     <row r="16">
@@ -3383,16 +3687,16 @@
         <v>962308.639383244</v>
       </c>
       <c r="C16" t="n">
-        <v>999955.057596472</v>
+        <v>1007868.64415087</v>
       </c>
       <c r="D16" t="n">
-        <v>-37646.4182132277</v>
+        <v>-45560.0047676265</v>
       </c>
       <c r="E16" t="n">
         <v>71.4791978407443</v>
       </c>
       <c r="F16" t="n">
-        <v>-47135.7388887051</v>
+        <v>-50575.6308837798</v>
       </c>
     </row>
     <row r="17">
@@ -3403,16 +3707,16 @@
         <v>943204.007570872</v>
       </c>
       <c r="C17" t="n">
-        <v>964797.219434326</v>
+        <v>986527.598740764</v>
       </c>
       <c r="D17" t="n">
-        <v>-21593.2118634544</v>
+        <v>-43323.5911698919</v>
       </c>
       <c r="E17" t="n">
         <v>70.0600919225615</v>
       </c>
       <c r="F17" t="n">
-        <v>-53262.1905949309</v>
+        <v>-58116.7425209654</v>
       </c>
     </row>
     <row r="18">
@@ -3423,16 +3727,16 @@
         <v>990383.019524408</v>
       </c>
       <c r="C18" t="n">
-        <v>1104358.9993094</v>
+        <v>1112338.50729056</v>
       </c>
       <c r="D18" t="n">
-        <v>-113975.979784988</v>
+        <v>-121955.487766157</v>
       </c>
       <c r="E18" t="n">
         <v>85.7706315173114</v>
       </c>
       <c r="F18" t="n">
-        <v>-149761.116850893</v>
+        <v>-138954.349509857</v>
       </c>
     </row>
     <row r="19">
@@ -3443,16 +3747,16 @@
         <v>1221389.13051423</v>
       </c>
       <c r="C19" t="n">
-        <v>1168946.41569451</v>
+        <v>1099661.05536098</v>
       </c>
       <c r="D19" t="n">
-        <v>52442.7148197177</v>
+        <v>121728.075153244</v>
       </c>
       <c r="E19" t="n">
-        <v>99.922328683008</v>
+        <v>87.1165129650588</v>
       </c>
       <c r="F19" t="n">
-        <v>-48176.8286234145</v>
+        <v>81084.9075791896</v>
       </c>
     </row>
     <row r="20">
@@ -3463,16 +3767,16 @@
         <v>1255839</v>
       </c>
       <c r="C20" t="n">
-        <v>1237907.83615467</v>
+        <v>1269001.15786607</v>
       </c>
       <c r="D20" t="n">
-        <v>17931.1638453331</v>
+        <v>-13162.1578660664</v>
       </c>
       <c r="E20" t="n">
         <v>100</v>
       </c>
       <c r="F20" t="n">
-        <v>-14437.2883160992</v>
+        <v>10554.2676142897</v>
       </c>
     </row>
     <row r="21">
@@ -3483,16 +3787,16 @@
         <v>1262501</v>
       </c>
       <c r="C21" t="n">
-        <v>1253939.23624973</v>
+        <v>1277200.31419258</v>
       </c>
       <c r="D21" t="n">
-        <v>8561.76375026897</v>
+        <v>-14699.3141925776</v>
       </c>
       <c r="E21" t="n">
-        <v>99.274266046931</v>
+        <v>103.537942365855</v>
       </c>
       <c r="F21" t="n">
-        <v>-1138.21786815394</v>
+        <v>-11612.4952018086</v>
       </c>
     </row>
     <row r="22">
@@ -3503,16 +3807,16 @@
         <v>1363129.36729131</v>
       </c>
       <c r="C22" t="n">
-        <v>1322475.41477888</v>
+        <v>1323179.96171129</v>
       </c>
       <c r="D22" t="n">
-        <v>40653.9525124334</v>
+        <v>39949.4055800229</v>
       </c>
       <c r="E22" t="n">
-        <v>105.791366189444</v>
+        <v>109.97636998516</v>
       </c>
       <c r="F22" t="n">
-        <v>39889.1722616856</v>
+        <v>36552.6368099025</v>
       </c>
     </row>
     <row r="23">
@@ -3523,16 +3827,16 @@
         <v>1354697.44334723</v>
       </c>
       <c r="C23" t="n">
-        <v>1377199.76595437</v>
+        <v>1369637.16403923</v>
       </c>
       <c r="D23" t="n">
-        <v>-22502.3226071453</v>
+        <v>-14939.7206920033</v>
       </c>
       <c r="E23" t="n">
-        <v>108.761126976713</v>
+        <v>113.948818302648</v>
       </c>
       <c r="F23" t="n">
-        <v>4297.83063390013</v>
+        <v>-4248.60197924962</v>
       </c>
     </row>
     <row r="24">
@@ -3543,16 +3847,16 @@
         <v>1393979.22254462</v>
       </c>
       <c r="C24" t="n">
-        <v>1392560.91508435</v>
+        <v>1396596.39899001</v>
       </c>
       <c r="D24" t="n">
-        <v>1418.30746026399</v>
+        <v>-2617.17644539493</v>
       </c>
       <c r="E24" t="n">
-        <v>113.055539416491</v>
+        <v>118.721900895544</v>
       </c>
       <c r="F24" t="n">
-        <v>4305.82668416156</v>
+        <v>-3860.06968725799</v>
       </c>
     </row>
     <row r="25">
@@ -3563,16 +3867,16 @@
         <v>1422474.2544571</v>
       </c>
       <c r="C25" t="n">
-        <v>1413186.0078107</v>
+        <v>1420517.87644283</v>
       </c>
       <c r="D25" t="n">
-        <v>9288.2466464018</v>
+        <v>1956.37801427251</v>
       </c>
       <c r="E25" t="n">
-        <v>115.31021357562</v>
+        <v>121.643661671607</v>
       </c>
       <c r="F25" t="n">
-        <v>12181.1381494757</v>
+        <v>827.127131195273</v>
       </c>
     </row>
   </sheetData>
@@ -3594,34 +3898,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -3632,31 +3936,31 @@
         <v>6.91374284145568</v>
       </c>
       <c r="C2" t="n">
-        <v>-18356.832723272</v>
+        <v>-10516.1717669809</v>
       </c>
       <c r="D2" t="n">
-        <v>149081.08728626</v>
+        <v>163177.169846089</v>
       </c>
       <c r="E2" t="n">
-        <v>819779.225506614</v>
+        <v>851806.314793739</v>
       </c>
       <c r="F2" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="G2" t="n">
-        <v>-35225.2199993662</v>
+        <v>-67252.3092864905</v>
       </c>
       <c r="H2" t="n">
-        <v>-11176.4355889659</v>
+        <v>-19107.1179676935</v>
       </c>
       <c r="I2" t="n">
-        <v>137904.651697294</v>
+        <v>144070.051878395</v>
       </c>
       <c r="J2" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="K2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3">
@@ -3667,31 +3971,31 @@
         <v>14.7435123952797</v>
       </c>
       <c r="C3" t="n">
-        <v>-18356.832723272</v>
+        <v>-10516.1717669809</v>
       </c>
       <c r="D3" t="n">
-        <v>220686.848461062</v>
+        <v>226977.69173993</v>
       </c>
       <c r="E3" t="n">
-        <v>819779.225506614</v>
+        <v>851806.314793739</v>
       </c>
       <c r="F3" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="G3" t="n">
-        <v>-35225.2199993662</v>
+        <v>-67252.3092864905</v>
       </c>
       <c r="H3" t="n">
-        <v>-10228.3833533161</v>
+        <v>-18189.5017092651</v>
       </c>
       <c r="I3" t="n">
-        <v>210458.465107746</v>
+        <v>208788.190030665</v>
       </c>
       <c r="J3" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="K3" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -3702,31 +4006,31 @@
         <v>14.5932455743463</v>
       </c>
       <c r="C4" t="n">
-        <v>-18356.832723272</v>
+        <v>-10516.1717669809</v>
       </c>
       <c r="D4" t="n">
-        <v>219312.610047239</v>
+        <v>225753.249368674</v>
       </c>
       <c r="E4" t="n">
-        <v>819779.225506614</v>
+        <v>851806.314793739</v>
       </c>
       <c r="F4" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="G4" t="n">
-        <v>-35225.2199993662</v>
+        <v>-67252.3092864905</v>
       </c>
       <c r="H4" t="n">
-        <v>-8332.27888201663</v>
+        <v>-16354.2691924084</v>
       </c>
       <c r="I4" t="n">
-        <v>210980.331165222</v>
+        <v>209398.980176265</v>
       </c>
       <c r="J4" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5">
@@ -3737,31 +4041,31 @@
         <v>15.8382613403494</v>
       </c>
       <c r="C5" t="n">
-        <v>-18356.832723272</v>
+        <v>-10516.1717669809</v>
       </c>
       <c r="D5" t="n">
-        <v>230698.679712053</v>
+        <v>235898.203839046</v>
       </c>
       <c r="E5" t="n">
-        <v>819779.225506614</v>
+        <v>851806.314793739</v>
       </c>
       <c r="F5" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="G5" t="n">
-        <v>-35225.2199993662</v>
+        <v>-67252.3092864905</v>
       </c>
       <c r="H5" t="n">
-        <v>-5488.12217506737</v>
+        <v>-13601.4204171234</v>
       </c>
       <c r="I5" t="n">
-        <v>225210.557536985</v>
+        <v>222296.783421923</v>
       </c>
       <c r="J5" t="n">
         <v>784554.005507248</v>
       </c>
       <c r="K5" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -3772,31 +4076,31 @@
         <v>7.34538835814276</v>
       </c>
       <c r="C6" t="n">
-        <v>-47558.6010567821</v>
+        <v>-70328.1794847418</v>
       </c>
       <c r="D6" t="n">
-        <v>148123.685963513</v>
+        <v>162320.817157929</v>
       </c>
       <c r="E6" t="n">
-        <v>829900.572366316</v>
+        <v>860811.161237269</v>
       </c>
       <c r="F6" t="n">
         <v>833535.928180532</v>
       </c>
       <c r="G6" t="n">
-        <v>3635.35581421619</v>
+        <v>-27275.2330567373</v>
       </c>
       <c r="H6" t="n">
-        <v>-1695.91323246834</v>
+        <v>-9930.95538340994</v>
       </c>
       <c r="I6" t="n">
-        <v>146427.772731044</v>
+        <v>152389.861774519</v>
       </c>
       <c r="J6" t="n">
-        <v>833535.879143884</v>
+        <v>833536.273797886</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
@@ -3807,31 +4111,31 @@
         <v>15.6639936991956</v>
       </c>
       <c r="C7" t="n">
-        <v>-47558.6010567821</v>
+        <v>-70328.1794847418</v>
       </c>
       <c r="D7" t="n">
-        <v>224200.007656525</v>
+        <v>230104.595280603</v>
       </c>
       <c r="E7" t="n">
-        <v>829900.572366316</v>
+        <v>860811.161237269</v>
       </c>
       <c r="F7" t="n">
         <v>833535.928180532</v>
       </c>
       <c r="G7" t="n">
-        <v>3635.35581421619</v>
+        <v>-27275.2330567373</v>
       </c>
       <c r="H7" t="n">
-        <v>862.866315315446</v>
+        <v>-7217.87596049891</v>
       </c>
       <c r="I7" t="n">
-        <v>225062.87397184</v>
+        <v>222886.719320104</v>
       </c>
       <c r="J7" t="n">
-        <v>833535.879143884</v>
+        <v>833536.273797886</v>
       </c>
       <c r="K7" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -3842,31 +4146,31 @@
         <v>15.5043452739634</v>
       </c>
       <c r="C8" t="n">
-        <v>-47558.6010567821</v>
+        <v>-70328.1794847418</v>
       </c>
       <c r="D8" t="n">
-        <v>222739.971453604</v>
+        <v>228803.707332455</v>
       </c>
       <c r="E8" t="n">
-        <v>829900.572366316</v>
+        <v>860811.161237269</v>
       </c>
       <c r="F8" t="n">
         <v>833535.928180532</v>
       </c>
       <c r="G8" t="n">
-        <v>3635.35581421619</v>
+        <v>-27275.2330567373</v>
       </c>
       <c r="H8" t="n">
-        <v>2188.21646828399</v>
+        <v>-5462.18214839028</v>
       </c>
       <c r="I8" t="n">
-        <v>224928.187921888</v>
+        <v>223341.525184065</v>
       </c>
       <c r="J8" t="n">
-        <v>833535.879143884</v>
+        <v>833536.273797886</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
@@ -3877,31 +4181,31 @@
         <v>16.8270910750464</v>
       </c>
       <c r="C9" t="n">
-        <v>-47558.6010567821</v>
+        <v>-70328.1794847418</v>
       </c>
       <c r="D9" t="n">
-        <v>234836.907292675</v>
+        <v>239582.041466282</v>
       </c>
       <c r="E9" t="n">
-        <v>829900.572366316</v>
+        <v>860811.161237269</v>
       </c>
       <c r="F9" t="n">
         <v>833535.928180532</v>
       </c>
       <c r="G9" t="n">
-        <v>3635.35581421619</v>
+        <v>-27275.2330567373</v>
       </c>
       <c r="H9" t="n">
-        <v>2280.1372264373</v>
+        <v>-4663.87394708405</v>
       </c>
       <c r="I9" t="n">
-        <v>237117.044519112</v>
+        <v>234918.167519198</v>
       </c>
       <c r="J9" t="n">
-        <v>833535.879143884</v>
+        <v>833536.273797886</v>
       </c>
       <c r="K9" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10">
@@ -3912,31 +4216,31 @@
         <v>7.90851409026556</v>
       </c>
       <c r="C10" t="n">
-        <v>-28317.7789249427</v>
+        <v>-47845.4896261089</v>
       </c>
       <c r="D10" t="n">
-        <v>156505.478389318</v>
+        <v>168553.409511376</v>
       </c>
       <c r="E10" t="n">
-        <v>881628.186276545</v>
+        <v>901958.072728896</v>
       </c>
       <c r="F10" t="n">
         <v>890523.683028019</v>
       </c>
       <c r="G10" t="n">
-        <v>8895.49675147422</v>
+        <v>-11434.389700877</v>
       </c>
       <c r="H10" t="n">
-        <v>1138.62858977538</v>
+        <v>-4822.95135658022</v>
       </c>
       <c r="I10" t="n">
-        <v>157644.106979093</v>
+        <v>163730.458154796</v>
       </c>
       <c r="J10" t="n">
-        <v>890523.673925651</v>
+        <v>890523.986457366</v>
       </c>
       <c r="K10" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
@@ -3947,31 +4251,31 @@
         <v>16.8648557216982</v>
       </c>
       <c r="C11" t="n">
-        <v>-28317.7789249427</v>
+        <v>-47845.4896261089</v>
       </c>
       <c r="D11" t="n">
-        <v>238414.103598739</v>
+        <v>241533.752855692</v>
       </c>
       <c r="E11" t="n">
-        <v>881628.186276545</v>
+        <v>901958.072728896</v>
       </c>
       <c r="F11" t="n">
         <v>890523.683028019</v>
       </c>
       <c r="G11" t="n">
-        <v>8895.49675147422</v>
+        <v>-11434.389700877</v>
       </c>
       <c r="H11" t="n">
-        <v>1116.12246411108</v>
+        <v>-4100.81040489965</v>
       </c>
       <c r="I11" t="n">
-        <v>239530.22606285</v>
+        <v>237432.942450792</v>
       </c>
       <c r="J11" t="n">
-        <v>890523.673925651</v>
+        <v>890523.986457366</v>
       </c>
       <c r="K11" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -3982,31 +4286,31 @@
         <v>16.6929680339577</v>
       </c>
       <c r="C12" t="n">
-        <v>-28317.7789249427</v>
+        <v>-47845.4896261089</v>
       </c>
       <c r="D12" t="n">
-        <v>236842.135403171</v>
+        <v>240133.133832413</v>
       </c>
       <c r="E12" t="n">
-        <v>881628.186276545</v>
+        <v>901958.072728896</v>
       </c>
       <c r="F12" t="n">
         <v>890523.683028019</v>
       </c>
       <c r="G12" t="n">
-        <v>8895.49675147422</v>
+        <v>-11434.389700877</v>
       </c>
       <c r="H12" t="n">
-        <v>2212.61884944443</v>
+        <v>-2497.45109204235</v>
       </c>
       <c r="I12" t="n">
-        <v>239054.754252615</v>
+        <v>237635.682740371</v>
       </c>
       <c r="J12" t="n">
-        <v>890523.673925651</v>
+        <v>890523.986457366</v>
       </c>
       <c r="K12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
@@ -4017,31 +4321,31 @@
         <v>18.1171206172731</v>
       </c>
       <c r="C13" t="n">
-        <v>-28317.7789249427</v>
+        <v>-47845.4896261089</v>
       </c>
       <c r="D13" t="n">
-        <v>249866.468885318</v>
+        <v>251737.776529415</v>
       </c>
       <c r="E13" t="n">
-        <v>881628.186276545</v>
+        <v>901958.072728896</v>
       </c>
       <c r="F13" t="n">
         <v>890523.683028019</v>
       </c>
       <c r="G13" t="n">
-        <v>8895.49675147422</v>
+        <v>-11434.389700877</v>
       </c>
       <c r="H13" t="n">
-        <v>4428.11774577541</v>
+        <v>-12.8734180083206</v>
       </c>
       <c r="I13" t="n">
-        <v>254294.586631093</v>
+        <v>251724.903111406</v>
       </c>
       <c r="J13" t="n">
-        <v>890523.673925651</v>
+        <v>890523.986457366</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14">
@@ -4052,31 +4356,31 @@
         <v>8.03089358708293</v>
       </c>
       <c r="C14" t="n">
-        <v>-10130.3321290282</v>
+        <v>-25428.6947505306</v>
       </c>
       <c r="D14" t="n">
-        <v>160679.572242872</v>
+        <v>171189.782769281</v>
       </c>
       <c r="E14" t="n">
-        <v>902279.914957092</v>
+        <v>916027.77384833</v>
       </c>
       <c r="F14" t="n">
         <v>941523.439689382</v>
       </c>
       <c r="G14" t="n">
-        <v>39243.5247322909</v>
+        <v>25495.6658410525</v>
       </c>
       <c r="H14" t="n">
-        <v>7762.61915310402</v>
+        <v>3352.92261720244</v>
       </c>
       <c r="I14" t="n">
-        <v>168442.191395976</v>
+        <v>174542.705386483</v>
       </c>
       <c r="J14" t="n">
-        <v>941523.468335017</v>
+        <v>941523.701054371</v>
       </c>
       <c r="K14" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15">
@@ -4087,31 +4391,31 @@
         <v>17.1258292160313</v>
       </c>
       <c r="C15" t="n">
-        <v>-10130.3321290282</v>
+        <v>-25428.6947505306</v>
       </c>
       <c r="D15" t="n">
-        <v>243855.68414116</v>
+        <v>245299.453012948</v>
       </c>
       <c r="E15" t="n">
-        <v>902279.914957092</v>
+        <v>916027.77384833</v>
       </c>
       <c r="F15" t="n">
         <v>941523.439689382</v>
       </c>
       <c r="G15" t="n">
-        <v>39243.5247322909</v>
+        <v>25495.6658410525</v>
       </c>
       <c r="H15" t="n">
-        <v>9915.72739258637</v>
+        <v>5907.66470500992</v>
       </c>
       <c r="I15" t="n">
-        <v>253771.411533747</v>
+        <v>251207.117717958</v>
       </c>
       <c r="J15" t="n">
-        <v>941523.468335017</v>
+        <v>941523.701054371</v>
       </c>
       <c r="K15" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
@@ -4122,31 +4426,31 @@
         <v>16.9512816697516</v>
       </c>
       <c r="C16" t="n">
-        <v>-10130.3321290282</v>
+        <v>-25428.6947505306</v>
       </c>
       <c r="D16" t="n">
-        <v>242259.390683654</v>
+        <v>243877.160253068</v>
       </c>
       <c r="E16" t="n">
-        <v>902279.914957092</v>
+        <v>916027.77384833</v>
       </c>
       <c r="F16" t="n">
         <v>941523.439689382</v>
       </c>
       <c r="G16" t="n">
-        <v>39243.5247322909</v>
+        <v>25495.6658410525</v>
       </c>
       <c r="H16" t="n">
-        <v>10887.4424642225</v>
+        <v>7651.35284541412</v>
       </c>
       <c r="I16" t="n">
-        <v>253146.833147877</v>
+        <v>251528.513098482</v>
       </c>
       <c r="J16" t="n">
-        <v>941523.468335017</v>
+        <v>941523.701054371</v>
       </c>
       <c r="K16" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
@@ -4157,31 +4461,31 @@
         <v>18.3974721573495</v>
       </c>
       <c r="C17" t="n">
-        <v>-10130.3321290282</v>
+        <v>-25428.6947505306</v>
       </c>
       <c r="D17" t="n">
-        <v>255485.267889405</v>
+        <v>255661.377813033</v>
       </c>
       <c r="E17" t="n">
-        <v>902279.914957092</v>
+        <v>916027.77384833</v>
       </c>
       <c r="F17" t="n">
         <v>941523.439689382</v>
       </c>
       <c r="G17" t="n">
-        <v>39243.5247322909</v>
+        <v>25495.6658410525</v>
       </c>
       <c r="H17" t="n">
-        <v>10677.7643680123</v>
+        <v>8583.98703841504</v>
       </c>
       <c r="I17" t="n">
-        <v>266163.032257417</v>
+        <v>264245.364851448</v>
       </c>
       <c r="J17" t="n">
-        <v>941523.468335017</v>
+        <v>941523.701054371</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
@@ -4192,31 +4496,31 @@
         <v>8.15769138428175</v>
       </c>
       <c r="C18" t="n">
-        <v>32437.2718089805</v>
+        <v>18058.0387181134</v>
       </c>
       <c r="D18" t="n">
-        <v>168989.138902734</v>
+        <v>175402.842486813</v>
       </c>
       <c r="E18" t="n">
-        <v>939616.3360616</v>
+        <v>936531.456252925</v>
       </c>
       <c r="F18" t="n">
         <v>967155.511736567</v>
       </c>
       <c r="G18" t="n">
-        <v>27539.1756749674</v>
+        <v>30624.0554836424</v>
       </c>
       <c r="H18" t="n">
-        <v>9286.69310395589</v>
+        <v>8705.56728401268</v>
       </c>
       <c r="I18" t="n">
-        <v>178275.83200669</v>
+        <v>184108.409770825</v>
       </c>
       <c r="J18" t="n">
-        <v>967155.628731162</v>
+        <v>967155.691500171</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
@@ -4227,31 +4531,31 @@
         <v>17.3962247076723</v>
       </c>
       <c r="C19" t="n">
-        <v>32437.2718089805</v>
+        <v>18058.0387181134</v>
       </c>
       <c r="D19" t="n">
-        <v>253478.497907824</v>
+        <v>250682.612027169</v>
       </c>
       <c r="E19" t="n">
-        <v>939616.3360616</v>
+        <v>936531.456252925</v>
       </c>
       <c r="F19" t="n">
         <v>967155.511736567</v>
       </c>
       <c r="G19" t="n">
-        <v>27539.1756749674</v>
+        <v>30624.0554836424</v>
       </c>
       <c r="H19" t="n">
-        <v>7769.51662370714</v>
+        <v>8334.39599337126</v>
       </c>
       <c r="I19" t="n">
-        <v>261248.014531531</v>
+        <v>259017.00802054</v>
       </c>
       <c r="J19" t="n">
-        <v>967155.628731162</v>
+        <v>967155.691500171</v>
       </c>
       <c r="K19" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
@@ -4262,31 +4566,31 @@
         <v>17.2189212732546</v>
       </c>
       <c r="C20" t="n">
-        <v>32437.2718089805</v>
+        <v>18058.0387181134</v>
       </c>
       <c r="D20" t="n">
-        <v>251857.000966808</v>
+        <v>249237.863037858</v>
       </c>
       <c r="E20" t="n">
-        <v>939616.3360616</v>
+        <v>936531.456252925</v>
       </c>
       <c r="F20" t="n">
         <v>967155.511736567</v>
       </c>
       <c r="G20" t="n">
-        <v>27539.1756749674</v>
+        <v>30624.0554836424</v>
       </c>
       <c r="H20" t="n">
-        <v>6126.23492726605</v>
+        <v>7470.47316649079</v>
       </c>
       <c r="I20" t="n">
-        <v>257983.235894074</v>
+        <v>256708.336204349</v>
       </c>
       <c r="J20" t="n">
-        <v>967155.628731162</v>
+        <v>967155.691500171</v>
       </c>
       <c r="K20" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
@@ -4297,31 +4601,31 @@
         <v>18.6879453056092</v>
       </c>
       <c r="C21" t="n">
-        <v>32437.2718089805</v>
+        <v>18058.0387181134</v>
       </c>
       <c r="D21" t="n">
-        <v>265291.698284234</v>
+        <v>261208.138701085</v>
       </c>
       <c r="E21" t="n">
-        <v>939616.3360616</v>
+        <v>936531.456252925</v>
       </c>
       <c r="F21" t="n">
         <v>967155.511736567</v>
       </c>
       <c r="G21" t="n">
-        <v>27539.1756749674</v>
+        <v>30624.0554836424</v>
       </c>
       <c r="H21" t="n">
-        <v>4356.84801463262</v>
+        <v>6113.79880337127</v>
       </c>
       <c r="I21" t="n">
-        <v>269648.546298867</v>
+        <v>267321.937504457</v>
       </c>
       <c r="J21" t="n">
-        <v>967155.628731162</v>
+        <v>967155.691500171</v>
       </c>
       <c r="K21" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
@@ -4332,31 +4636,31 @@
         <v>7.91060371693345</v>
       </c>
       <c r="C22" t="n">
-        <v>49332.7628211828</v>
+        <v>35905.8428453049</v>
       </c>
       <c r="D22" t="n">
-        <v>169567.330535064</v>
+        <v>174694.533828221</v>
       </c>
       <c r="E22" t="n">
-        <v>933943.132411827</v>
+        <v>926582.745756064</v>
       </c>
       <c r="F22" t="n">
         <v>937861.122895957</v>
       </c>
       <c r="G22" t="n">
-        <v>3917.9904841308</v>
+        <v>11278.3771398936</v>
       </c>
       <c r="H22" t="n">
-        <v>2461.35588580686</v>
+        <v>4264.37290401268</v>
       </c>
       <c r="I22" t="n">
-        <v>172028.686420871</v>
+        <v>178958.906732234</v>
       </c>
       <c r="J22" t="n">
-        <v>937861.274957103</v>
+        <v>937861.26916876</v>
       </c>
       <c r="K22" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
@@ -4367,31 +4671,31 @@
         <v>16.8693118372041</v>
       </c>
       <c r="C23" t="n">
-        <v>49332.7628211828</v>
+        <v>35905.8428453049</v>
       </c>
       <c r="D23" t="n">
-        <v>251497.598046138</v>
+        <v>247694.160399442</v>
       </c>
       <c r="E23" t="n">
-        <v>933943.132411827</v>
+        <v>926582.745756064</v>
       </c>
       <c r="F23" t="n">
         <v>937861.122895957</v>
       </c>
       <c r="G23" t="n">
-        <v>3917.9904841308</v>
+        <v>11278.3771398936</v>
       </c>
       <c r="H23" t="n">
-        <v>1110.43093448143</v>
+        <v>2946.70572393378</v>
       </c>
       <c r="I23" t="n">
-        <v>252608.02898062</v>
+        <v>250640.866123376</v>
       </c>
       <c r="J23" t="n">
-        <v>937861.274957103</v>
+        <v>937861.26916876</v>
       </c>
       <c r="K23" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
@@ -4402,31 +4706,31 @@
         <v>16.6973787324494</v>
       </c>
       <c r="C24" t="n">
-        <v>49332.7628211828</v>
+        <v>35905.8428453049</v>
       </c>
       <c r="D24" t="n">
-        <v>249925.214497367</v>
+        <v>246293.171297685</v>
       </c>
       <c r="E24" t="n">
-        <v>933943.132411827</v>
+        <v>926582.745756064</v>
       </c>
       <c r="F24" t="n">
         <v>937861.122895957</v>
       </c>
       <c r="G24" t="n">
-        <v>3917.9904841308</v>
+        <v>11278.3771398936</v>
       </c>
       <c r="H24" t="n">
-        <v>304.07316065633</v>
+        <v>2160.79726313454</v>
       </c>
       <c r="I24" t="n">
-        <v>250229.287658023</v>
+        <v>248453.968560819</v>
       </c>
       <c r="J24" t="n">
-        <v>937861.274957103</v>
+        <v>937861.26916876</v>
       </c>
       <c r="K24" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
@@ -4437,31 +4741,31 @@
         <v>18.121907612397</v>
       </c>
       <c r="C25" t="n">
-        <v>49332.7628211828</v>
+        <v>35905.8428453049</v>
       </c>
       <c r="D25" t="n">
-        <v>262952.989333258</v>
+        <v>257900.880230717</v>
       </c>
       <c r="E25" t="n">
-        <v>933943.132411827</v>
+        <v>926582.745756064</v>
       </c>
       <c r="F25" t="n">
         <v>937861.122895957</v>
       </c>
       <c r="G25" t="n">
-        <v>3917.9904841308</v>
+        <v>11278.3771398936</v>
       </c>
       <c r="H25" t="n">
-        <v>42.2825643315536</v>
+        <v>1906.64752161497</v>
       </c>
       <c r="I25" t="n">
-        <v>262995.271897589</v>
+        <v>259807.527752331</v>
       </c>
       <c r="J25" t="n">
-        <v>937861.274957103</v>
+        <v>937861.26916876</v>
       </c>
       <c r="K25" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26">
@@ -4472,31 +4776,31 @@
         <v>8.32905004555982</v>
       </c>
       <c r="C26" t="n">
-        <v>37063.1289544188</v>
+        <v>21780.4604453159</v>
       </c>
       <c r="D26" t="n">
-        <v>171333.261120133</v>
+        <v>177071.343112706</v>
       </c>
       <c r="E26" t="n">
-        <v>954531.203975291</v>
+        <v>948140.138140696</v>
       </c>
       <c r="F26" t="n">
         <v>961599.305051036</v>
       </c>
       <c r="G26" t="n">
-        <v>7068.10107574461</v>
+        <v>13459.1669103395</v>
       </c>
       <c r="H26" t="n">
-        <v>325.059145507104</v>
+        <v>2184.25649937508</v>
       </c>
       <c r="I26" t="n">
-        <v>171658.32026564</v>
+        <v>179255.599612081</v>
       </c>
       <c r="J26" t="n">
-        <v>961599.431646585</v>
+        <v>961599.477829641</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27">
@@ -4507,31 +4811,31 @@
         <v>17.7616459569909</v>
       </c>
       <c r="C27" t="n">
-        <v>37063.1289544188</v>
+        <v>21780.4604453159</v>
       </c>
       <c r="D27" t="n">
-        <v>257597.384917043</v>
+        <v>253932.422845136</v>
       </c>
       <c r="E27" t="n">
-        <v>954531.203975291</v>
+        <v>948140.138140696</v>
       </c>
       <c r="F27" t="n">
         <v>961599.305051036</v>
       </c>
       <c r="G27" t="n">
-        <v>7068.10107574461</v>
+        <v>13459.1669103395</v>
       </c>
       <c r="H27" t="n">
-        <v>1014.96888690392</v>
+        <v>2767.53145962355</v>
       </c>
       <c r="I27" t="n">
-        <v>258612.353803947</v>
+        <v>256699.954304759</v>
       </c>
       <c r="J27" t="n">
-        <v>961599.431646585</v>
+        <v>961599.477829641</v>
       </c>
       <c r="K27" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="28">
@@ -4542,31 +4846,31 @@
         <v>17.5806181258375</v>
       </c>
       <c r="C28" t="n">
-        <v>37063.1289544188</v>
+        <v>21780.4604453159</v>
       </c>
       <c r="D28" t="n">
-        <v>255941.827169851</v>
+        <v>252457.325778038</v>
       </c>
       <c r="E28" t="n">
-        <v>954531.203975291</v>
+        <v>948140.138140696</v>
       </c>
       <c r="F28" t="n">
         <v>961599.305051036</v>
       </c>
       <c r="G28" t="n">
-        <v>7068.10107574461</v>
+        <v>13459.1669103395</v>
       </c>
       <c r="H28" t="n">
-        <v>2112.01178852198</v>
+        <v>3656.47240236038</v>
       </c>
       <c r="I28" t="n">
-        <v>258053.838958373</v>
+        <v>256113.798180399</v>
       </c>
       <c r="J28" t="n">
-        <v>961599.431646585</v>
+        <v>961599.477829641</v>
       </c>
       <c r="K28" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29">
@@ -4577,31 +4881,31 @@
         <v>19.0805001521651</v>
       </c>
       <c r="C29" t="n">
-        <v>37063.1289544188</v>
+        <v>21780.4604453159</v>
       </c>
       <c r="D29" t="n">
-        <v>269658.730768264</v>
+        <v>264679.046404816</v>
       </c>
       <c r="E29" t="n">
-        <v>954531.203975291</v>
+        <v>948140.138140696</v>
       </c>
       <c r="F29" t="n">
         <v>961599.305051036</v>
       </c>
       <c r="G29" t="n">
-        <v>7068.10107574461</v>
+        <v>13459.1669103395</v>
       </c>
       <c r="H29" t="n">
-        <v>3616.18785036131</v>
+        <v>4851.07932758557</v>
       </c>
       <c r="I29" t="n">
-        <v>273274.918618625</v>
+        <v>269530.125732402</v>
       </c>
       <c r="J29" t="n">
-        <v>961599.431646585</v>
+        <v>961599.477829641</v>
       </c>
       <c r="K29" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -4612,31 +4916,31 @@
         <v>8.35164970936554</v>
       </c>
       <c r="C30" t="n">
-        <v>31969.6567779699</v>
+        <v>19829.7236749491</v>
       </c>
       <c r="D30" t="n">
-        <v>170684.406202317</v>
+        <v>177112.852924557</v>
       </c>
       <c r="E30" t="n">
-        <v>952666.214289248</v>
+        <v>948956.98834939</v>
       </c>
       <c r="F30" t="n">
         <v>985826.926345466</v>
       </c>
       <c r="G30" t="n">
-        <v>33160.7120562183</v>
+        <v>36869.9379960765</v>
       </c>
       <c r="H30" t="n">
-        <v>5527.4970724219</v>
+        <v>6351.35223529913</v>
       </c>
       <c r="I30" t="n">
-        <v>176211.903274739</v>
+        <v>183464.205159856</v>
       </c>
       <c r="J30" t="n">
-        <v>985827.042369527</v>
+        <v>985827.102784563</v>
       </c>
       <c r="K30" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31">
@@ -4647,31 +4951,31 @@
         <v>17.8098395955293</v>
       </c>
       <c r="C31" t="n">
-        <v>31969.6567779699</v>
+        <v>19829.7236749491</v>
       </c>
       <c r="D31" t="n">
-        <v>257182.595130981</v>
+        <v>254182.483998639</v>
       </c>
       <c r="E31" t="n">
-        <v>952666.214289248</v>
+        <v>948956.98834939</v>
       </c>
       <c r="F31" t="n">
         <v>985826.926345466</v>
       </c>
       <c r="G31" t="n">
-        <v>33160.7120562183</v>
+        <v>36869.9379960765</v>
       </c>
       <c r="H31" t="n">
-        <v>7397.10474030525</v>
+        <v>8097.93194778222</v>
       </c>
       <c r="I31" t="n">
-        <v>264579.699871286</v>
+        <v>262280.415946422</v>
       </c>
       <c r="J31" t="n">
-        <v>985827.042369527</v>
+        <v>985827.102784563</v>
       </c>
       <c r="K31" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -4682,31 +4986,31 @@
         <v>17.6283205717307</v>
       </c>
       <c r="C32" t="n">
-        <v>31969.6567779699</v>
+        <v>19829.7236749491</v>
       </c>
       <c r="D32" t="n">
-        <v>255522.545269047</v>
+        <v>252703.384470563</v>
       </c>
       <c r="E32" t="n">
-        <v>952666.214289248</v>
+        <v>948956.98834939</v>
       </c>
       <c r="F32" t="n">
         <v>985826.926345466</v>
       </c>
       <c r="G32" t="n">
-        <v>33160.7120562183</v>
+        <v>36869.9379960765</v>
       </c>
       <c r="H32" t="n">
-        <v>9225.01085401139</v>
+        <v>10090.8184650349</v>
       </c>
       <c r="I32" t="n">
-        <v>264747.556123058</v>
+        <v>262794.202935598</v>
       </c>
       <c r="J32" t="n">
-        <v>985827.042369527</v>
+        <v>985827.102784563</v>
       </c>
       <c r="K32" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33">
@@ -4717,31 +5021,31 @@
         <v>19.1322723094129</v>
       </c>
       <c r="C33" t="n">
-        <v>31969.6567779699</v>
+        <v>19829.7236749491</v>
       </c>
       <c r="D33" t="n">
-        <v>269276.667686903</v>
+        <v>264958.266955631</v>
       </c>
       <c r="E33" t="n">
-        <v>952666.214289248</v>
+        <v>948956.98834939</v>
       </c>
       <c r="F33" t="n">
         <v>985826.926345466</v>
       </c>
       <c r="G33" t="n">
-        <v>33160.7120562183</v>
+        <v>36869.9379960765</v>
       </c>
       <c r="H33" t="n">
-        <v>11011.2154135403</v>
+        <v>12330.0117870571</v>
       </c>
       <c r="I33" t="n">
-        <v>280287.883100443</v>
+        <v>277288.278742688</v>
       </c>
       <c r="J33" t="n">
-        <v>985827.042369527</v>
+        <v>985827.102784563</v>
       </c>
       <c r="K33" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34">
@@ -4752,31 +5056,31 @@
         <v>8.3747406756482</v>
       </c>
       <c r="C34" t="n">
-        <v>54640.1233065934</v>
+        <v>42669.924668303</v>
       </c>
       <c r="D34" t="n">
-        <v>174703.474648798</v>
+        <v>178971.138561828</v>
       </c>
       <c r="E34" t="n">
-        <v>969488.797148865</v>
+        <v>957055.090080733</v>
       </c>
       <c r="F34" t="n">
         <v>1020731.39806729</v>
       </c>
       <c r="G34" t="n">
-        <v>51242.6009184292</v>
+        <v>63676.3079865612</v>
       </c>
       <c r="H34" t="n">
-        <v>12755.718418892</v>
+        <v>14815.5119138488</v>
       </c>
       <c r="I34" t="n">
-        <v>187459.19306769</v>
+        <v>193786.650475677</v>
       </c>
       <c r="J34" t="n">
-        <v>1020731.56114385</v>
+        <v>1020731.53164753</v>
       </c>
       <c r="K34" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35">
@@ -4787,31 +5091,31 @@
         <v>17.8590809334579</v>
       </c>
       <c r="C35" t="n">
-        <v>54640.1233065934</v>
+        <v>42669.924668303</v>
       </c>
       <c r="D35" t="n">
-        <v>261440.817137964</v>
+        <v>256253.854752562</v>
       </c>
       <c r="E35" t="n">
-        <v>969488.797148865</v>
+        <v>957055.090080733</v>
       </c>
       <c r="F35" t="n">
         <v>1020731.39806729</v>
       </c>
       <c r="G35" t="n">
-        <v>51242.6009184292</v>
+        <v>63676.3079865612</v>
       </c>
       <c r="H35" t="n">
-        <v>13475.5086529747</v>
+        <v>16251.1513557053</v>
       </c>
       <c r="I35" t="n">
-        <v>274916.325790939</v>
+        <v>272505.006108267</v>
       </c>
       <c r="J35" t="n">
-        <v>1020731.56114385</v>
+        <v>1020731.53164753</v>
       </c>
       <c r="K35" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36">
@@ -4822,31 +5126,31 @@
         <v>17.677060038795</v>
       </c>
       <c r="C36" t="n">
-        <v>54640.1233065934</v>
+        <v>42669.924668303</v>
       </c>
       <c r="D36" t="n">
-        <v>259776.177505539</v>
+        <v>254770.665752523</v>
       </c>
       <c r="E36" t="n">
-        <v>969488.797148865</v>
+        <v>957055.090080733</v>
       </c>
       <c r="F36" t="n">
         <v>1020731.39806729</v>
       </c>
       <c r="G36" t="n">
-        <v>51242.6009184292</v>
+        <v>63676.3079865612</v>
       </c>
       <c r="H36" t="n">
-        <v>13170.5861157885</v>
+        <v>16636.9301126264</v>
       </c>
       <c r="I36" t="n">
-        <v>272946.763621327</v>
+        <v>271407.595865149</v>
       </c>
       <c r="J36" t="n">
-        <v>1020731.56114385</v>
+        <v>1020731.53164753</v>
       </c>
       <c r="K36" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37">
@@ -4857,31 +5161,31 @@
         <v>19.1851699607969</v>
       </c>
       <c r="C37" t="n">
-        <v>54640.1233065934</v>
+        <v>42669.924668303</v>
       </c>
       <c r="D37" t="n">
-        <v>273568.327856564</v>
+        <v>267059.431013821</v>
       </c>
       <c r="E37" t="n">
-        <v>969488.797148865</v>
+        <v>957055.090080733</v>
       </c>
       <c r="F37" t="n">
         <v>1020731.39806729</v>
       </c>
       <c r="G37" t="n">
-        <v>51242.6009184292</v>
+        <v>63676.3079865612</v>
       </c>
       <c r="H37" t="n">
-        <v>11840.9508073333</v>
+        <v>15972.8481846122</v>
       </c>
       <c r="I37" t="n">
-        <v>285409.278663897</v>
+        <v>283032.279198433</v>
       </c>
       <c r="J37" t="n">
-        <v>1020731.56114385</v>
+        <v>1020731.53164753</v>
       </c>
       <c r="K37" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38">
@@ -4892,31 +5196,31 @@
         <v>8.10889675895659</v>
       </c>
       <c r="C38" t="n">
-        <v>87953.5886973867</v>
+        <v>76156.8144443342</v>
       </c>
       <c r="D38" t="n">
-        <v>177867.815060432</v>
+        <v>179253.562681964</v>
       </c>
       <c r="E38" t="n">
-        <v>973553.97929176</v>
+        <v>950529.179979573</v>
       </c>
       <c r="F38" t="n">
         <v>988329.759396511</v>
       </c>
       <c r="G38" t="n">
-        <v>14775.7801047505</v>
+        <v>37800.5794169377</v>
       </c>
       <c r="H38" t="n">
-        <v>9486.60272760919</v>
+        <v>14258.9055716627</v>
       </c>
       <c r="I38" t="n">
-        <v>187354.417788041</v>
+        <v>193512.468253627</v>
       </c>
       <c r="J38" t="n">
-        <v>988329.991615088</v>
+        <v>988329.830139726</v>
       </c>
       <c r="K38" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39">
@@ -4927,31 +5231,31 @@
         <v>17.2921704812133</v>
       </c>
       <c r="C39" t="n">
-        <v>87953.5886973867</v>
+        <v>76156.8144443342</v>
       </c>
       <c r="D39" t="n">
-        <v>261851.807237774</v>
+        <v>254083.051870165</v>
       </c>
       <c r="E39" t="n">
-        <v>973553.97929176</v>
+        <v>950529.179979573</v>
       </c>
       <c r="F39" t="n">
         <v>988329.759396511</v>
       </c>
       <c r="G39" t="n">
-        <v>14775.7801047505</v>
+        <v>37800.5794169377</v>
       </c>
       <c r="H39" t="n">
-        <v>6227.82363700861</v>
+        <v>11649.8313138331</v>
       </c>
       <c r="I39" t="n">
-        <v>268079.630874783</v>
+        <v>265732.883183999</v>
       </c>
       <c r="J39" t="n">
-        <v>988329.991615088</v>
+        <v>988329.830139726</v>
       </c>
       <c r="K39" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40">
@@ -4962,31 +5266,31 @@
         <v>17.1159275741241</v>
       </c>
       <c r="C40" t="n">
-        <v>87953.5886973867</v>
+        <v>76156.8144443342</v>
       </c>
       <c r="D40" t="n">
-        <v>260240.009160318</v>
+        <v>252646.944539665</v>
       </c>
       <c r="E40" t="n">
-        <v>973553.97929176</v>
+        <v>950529.179979573</v>
       </c>
       <c r="F40" t="n">
         <v>988329.759396511</v>
       </c>
       <c r="G40" t="n">
-        <v>14775.7801047505</v>
+        <v>37800.5794169377</v>
       </c>
       <c r="H40" t="n">
-        <v>2064.61353553159</v>
+        <v>8145.62541112341</v>
       </c>
       <c r="I40" t="n">
-        <v>262304.62269585</v>
+        <v>260792.569950788</v>
       </c>
       <c r="J40" t="n">
-        <v>988329.991615088</v>
+        <v>988329.830139726</v>
       </c>
       <c r="K40" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41">
@@ -4997,31 +5301,31 @@
         <v>18.5761647483008</v>
       </c>
       <c r="C41" t="n">
-        <v>87953.5886973867</v>
+        <v>76156.8144443342</v>
       </c>
       <c r="D41" t="n">
-        <v>273594.347833236</v>
+        <v>264545.620887778</v>
       </c>
       <c r="E41" t="n">
-        <v>973553.97929176</v>
+        <v>950529.179979573</v>
       </c>
       <c r="F41" t="n">
         <v>988329.759396511</v>
       </c>
       <c r="G41" t="n">
-        <v>14775.7801047505</v>
+        <v>37800.5794169377</v>
       </c>
       <c r="H41" t="n">
-        <v>-3003.02757682188</v>
+        <v>3746.28786353357</v>
       </c>
       <c r="I41" t="n">
-        <v>270591.320256414</v>
+        <v>268291.908751312</v>
       </c>
       <c r="J41" t="n">
-        <v>988329.991615088</v>
+        <v>988329.830139726</v>
       </c>
       <c r="K41" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42">
@@ -5032,31 +5336,31 @@
         <v>9.17349383450193</v>
       </c>
       <c r="C42" t="n">
-        <v>73869.0420592965</v>
+        <v>60075.6507198405</v>
       </c>
       <c r="D42" t="n">
-        <v>185238.156309504</v>
+        <v>186752.490612432</v>
       </c>
       <c r="E42" t="n">
-        <v>1037443.5387127</v>
+        <v>1011182.49139316</v>
       </c>
       <c r="F42" t="n">
         <v>996946.998398342</v>
       </c>
       <c r="G42" t="n">
-        <v>-40496.5403143625</v>
+        <v>-14235.4929948183</v>
       </c>
       <c r="H42" t="n">
-        <v>-8975.09970005179</v>
+        <v>-1548.18132893639</v>
       </c>
       <c r="I42" t="n">
-        <v>176263.056609452</v>
+        <v>185204.309283496</v>
       </c>
       <c r="J42" t="n">
-        <v>996947.201384476</v>
+        <v>996947.099317318</v>
       </c>
       <c r="K42" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43">
@@ -5067,31 +5371,31 @@
         <v>19.5624169366016</v>
       </c>
       <c r="C43" t="n">
-        <v>73869.0420592965</v>
+        <v>60075.6507198405</v>
       </c>
       <c r="D43" t="n">
-        <v>280248.199887226</v>
+        <v>271406.15905983</v>
       </c>
       <c r="E43" t="n">
-        <v>1037443.5387127</v>
+        <v>1011182.49139316</v>
       </c>
       <c r="F43" t="n">
         <v>996946.998398342</v>
       </c>
       <c r="G43" t="n">
-        <v>-40496.5403143625</v>
+        <v>-14235.4929948183</v>
       </c>
       <c r="H43" t="n">
-        <v>-11823.5224021459</v>
+        <v>-4470.23568193412</v>
       </c>
       <c r="I43" t="n">
-        <v>268424.67748508</v>
+        <v>266935.923377896</v>
       </c>
       <c r="J43" t="n">
-        <v>996947.201384476</v>
+        <v>996947.099317318</v>
       </c>
       <c r="K43" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44">
@@ -5102,31 +5406,31 @@
         <v>19.3630355324949</v>
       </c>
       <c r="C44" t="n">
-        <v>73869.0420592965</v>
+        <v>60075.6507198405</v>
       </c>
       <c r="D44" t="n">
-        <v>278424.792811574</v>
+        <v>269781.508736409</v>
       </c>
       <c r="E44" t="n">
-        <v>1037443.5387127</v>
+        <v>1011182.49139316</v>
       </c>
       <c r="F44" t="n">
         <v>996946.998398342</v>
       </c>
       <c r="G44" t="n">
-        <v>-40496.5403143625</v>
+        <v>-14235.4929948183</v>
       </c>
       <c r="H44" t="n">
-        <v>-11548.2956831042</v>
+        <v>-5019.87519545961</v>
       </c>
       <c r="I44" t="n">
-        <v>266876.49712847</v>
+        <v>264761.633540949</v>
       </c>
       <c r="J44" t="n">
-        <v>996947.201384476</v>
+        <v>996947.099317318</v>
       </c>
       <c r="K44" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
@@ -5137,31 +5441,31 @@
         <v>21.014983647314</v>
       </c>
       <c r="C45" t="n">
-        <v>73869.0420592965</v>
+        <v>60075.6507198405</v>
       </c>
       <c r="D45" t="n">
-        <v>293532.389704401</v>
+        <v>283242.33298449</v>
       </c>
       <c r="E45" t="n">
-        <v>1037443.5387127</v>
+        <v>1011182.49139316</v>
       </c>
       <c r="F45" t="n">
         <v>996946.998398342</v>
       </c>
       <c r="G45" t="n">
-        <v>-40496.5403143625</v>
+        <v>-14235.4929948183</v>
       </c>
       <c r="H45" t="n">
-        <v>-8149.41954292662</v>
+        <v>-3197.09986951286</v>
       </c>
       <c r="I45" t="n">
-        <v>285382.970161474</v>
+        <v>280045.233114977</v>
       </c>
       <c r="J45" t="n">
-        <v>996947.201384476</v>
+        <v>996947.099317318</v>
       </c>
       <c r="K45" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46">
@@ -5172,31 +5476,31 @@
         <v>9.88790185766271</v>
       </c>
       <c r="C46" t="n">
-        <v>9133.75581556768</v>
+        <v>3336.00619559083</v>
       </c>
       <c r="D46" t="n">
-        <v>180898.24457933</v>
+        <v>188424.873897541</v>
       </c>
       <c r="E46" t="n">
-        <v>1043173.83889416</v>
+        <v>1038445.0992618</v>
       </c>
       <c r="F46" t="n">
         <v>1057994.73331105</v>
       </c>
       <c r="G46" t="n">
-        <v>14820.894416891</v>
+        <v>19549.634049258</v>
       </c>
       <c r="H46" t="n">
-        <v>-1626.89398161326</v>
+        <v>998.090295906137</v>
       </c>
       <c r="I46" t="n">
-        <v>179271.350597717</v>
+        <v>189422.964193448</v>
       </c>
       <c r="J46" t="n">
-        <v>1057994.80193926</v>
+        <v>1057994.94070005</v>
       </c>
       <c r="K46" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47">
@@ -5207,31 +5511,31 @@
         <v>21.0858874772763</v>
       </c>
       <c r="C47" t="n">
-        <v>9133.75581556768</v>
+        <v>3336.00619559083</v>
       </c>
       <c r="D47" t="n">
-        <v>283307.425131177</v>
+        <v>279671.151553587</v>
       </c>
       <c r="E47" t="n">
-        <v>1043173.83889416</v>
+        <v>1038445.0992618</v>
       </c>
       <c r="F47" t="n">
         <v>1057994.73331105</v>
       </c>
       <c r="G47" t="n">
-        <v>14820.894416891</v>
+        <v>19549.634049258</v>
       </c>
       <c r="H47" t="n">
-        <v>3114.97014006674</v>
+        <v>4231.91438753703</v>
       </c>
       <c r="I47" t="n">
-        <v>286422.395271244</v>
+        <v>283903.065941125</v>
       </c>
       <c r="J47" t="n">
-        <v>1057994.80193926</v>
+        <v>1057994.94070005</v>
       </c>
       <c r="K47" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48">
@@ -5242,31 +5546,31 @@
         <v>20.8709787640186</v>
       </c>
       <c r="C48" t="n">
-        <v>9133.75581556768</v>
+        <v>3336.00619559083</v>
       </c>
       <c r="D48" t="n">
-        <v>281342.015818665</v>
+        <v>277919.97765618</v>
       </c>
       <c r="E48" t="n">
-        <v>1043173.83889416</v>
+        <v>1038445.0992618</v>
       </c>
       <c r="F48" t="n">
         <v>1057994.73331105</v>
       </c>
       <c r="G48" t="n">
-        <v>14820.894416891</v>
+        <v>19549.634049258</v>
       </c>
       <c r="H48" t="n">
-        <v>6076.17282211338</v>
+        <v>6504.37240537983</v>
       </c>
       <c r="I48" t="n">
-        <v>287418.188640778</v>
+        <v>284424.35006156</v>
       </c>
       <c r="J48" t="n">
-        <v>1057994.80193926</v>
+        <v>1057994.94070005</v>
       </c>
       <c r="K48" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49">
@@ -5277,31 +5581,31 @@
         <v>22.6515763343628</v>
       </c>
       <c r="C49" t="n">
-        <v>9133.75581556768</v>
+        <v>3336.00619559083</v>
       </c>
       <c r="D49" t="n">
-        <v>297626.15336499</v>
+        <v>292429.096154487</v>
       </c>
       <c r="E49" t="n">
-        <v>1043173.83889416</v>
+        <v>1038445.0992618</v>
       </c>
       <c r="F49" t="n">
         <v>1057994.73331105</v>
       </c>
       <c r="G49" t="n">
-        <v>14820.894416891</v>
+        <v>19549.634049258</v>
       </c>
       <c r="H49" t="n">
-        <v>7256.71406452665</v>
+        <v>7815.46434943454</v>
       </c>
       <c r="I49" t="n">
-        <v>304882.867429517</v>
+        <v>300244.560503921</v>
       </c>
       <c r="J49" t="n">
-        <v>1057994.80193926</v>
+        <v>1057994.94070005</v>
       </c>
       <c r="K49" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50">
@@ -5312,31 +5616,31 @@
         <v>10.0845109015617</v>
       </c>
       <c r="C50" t="n">
-        <v>20957.5789232531</v>
+        <v>20525.3809527478</v>
       </c>
       <c r="D50" t="n">
-        <v>184682.311649027</v>
+        <v>191283.861830364</v>
       </c>
       <c r="E50" t="n">
-        <v>1064664.58847251</v>
+        <v>1055542.87507854</v>
       </c>
       <c r="F50" t="n">
         <v>1079032.29821499</v>
       </c>
       <c r="G50" t="n">
-        <v>14367.7097424844</v>
+        <v>23489.4231364552</v>
       </c>
       <c r="H50" t="n">
-        <v>6656.59386730655</v>
+        <v>8165.19021970115</v>
       </c>
       <c r="I50" t="n">
-        <v>191338.905516333</v>
+        <v>199449.052050065</v>
       </c>
       <c r="J50" t="n">
-        <v>1079032.39138351</v>
+        <v>1079032.47334871</v>
       </c>
       <c r="K50" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -5347,31 +5651,31 @@
         <v>21.5051550060549</v>
       </c>
       <c r="C51" t="n">
-        <v>20957.5789232531</v>
+        <v>20525.3809527478</v>
       </c>
       <c r="D51" t="n">
-        <v>289127.775667742</v>
+        <v>284344.462046195</v>
       </c>
       <c r="E51" t="n">
-        <v>1064664.58847251</v>
+        <v>1055542.87507854</v>
       </c>
       <c r="F51" t="n">
         <v>1079032.29821499</v>
       </c>
       <c r="G51" t="n">
-        <v>14367.7097424844</v>
+        <v>23489.4231364552</v>
       </c>
       <c r="H51" t="n">
-        <v>5190.68853259622</v>
+        <v>7387.96430694476</v>
       </c>
       <c r="I51" t="n">
-        <v>294318.464200338</v>
+        <v>291732.42635314</v>
       </c>
       <c r="J51" t="n">
-        <v>1079032.39138351</v>
+        <v>1079032.47334871</v>
       </c>
       <c r="K51" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52">
@@ -5382,31 +5686,31 @@
         <v>21.2859730913388</v>
       </c>
       <c r="C52" t="n">
-        <v>20957.5789232531</v>
+        <v>20525.3809527478</v>
       </c>
       <c r="D52" t="n">
-        <v>287123.28655333</v>
+        <v>282558.468160621</v>
       </c>
       <c r="E52" t="n">
-        <v>1064664.58847251</v>
+        <v>1055542.87507854</v>
       </c>
       <c r="F52" t="n">
         <v>1079032.29821499</v>
       </c>
       <c r="G52" t="n">
-        <v>14367.7097424844</v>
+        <v>23489.4231364552</v>
       </c>
       <c r="H52" t="n">
-        <v>2858.99806039567</v>
+        <v>5483.78661116537</v>
       </c>
       <c r="I52" t="n">
-        <v>289982.284613725</v>
+        <v>288042.254771787</v>
       </c>
       <c r="J52" t="n">
-        <v>1079032.39138351</v>
+        <v>1079032.47334871</v>
       </c>
       <c r="K52" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53">
@@ -5417,31 +5721,31 @@
         <v>23.1019757042202</v>
       </c>
       <c r="C53" t="n">
-        <v>20957.5789232531</v>
+        <v>20525.3809527478</v>
       </c>
       <c r="D53" t="n">
-        <v>303731.214602412</v>
+        <v>297356.083041359</v>
       </c>
       <c r="E53" t="n">
-        <v>1064664.58847251</v>
+        <v>1055542.87507854</v>
       </c>
       <c r="F53" t="n">
         <v>1079032.29821499</v>
       </c>
       <c r="G53" t="n">
-        <v>14367.7097424844</v>
+        <v>23489.4231364552</v>
       </c>
       <c r="H53" t="n">
-        <v>-338.477549295124</v>
+        <v>2452.65713236297</v>
       </c>
       <c r="I53" t="n">
-        <v>303392.737053117</v>
+        <v>299808.740173722</v>
       </c>
       <c r="J53" t="n">
-        <v>1079032.39138351</v>
+        <v>1079032.47334871</v>
       </c>
       <c r="K53" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54">
@@ -5452,31 +5756,31 @@
         <v>9.54288129123004</v>
       </c>
       <c r="C54" t="n">
-        <v>28448.4507285729</v>
+        <v>29492.8822829232</v>
       </c>
       <c r="D54" t="n">
-        <v>180987.155183144</v>
+        <v>187526.142605047</v>
       </c>
       <c r="E54" t="n">
-        <v>1032378.28147709</v>
+        <v>1024914.48794907</v>
       </c>
       <c r="F54" t="n">
         <v>999140.915771971</v>
       </c>
       <c r="G54" t="n">
-        <v>-33237.3657051192</v>
+        <v>-25773.5721771037</v>
       </c>
       <c r="H54" t="n">
-        <v>-4401.73829647615</v>
+        <v>-1705.42412946243</v>
       </c>
       <c r="I54" t="n">
-        <v>176585.416886668</v>
+        <v>185820.718475585</v>
       </c>
       <c r="J54" t="n">
-        <v>999141.024487776</v>
+        <v>999141.074078477</v>
       </c>
       <c r="K54" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55">
@@ -5487,31 +5791,31 @@
         <v>20.350133325802</v>
       </c>
       <c r="C55" t="n">
-        <v>28448.4507285729</v>
+        <v>29492.8822829232</v>
       </c>
       <c r="D55" t="n">
-        <v>279822.951412359</v>
+        <v>275588.5453749</v>
       </c>
       <c r="E55" t="n">
-        <v>1032378.28147709</v>
+        <v>1024914.48794907</v>
       </c>
       <c r="F55" t="n">
         <v>999140.915771971</v>
       </c>
       <c r="G55" t="n">
-        <v>-33237.3657051192</v>
+        <v>-25773.5721771037</v>
       </c>
       <c r="H55" t="n">
-        <v>-7590.07297568947</v>
+        <v>-5263.82836946741</v>
       </c>
       <c r="I55" t="n">
-        <v>272232.878436669</v>
+        <v>270324.717005432</v>
       </c>
       <c r="J55" t="n">
-        <v>999141.024487776</v>
+        <v>999141.074078477</v>
       </c>
       <c r="K55" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -5522,31 +5826,31 @@
         <v>20.1427234658953</v>
       </c>
       <c r="C56" t="n">
-        <v>28448.4507285729</v>
+        <v>29492.8822829232</v>
       </c>
       <c r="D56" t="n">
-        <v>277926.1215259</v>
+        <v>273898.475543724</v>
       </c>
       <c r="E56" t="n">
-        <v>1032378.28147709</v>
+        <v>1024914.48794907</v>
       </c>
       <c r="F56" t="n">
         <v>999140.915771971</v>
       </c>
       <c r="G56" t="n">
-        <v>-33237.3657051192</v>
+        <v>-25773.5721771037</v>
       </c>
       <c r="H56" t="n">
-        <v>-9903.48158693509</v>
+        <v>-8222.55558765197</v>
       </c>
       <c r="I56" t="n">
-        <v>268022.639938965</v>
+        <v>265675.919956072</v>
       </c>
       <c r="J56" t="n">
-        <v>999141.024487776</v>
+        <v>999141.074078477</v>
       </c>
       <c r="K56" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57">
@@ -5557,31 +5861,31 @@
         <v>21.8611902838158</v>
       </c>
       <c r="C57" t="n">
-        <v>28448.4507285729</v>
+        <v>29492.8822829232</v>
       </c>
       <c r="D57" t="n">
-        <v>293642.053355687</v>
+        <v>287901.324425404</v>
       </c>
       <c r="E57" t="n">
-        <v>1032378.28147709</v>
+        <v>1024914.48794907</v>
       </c>
       <c r="F57" t="n">
         <v>999140.915771971</v>
       </c>
       <c r="G57" t="n">
-        <v>-33237.3657051192</v>
+        <v>-25773.5721771037</v>
       </c>
       <c r="H57" t="n">
-        <v>-11341.964130213</v>
+        <v>-10581.6057840161</v>
       </c>
       <c r="I57" t="n">
-        <v>282300.089225474</v>
+        <v>277319.718641388</v>
       </c>
       <c r="J57" t="n">
-        <v>999141.024487776</v>
+        <v>999141.074078477</v>
       </c>
       <c r="K57" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58">
@@ -5592,31 +5896,31 @@
         <v>9.48743590695721</v>
       </c>
       <c r="C58" t="n">
-        <v>-14123.7425317818</v>
+        <v>-17147.2127295139</v>
       </c>
       <c r="D58" t="n">
-        <v>173329.358435957</v>
+        <v>183663.913472747</v>
       </c>
       <c r="E58" t="n">
-        <v>999955.077953792</v>
+        <v>1007868.88997594</v>
       </c>
       <c r="F58" t="n">
         <v>962308.639383244</v>
       </c>
       <c r="G58" t="n">
-        <v>-37646.4385705482</v>
+        <v>-45560.2505926943</v>
       </c>
       <c r="H58" t="n">
-        <v>-11905.5206055232</v>
+        <v>-12340.9789585598</v>
       </c>
       <c r="I58" t="n">
-        <v>161423.837830434</v>
+        <v>171322.934514187</v>
       </c>
       <c r="J58" t="n">
-        <v>962308.659740564</v>
+        <v>962308.885208311</v>
       </c>
       <c r="K58" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59">
@@ -5627,31 +5931,31 @@
         <v>20.2318963984194</v>
       </c>
       <c r="C59" t="n">
-        <v>-14123.7425317818</v>
+        <v>-17147.2127295139</v>
       </c>
       <c r="D59" t="n">
-        <v>271590.905805252</v>
+        <v>271214.662203053</v>
       </c>
       <c r="E59" t="n">
-        <v>999955.077953792</v>
+        <v>1007868.88997594</v>
       </c>
       <c r="F59" t="n">
         <v>962308.639383244</v>
       </c>
       <c r="G59" t="n">
-        <v>-37646.4385705482</v>
+        <v>-45560.2505926943</v>
       </c>
       <c r="H59" t="n">
-        <v>-11133.3767747608</v>
+        <v>-12664.3371217161</v>
       </c>
       <c r="I59" t="n">
-        <v>260457.529030491</v>
+        <v>258550.325081337</v>
       </c>
       <c r="J59" t="n">
-        <v>962308.659740564</v>
+        <v>962308.885208311</v>
       </c>
       <c r="K59" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60">
@@ -5662,31 +5966,31 @@
         <v>20.0256916168358</v>
       </c>
       <c r="C60" t="n">
-        <v>-14123.7425317818</v>
+        <v>-17147.2127295139</v>
       </c>
       <c r="D60" t="n">
-        <v>269705.096747696</v>
+        <v>269534.411897907</v>
       </c>
       <c r="E60" t="n">
-        <v>999955.077953792</v>
+        <v>1007868.88997594</v>
       </c>
       <c r="F60" t="n">
         <v>962308.639383244</v>
       </c>
       <c r="G60" t="n">
-        <v>-37646.4385705482</v>
+        <v>-45560.2505926943</v>
       </c>
       <c r="H60" t="n">
-        <v>-9025.5326379258</v>
+        <v>-11551.6802734849</v>
       </c>
       <c r="I60" t="n">
-        <v>260679.56410977</v>
+        <v>257982.731624422</v>
       </c>
       <c r="J60" t="n">
-        <v>962308.659740564</v>
+        <v>962308.885208311</v>
       </c>
       <c r="K60" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61">
@@ -5697,31 +6001,31 @@
         <v>21.7341739185319</v>
       </c>
       <c r="C61" t="n">
-        <v>-14123.7425317818</v>
+        <v>-17147.2127295139</v>
       </c>
       <c r="D61" t="n">
-        <v>285329.716964887</v>
+        <v>283455.902402231</v>
       </c>
       <c r="E61" t="n">
-        <v>999955.077953792</v>
+        <v>1007868.88997594</v>
       </c>
       <c r="F61" t="n">
         <v>962308.639383244</v>
       </c>
       <c r="G61" t="n">
-        <v>-37646.4385705482</v>
+        <v>-45560.2505926943</v>
       </c>
       <c r="H61" t="n">
-        <v>-5581.98819501818</v>
+        <v>-9003.0084138662</v>
       </c>
       <c r="I61" t="n">
-        <v>279747.728769869</v>
+        <v>274452.893988365</v>
       </c>
       <c r="J61" t="n">
-        <v>962308.659740564</v>
+        <v>962308.885208311</v>
       </c>
       <c r="K61" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62">
@@ -5732,31 +6036,31 @@
         <v>9.29907793917559</v>
       </c>
       <c r="C62" t="n">
-        <v>-47135.7388887051</v>
+        <v>-50575.6308837798</v>
       </c>
       <c r="D62" t="n">
-        <v>166061.832588332</v>
+        <v>179684.72149307</v>
       </c>
       <c r="E62" t="n">
-        <v>964797.171275328</v>
+        <v>986527.907293128</v>
       </c>
       <c r="F62" t="n">
         <v>943204.007570872</v>
       </c>
       <c r="G62" t="n">
-        <v>-21593.1637044558</v>
+        <v>-43323.8997222563</v>
       </c>
       <c r="H62" t="n">
-        <v>-802.743446037942</v>
+        <v>-5018.32154286008</v>
       </c>
       <c r="I62" t="n">
-        <v>165259.089142294</v>
+        <v>174666.39995021</v>
       </c>
       <c r="J62" t="n">
-        <v>943203.959411873</v>
+        <v>943204.316123236</v>
       </c>
       <c r="K62" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63">
@@ -5767,31 +6071,31 @@
         <v>19.8302242366944</v>
       </c>
       <c r="C63" t="n">
-        <v>-47135.7388887051</v>
+        <v>-50575.6308837798</v>
       </c>
       <c r="D63" t="n">
-        <v>262372.553037153</v>
+        <v>265497.289194242</v>
       </c>
       <c r="E63" t="n">
-        <v>964797.171275328</v>
+        <v>986527.907293128</v>
       </c>
       <c r="F63" t="n">
         <v>943204.007570872</v>
       </c>
       <c r="G63" t="n">
-        <v>-21593.1637044558</v>
+        <v>-43323.8997222563</v>
       </c>
       <c r="H63" t="n">
-        <v>-729.269354376141</v>
+        <v>-5749.47729430283</v>
       </c>
       <c r="I63" t="n">
-        <v>261643.283682777</v>
+        <v>259747.81189994</v>
       </c>
       <c r="J63" t="n">
-        <v>943203.959411873</v>
+        <v>943204.316123236</v>
       </c>
       <c r="K63" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64">
@@ -5802,31 +6106,31 @@
         <v>19.6281133234634</v>
       </c>
       <c r="C64" t="n">
-        <v>-47135.7388887051</v>
+        <v>-50575.6308837798</v>
       </c>
       <c r="D64" t="n">
-        <v>260524.183722558</v>
+        <v>263850.397589587</v>
       </c>
       <c r="E64" t="n">
-        <v>964797.171275328</v>
+        <v>986527.907293128</v>
       </c>
       <c r="F64" t="n">
         <v>943204.007570872</v>
       </c>
       <c r="G64" t="n">
-        <v>-21593.1637044558</v>
+        <v>-43323.8997222563</v>
       </c>
       <c r="H64" t="n">
-        <v>-5361.56592003276</v>
+        <v>-11196.4756681945</v>
       </c>
       <c r="I64" t="n">
-        <v>255162.617802525</v>
+        <v>252653.921921392</v>
       </c>
       <c r="J64" t="n">
-        <v>943203.959411873</v>
+        <v>943204.316123236</v>
       </c>
       <c r="K64" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
@@ -5837,31 +6141,31 @@
         <v>21.3026764232282</v>
       </c>
       <c r="C65" t="n">
-        <v>-47135.7388887051</v>
+        <v>-50575.6308837798</v>
       </c>
       <c r="D65" t="n">
-        <v>275838.601927284</v>
+        <v>277495.499016229</v>
       </c>
       <c r="E65" t="n">
-        <v>964797.171275328</v>
+        <v>986527.907293128</v>
       </c>
       <c r="F65" t="n">
         <v>943204.007570872</v>
       </c>
       <c r="G65" t="n">
-        <v>-21593.1637044558</v>
+        <v>-43323.8997222563</v>
       </c>
       <c r="H65" t="n">
-        <v>-14699.6331430078</v>
+        <v>-21359.316664535</v>
       </c>
       <c r="I65" t="n">
-        <v>261138.968784276</v>
+        <v>256136.182351694</v>
       </c>
       <c r="J65" t="n">
-        <v>943203.959411873</v>
+        <v>943204.316123236</v>
       </c>
       <c r="K65" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -5872,31 +6176,31 @@
         <v>11.3843382942371</v>
       </c>
       <c r="C66" t="n">
-        <v>-53262.1905949309</v>
+        <v>-58116.7425209654</v>
       </c>
       <c r="D66" t="n">
-        <v>184103.16653943</v>
+        <v>196124.946806531</v>
       </c>
       <c r="E66" t="n">
-        <v>1104358.93843496</v>
+        <v>1112338.82999357</v>
       </c>
       <c r="F66" t="n">
         <v>990383.019524408</v>
       </c>
       <c r="G66" t="n">
-        <v>-113975.918910553</v>
+        <v>-121955.810469162</v>
       </c>
       <c r="H66" t="n">
-        <v>-28743.4710233013</v>
+        <v>-36238.0002833244</v>
       </c>
       <c r="I66" t="n">
-        <v>155359.695516129</v>
+        <v>159886.946523207</v>
       </c>
       <c r="J66" t="n">
-        <v>990382.958649974</v>
+        <v>990383.342227413</v>
       </c>
       <c r="K66" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
@@ -5907,31 +6211,31 @@
         <v>24.2770286084002</v>
       </c>
       <c r="C67" t="n">
-        <v>-53262.1905949309</v>
+        <v>-58116.7425209654</v>
       </c>
       <c r="D67" t="n">
-        <v>302010.966659265</v>
+        <v>301180.448760295</v>
       </c>
       <c r="E67" t="n">
-        <v>1104358.93843496</v>
+        <v>1112338.82999357</v>
       </c>
       <c r="F67" t="n">
         <v>990383.019524408</v>
       </c>
       <c r="G67" t="n">
-        <v>-113975.918910553</v>
+        <v>-121955.810469162</v>
       </c>
       <c r="H67" t="n">
-        <v>-34261.2157445969</v>
+        <v>-39889.822394126</v>
       </c>
       <c r="I67" t="n">
-        <v>267749.750914668</v>
+        <v>261290.626366169</v>
       </c>
       <c r="J67" t="n">
-        <v>990382.958649974</v>
+        <v>990383.342227413</v>
       </c>
       <c r="K67" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68">
@@ -5942,31 +6246,31 @@
         <v>24.0295955807141</v>
       </c>
       <c r="C68" t="n">
-        <v>-53262.1905949309</v>
+        <v>-58116.7425209654</v>
       </c>
       <c r="D68" t="n">
-        <v>299748.112029195</v>
+        <v>299164.251962723</v>
       </c>
       <c r="E68" t="n">
-        <v>1104358.93843496</v>
+        <v>1112338.82999357</v>
       </c>
       <c r="F68" t="n">
         <v>990383.019524408</v>
       </c>
       <c r="G68" t="n">
-        <v>-113975.918910553</v>
+        <v>-121955.810469162</v>
       </c>
       <c r="H68" t="n">
-        <v>-31252.8673068948</v>
+        <v>-32314.78299694</v>
       </c>
       <c r="I68" t="n">
-        <v>268495.244722301</v>
+        <v>266849.468965783</v>
       </c>
       <c r="J68" t="n">
-        <v>990382.958649974</v>
+        <v>990383.342227413</v>
       </c>
       <c r="K68" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69">
@@ -5977,31 +6281,31 @@
         <v>26.07966903396</v>
       </c>
       <c r="C69" t="n">
-        <v>-53262.1905949309</v>
+        <v>-58116.7425209654</v>
       </c>
       <c r="D69" t="n">
-        <v>318496.693207071</v>
+        <v>315869.18246402</v>
       </c>
       <c r="E69" t="n">
-        <v>1104358.93843496</v>
+        <v>1112338.82999357</v>
       </c>
       <c r="F69" t="n">
         <v>990383.019524408</v>
       </c>
       <c r="G69" t="n">
-        <v>-113975.918910553</v>
+        <v>-121955.810469162</v>
       </c>
       <c r="H69" t="n">
-        <v>-19718.4257101947</v>
+        <v>-13512.8820917662</v>
       </c>
       <c r="I69" t="n">
-        <v>298778.267496876</v>
+        <v>302356.300372254</v>
       </c>
       <c r="J69" t="n">
-        <v>990382.958649974</v>
+        <v>990383.342227413</v>
       </c>
       <c r="K69" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70">
@@ -6012,31 +6316,31 @@
         <v>13.2626934505632</v>
       </c>
       <c r="C70" t="n">
-        <v>-149761.116850893</v>
+        <v>-138954.349509857</v>
       </c>
       <c r="D70" t="n">
-        <v>185072.676990152</v>
+        <v>205519.600022635</v>
       </c>
       <c r="E70" t="n">
-        <v>1168946.15453679</v>
+        <v>1099661.52975303</v>
       </c>
       <c r="F70" t="n">
         <v>1221389.13051423</v>
       </c>
       <c r="G70" t="n">
-        <v>52442.9759774422</v>
+        <v>121727.600761202</v>
       </c>
       <c r="H70" t="n">
-        <v>342.109045503108</v>
+        <v>16515.8803213953</v>
       </c>
       <c r="I70" t="n">
-        <v>185414.786035655</v>
+        <v>222035.480344031</v>
       </c>
       <c r="J70" t="n">
-        <v>1221388.8693565</v>
+        <v>1221389.60490627</v>
       </c>
       <c r="K70" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71">
@@ -6044,34 +6348,34 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>28.2826089669835</v>
+        <v>24.0759496264013</v>
       </c>
       <c r="C71" t="n">
-        <v>-149761.116850893</v>
+        <v>-138954.349509857</v>
       </c>
       <c r="D71" t="n">
-        <v>322434.635850005</v>
+        <v>293630.927265126</v>
       </c>
       <c r="E71" t="n">
-        <v>1168946.15453679</v>
+        <v>1099661.52975303</v>
       </c>
       <c r="F71" t="n">
         <v>1221389.13051423</v>
       </c>
       <c r="G71" t="n">
-        <v>52442.9759774422</v>
+        <v>121727.600761202</v>
       </c>
       <c r="H71" t="n">
-        <v>13473.7508115528</v>
+        <v>34093.8406734262</v>
       </c>
       <c r="I71" t="n">
-        <v>335908.386661558</v>
+        <v>327724.767938552</v>
       </c>
       <c r="J71" t="n">
-        <v>1221388.8693565</v>
+        <v>1221389.60490627</v>
       </c>
       <c r="K71" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72">
@@ -6079,34 +6383,34 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>27.994350808193</v>
+        <v>23.8184671080725</v>
       </c>
       <c r="C72" t="n">
-        <v>-149761.116850893</v>
+        <v>-138954.349509857</v>
       </c>
       <c r="D72" t="n">
-        <v>319798.422263749</v>
+        <v>291532.842649099</v>
       </c>
       <c r="E72" t="n">
-        <v>1168946.15453679</v>
+        <v>1099661.52975303</v>
       </c>
       <c r="F72" t="n">
         <v>1221389.13051423</v>
       </c>
       <c r="G72" t="n">
-        <v>52442.9759774422</v>
+        <v>121727.600761202</v>
       </c>
       <c r="H72" t="n">
-        <v>19676.4995879543</v>
+        <v>39220.9989643265</v>
       </c>
       <c r="I72" t="n">
-        <v>339474.921851703</v>
+        <v>330753.841613425</v>
       </c>
       <c r="J72" t="n">
-        <v>1221388.8693565</v>
+        <v>1221389.60490627</v>
       </c>
       <c r="K72" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73">
@@ -6114,34 +6418,34 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>30.3826754572683</v>
+        <v>25.9594027800218</v>
       </c>
       <c r="C73" t="n">
-        <v>-149761.116850893</v>
+        <v>-138954.349509857</v>
       </c>
       <c r="D73" t="n">
-        <v>341640.419432881</v>
+        <v>308978.159816166</v>
       </c>
       <c r="E73" t="n">
-        <v>1168946.15453679</v>
+        <v>1099661.52975303</v>
       </c>
       <c r="F73" t="n">
         <v>1221389.13051423</v>
       </c>
       <c r="G73" t="n">
-        <v>52442.9759774422</v>
+        <v>121727.600761202</v>
       </c>
       <c r="H73" t="n">
-        <v>18950.3553747076</v>
+        <v>31897.3551940963</v>
       </c>
       <c r="I73" t="n">
-        <v>360590.774807588</v>
+        <v>340875.515010263</v>
       </c>
       <c r="J73" t="n">
-        <v>1221388.8693565</v>
+        <v>1221389.60490627</v>
       </c>
       <c r="K73" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74">
@@ -6152,31 +6456,31 @@
         <v>13.2730027666164</v>
       </c>
       <c r="C74" t="n">
-        <v>-48176.8286234145</v>
+        <v>81084.9075791896</v>
       </c>
       <c r="D74" t="n">
-        <v>202229.784531572</v>
+        <v>221693.400056204</v>
       </c>
       <c r="E74" t="n">
-        <v>1237907.78583489</v>
+        <v>1269001.21936188</v>
       </c>
       <c r="F74" t="n">
         <v>1255839</v>
       </c>
       <c r="G74" t="n">
-        <v>17931.2141651111</v>
+        <v>-13162.2193618813</v>
       </c>
       <c r="H74" t="n">
-        <v>11295.3181718127</v>
+        <v>12122.9093627355</v>
       </c>
       <c r="I74" t="n">
-        <v>213525.102703385</v>
+        <v>233816.309418939</v>
       </c>
       <c r="J74" t="n">
-        <v>1255838.94968022</v>
+        <v>1255839.06149581</v>
       </c>
       <c r="K74" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75">
@@ -6187,31 +6491,31 @@
         <v>28.3045935175379</v>
       </c>
       <c r="C75" t="n">
-        <v>-48176.8286234145</v>
+        <v>81084.9075791896</v>
       </c>
       <c r="D75" t="n">
-        <v>339698.517166515</v>
+        <v>344177.635155441</v>
       </c>
       <c r="E75" t="n">
-        <v>1237907.78583489</v>
+        <v>1269001.21936188</v>
       </c>
       <c r="F75" t="n">
         <v>1255839</v>
       </c>
       <c r="G75" t="n">
-        <v>17931.2141651111</v>
+        <v>-13162.2193618813</v>
       </c>
       <c r="H75" t="n">
-        <v>5508.29240646301</v>
+        <v>-1952.24850150965</v>
       </c>
       <c r="I75" t="n">
-        <v>345206.809572978</v>
+        <v>342225.386653932</v>
       </c>
       <c r="J75" t="n">
-        <v>1255838.94968022</v>
+        <v>1255839.06149581</v>
       </c>
       <c r="K75" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="76">
@@ -6222,31 +6526,31 @@
         <v>28.0161112908025</v>
       </c>
       <c r="C76" t="n">
-        <v>-48176.8286234145</v>
+        <v>81084.9075791896</v>
       </c>
       <c r="D76" t="n">
-        <v>337060.254406828</v>
+        <v>341826.950822232</v>
       </c>
       <c r="E76" t="n">
-        <v>1237907.78583489</v>
+        <v>1269001.21936188</v>
       </c>
       <c r="F76" t="n">
         <v>1255839</v>
       </c>
       <c r="G76" t="n">
-        <v>17931.2141651111</v>
+        <v>-13162.2193618813</v>
       </c>
       <c r="H76" t="n">
-        <v>1589.27807865841</v>
+        <v>-10328.1183986392</v>
       </c>
       <c r="I76" t="n">
-        <v>338649.532485486</v>
+        <v>331498.832423593</v>
       </c>
       <c r="J76" t="n">
-        <v>1255838.94968022</v>
+        <v>1255839.06149581</v>
       </c>
       <c r="K76" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77">
@@ -6257,31 +6561,31 @@
         <v>30.4062924250432</v>
       </c>
       <c r="C77" t="n">
-        <v>-48176.8286234145</v>
+        <v>81084.9075791896</v>
       </c>
       <c r="D77" t="n">
-        <v>358919.229729974</v>
+        <v>361303.233328005</v>
       </c>
       <c r="E77" t="n">
-        <v>1237907.78583489</v>
+        <v>1269001.21936188</v>
       </c>
       <c r="F77" t="n">
         <v>1255839</v>
       </c>
       <c r="G77" t="n">
-        <v>17931.2141651111</v>
+        <v>-13162.2193618813</v>
       </c>
       <c r="H77" t="n">
-        <v>-461.72481160107</v>
+        <v>-13004.7003286532</v>
       </c>
       <c r="I77" t="n">
-        <v>358457.504918373</v>
+        <v>348298.532999351</v>
       </c>
       <c r="J77" t="n">
-        <v>1255838.94968022</v>
+        <v>1255839.06149581</v>
       </c>
       <c r="K77" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -6289,34 +6593,34 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>13.1766760789473</v>
+        <v>17.4403523978716</v>
       </c>
       <c r="C78" t="n">
-        <v>-14437.2883160992</v>
+        <v>10554.2676142897</v>
       </c>
       <c r="D78" t="n">
-        <v>207015.98112973</v>
+        <v>250493.490876561</v>
       </c>
       <c r="E78" t="n">
-        <v>1253939.25595629</v>
+        <v>1277200.50803675</v>
       </c>
       <c r="F78" t="n">
         <v>1262501</v>
       </c>
       <c r="G78" t="n">
-        <v>8561.74404371181</v>
+        <v>-14699.5080367541</v>
       </c>
       <c r="H78" t="n">
-        <v>-644.716264315416</v>
+        <v>-9981.99429155154</v>
       </c>
       <c r="I78" t="n">
-        <v>206371.264865415</v>
+        <v>240511.496585009</v>
       </c>
       <c r="J78" t="n">
-        <v>1262501.01970656</v>
+        <v>1262501.19384418</v>
       </c>
       <c r="K78" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79">
@@ -6327,31 +6631,31 @@
         <v>28.0991774721029</v>
       </c>
       <c r="C79" t="n">
-        <v>-14437.2883160992</v>
+        <v>10554.2676142897</v>
       </c>
       <c r="D79" t="n">
-        <v>343487.056497088</v>
+        <v>337346.443295703</v>
       </c>
       <c r="E79" t="n">
-        <v>1253939.25595629</v>
+        <v>1277200.50803675</v>
       </c>
       <c r="F79" t="n">
         <v>1262501</v>
       </c>
       <c r="G79" t="n">
-        <v>8561.74404371181</v>
+        <v>-14699.5080367541</v>
       </c>
       <c r="H79" t="n">
-        <v>396.150035351914</v>
+        <v>-6250.04557934803</v>
       </c>
       <c r="I79" t="n">
-        <v>343883.20653244</v>
+        <v>331096.397716355</v>
       </c>
       <c r="J79" t="n">
-        <v>1262501.01970656</v>
+        <v>1262501.19384418</v>
       </c>
       <c r="K79" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -6362,31 +6666,31 @@
         <v>27.8127888588355</v>
       </c>
       <c r="C80" t="n">
-        <v>-14437.2883160992</v>
+        <v>10554.2676142897</v>
       </c>
       <c r="D80" t="n">
-        <v>340867.940506019</v>
+        <v>335012.818676829</v>
       </c>
       <c r="E80" t="n">
-        <v>1253939.25595629</v>
+        <v>1277200.50803675</v>
       </c>
       <c r="F80" t="n">
         <v>1262501</v>
       </c>
       <c r="G80" t="n">
-        <v>8561.74404371181</v>
+        <v>-14699.5080367541</v>
       </c>
       <c r="H80" t="n">
-        <v>2660.87408740092</v>
+        <v>-1808.85419204266</v>
       </c>
       <c r="I80" t="n">
-        <v>343528.81459342</v>
+        <v>333203.964484786</v>
       </c>
       <c r="J80" t="n">
-        <v>1262501.01970656</v>
+        <v>1262501.19384418</v>
       </c>
       <c r="K80" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="81">
@@ -6397,31 +6701,31 @@
         <v>30.1856236370452</v>
       </c>
       <c r="C81" t="n">
-        <v>-14437.2883160992</v>
+        <v>10554.2676142897</v>
       </c>
       <c r="D81" t="n">
-        <v>362568.277823452</v>
+        <v>354347.755187662</v>
       </c>
       <c r="E81" t="n">
-        <v>1253939.25595629</v>
+        <v>1277200.50803675</v>
       </c>
       <c r="F81" t="n">
         <v>1262501</v>
       </c>
       <c r="G81" t="n">
-        <v>8561.74404371181</v>
+        <v>-14699.5080367541</v>
       </c>
       <c r="H81" t="n">
-        <v>6149.4558918316</v>
+        <v>3341.57987036459</v>
       </c>
       <c r="I81" t="n">
-        <v>368717.733715283</v>
+        <v>357689.335058026</v>
       </c>
       <c r="J81" t="n">
-        <v>1262501.01970656</v>
+        <v>1262501.19384418</v>
       </c>
       <c r="K81" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -6429,34 +6733,34 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>14.0416909611662</v>
+        <v>18.2266947568816</v>
       </c>
       <c r="C82" t="n">
-        <v>-1138.21786815394</v>
+        <v>-11612.4952018086</v>
       </c>
       <c r="D82" t="n">
-        <v>217160.627719769</v>
+        <v>255280.079363255</v>
       </c>
       <c r="E82" t="n">
-        <v>1322475.46208763</v>
+        <v>1323180.19715065</v>
       </c>
       <c r="F82" t="n">
         <v>1363129.36729131</v>
       </c>
       <c r="G82" t="n">
-        <v>40653.905203687</v>
+        <v>39949.1701406653</v>
       </c>
       <c r="H82" t="n">
-        <v>10861.8954486439</v>
+        <v>9201.25660787369</v>
       </c>
       <c r="I82" t="n">
-        <v>228022.523168413</v>
+        <v>264481.335971129</v>
       </c>
       <c r="J82" t="n">
-        <v>1363129.41460006</v>
+        <v>1363129.60273067</v>
       </c>
       <c r="K82" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="83">
@@ -6467,31 +6771,31 @@
         <v>29.9438161765722</v>
       </c>
       <c r="C83" t="n">
-        <v>-1138.21786815394</v>
+        <v>-11612.4952018086</v>
       </c>
       <c r="D83" t="n">
-        <v>362590.67805759</v>
+        <v>350756.511527809</v>
       </c>
       <c r="E83" t="n">
-        <v>1322475.46208763</v>
+        <v>1323180.19715065</v>
       </c>
       <c r="F83" t="n">
         <v>1363129.36729131</v>
       </c>
       <c r="G83" t="n">
-        <v>40653.905203687</v>
+        <v>39949.1701406653</v>
       </c>
       <c r="H83" t="n">
-        <v>12467.5083431546</v>
+        <v>11859.5652177301</v>
       </c>
       <c r="I83" t="n">
-        <v>375058.186400744</v>
+        <v>362616.076745539</v>
       </c>
       <c r="J83" t="n">
-        <v>1363129.41460006</v>
+        <v>1363129.60273067</v>
       </c>
       <c r="K83" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84">
@@ -6502,31 +6806,31 @@
         <v>29.6386268876951</v>
       </c>
       <c r="C84" t="n">
-        <v>-1138.21786815394</v>
+        <v>-11612.4952018086</v>
       </c>
       <c r="D84" t="n">
-        <v>359799.623840449</v>
+        <v>348269.690456906</v>
       </c>
       <c r="E84" t="n">
-        <v>1322475.46208763</v>
+        <v>1323180.19715065</v>
       </c>
       <c r="F84" t="n">
         <v>1363129.36729131</v>
       </c>
       <c r="G84" t="n">
-        <v>40653.905203687</v>
+        <v>39949.1701406653</v>
       </c>
       <c r="H84" t="n">
-        <v>10966.2945753637</v>
+        <v>11316.5056999339</v>
       </c>
       <c r="I84" t="n">
-        <v>370765.918415813</v>
+        <v>359586.19615684</v>
       </c>
       <c r="J84" t="n">
-        <v>1363129.41460006</v>
+        <v>1363129.60273067</v>
       </c>
       <c r="K84" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="85">
@@ -6537,31 +6841,31 @@
         <v>32.1672321640108</v>
       </c>
       <c r="C85" t="n">
-        <v>-1138.21786815394</v>
+        <v>-11612.4952018086</v>
       </c>
       <c r="D85" t="n">
-        <v>382924.532469819</v>
+        <v>368873.915802679</v>
       </c>
       <c r="E85" t="n">
-        <v>1322475.46208763</v>
+        <v>1323180.19715065</v>
       </c>
       <c r="F85" t="n">
         <v>1363129.36729131</v>
       </c>
       <c r="G85" t="n">
-        <v>40653.905203687</v>
+        <v>39949.1701406653</v>
       </c>
       <c r="H85" t="n">
-        <v>6358.25414527105</v>
+        <v>7572.07805448498</v>
       </c>
       <c r="I85" t="n">
-        <v>389282.78661509</v>
+        <v>376445.993857164</v>
       </c>
       <c r="J85" t="n">
-        <v>1363129.41460006</v>
+        <v>1363129.60273067</v>
       </c>
       <c r="K85" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="86">
@@ -6569,34 +6873,34 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>14.4358673926222</v>
+        <v>19.6235587185574</v>
       </c>
       <c r="C86" t="n">
-        <v>39889.1722616856</v>
+        <v>36552.6368099025</v>
       </c>
       <c r="D86" t="n">
-        <v>227656.752641334</v>
+        <v>270184.311240843</v>
       </c>
       <c r="E86" t="n">
-        <v>1377199.89841537</v>
+        <v>1369637.30909835</v>
       </c>
       <c r="F86" t="n">
         <v>1354697.44334723</v>
       </c>
       <c r="G86" t="n">
-        <v>-22502.4550681412</v>
+        <v>-14939.8657511191</v>
       </c>
       <c r="H86" t="n">
-        <v>-1356.61294712323</v>
+        <v>626.282281383395</v>
       </c>
       <c r="I86" t="n">
-        <v>226300.139694211</v>
+        <v>270810.593522227</v>
       </c>
       <c r="J86" t="n">
-        <v>1354697.57580823</v>
+        <v>1354697.58840635</v>
       </c>
       <c r="K86" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87">
@@ -6607,31 +6911,31 @@
         <v>30.7843948958517</v>
       </c>
       <c r="C87" t="n">
-        <v>39889.1722616856</v>
+        <v>36552.6368099025</v>
       </c>
       <c r="D87" t="n">
-        <v>377169.295495702</v>
+        <v>361127.878351995</v>
       </c>
       <c r="E87" t="n">
-        <v>1377199.89841537</v>
+        <v>1369637.30909835</v>
       </c>
       <c r="F87" t="n">
         <v>1354697.44334723</v>
       </c>
       <c r="G87" t="n">
-        <v>-22502.4550681412</v>
+        <v>-14939.8657511191</v>
       </c>
       <c r="H87" t="n">
-        <v>-6150.14686594618</v>
+        <v>-3896.52100961095</v>
       </c>
       <c r="I87" t="n">
-        <v>371019.148629756</v>
+        <v>357231.357342384</v>
       </c>
       <c r="J87" t="n">
-        <v>1354697.57580823</v>
+        <v>1354697.58840635</v>
       </c>
       <c r="K87" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="88">
@@ -6642,31 +6946,31 @@
         <v>30.4706383749268</v>
       </c>
       <c r="C88" t="n">
-        <v>39889.1722616856</v>
+        <v>36552.6368099025</v>
       </c>
       <c r="D88" t="n">
-        <v>374299.89118566</v>
+        <v>358571.247579532</v>
       </c>
       <c r="E88" t="n">
-        <v>1377199.89841537</v>
+        <v>1369637.30909835</v>
       </c>
       <c r="F88" t="n">
         <v>1354697.44334723</v>
       </c>
       <c r="G88" t="n">
-        <v>-22502.4550681412</v>
+        <v>-14939.8657511191</v>
       </c>
       <c r="H88" t="n">
-        <v>-8022.3476111978</v>
+        <v>-5996.33181849805</v>
       </c>
       <c r="I88" t="n">
-        <v>366277.543574462</v>
+        <v>352574.915761034</v>
       </c>
       <c r="J88" t="n">
-        <v>1354697.57580823</v>
+        <v>1354697.58840635</v>
       </c>
       <c r="K88" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="89">
@@ -6677,31 +6981,31 @@
         <v>33.0702263133118</v>
       </c>
       <c r="C89" t="n">
-        <v>39889.1722616856</v>
+        <v>36552.6368099025</v>
       </c>
       <c r="D89" t="n">
-        <v>398073.959092675</v>
+        <v>379753.871925978</v>
       </c>
       <c r="E89" t="n">
-        <v>1377199.89841537</v>
+        <v>1369637.30909835</v>
       </c>
       <c r="F89" t="n">
         <v>1354697.44334723</v>
       </c>
       <c r="G89" t="n">
-        <v>-22502.4550681412</v>
+        <v>-14939.8657511191</v>
       </c>
       <c r="H89" t="n">
-        <v>-6973.21518287807</v>
+        <v>-5673.15014527792</v>
       </c>
       <c r="I89" t="n">
-        <v>391100.743909797</v>
+        <v>374080.721780701</v>
       </c>
       <c r="J89" t="n">
-        <v>1354697.57580823</v>
+        <v>1354697.58840635</v>
       </c>
       <c r="K89" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
     </row>
     <row r="90">
@@ -6709,34 +7013,34 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>15.0058648745639</v>
+        <v>20.6722263536177</v>
       </c>
       <c r="C90" t="n">
-        <v>4297.83063390013</v>
+        <v>-4248.60197924962</v>
       </c>
       <c r="D90" t="n">
-        <v>226891.385993284</v>
+        <v>275745.848028403</v>
       </c>
       <c r="E90" t="n">
-        <v>1392560.9736756</v>
+        <v>1396596.62061127</v>
       </c>
       <c r="F90" t="n">
         <v>1393979.22254462</v>
       </c>
       <c r="G90" t="n">
-        <v>1418.24886901234</v>
+        <v>-2617.39806665573</v>
       </c>
       <c r="H90" t="n">
-        <v>-3002.74958098701</v>
+        <v>-2926.97598995054</v>
       </c>
       <c r="I90" t="n">
-        <v>223888.636412297</v>
+        <v>272818.872038453</v>
       </c>
       <c r="J90" t="n">
-        <v>1393979.28113587</v>
+        <v>1393979.44416588</v>
       </c>
       <c r="K90" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91">
@@ -6747,31 +7051,31 @@
         <v>31.9999108808974</v>
       </c>
       <c r="C91" t="n">
-        <v>4297.83063390013</v>
+        <v>-4248.60197924962</v>
       </c>
       <c r="D91" t="n">
-        <v>382307.403202732</v>
+        <v>368048.971347822</v>
       </c>
       <c r="E91" t="n">
-        <v>1392560.9736756</v>
+        <v>1396596.62061127</v>
       </c>
       <c r="F91" t="n">
         <v>1393979.22254462</v>
       </c>
       <c r="G91" t="n">
-        <v>1418.24886901234</v>
+        <v>-2617.39806665573</v>
       </c>
       <c r="H91" t="n">
-        <v>-71.6327618093965</v>
+        <v>-919.433576378899</v>
       </c>
       <c r="I91" t="n">
-        <v>382235.770440923</v>
+        <v>367129.537771443</v>
       </c>
       <c r="J91" t="n">
-        <v>1393979.28113587</v>
+        <v>1393979.44416588</v>
       </c>
       <c r="K91" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="92">
@@ -6782,31 +7086,31 @@
         <v>31.6737657433411</v>
       </c>
       <c r="C92" t="n">
-        <v>4297.83063390013</v>
+        <v>-4248.60197924962</v>
       </c>
       <c r="D92" t="n">
-        <v>379324.701008543</v>
+        <v>365391.392494933</v>
       </c>
       <c r="E92" t="n">
-        <v>1392560.9736756</v>
+        <v>1396596.62061127</v>
       </c>
       <c r="F92" t="n">
         <v>1393979.22254462</v>
       </c>
       <c r="G92" t="n">
-        <v>1418.24886901234</v>
+        <v>-2617.39806665573</v>
       </c>
       <c r="H92" t="n">
-        <v>1820.13527465478</v>
+        <v>349.477095437016</v>
       </c>
       <c r="I92" t="n">
-        <v>381144.836283198</v>
+        <v>365740.86959037</v>
       </c>
       <c r="J92" t="n">
-        <v>1393979.28113587</v>
+        <v>1393979.44416588</v>
       </c>
       <c r="K92" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="93">
@@ -6817,31 +7121,31 @@
         <v>34.3759979176882</v>
       </c>
       <c r="C93" t="n">
-        <v>4297.83063390013</v>
+        <v>-4248.60197924962</v>
       </c>
       <c r="D93" t="n">
-        <v>404037.483471044</v>
+        <v>387410.408740114</v>
       </c>
       <c r="E93" t="n">
-        <v>1392560.9736756</v>
+        <v>1396596.62061127</v>
       </c>
       <c r="F93" t="n">
         <v>1393979.22254462</v>
       </c>
       <c r="G93" t="n">
-        <v>1418.24886901234</v>
+        <v>-2617.39806665573</v>
       </c>
       <c r="H93" t="n">
-        <v>2672.55452840551</v>
+        <v>879.756025497201</v>
       </c>
       <c r="I93" t="n">
-        <v>406710.037999449</v>
+        <v>388290.164765611</v>
       </c>
       <c r="J93" t="n">
-        <v>1393979.28113587</v>
+        <v>1393979.44416588</v>
       </c>
       <c r="K93" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94">
@@ -6849,34 +7153,34 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>15.3051278380834</v>
+        <v>21.6385759340697</v>
       </c>
       <c r="C94" t="n">
-        <v>4305.82668416156</v>
+        <v>-3860.06968725799</v>
       </c>
       <c r="D94" t="n">
-        <v>229629.585132649</v>
+        <v>283648.514139134</v>
       </c>
       <c r="E94" t="n">
-        <v>1413186.06641855</v>
+        <v>1420518.09733502</v>
       </c>
       <c r="F94" t="n">
         <v>1422474.2544571</v>
       </c>
       <c r="G94" t="n">
-        <v>9288.18803855428</v>
+        <v>1956.15712207952</v>
       </c>
       <c r="H94" t="n">
-        <v>2485.62499944279</v>
+        <v>671.403213801656</v>
       </c>
       <c r="I94" t="n">
-        <v>232115.210132092</v>
+        <v>284319.917352936</v>
       </c>
       <c r="J94" t="n">
-        <v>1422474.31306495</v>
+        <v>1422474.4753493</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="95">
@@ -6887,31 +7191,31 @@
         <v>32.638087236784</v>
       </c>
       <c r="C95" t="n">
-        <v>4305.82668416156</v>
+        <v>-3860.06968725799</v>
       </c>
       <c r="D95" t="n">
-        <v>388145.0743337</v>
+        <v>373277.532830705</v>
       </c>
       <c r="E95" t="n">
-        <v>1413186.06641855</v>
+        <v>1420518.09733502</v>
       </c>
       <c r="F95" t="n">
         <v>1422474.2544571</v>
       </c>
       <c r="G95" t="n">
-        <v>9288.18803855428</v>
+        <v>1956.15712207952</v>
       </c>
       <c r="H95" t="n">
-        <v>2345.42785272076</v>
+        <v>515.138605029998</v>
       </c>
       <c r="I95" t="n">
-        <v>390490.502186421</v>
+        <v>373792.671435735</v>
       </c>
       <c r="J95" t="n">
-        <v>1422474.31306495</v>
+        <v>1422474.4753493</v>
       </c>
       <c r="K95" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
     </row>
     <row r="96">
@@ -6922,31 +7226,31 @@
         <v>32.3054377650078</v>
       </c>
       <c r="C96" t="n">
-        <v>4305.82668416156</v>
+        <v>-3860.06968725799</v>
       </c>
       <c r="D96" t="n">
-        <v>385102.887910819</v>
+        <v>370566.953705593</v>
       </c>
       <c r="E96" t="n">
-        <v>1413186.06641855</v>
+        <v>1420518.09733502</v>
       </c>
       <c r="F96" t="n">
         <v>1422474.2544571</v>
       </c>
       <c r="G96" t="n">
-        <v>9288.18803855428</v>
+        <v>1956.15712207952</v>
       </c>
       <c r="H96" t="n">
-        <v>2251.9630882394</v>
+        <v>410.962199182226</v>
       </c>
       <c r="I96" t="n">
-        <v>387354.850999058</v>
+        <v>370977.915904775</v>
       </c>
       <c r="J96" t="n">
-        <v>1422474.31306495</v>
+        <v>1422474.4753493</v>
       </c>
       <c r="K96" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="97">
@@ -6957,31 +7261,31 @@
         <v>35.061560735745</v>
       </c>
       <c r="C97" t="n">
-        <v>4305.82668416156</v>
+        <v>-3860.06968725799</v>
       </c>
       <c r="D97" t="n">
-        <v>410308.519041381</v>
+        <v>393025.096659591</v>
       </c>
       <c r="E97" t="n">
-        <v>1413186.06641855</v>
+        <v>1420518.09733502</v>
       </c>
       <c r="F97" t="n">
         <v>1422474.2544571</v>
       </c>
       <c r="G97" t="n">
-        <v>9288.18803855428</v>
+        <v>1956.15712207952</v>
       </c>
       <c r="H97" t="n">
-        <v>2205.23070599872</v>
+        <v>358.873996258339</v>
       </c>
       <c r="I97" t="n">
-        <v>412513.749747379</v>
+        <v>393383.970655849</v>
       </c>
       <c r="J97" t="n">
-        <v>1422474.31306495</v>
+        <v>1422474.4753493</v>
       </c>
       <c r="K97" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -7003,13 +7307,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="2">
@@ -7017,13 +7321,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>137904.651697294</v>
+        <v>144070.051878395</v>
       </c>
       <c r="C2" t="n">
         <v>6.91374284145568</v>
       </c>
       <c r="D2" t="n">
-        <v>-18356.832723272</v>
+        <v>-10516.1717669809</v>
       </c>
     </row>
     <row r="3">
@@ -7031,13 +7335,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>210458.465107746</v>
+        <v>208788.190030665</v>
       </c>
       <c r="C3" t="n">
         <v>14.7435123952797</v>
       </c>
       <c r="D3" t="n">
-        <v>-18356.832723272</v>
+        <v>-10516.1717669809</v>
       </c>
     </row>
     <row r="4">
@@ -7045,13 +7349,13 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>210980.331165222</v>
+        <v>209398.980176265</v>
       </c>
       <c r="C4" t="n">
         <v>14.5932455743463</v>
       </c>
       <c r="D4" t="n">
-        <v>-18356.832723272</v>
+        <v>-10516.1717669809</v>
       </c>
     </row>
     <row r="5">
@@ -7059,13 +7363,13 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>225210.557536985</v>
+        <v>222296.783421923</v>
       </c>
       <c r="C5" t="n">
         <v>15.8382613403494</v>
       </c>
       <c r="D5" t="n">
-        <v>-18356.832723272</v>
+        <v>-10516.1717669809</v>
       </c>
     </row>
     <row r="6">
@@ -7073,13 +7377,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>146427.772731044</v>
+        <v>152389.861774519</v>
       </c>
       <c r="C6" t="n">
         <v>7.34538835814276</v>
       </c>
       <c r="D6" t="n">
-        <v>-47558.6010567821</v>
+        <v>-70328.1794847418</v>
       </c>
     </row>
     <row r="7">
@@ -7087,13 +7391,13 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>225062.87397184</v>
+        <v>222886.719320104</v>
       </c>
       <c r="C7" t="n">
         <v>15.6639936991956</v>
       </c>
       <c r="D7" t="n">
-        <v>-47558.6010567821</v>
+        <v>-70328.1794847418</v>
       </c>
     </row>
     <row r="8">
@@ -7101,13 +7405,13 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>224928.187921888</v>
+        <v>223341.525184065</v>
       </c>
       <c r="C8" t="n">
         <v>15.5043452739634</v>
       </c>
       <c r="D8" t="n">
-        <v>-47558.6010567821</v>
+        <v>-70328.1794847418</v>
       </c>
     </row>
     <row r="9">
@@ -7115,13 +7419,13 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>237117.044519112</v>
+        <v>234918.167519198</v>
       </c>
       <c r="C9" t="n">
         <v>16.8270910750464</v>
       </c>
       <c r="D9" t="n">
-        <v>-47558.6010567821</v>
+        <v>-70328.1794847418</v>
       </c>
     </row>
     <row r="10">
@@ -7129,13 +7433,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>157644.106979093</v>
+        <v>163730.458154796</v>
       </c>
       <c r="C10" t="n">
         <v>7.90851409026556</v>
       </c>
       <c r="D10" t="n">
-        <v>-28317.7789249427</v>
+        <v>-47845.4896261089</v>
       </c>
     </row>
     <row r="11">
@@ -7143,13 +7447,13 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>239530.22606285</v>
+        <v>237432.942450792</v>
       </c>
       <c r="C11" t="n">
         <v>16.8648557216982</v>
       </c>
       <c r="D11" t="n">
-        <v>-28317.7789249427</v>
+        <v>-47845.4896261089</v>
       </c>
     </row>
     <row r="12">
@@ -7157,13 +7461,13 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>239054.754252615</v>
+        <v>237635.682740371</v>
       </c>
       <c r="C12" t="n">
         <v>16.6929680339577</v>
       </c>
       <c r="D12" t="n">
-        <v>-28317.7789249427</v>
+        <v>-47845.4896261089</v>
       </c>
     </row>
     <row r="13">
@@ -7171,13 +7475,13 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>254294.586631093</v>
+        <v>251724.903111406</v>
       </c>
       <c r="C13" t="n">
         <v>18.1171206172731</v>
       </c>
       <c r="D13" t="n">
-        <v>-28317.7789249427</v>
+        <v>-47845.4896261089</v>
       </c>
     </row>
     <row r="14">
@@ -7185,13 +7489,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>168442.191395976</v>
+        <v>174542.705386483</v>
       </c>
       <c r="C14" t="n">
         <v>8.03089358708293</v>
       </c>
       <c r="D14" t="n">
-        <v>-10130.3321290282</v>
+        <v>-25428.6947505306</v>
       </c>
     </row>
     <row r="15">
@@ -7199,13 +7503,13 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>253771.411533747</v>
+        <v>251207.117717958</v>
       </c>
       <c r="C15" t="n">
         <v>17.1258292160313</v>
       </c>
       <c r="D15" t="n">
-        <v>-10130.3321290282</v>
+        <v>-25428.6947505306</v>
       </c>
     </row>
     <row r="16">
@@ -7213,13 +7517,13 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>253146.833147877</v>
+        <v>251528.513098482</v>
       </c>
       <c r="C16" t="n">
         <v>16.9512816697516</v>
       </c>
       <c r="D16" t="n">
-        <v>-10130.3321290282</v>
+        <v>-25428.6947505306</v>
       </c>
     </row>
     <row r="17">
@@ -7227,13 +7531,13 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>266163.032257417</v>
+        <v>264245.364851448</v>
       </c>
       <c r="C17" t="n">
         <v>18.3974721573495</v>
       </c>
       <c r="D17" t="n">
-        <v>-10130.3321290282</v>
+        <v>-25428.6947505306</v>
       </c>
     </row>
     <row r="18">
@@ -7241,13 +7545,13 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>178275.83200669</v>
+        <v>184108.409770825</v>
       </c>
       <c r="C18" t="n">
         <v>8.15769138428175</v>
       </c>
       <c r="D18" t="n">
-        <v>32437.2718089805</v>
+        <v>18058.0387181134</v>
       </c>
     </row>
     <row r="19">
@@ -7255,13 +7559,13 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>261248.014531531</v>
+        <v>259017.00802054</v>
       </c>
       <c r="C19" t="n">
         <v>17.3962247076723</v>
       </c>
       <c r="D19" t="n">
-        <v>32437.2718089805</v>
+        <v>18058.0387181134</v>
       </c>
     </row>
     <row r="20">
@@ -7269,13 +7573,13 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>257983.235894074</v>
+        <v>256708.336204349</v>
       </c>
       <c r="C20" t="n">
         <v>17.2189212732546</v>
       </c>
       <c r="D20" t="n">
-        <v>32437.2718089805</v>
+        <v>18058.0387181134</v>
       </c>
     </row>
     <row r="21">
@@ -7283,13 +7587,13 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>269648.546298867</v>
+        <v>267321.937504457</v>
       </c>
       <c r="C21" t="n">
         <v>18.6879453056092</v>
       </c>
       <c r="D21" t="n">
-        <v>32437.2718089805</v>
+        <v>18058.0387181134</v>
       </c>
     </row>
     <row r="22">
@@ -7297,13 +7601,13 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>172028.686420871</v>
+        <v>178958.906732234</v>
       </c>
       <c r="C22" t="n">
         <v>7.91060371693345</v>
       </c>
       <c r="D22" t="n">
-        <v>49332.7628211828</v>
+        <v>35905.8428453049</v>
       </c>
     </row>
     <row r="23">
@@ -7311,13 +7615,13 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>252608.02898062</v>
+        <v>250640.866123376</v>
       </c>
       <c r="C23" t="n">
         <v>16.8693118372041</v>
       </c>
       <c r="D23" t="n">
-        <v>49332.7628211828</v>
+        <v>35905.8428453049</v>
       </c>
     </row>
     <row r="24">
@@ -7325,13 +7629,13 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>250229.287658023</v>
+        <v>248453.968560819</v>
       </c>
       <c r="C24" t="n">
         <v>16.6973787324494</v>
       </c>
       <c r="D24" t="n">
-        <v>49332.7628211828</v>
+        <v>35905.8428453049</v>
       </c>
     </row>
     <row r="25">
@@ -7339,13 +7643,13 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>262995.271897589</v>
+        <v>259807.527752331</v>
       </c>
       <c r="C25" t="n">
         <v>18.121907612397</v>
       </c>
       <c r="D25" t="n">
-        <v>49332.7628211828</v>
+        <v>35905.8428453049</v>
       </c>
     </row>
     <row r="26">
@@ -7353,13 +7657,13 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>171658.32026564</v>
+        <v>179255.599612081</v>
       </c>
       <c r="C26" t="n">
         <v>8.32905004555982</v>
       </c>
       <c r="D26" t="n">
-        <v>37063.1289544188</v>
+        <v>21780.4604453159</v>
       </c>
     </row>
     <row r="27">
@@ -7367,13 +7671,13 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>258612.353803947</v>
+        <v>256699.954304759</v>
       </c>
       <c r="C27" t="n">
         <v>17.7616459569909</v>
       </c>
       <c r="D27" t="n">
-        <v>37063.1289544188</v>
+        <v>21780.4604453159</v>
       </c>
     </row>
     <row r="28">
@@ -7381,13 +7685,13 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>258053.838958373</v>
+        <v>256113.798180399</v>
       </c>
       <c r="C28" t="n">
         <v>17.5806181258375</v>
       </c>
       <c r="D28" t="n">
-        <v>37063.1289544188</v>
+        <v>21780.4604453159</v>
       </c>
     </row>
     <row r="29">
@@ -7395,13 +7699,13 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>273274.918618625</v>
+        <v>269530.125732402</v>
       </c>
       <c r="C29" t="n">
         <v>19.0805001521651</v>
       </c>
       <c r="D29" t="n">
-        <v>37063.1289544188</v>
+        <v>21780.4604453159</v>
       </c>
     </row>
     <row r="30">
@@ -7409,13 +7713,13 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>176211.903274739</v>
+        <v>183464.205159856</v>
       </c>
       <c r="C30" t="n">
         <v>8.35164970936554</v>
       </c>
       <c r="D30" t="n">
-        <v>31969.6567779699</v>
+        <v>19829.7236749491</v>
       </c>
     </row>
     <row r="31">
@@ -7423,13 +7727,13 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>264579.699871286</v>
+        <v>262280.415946422</v>
       </c>
       <c r="C31" t="n">
         <v>17.8098395955293</v>
       </c>
       <c r="D31" t="n">
-        <v>31969.6567779699</v>
+        <v>19829.7236749491</v>
       </c>
     </row>
     <row r="32">
@@ -7437,13 +7741,13 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>264747.556123058</v>
+        <v>262794.202935598</v>
       </c>
       <c r="C32" t="n">
         <v>17.6283205717307</v>
       </c>
       <c r="D32" t="n">
-        <v>31969.6567779699</v>
+        <v>19829.7236749491</v>
       </c>
     </row>
     <row r="33">
@@ -7451,13 +7755,13 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>280287.883100443</v>
+        <v>277288.278742688</v>
       </c>
       <c r="C33" t="n">
         <v>19.1322723094129</v>
       </c>
       <c r="D33" t="n">
-        <v>31969.6567779699</v>
+        <v>19829.7236749491</v>
       </c>
     </row>
     <row r="34">
@@ -7465,13 +7769,13 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>187459.19306769</v>
+        <v>193786.650475677</v>
       </c>
       <c r="C34" t="n">
         <v>8.3747406756482</v>
       </c>
       <c r="D34" t="n">
-        <v>54640.1233065934</v>
+        <v>42669.924668303</v>
       </c>
     </row>
     <row r="35">
@@ -7479,13 +7783,13 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>274916.325790939</v>
+        <v>272505.006108267</v>
       </c>
       <c r="C35" t="n">
         <v>17.8590809334579</v>
       </c>
       <c r="D35" t="n">
-        <v>54640.1233065934</v>
+        <v>42669.924668303</v>
       </c>
     </row>
     <row r="36">
@@ -7493,13 +7797,13 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>272946.763621327</v>
+        <v>271407.595865149</v>
       </c>
       <c r="C36" t="n">
         <v>17.677060038795</v>
       </c>
       <c r="D36" t="n">
-        <v>54640.1233065934</v>
+        <v>42669.924668303</v>
       </c>
     </row>
     <row r="37">
@@ -7507,13 +7811,13 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>285409.278663897</v>
+        <v>283032.279198433</v>
       </c>
       <c r="C37" t="n">
         <v>19.1851699607969</v>
       </c>
       <c r="D37" t="n">
-        <v>54640.1233065934</v>
+        <v>42669.924668303</v>
       </c>
     </row>
     <row r="38">
@@ -7521,13 +7825,13 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>187354.417788041</v>
+        <v>193512.468253627</v>
       </c>
       <c r="C38" t="n">
         <v>8.10889675895659</v>
       </c>
       <c r="D38" t="n">
-        <v>87953.5886973867</v>
+        <v>76156.8144443342</v>
       </c>
     </row>
     <row r="39">
@@ -7535,13 +7839,13 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>268079.630874783</v>
+        <v>265732.883183999</v>
       </c>
       <c r="C39" t="n">
         <v>17.2921704812133</v>
       </c>
       <c r="D39" t="n">
-        <v>87953.5886973867</v>
+        <v>76156.8144443342</v>
       </c>
     </row>
     <row r="40">
@@ -7549,13 +7853,13 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>262304.62269585</v>
+        <v>260792.569950788</v>
       </c>
       <c r="C40" t="n">
         <v>17.1159275741241</v>
       </c>
       <c r="D40" t="n">
-        <v>87953.5886973867</v>
+        <v>76156.8144443342</v>
       </c>
     </row>
     <row r="41">
@@ -7563,13 +7867,13 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>270591.320256414</v>
+        <v>268291.908751312</v>
       </c>
       <c r="C41" t="n">
         <v>18.5761647483008</v>
       </c>
       <c r="D41" t="n">
-        <v>87953.5886973867</v>
+        <v>76156.8144443342</v>
       </c>
     </row>
     <row r="42">
@@ -7577,13 +7881,13 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>176263.056609452</v>
+        <v>185204.309283496</v>
       </c>
       <c r="C42" t="n">
         <v>9.17349383450193</v>
       </c>
       <c r="D42" t="n">
-        <v>73869.0420592965</v>
+        <v>60075.6507198405</v>
       </c>
     </row>
     <row r="43">
@@ -7591,13 +7895,13 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>268424.67748508</v>
+        <v>266935.923377896</v>
       </c>
       <c r="C43" t="n">
         <v>19.5624169366016</v>
       </c>
       <c r="D43" t="n">
-        <v>73869.0420592965</v>
+        <v>60075.6507198405</v>
       </c>
     </row>
     <row r="44">
@@ -7605,13 +7909,13 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>266876.49712847</v>
+        <v>264761.633540949</v>
       </c>
       <c r="C44" t="n">
         <v>19.3630355324949</v>
       </c>
       <c r="D44" t="n">
-        <v>73869.0420592965</v>
+        <v>60075.6507198405</v>
       </c>
     </row>
     <row r="45">
@@ -7619,13 +7923,13 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>285382.970161474</v>
+        <v>280045.233114977</v>
       </c>
       <c r="C45" t="n">
         <v>21.014983647314</v>
       </c>
       <c r="D45" t="n">
-        <v>73869.0420592965</v>
+        <v>60075.6507198405</v>
       </c>
     </row>
     <row r="46">
@@ -7633,13 +7937,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>179271.350597717</v>
+        <v>189422.964193448</v>
       </c>
       <c r="C46" t="n">
         <v>9.88790185766271</v>
       </c>
       <c r="D46" t="n">
-        <v>9133.75581556768</v>
+        <v>3336.00619559083</v>
       </c>
     </row>
     <row r="47">
@@ -7647,13 +7951,13 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>286422.395271244</v>
+        <v>283903.065941125</v>
       </c>
       <c r="C47" t="n">
         <v>21.0858874772763</v>
       </c>
       <c r="D47" t="n">
-        <v>9133.75581556768</v>
+        <v>3336.00619559083</v>
       </c>
     </row>
     <row r="48">
@@ -7661,13 +7965,13 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>287418.188640778</v>
+        <v>284424.35006156</v>
       </c>
       <c r="C48" t="n">
         <v>20.8709787640186</v>
       </c>
       <c r="D48" t="n">
-        <v>9133.75581556768</v>
+        <v>3336.00619559083</v>
       </c>
     </row>
     <row r="49">
@@ -7675,13 +7979,13 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>304882.867429517</v>
+        <v>300244.560503921</v>
       </c>
       <c r="C49" t="n">
         <v>22.6515763343628</v>
       </c>
       <c r="D49" t="n">
-        <v>9133.75581556768</v>
+        <v>3336.00619559083</v>
       </c>
     </row>
     <row r="50">
@@ -7689,13 +7993,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>191338.905516333</v>
+        <v>199449.052050065</v>
       </c>
       <c r="C50" t="n">
         <v>10.0845109015617</v>
       </c>
       <c r="D50" t="n">
-        <v>20957.5789232531</v>
+        <v>20525.3809527478</v>
       </c>
     </row>
     <row r="51">
@@ -7703,13 +8007,13 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>294318.464200338</v>
+        <v>291732.42635314</v>
       </c>
       <c r="C51" t="n">
         <v>21.5051550060549</v>
       </c>
       <c r="D51" t="n">
-        <v>20957.5789232531</v>
+        <v>20525.3809527478</v>
       </c>
     </row>
     <row r="52">
@@ -7717,13 +8021,13 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>289982.284613725</v>
+        <v>288042.254771787</v>
       </c>
       <c r="C52" t="n">
         <v>21.2859730913388</v>
       </c>
       <c r="D52" t="n">
-        <v>20957.5789232531</v>
+        <v>20525.3809527478</v>
       </c>
     </row>
     <row r="53">
@@ -7731,13 +8035,13 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>303392.737053117</v>
+        <v>299808.740173722</v>
       </c>
       <c r="C53" t="n">
         <v>23.1019757042202</v>
       </c>
       <c r="D53" t="n">
-        <v>20957.5789232531</v>
+        <v>20525.3809527478</v>
       </c>
     </row>
     <row r="54">
@@ -7745,13 +8049,13 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>176585.416886668</v>
+        <v>185820.718475585</v>
       </c>
       <c r="C54" t="n">
         <v>9.54288129123004</v>
       </c>
       <c r="D54" t="n">
-        <v>28448.4507285729</v>
+        <v>29492.8822829232</v>
       </c>
     </row>
     <row r="55">
@@ -7759,13 +8063,13 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>272232.878436669</v>
+        <v>270324.717005432</v>
       </c>
       <c r="C55" t="n">
         <v>20.350133325802</v>
       </c>
       <c r="D55" t="n">
-        <v>28448.4507285729</v>
+        <v>29492.8822829232</v>
       </c>
     </row>
     <row r="56">
@@ -7773,13 +8077,13 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>268022.639938965</v>
+        <v>265675.919956072</v>
       </c>
       <c r="C56" t="n">
         <v>20.1427234658953</v>
       </c>
       <c r="D56" t="n">
-        <v>28448.4507285729</v>
+        <v>29492.8822829232</v>
       </c>
     </row>
     <row r="57">
@@ -7787,13 +8091,13 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>282300.089225474</v>
+        <v>277319.718641388</v>
       </c>
       <c r="C57" t="n">
         <v>21.8611902838158</v>
       </c>
       <c r="D57" t="n">
-        <v>28448.4507285729</v>
+        <v>29492.8822829232</v>
       </c>
     </row>
     <row r="58">
@@ -7801,13 +8105,13 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>161423.837830434</v>
+        <v>171322.934514187</v>
       </c>
       <c r="C58" t="n">
         <v>9.48743590695721</v>
       </c>
       <c r="D58" t="n">
-        <v>-14123.7425317818</v>
+        <v>-17147.2127295139</v>
       </c>
     </row>
     <row r="59">
@@ -7815,13 +8119,13 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>260457.529030491</v>
+        <v>258550.325081337</v>
       </c>
       <c r="C59" t="n">
         <v>20.2318963984194</v>
       </c>
       <c r="D59" t="n">
-        <v>-14123.7425317818</v>
+        <v>-17147.2127295139</v>
       </c>
     </row>
     <row r="60">
@@ -7829,13 +8133,13 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>260679.56410977</v>
+        <v>257982.731624422</v>
       </c>
       <c r="C60" t="n">
         <v>20.0256916168358</v>
       </c>
       <c r="D60" t="n">
-        <v>-14123.7425317818</v>
+        <v>-17147.2127295139</v>
       </c>
     </row>
     <row r="61">
@@ -7843,13 +8147,13 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>279747.728769869</v>
+        <v>274452.893988365</v>
       </c>
       <c r="C61" t="n">
         <v>21.7341739185319</v>
       </c>
       <c r="D61" t="n">
-        <v>-14123.7425317818</v>
+        <v>-17147.2127295139</v>
       </c>
     </row>
     <row r="62">
@@ -7857,13 +8161,13 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>165259.089142294</v>
+        <v>174666.39995021</v>
       </c>
       <c r="C62" t="n">
         <v>9.29907793917559</v>
       </c>
       <c r="D62" t="n">
-        <v>-47135.7388887051</v>
+        <v>-50575.6308837798</v>
       </c>
     </row>
     <row r="63">
@@ -7871,13 +8175,13 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>261643.283682777</v>
+        <v>259747.81189994</v>
       </c>
       <c r="C63" t="n">
         <v>19.8302242366944</v>
       </c>
       <c r="D63" t="n">
-        <v>-47135.7388887051</v>
+        <v>-50575.6308837798</v>
       </c>
     </row>
     <row r="64">
@@ -7885,13 +8189,13 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>255162.617802525</v>
+        <v>252653.921921392</v>
       </c>
       <c r="C64" t="n">
         <v>19.6281133234634</v>
       </c>
       <c r="D64" t="n">
-        <v>-47135.7388887051</v>
+        <v>-50575.6308837798</v>
       </c>
     </row>
     <row r="65">
@@ -7899,13 +8203,13 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>261138.968784276</v>
+        <v>256136.182351694</v>
       </c>
       <c r="C65" t="n">
         <v>21.3026764232282</v>
       </c>
       <c r="D65" t="n">
-        <v>-47135.7388887051</v>
+        <v>-50575.6308837798</v>
       </c>
     </row>
     <row r="66">
@@ -7913,13 +8217,13 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>155359.695516129</v>
+        <v>159886.946523207</v>
       </c>
       <c r="C66" t="n">
         <v>11.3843382942371</v>
       </c>
       <c r="D66" t="n">
-        <v>-53262.1905949309</v>
+        <v>-58116.7425209654</v>
       </c>
     </row>
     <row r="67">
@@ -7927,13 +8231,13 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>267749.750914668</v>
+        <v>261290.626366169</v>
       </c>
       <c r="C67" t="n">
         <v>24.2770286084002</v>
       </c>
       <c r="D67" t="n">
-        <v>-53262.1905949309</v>
+        <v>-58116.7425209654</v>
       </c>
     </row>
     <row r="68">
@@ -7941,13 +8245,13 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>268495.244722301</v>
+        <v>266849.468965783</v>
       </c>
       <c r="C68" t="n">
         <v>24.0295955807141</v>
       </c>
       <c r="D68" t="n">
-        <v>-53262.1905949309</v>
+        <v>-58116.7425209654</v>
       </c>
     </row>
     <row r="69">
@@ -7955,13 +8259,13 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>298778.267496876</v>
+        <v>302356.300372254</v>
       </c>
       <c r="C69" t="n">
         <v>26.07966903396</v>
       </c>
       <c r="D69" t="n">
-        <v>-53262.1905949309</v>
+        <v>-58116.7425209654</v>
       </c>
     </row>
     <row r="70">
@@ -7969,13 +8273,13 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>185414.786035655</v>
+        <v>222035.480344031</v>
       </c>
       <c r="C70" t="n">
         <v>13.2626934505632</v>
       </c>
       <c r="D70" t="n">
-        <v>-149761.116850893</v>
+        <v>-138954.349509857</v>
       </c>
     </row>
     <row r="71">
@@ -7983,13 +8287,13 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>335908.386661558</v>
+        <v>327724.767938552</v>
       </c>
       <c r="C71" t="n">
-        <v>28.2826089669835</v>
+        <v>24.0759496264013</v>
       </c>
       <c r="D71" t="n">
-        <v>-149761.116850893</v>
+        <v>-138954.349509857</v>
       </c>
     </row>
     <row r="72">
@@ -7997,13 +8301,13 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>339474.921851703</v>
+        <v>330753.841613425</v>
       </c>
       <c r="C72" t="n">
-        <v>27.994350808193</v>
+        <v>23.8184671080725</v>
       </c>
       <c r="D72" t="n">
-        <v>-149761.116850893</v>
+        <v>-138954.349509857</v>
       </c>
     </row>
     <row r="73">
@@ -8011,13 +8315,13 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>360590.774807588</v>
+        <v>340875.515010263</v>
       </c>
       <c r="C73" t="n">
-        <v>30.3826754572683</v>
+        <v>25.9594027800218</v>
       </c>
       <c r="D73" t="n">
-        <v>-149761.116850893</v>
+        <v>-138954.349509857</v>
       </c>
     </row>
     <row r="74">
@@ -8025,13 +8329,13 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>213525.102703385</v>
+        <v>233816.309418939</v>
       </c>
       <c r="C74" t="n">
         <v>13.2730027666164</v>
       </c>
       <c r="D74" t="n">
-        <v>-48176.8286234145</v>
+        <v>81084.9075791896</v>
       </c>
     </row>
     <row r="75">
@@ -8039,13 +8343,13 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>345206.809572978</v>
+        <v>342225.386653932</v>
       </c>
       <c r="C75" t="n">
         <v>28.3045935175379</v>
       </c>
       <c r="D75" t="n">
-        <v>-48176.8286234145</v>
+        <v>81084.9075791896</v>
       </c>
     </row>
     <row r="76">
@@ -8053,13 +8357,13 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>338649.532485486</v>
+        <v>331498.832423593</v>
       </c>
       <c r="C76" t="n">
         <v>28.0161112908025</v>
       </c>
       <c r="D76" t="n">
-        <v>-48176.8286234145</v>
+        <v>81084.9075791896</v>
       </c>
     </row>
     <row r="77">
@@ -8067,13 +8371,13 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>358457.504918373</v>
+        <v>348298.532999351</v>
       </c>
       <c r="C77" t="n">
         <v>30.4062924250432</v>
       </c>
       <c r="D77" t="n">
-        <v>-48176.8286234145</v>
+        <v>81084.9075791896</v>
       </c>
     </row>
     <row r="78">
@@ -8081,13 +8385,13 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>206371.264865415</v>
+        <v>240511.496585009</v>
       </c>
       <c r="C78" t="n">
-        <v>13.1766760789473</v>
+        <v>17.4403523978716</v>
       </c>
       <c r="D78" t="n">
-        <v>-14437.2883160992</v>
+        <v>10554.2676142897</v>
       </c>
     </row>
     <row r="79">
@@ -8095,13 +8399,13 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>343883.20653244</v>
+        <v>331096.397716355</v>
       </c>
       <c r="C79" t="n">
         <v>28.0991774721029</v>
       </c>
       <c r="D79" t="n">
-        <v>-14437.2883160992</v>
+        <v>10554.2676142897</v>
       </c>
     </row>
     <row r="80">
@@ -8109,13 +8413,13 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>343528.81459342</v>
+        <v>333203.964484786</v>
       </c>
       <c r="C80" t="n">
         <v>27.8127888588355</v>
       </c>
       <c r="D80" t="n">
-        <v>-14437.2883160992</v>
+        <v>10554.2676142897</v>
       </c>
     </row>
     <row r="81">
@@ -8123,13 +8427,13 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>368717.733715283</v>
+        <v>357689.335058026</v>
       </c>
       <c r="C81" t="n">
         <v>30.1856236370452</v>
       </c>
       <c r="D81" t="n">
-        <v>-14437.2883160992</v>
+        <v>10554.2676142897</v>
       </c>
     </row>
     <row r="82">
@@ -8137,13 +8441,13 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>228022.523168413</v>
+        <v>264481.335971129</v>
       </c>
       <c r="C82" t="n">
-        <v>14.0416909611662</v>
+        <v>18.2266947568816</v>
       </c>
       <c r="D82" t="n">
-        <v>-1138.21786815394</v>
+        <v>-11612.4952018086</v>
       </c>
     </row>
     <row r="83">
@@ -8151,13 +8455,13 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>375058.186400744</v>
+        <v>362616.076745539</v>
       </c>
       <c r="C83" t="n">
         <v>29.9438161765722</v>
       </c>
       <c r="D83" t="n">
-        <v>-1138.21786815394</v>
+        <v>-11612.4952018086</v>
       </c>
     </row>
     <row r="84">
@@ -8165,13 +8469,13 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>370765.918415813</v>
+        <v>359586.19615684</v>
       </c>
       <c r="C84" t="n">
         <v>29.6386268876951</v>
       </c>
       <c r="D84" t="n">
-        <v>-1138.21786815394</v>
+        <v>-11612.4952018086</v>
       </c>
     </row>
     <row r="85">
@@ -8179,13 +8483,13 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>389282.78661509</v>
+        <v>376445.993857164</v>
       </c>
       <c r="C85" t="n">
         <v>32.1672321640108</v>
       </c>
       <c r="D85" t="n">
-        <v>-1138.21786815394</v>
+        <v>-11612.4952018086</v>
       </c>
     </row>
     <row r="86">
@@ -8193,13 +8497,13 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>226300.139694211</v>
+        <v>270810.593522227</v>
       </c>
       <c r="C86" t="n">
-        <v>14.4358673926222</v>
+        <v>19.6235587185574</v>
       </c>
       <c r="D86" t="n">
-        <v>39889.1722616856</v>
+        <v>36552.6368099025</v>
       </c>
     </row>
     <row r="87">
@@ -8207,13 +8511,13 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>371019.148629756</v>
+        <v>357231.357342384</v>
       </c>
       <c r="C87" t="n">
         <v>30.7843948958517</v>
       </c>
       <c r="D87" t="n">
-        <v>39889.1722616856</v>
+        <v>36552.6368099025</v>
       </c>
     </row>
     <row r="88">
@@ -8221,13 +8525,13 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>366277.543574462</v>
+        <v>352574.915761034</v>
       </c>
       <c r="C88" t="n">
         <v>30.4706383749268</v>
       </c>
       <c r="D88" t="n">
-        <v>39889.1722616856</v>
+        <v>36552.6368099025</v>
       </c>
     </row>
     <row r="89">
@@ -8235,13 +8539,13 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>391100.743909797</v>
+        <v>374080.721780701</v>
       </c>
       <c r="C89" t="n">
         <v>33.0702263133118</v>
       </c>
       <c r="D89" t="n">
-        <v>39889.1722616856</v>
+        <v>36552.6368099025</v>
       </c>
     </row>
     <row r="90">
@@ -8249,13 +8553,13 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>223888.636412297</v>
+        <v>272818.872038453</v>
       </c>
       <c r="C90" t="n">
-        <v>15.0058648745639</v>
+        <v>20.6722263536177</v>
       </c>
       <c r="D90" t="n">
-        <v>4297.83063390013</v>
+        <v>-4248.60197924962</v>
       </c>
     </row>
     <row r="91">
@@ -8263,13 +8567,13 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>382235.770440923</v>
+        <v>367129.537771443</v>
       </c>
       <c r="C91" t="n">
         <v>31.9999108808974</v>
       </c>
       <c r="D91" t="n">
-        <v>4297.83063390013</v>
+        <v>-4248.60197924962</v>
       </c>
     </row>
     <row r="92">
@@ -8277,13 +8581,13 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>381144.836283198</v>
+        <v>365740.86959037</v>
       </c>
       <c r="C92" t="n">
         <v>31.6737657433411</v>
       </c>
       <c r="D92" t="n">
-        <v>4297.83063390013</v>
+        <v>-4248.60197924962</v>
       </c>
     </row>
     <row r="93">
@@ -8291,13 +8595,13 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>406710.037999449</v>
+        <v>388290.164765611</v>
       </c>
       <c r="C93" t="n">
         <v>34.3759979176882</v>
       </c>
       <c r="D93" t="n">
-        <v>4297.83063390013</v>
+        <v>-4248.60197924962</v>
       </c>
     </row>
     <row r="94">
@@ -8305,13 +8609,13 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>232115.210132092</v>
+        <v>284319.917352936</v>
       </c>
       <c r="C94" t="n">
-        <v>15.3051278380834</v>
+        <v>21.6385759340697</v>
       </c>
       <c r="D94" t="n">
-        <v>4305.82668416156</v>
+        <v>-3860.06968725799</v>
       </c>
     </row>
     <row r="95">
@@ -8319,13 +8623,13 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>390490.502186421</v>
+        <v>373792.671435735</v>
       </c>
       <c r="C95" t="n">
         <v>32.638087236784</v>
       </c>
       <c r="D95" t="n">
-        <v>4305.82668416156</v>
+        <v>-3860.06968725799</v>
       </c>
     </row>
     <row r="96">
@@ -8333,13 +8637,13 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>387354.850999058</v>
+        <v>370977.915904775</v>
       </c>
       <c r="C96" t="n">
         <v>32.3054377650078</v>
       </c>
       <c r="D96" t="n">
-        <v>4305.82668416156</v>
+        <v>-3860.06968725799</v>
       </c>
     </row>
     <row r="97">
@@ -8347,13 +8651,13 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>412513.749747379</v>
+        <v>393383.970655849</v>
       </c>
       <c r="C97" t="n">
         <v>35.061560735745</v>
       </c>
       <c r="D97" t="n">
-        <v>4305.82668416156</v>
+        <v>-3860.06968725799</v>
       </c>
     </row>
     <row r="98">
@@ -8361,13 +8665,13 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>234396.468125104</v>
+        <v>291135.879802468</v>
       </c>
       <c r="C98" t="n">
-        <v>15.6817235804303</v>
+        <v>22.5142039474584</v>
       </c>
       <c r="D98" t="n">
-        <v>12181.1381494757</v>
+        <v>239.642879495883</v>
       </c>
     </row>
     <row r="99">
@@ -8375,13 +8679,13 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>391860.646293949</v>
+        <v>382258.464724658</v>
       </c>
       <c r="C99" t="n">
-        <v>32.8997268223006</v>
+        <v>33.6974814869907</v>
       </c>
       <c r="D99" t="n">
-        <v>12181.1381494757</v>
+        <v>226.498440817057</v>
       </c>
     </row>
     <row r="100">
@@ -8389,13 +8693,13 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>389883.368805051</v>
+        <v>379569.874791264</v>
       </c>
       <c r="C100" t="n">
-        <v>32.6835203770644</v>
+        <v>33.3684742289392</v>
       </c>
       <c r="D100" t="n">
-        <v>12181.1381494757</v>
+        <v>200.209563459406</v>
       </c>
     </row>
     <row r="101">
@@ -8403,13 +8707,13 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>416148.750656336</v>
+        <v>401770.587365877</v>
       </c>
       <c r="C101" t="n">
-        <v>35.5555223468043</v>
+        <v>36.0944201221136</v>
       </c>
       <c r="D101" t="n">
-        <v>12181.1381494757</v>
+        <v>160.776247422929</v>
       </c>
     </row>
     <row r="102">
@@ -8417,13 +8721,13 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>239403.510009609</v>
+        <v>298646.39928827</v>
       </c>
       <c r="C102" t="n">
-        <v>16.2292212043479</v>
+        <v>23.4406330613926</v>
       </c>
       <c r="D102" t="n">
-        <v>12181.1381494757</v>
+        <v>108.198492707626</v>
       </c>
     </row>
     <row r="103">
@@ -8431,13 +8735,13 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>396323.291318412</v>
+        <v>388922.593822538</v>
       </c>
       <c r="C103" t="n">
-        <v>33.3876970857095</v>
+        <v>34.5210075385591</v>
       </c>
       <c r="D103" t="n">
-        <v>12181.1381494757</v>
+        <v>68.0805968014505</v>
       </c>
     </row>
     <row r="104">
@@ -8445,13 +8749,13 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>394760.514973496</v>
+        <v>386216.984486717</v>
       </c>
       <c r="C104" t="n">
-        <v>33.2168144857049</v>
+        <v>34.1899607603402</v>
       </c>
       <c r="D104" t="n">
-        <v>12181.1381494757</v>
+        <v>40.4225597044029</v>
       </c>
     </row>
     <row r="105">
@@ -8459,13 +8763,13 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>421413.846860226</v>
+        <v>408562.47958284</v>
       </c>
       <c r="C105" t="n">
-        <v>36.1312370557721</v>
+        <v>36.932804826695</v>
       </c>
       <c r="D105" t="n">
-        <v>12181.1381494757</v>
+        <v>25.2243814164829</v>
       </c>
     </row>
     <row r="106">
@@ -8473,13 +8777,13 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>244668.606213499</v>
+        <v>305938.496217394</v>
       </c>
       <c r="C106" t="n">
-        <v>16.8049359133157</v>
+        <v>24.3386152260492</v>
       </c>
       <c r="D106" t="n">
-        <v>12181.1381494757</v>
+        <v>22.4860619376905</v>
       </c>
     </row>
     <row r="107">
@@ -8487,13 +8791,13 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>401588.387522303</v>
+        <v>396695.076357436</v>
       </c>
       <c r="C107" t="n">
-        <v>33.9634117946774</v>
+        <v>35.4766120413971</v>
       </c>
       <c r="D107" t="n">
-        <v>12181.1381494757</v>
+        <v>19.4723926101747</v>
       </c>
     </row>
     <row r="108">
@@ -8501,13 +8805,13 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>400025.611177386</v>
+        <v>394005.900764023</v>
       </c>
       <c r="C108" t="n">
-        <v>33.7925291946728</v>
+        <v>35.1467073275456</v>
       </c>
       <c r="D108" t="n">
-        <v>12181.1381494757</v>
+        <v>16.1833734339354</v>
       </c>
     </row>
     <row r="109">
@@ -8515,13 +8819,13 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>426678.943064117</v>
+        <v>416277.694507519</v>
       </c>
       <c r="C109" t="n">
-        <v>36.70695176474</v>
+        <v>37.8800889714295</v>
       </c>
       <c r="D109" t="n">
-        <v>12181.1381494757</v>
+        <v>12.6190044089727</v>
       </c>
     </row>
     <row r="110">
@@ -8529,13 +8833,13 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>249933.702417389</v>
+        <v>313381.453698659</v>
       </c>
       <c r="C110" t="n">
-        <v>17.3806506222836</v>
+        <v>25.2525267488203</v>
       </c>
       <c r="D110" t="n">
-        <v>12181.1381494757</v>
+        <v>8.77928553528641</v>
       </c>
     </row>
     <row r="111">
@@ -8543,13 +8847,13 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>406853.483726193</v>
+        <v>403875.121217859</v>
       </c>
       <c r="C111" t="n">
-        <v>34.5391265036453</v>
+        <v>36.3582569456521</v>
       </c>
       <c r="D111" t="n">
-        <v>12181.1381494757</v>
+        <v>5.80136407339829</v>
       </c>
     </row>
     <row r="112">
@@ -8557,13 +8861,13 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>405290.707381276</v>
+        <v>401181.077595959</v>
       </c>
       <c r="C112" t="n">
-        <v>34.3682439036406</v>
+        <v>36.0277127132315</v>
       </c>
       <c r="D112" t="n">
-        <v>12181.1381494757</v>
+        <v>3.68524002330824</v>
       </c>
     </row>
     <row r="113">
@@ -8571,13 +8875,13 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>431944.039268007</v>
+        <v>423496.722779779</v>
       </c>
       <c r="C113" t="n">
-        <v>37.2826664737079</v>
+        <v>38.7663930031916</v>
       </c>
       <c r="D113" t="n">
-        <v>12181.1381494757</v>
+        <v>2.43091338501628</v>
       </c>
     </row>
     <row r="114">
@@ -8585,13 +8889,13 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>255198.79862128</v>
+        <v>320753.765079861</v>
       </c>
       <c r="C114" t="n">
-        <v>17.9563653312515</v>
+        <v>26.157518353766</v>
       </c>
       <c r="D114" t="n">
-        <v>12181.1381494757</v>
+        <v>2.03838415852248</v>
       </c>
     </row>
     <row r="115">
@@ -8599,13 +8903,13 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>412118.579930083</v>
+        <v>411395.424559846</v>
       </c>
       <c r="C115" t="n">
-        <v>35.1148412126131</v>
+        <v>37.2813167981442</v>
       </c>
       <c r="D115" t="n">
-        <v>12181.1381494757</v>
+        <v>1.67137863516252</v>
       </c>
     </row>
     <row r="116">
@@ -8613,13 +8917,13 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>410555.803585167</v>
+        <v>408704.818040529</v>
       </c>
       <c r="C116" t="n">
-        <v>34.9439586126085</v>
+        <v>36.9511306751366</v>
       </c>
       <c r="D116" t="n">
-        <v>12181.1381494757</v>
+        <v>1.32989681493645</v>
       </c>
     </row>
     <row r="117">
@@ -8627,13 +8931,237 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>437209.135471897</v>
+        <v>430996.560668951</v>
       </c>
       <c r="C117" t="n">
-        <v>37.8583811826757</v>
+        <v>39.686843897168</v>
       </c>
       <c r="D117" t="n">
-        <v>12181.1381494757</v>
+        <v>1.01393869784427</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>328168.363916022</v>
+      </c>
+      <c r="C118" t="n">
+        <v>27.0675048199886</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.723504283885989</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>418727.620889269</v>
+      </c>
+      <c r="C119" t="n">
+        <v>38.1811856386467</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.494990220590794</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>416035.431517199</v>
+      </c>
+      <c r="C120" t="n">
+        <v>37.8507989861191</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.328396507958687</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>438340.774281125</v>
+      </c>
+      <c r="C121" t="n">
+        <v>40.5881736688269</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.223723145989645</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>335560.39776655</v>
+      </c>
+      <c r="C122" t="n">
+        <v>27.9746943278014</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.180970134683712</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>426165.875933237</v>
+      </c>
+      <c r="C123" t="n">
+        <v>39.094040684855</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.143269487611365</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>423474.640728372</v>
+      </c>
+      <c r="C124" t="n">
+        <v>38.7637663222782</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.110621204772571</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>445772.425012224</v>
+      </c>
+      <c r="C125" t="n">
+        <v>41.5002106415277</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.0830252861673131</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>342965.317210823</v>
+      </c>
+      <c r="C126" t="n">
+        <v>28.8834500405421</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.0604817317956403</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>433544.950022166</v>
+      </c>
+      <c r="C127" t="n">
+        <v>39.9996238820078</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.0424192442132485</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>430853.208030026</v>
+      </c>
+      <c r="C128" t="n">
+        <v>39.6692866407433</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.0288378234201536</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>453155.242848542</v>
+      </c>
+      <c r="C129" t="n">
+        <v>42.4062519329998</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.0197374694163477</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>350363.112243239</v>
+      </c>
+      <c r="C130" t="n">
+        <v>29.791328729918</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.0151181822018378</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>440957.22509166</v>
+      </c>
+      <c r="C131" t="n">
+        <v>40.9092790760074</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.0116537167909518</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>438265.773303499</v>
+      </c>
+      <c r="C132" t="n">
+        <v>40.5789770447447</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.0093440731836969</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>460565.433315356</v>
+      </c>
+      <c r="C133" t="n">
+        <v>43.3156506092129</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.00818925138006943</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +9183,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
@@ -8663,7 +9191,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>137904.651697294</v>
+        <v>144070.051878395</v>
       </c>
     </row>
     <row r="3">
@@ -8671,7 +9199,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="n">
-        <v>210458.465107746</v>
+        <v>208788.190030665</v>
       </c>
     </row>
     <row r="4">
@@ -8679,7 +9207,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="n">
-        <v>210980.331165222</v>
+        <v>209398.980176265</v>
       </c>
     </row>
     <row r="5">
@@ -8687,7 +9215,7 @@
         <v>34</v>
       </c>
       <c r="B5" t="n">
-        <v>225210.557536985</v>
+        <v>222296.783421923</v>
       </c>
     </row>
     <row r="6">
@@ -8695,7 +9223,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>146427.772731044</v>
+        <v>152389.861774519</v>
       </c>
     </row>
     <row r="7">
@@ -8703,7 +9231,7 @@
         <v>35</v>
       </c>
       <c r="B7" t="n">
-        <v>225062.87397184</v>
+        <v>222886.719320104</v>
       </c>
     </row>
     <row r="8">
@@ -8711,7 +9239,7 @@
         <v>36</v>
       </c>
       <c r="B8" t="n">
-        <v>224928.187921888</v>
+        <v>223341.525184065</v>
       </c>
     </row>
     <row r="9">
@@ -8719,7 +9247,7 @@
         <v>37</v>
       </c>
       <c r="B9" t="n">
-        <v>237117.044519112</v>
+        <v>234918.167519198</v>
       </c>
     </row>
     <row r="10">
@@ -8727,7 +9255,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>157644.106979093</v>
+        <v>163730.458154796</v>
       </c>
     </row>
     <row r="11">
@@ -8735,7 +9263,7 @@
         <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>239530.22606285</v>
+        <v>237432.942450792</v>
       </c>
     </row>
     <row r="12">
@@ -8743,7 +9271,7 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>239054.754252615</v>
+        <v>237635.682740371</v>
       </c>
     </row>
     <row r="13">
@@ -8751,7 +9279,7 @@
         <v>40</v>
       </c>
       <c r="B13" t="n">
-        <v>254294.586631093</v>
+        <v>251724.903111406</v>
       </c>
     </row>
     <row r="14">
@@ -8759,7 +9287,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="n">
-        <v>168442.191395976</v>
+        <v>174542.705386483</v>
       </c>
     </row>
     <row r="15">
@@ -8767,7 +9295,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="n">
-        <v>253771.411533747</v>
+        <v>251207.117717958</v>
       </c>
     </row>
     <row r="16">
@@ -8775,7 +9303,7 @@
         <v>42</v>
       </c>
       <c r="B16" t="n">
-        <v>253146.833147877</v>
+        <v>251528.513098482</v>
       </c>
     </row>
     <row r="17">
@@ -8783,7 +9311,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="n">
-        <v>266163.032257417</v>
+        <v>264245.364851448</v>
       </c>
     </row>
     <row r="18">
@@ -8791,7 +9319,7 @@
         <v>7</v>
       </c>
       <c r="B18" t="n">
-        <v>178275.83200669</v>
+        <v>184108.409770825</v>
       </c>
     </row>
     <row r="19">
@@ -8799,7 +9327,7 @@
         <v>44</v>
       </c>
       <c r="B19" t="n">
-        <v>261248.014531531</v>
+        <v>259017.00802054</v>
       </c>
     </row>
     <row r="20">
@@ -8807,7 +9335,7 @@
         <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>257983.235894074</v>
+        <v>256708.336204349</v>
       </c>
     </row>
     <row r="21">
@@ -8815,7 +9343,7 @@
         <v>46</v>
       </c>
       <c r="B21" t="n">
-        <v>269648.546298867</v>
+        <v>267321.937504457</v>
       </c>
     </row>
     <row r="22">
@@ -8823,7 +9351,7 @@
         <v>8</v>
       </c>
       <c r="B22" t="n">
-        <v>172028.686420871</v>
+        <v>178958.906732234</v>
       </c>
     </row>
     <row r="23">
@@ -8831,7 +9359,7 @@
         <v>47</v>
       </c>
       <c r="B23" t="n">
-        <v>252608.02898062</v>
+        <v>250640.866123376</v>
       </c>
     </row>
     <row r="24">
@@ -8839,7 +9367,7 @@
         <v>48</v>
       </c>
       <c r="B24" t="n">
-        <v>250229.287658023</v>
+        <v>248453.968560819</v>
       </c>
     </row>
     <row r="25">
@@ -8847,7 +9375,7 @@
         <v>49</v>
       </c>
       <c r="B25" t="n">
-        <v>262995.271897589</v>
+        <v>259807.527752331</v>
       </c>
     </row>
     <row r="26">
@@ -8855,7 +9383,7 @@
         <v>9</v>
       </c>
       <c r="B26" t="n">
-        <v>171658.32026564</v>
+        <v>179255.599612081</v>
       </c>
     </row>
     <row r="27">
@@ -8863,7 +9391,7 @@
         <v>50</v>
       </c>
       <c r="B27" t="n">
-        <v>258612.353803947</v>
+        <v>256699.954304759</v>
       </c>
     </row>
     <row r="28">
@@ -8871,7 +9399,7 @@
         <v>51</v>
       </c>
       <c r="B28" t="n">
-        <v>258053.838958373</v>
+        <v>256113.798180399</v>
       </c>
     </row>
     <row r="29">
@@ -8879,7 +9407,7 @@
         <v>52</v>
       </c>
       <c r="B29" t="n">
-        <v>273274.918618625</v>
+        <v>269530.125732402</v>
       </c>
     </row>
     <row r="30">
@@ -8887,7 +9415,7 @@
         <v>10</v>
       </c>
       <c r="B30" t="n">
-        <v>176211.903274739</v>
+        <v>183464.205159856</v>
       </c>
     </row>
     <row r="31">
@@ -8895,7 +9423,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>264579.699871286</v>
+        <v>262280.415946422</v>
       </c>
     </row>
     <row r="32">
@@ -8903,7 +9431,7 @@
         <v>54</v>
       </c>
       <c r="B32" t="n">
-        <v>264747.556123058</v>
+        <v>262794.202935598</v>
       </c>
     </row>
     <row r="33">
@@ -8911,7 +9439,7 @@
         <v>55</v>
       </c>
       <c r="B33" t="n">
-        <v>280287.883100443</v>
+        <v>277288.278742688</v>
       </c>
     </row>
     <row r="34">
@@ -8919,7 +9447,7 @@
         <v>11</v>
       </c>
       <c r="B34" t="n">
-        <v>187459.19306769</v>
+        <v>193786.650475677</v>
       </c>
     </row>
     <row r="35">
@@ -8927,7 +9455,7 @@
         <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>274916.325790939</v>
+        <v>272505.006108267</v>
       </c>
     </row>
     <row r="36">
@@ -8935,7 +9463,7 @@
         <v>57</v>
       </c>
       <c r="B36" t="n">
-        <v>272946.763621327</v>
+        <v>271407.595865149</v>
       </c>
     </row>
     <row r="37">
@@ -8943,7 +9471,7 @@
         <v>58</v>
       </c>
       <c r="B37" t="n">
-        <v>285409.278663897</v>
+        <v>283032.279198433</v>
       </c>
     </row>
     <row r="38">
@@ -8951,7 +9479,7 @@
         <v>12</v>
       </c>
       <c r="B38" t="n">
-        <v>187354.417788041</v>
+        <v>193512.468253627</v>
       </c>
     </row>
     <row r="39">
@@ -8959,7 +9487,7 @@
         <v>59</v>
       </c>
       <c r="B39" t="n">
-        <v>268079.630874783</v>
+        <v>265732.883183999</v>
       </c>
     </row>
     <row r="40">
@@ -8967,7 +9495,7 @@
         <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>262304.62269585</v>
+        <v>260792.569950788</v>
       </c>
     </row>
     <row r="41">
@@ -8975,7 +9503,7 @@
         <v>61</v>
       </c>
       <c r="B41" t="n">
-        <v>270591.320256414</v>
+        <v>268291.908751312</v>
       </c>
     </row>
     <row r="42">
@@ -8983,7 +9511,7 @@
         <v>13</v>
       </c>
       <c r="B42" t="n">
-        <v>176263.056609452</v>
+        <v>185204.309283496</v>
       </c>
     </row>
     <row r="43">
@@ -8991,7 +9519,7 @@
         <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>268424.67748508</v>
+        <v>266935.923377896</v>
       </c>
     </row>
     <row r="44">
@@ -8999,7 +9527,7 @@
         <v>63</v>
       </c>
       <c r="B44" t="n">
-        <v>266876.49712847</v>
+        <v>264761.633540949</v>
       </c>
     </row>
     <row r="45">
@@ -9007,7 +9535,7 @@
         <v>64</v>
       </c>
       <c r="B45" t="n">
-        <v>285382.970161474</v>
+        <v>280045.233114977</v>
       </c>
     </row>
     <row r="46">
@@ -9015,7 +9543,7 @@
         <v>14</v>
       </c>
       <c r="B46" t="n">
-        <v>179271.350597717</v>
+        <v>189422.964193448</v>
       </c>
     </row>
     <row r="47">
@@ -9023,7 +9551,7 @@
         <v>65</v>
       </c>
       <c r="B47" t="n">
-        <v>286422.395271244</v>
+        <v>283903.065941125</v>
       </c>
     </row>
     <row r="48">
@@ -9031,7 +9559,7 @@
         <v>66</v>
       </c>
       <c r="B48" t="n">
-        <v>287418.188640778</v>
+        <v>284424.35006156</v>
       </c>
     </row>
     <row r="49">
@@ -9039,7 +9567,7 @@
         <v>67</v>
       </c>
       <c r="B49" t="n">
-        <v>304882.867429517</v>
+        <v>300244.560503921</v>
       </c>
     </row>
     <row r="50">
@@ -9047,7 +9575,7 @@
         <v>15</v>
       </c>
       <c r="B50" t="n">
-        <v>191338.905516333</v>
+        <v>199449.052050065</v>
       </c>
     </row>
     <row r="51">
@@ -9055,7 +9583,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="n">
-        <v>294318.464200338</v>
+        <v>291732.42635314</v>
       </c>
     </row>
     <row r="52">
@@ -9063,7 +9591,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="n">
-        <v>289982.284613725</v>
+        <v>288042.254771787</v>
       </c>
     </row>
     <row r="53">
@@ -9071,7 +9599,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="n">
-        <v>303392.737053117</v>
+        <v>299808.740173722</v>
       </c>
     </row>
     <row r="54">
@@ -9079,7 +9607,7 @@
         <v>16</v>
       </c>
       <c r="B54" t="n">
-        <v>176585.416886668</v>
+        <v>185820.718475585</v>
       </c>
     </row>
     <row r="55">
@@ -9087,7 +9615,7 @@
         <v>71</v>
       </c>
       <c r="B55" t="n">
-        <v>272232.878436669</v>
+        <v>270324.717005432</v>
       </c>
     </row>
     <row r="56">
@@ -9095,7 +9623,7 @@
         <v>72</v>
       </c>
       <c r="B56" t="n">
-        <v>268022.639938965</v>
+        <v>265675.919956072</v>
       </c>
     </row>
     <row r="57">
@@ -9103,7 +9631,7 @@
         <v>73</v>
       </c>
       <c r="B57" t="n">
-        <v>282300.089225474</v>
+        <v>277319.718641388</v>
       </c>
     </row>
     <row r="58">
@@ -9111,7 +9639,7 @@
         <v>17</v>
       </c>
       <c r="B58" t="n">
-        <v>161423.837830434</v>
+        <v>171322.934514187</v>
       </c>
     </row>
     <row r="59">
@@ -9119,7 +9647,7 @@
         <v>74</v>
       </c>
       <c r="B59" t="n">
-        <v>260457.529030491</v>
+        <v>258550.325081337</v>
       </c>
     </row>
     <row r="60">
@@ -9127,7 +9655,7 @@
         <v>75</v>
       </c>
       <c r="B60" t="n">
-        <v>260679.56410977</v>
+        <v>257982.731624422</v>
       </c>
     </row>
     <row r="61">
@@ -9135,7 +9663,7 @@
         <v>76</v>
       </c>
       <c r="B61" t="n">
-        <v>279747.728769869</v>
+        <v>274452.893988365</v>
       </c>
     </row>
     <row r="62">
@@ -9143,7 +9671,7 @@
         <v>18</v>
       </c>
       <c r="B62" t="n">
-        <v>165259.089142294</v>
+        <v>174666.39995021</v>
       </c>
     </row>
     <row r="63">
@@ -9151,7 +9679,7 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>261643.283682777</v>
+        <v>259747.81189994</v>
       </c>
     </row>
     <row r="64">
@@ -9159,7 +9687,7 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>255162.617802525</v>
+        <v>252653.921921392</v>
       </c>
     </row>
     <row r="65">
@@ -9167,7 +9695,7 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>261138.968784276</v>
+        <v>256136.182351694</v>
       </c>
     </row>
     <row r="66">
@@ -9175,7 +9703,7 @@
         <v>19</v>
       </c>
       <c r="B66" t="n">
-        <v>155359.695516129</v>
+        <v>159886.946523207</v>
       </c>
     </row>
     <row r="67">
@@ -9183,7 +9711,7 @@
         <v>80</v>
       </c>
       <c r="B67" t="n">
-        <v>267749.750914668</v>
+        <v>261290.626366169</v>
       </c>
     </row>
     <row r="68">
@@ -9191,7 +9719,7 @@
         <v>81</v>
       </c>
       <c r="B68" t="n">
-        <v>268495.244722301</v>
+        <v>266849.468965783</v>
       </c>
     </row>
     <row r="69">
@@ -9199,7 +9727,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="n">
-        <v>298778.267496876</v>
+        <v>302356.300372254</v>
       </c>
     </row>
     <row r="70">
@@ -9207,7 +9735,7 @@
         <v>20</v>
       </c>
       <c r="B70" t="n">
-        <v>185414.786035655</v>
+        <v>222035.480344031</v>
       </c>
     </row>
     <row r="71">
@@ -9215,7 +9743,7 @@
         <v>83</v>
       </c>
       <c r="B71" t="n">
-        <v>335908.386661558</v>
+        <v>327724.767938552</v>
       </c>
     </row>
     <row r="72">
@@ -9223,7 +9751,7 @@
         <v>84</v>
       </c>
       <c r="B72" t="n">
-        <v>339474.921851703</v>
+        <v>330753.841613425</v>
       </c>
     </row>
     <row r="73">
@@ -9231,7 +9759,7 @@
         <v>85</v>
       </c>
       <c r="B73" t="n">
-        <v>360590.774807588</v>
+        <v>340875.515010263</v>
       </c>
     </row>
     <row r="74">
@@ -9239,7 +9767,7 @@
         <v>21</v>
       </c>
       <c r="B74" t="n">
-        <v>213525.102703385</v>
+        <v>233816.309418939</v>
       </c>
     </row>
     <row r="75">
@@ -9247,7 +9775,7 @@
         <v>86</v>
       </c>
       <c r="B75" t="n">
-        <v>345206.809572978</v>
+        <v>342225.386653932</v>
       </c>
     </row>
     <row r="76">
@@ -9255,7 +9783,7 @@
         <v>87</v>
       </c>
       <c r="B76" t="n">
-        <v>338649.532485486</v>
+        <v>331498.832423593</v>
       </c>
     </row>
     <row r="77">
@@ -9263,7 +9791,7 @@
         <v>88</v>
       </c>
       <c r="B77" t="n">
-        <v>358457.504918373</v>
+        <v>348298.532999351</v>
       </c>
     </row>
     <row r="78">
@@ -9271,7 +9799,7 @@
         <v>22</v>
       </c>
       <c r="B78" t="n">
-        <v>206371.264865415</v>
+        <v>240511.496585009</v>
       </c>
     </row>
     <row r="79">
@@ -9279,7 +9807,7 @@
         <v>89</v>
       </c>
       <c r="B79" t="n">
-        <v>343883.20653244</v>
+        <v>331096.397716355</v>
       </c>
     </row>
     <row r="80">
@@ -9287,7 +9815,7 @@
         <v>90</v>
       </c>
       <c r="B80" t="n">
-        <v>343528.81459342</v>
+        <v>333203.964484786</v>
       </c>
     </row>
     <row r="81">
@@ -9295,7 +9823,7 @@
         <v>91</v>
       </c>
       <c r="B81" t="n">
-        <v>368717.733715283</v>
+        <v>357689.335058026</v>
       </c>
     </row>
     <row r="82">
@@ -9303,7 +9831,7 @@
         <v>23</v>
       </c>
       <c r="B82" t="n">
-        <v>228022.523168413</v>
+        <v>264481.335971129</v>
       </c>
     </row>
     <row r="83">
@@ -9311,7 +9839,7 @@
         <v>92</v>
       </c>
       <c r="B83" t="n">
-        <v>375058.186400744</v>
+        <v>362616.076745539</v>
       </c>
     </row>
     <row r="84">
@@ -9319,7 +9847,7 @@
         <v>93</v>
       </c>
       <c r="B84" t="n">
-        <v>370765.918415813</v>
+        <v>359586.19615684</v>
       </c>
     </row>
     <row r="85">
@@ -9327,7 +9855,7 @@
         <v>94</v>
       </c>
       <c r="B85" t="n">
-        <v>389282.78661509</v>
+        <v>376445.993857164</v>
       </c>
     </row>
     <row r="86">
@@ -9335,7 +9863,7 @@
         <v>24</v>
       </c>
       <c r="B86" t="n">
-        <v>226300.139694211</v>
+        <v>270810.593522227</v>
       </c>
     </row>
     <row r="87">
@@ -9343,7 +9871,7 @@
         <v>95</v>
       </c>
       <c r="B87" t="n">
-        <v>371019.148629756</v>
+        <v>357231.357342384</v>
       </c>
     </row>
     <row r="88">
@@ -9351,7 +9879,7 @@
         <v>96</v>
       </c>
       <c r="B88" t="n">
-        <v>366277.543574462</v>
+        <v>352574.915761034</v>
       </c>
     </row>
     <row r="89">
@@ -9359,7 +9887,7 @@
         <v>97</v>
       </c>
       <c r="B89" t="n">
-        <v>391100.743909797</v>
+        <v>374080.721780701</v>
       </c>
     </row>
     <row r="90">
@@ -9367,7 +9895,7 @@
         <v>25</v>
       </c>
       <c r="B90" t="n">
-        <v>223888.636412297</v>
+        <v>272818.872038453</v>
       </c>
     </row>
     <row r="91">
@@ -9375,7 +9903,7 @@
         <v>98</v>
       </c>
       <c r="B91" t="n">
-        <v>382235.770440923</v>
+        <v>367129.537771443</v>
       </c>
     </row>
     <row r="92">
@@ -9383,7 +9911,7 @@
         <v>99</v>
       </c>
       <c r="B92" t="n">
-        <v>381144.836283198</v>
+        <v>365740.86959037</v>
       </c>
     </row>
     <row r="93">
@@ -9391,7 +9919,7 @@
         <v>100</v>
       </c>
       <c r="B93" t="n">
-        <v>406710.037999449</v>
+        <v>388290.164765611</v>
       </c>
     </row>
     <row r="94">
@@ -9399,7 +9927,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="n">
-        <v>232115.210132092</v>
+        <v>284319.917352936</v>
       </c>
     </row>
     <row r="95">
@@ -9407,7 +9935,7 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>390490.502186421</v>
+        <v>373792.671435735</v>
       </c>
     </row>
     <row r="96">
@@ -9415,7 +9943,7 @@
         <v>102</v>
       </c>
       <c r="B96" t="n">
-        <v>387354.850999058</v>
+        <v>370977.915904775</v>
       </c>
     </row>
     <row r="97">
@@ -9423,7 +9951,7 @@
         <v>103</v>
       </c>
       <c r="B97" t="n">
-        <v>412513.749747379</v>
+        <v>393383.970655849</v>
       </c>
     </row>
     <row r="98">
@@ -9431,7 +9959,7 @@
         <v>104</v>
       </c>
       <c r="B98" t="n">
-        <v>234396.468125104</v>
+        <v>291135.879802468</v>
       </c>
     </row>
     <row r="99">
@@ -9439,7 +9967,7 @@
         <v>105</v>
       </c>
       <c r="B99" t="n">
-        <v>391860.646293949</v>
+        <v>382258.464724658</v>
       </c>
     </row>
     <row r="100">
@@ -9447,7 +9975,7 @@
         <v>106</v>
       </c>
       <c r="B100" t="n">
-        <v>389883.368805051</v>
+        <v>379569.874791264</v>
       </c>
     </row>
     <row r="101">
@@ -9455,7 +9983,7 @@
         <v>107</v>
       </c>
       <c r="B101" t="n">
-        <v>416148.750656336</v>
+        <v>401770.587365877</v>
       </c>
     </row>
     <row r="102">
@@ -9463,7 +9991,7 @@
         <v>108</v>
       </c>
       <c r="B102" t="n">
-        <v>239403.510009609</v>
+        <v>298646.39928827</v>
       </c>
     </row>
     <row r="103">
@@ -9471,7 +9999,7 @@
         <v>109</v>
       </c>
       <c r="B103" t="n">
-        <v>396323.291318412</v>
+        <v>388922.593822538</v>
       </c>
     </row>
     <row r="104">
@@ -9479,7 +10007,7 @@
         <v>110</v>
       </c>
       <c r="B104" t="n">
-        <v>394760.514973496</v>
+        <v>386216.984486717</v>
       </c>
     </row>
     <row r="105">
@@ -9487,7 +10015,7 @@
         <v>111</v>
       </c>
       <c r="B105" t="n">
-        <v>421413.846860226</v>
+        <v>408562.47958284</v>
       </c>
     </row>
     <row r="106">
@@ -9495,7 +10023,7 @@
         <v>112</v>
       </c>
       <c r="B106" t="n">
-        <v>244668.606213499</v>
+        <v>305938.496217394</v>
       </c>
     </row>
     <row r="107">
@@ -9503,7 +10031,7 @@
         <v>113</v>
       </c>
       <c r="B107" t="n">
-        <v>401588.387522303</v>
+        <v>396695.076357436</v>
       </c>
     </row>
     <row r="108">
@@ -9511,7 +10039,7 @@
         <v>114</v>
       </c>
       <c r="B108" t="n">
-        <v>400025.611177386</v>
+        <v>394005.900764023</v>
       </c>
     </row>
     <row r="109">
@@ -9519,7 +10047,7 @@
         <v>115</v>
       </c>
       <c r="B109" t="n">
-        <v>426678.943064117</v>
+        <v>416277.694507519</v>
       </c>
     </row>
     <row r="110">
@@ -9527,7 +10055,7 @@
         <v>116</v>
       </c>
       <c r="B110" t="n">
-        <v>249933.702417389</v>
+        <v>313381.453698659</v>
       </c>
     </row>
     <row r="111">
@@ -9535,7 +10063,7 @@
         <v>117</v>
       </c>
       <c r="B111" t="n">
-        <v>406853.483726193</v>
+        <v>403875.121217859</v>
       </c>
     </row>
     <row r="112">
@@ -9543,7 +10071,7 @@
         <v>118</v>
       </c>
       <c r="B112" t="n">
-        <v>405290.707381276</v>
+        <v>401181.077595959</v>
       </c>
     </row>
     <row r="113">
@@ -9551,7 +10079,7 @@
         <v>119</v>
       </c>
       <c r="B113" t="n">
-        <v>431944.039268007</v>
+        <v>423496.722779779</v>
       </c>
     </row>
     <row r="114">
@@ -9559,7 +10087,7 @@
         <v>120</v>
       </c>
       <c r="B114" t="n">
-        <v>255198.79862128</v>
+        <v>320753.765079861</v>
       </c>
     </row>
     <row r="115">
@@ -9567,7 +10095,7 @@
         <v>121</v>
       </c>
       <c r="B115" t="n">
-        <v>412118.579930083</v>
+        <v>411395.424559846</v>
       </c>
     </row>
     <row r="116">
@@ -9575,7 +10103,7 @@
         <v>122</v>
       </c>
       <c r="B116" t="n">
-        <v>410555.803585167</v>
+        <v>408704.818040529</v>
       </c>
     </row>
     <row r="117">
@@ -9583,7 +10111,135 @@
         <v>123</v>
       </c>
       <c r="B117" t="n">
-        <v>437209.135471897</v>
+        <v>430996.560668951</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>124</v>
+      </c>
+      <c r="B118" t="n">
+        <v>328168.363916022</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>125</v>
+      </c>
+      <c r="B119" t="n">
+        <v>418727.620889269</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B120" t="n">
+        <v>416035.431517199</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>127</v>
+      </c>
+      <c r="B121" t="n">
+        <v>438340.774281125</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>128</v>
+      </c>
+      <c r="B122" t="n">
+        <v>335560.39776655</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>129</v>
+      </c>
+      <c r="B123" t="n">
+        <v>426165.875933237</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>130</v>
+      </c>
+      <c r="B124" t="n">
+        <v>423474.640728372</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>131</v>
+      </c>
+      <c r="B125" t="n">
+        <v>445772.425012224</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>132</v>
+      </c>
+      <c r="B126" t="n">
+        <v>342965.317210823</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>133</v>
+      </c>
+      <c r="B127" t="n">
+        <v>433544.950022166</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>134</v>
+      </c>
+      <c r="B128" t="n">
+        <v>430853.208030026</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>135</v>
+      </c>
+      <c r="B129" t="n">
+        <v>453155.242848542</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>136</v>
+      </c>
+      <c r="B130" t="n">
+        <v>350363.112243239</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>137</v>
+      </c>
+      <c r="B131" t="n">
+        <v>440957.22509166</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" t="n">
+        <v>438265.773303499</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" t="n">
+        <v>460565.433315356</v>
       </c>
     </row>
   </sheetData>
